--- a/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
@@ -950,7 +950,7 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
         <v>1.14</v>
@@ -1249,7 +1249,7 @@
         <v>301</v>
       </c>
       <c r="BA4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB4" t="n">
         <v>301</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
@@ -1302,13 +1302,13 @@
         <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.13</v>
@@ -1341,16 +1341,16 @@
         <v>1.44</v>
       </c>
       <c r="W5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="X5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
         <v>19</v>
@@ -1368,7 +1368,7 @@
         <v>26</v>
       </c>
       <c r="AF5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
@@ -1377,7 +1377,7 @@
         <v>10</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
         <v>21</v>
@@ -1404,7 +1404,7 @@
         <v>34</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
         <v>351</v>
@@ -1419,7 +1419,7 @@
         <v>101</v>
       </c>
       <c r="AW5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX5" t="n">
         <v>41</v>
@@ -1839,19 +1839,19 @@
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K8" t="n">
         <v>2.25</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.27</v>
       </c>
       <c r="L8" t="n">
         <v>3.25</v>
@@ -1860,34 +1860,34 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R8" t="n">
         <v>2.2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="T8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="U8" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V8" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="W8" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
@@ -1899,16 +1899,16 @@
         <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AE8" t="n">
         <v>11.75</v>
@@ -1920,10 +1920,10 @@
         <v>250</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AI8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ8" t="n">
         <v>10.25</v>
@@ -1941,22 +1941,22 @@
         <v>4.45</v>
       </c>
       <c r="AO8" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS8" t="n">
         <v>175</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AU8" t="n">
         <v>6.5</v>
@@ -1965,7 +1965,7 @@
         <v>45</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
         <v>14.5</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.62</v>
+        <v>2.82</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
         <v>2.32</v>
       </c>
       <c r="L11" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -2415,40 +2415,40 @@
         <v>4.15</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R11" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="S11" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="T11" t="n">
         <v>3.2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="V11" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="W11" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="X11" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AC11" t="n">
         <v>9</v>
@@ -2457,73 +2457,73 @@
         <v>7.6</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG11" t="n">
         <v>250</v>
       </c>
       <c r="AH11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AK11" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AM11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR11" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AS11" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT11" t="n">
         <v>3.2</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV11" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="AX11" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AY11" t="n">
         <v>17</v>
       </c>
       <c r="AZ11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BA11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB11" t="n">
         <v>175</v>
@@ -2567,115 +2567,115 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="H12" t="n">
-        <v>4.6</v>
+        <v>4.85</v>
       </c>
       <c r="I12" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="J12" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="K12" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="L12" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W12" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X12" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z12" t="n">
         <v>9</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W12" t="n">
-        <v>8</v>
-      </c>
-      <c r="X12" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AA12" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AB12" t="n">
         <v>23</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD12" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AE12" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="n">
         <v>500</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK12" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AL12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM12" t="n">
         <v>60</v>
       </c>
-      <c r="AM12" t="n">
-        <v>55</v>
-      </c>
       <c r="AN12" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO12" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AP12" t="n">
         <v>15</v>
       </c>
       <c r="AQ12" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AR12" t="n">
         <v>40</v>
@@ -2684,31 +2684,31 @@
         <v>175</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>65</v>
       </c>
       <c r="AW12" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AY12" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AZ12" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BA12" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB12" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC12" t="n">
         <v>81</v>
@@ -3109,16 +3109,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H15" t="n">
         <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
         <v>2.25</v>
@@ -3133,10 +3133,10 @@
         <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
         <v>1.7</v>
@@ -3172,7 +3172,7 @@
         <v>19</v>
       </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC15" t="n">
         <v>13</v>
@@ -3193,7 +3193,7 @@
         <v>11</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
         <v>10</v>
@@ -3211,7 +3211,7 @@
         <v>4.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
         <v>21</v>
@@ -3291,22 +3291,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
         <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="J16" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -3315,16 +3315,16 @@
         <v>17</v>
       </c>
       <c r="O16" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R16" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S16" t="n">
         <v>1.29</v>
@@ -3333,10 +3333,10 @@
         <v>3.5</v>
       </c>
       <c r="U16" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V16" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W16" t="n">
         <v>12</v>
@@ -3348,10 +3348,10 @@
         <v>9.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB16" t="n">
         <v>21</v>
@@ -3372,16 +3372,16 @@
         <v>101</v>
       </c>
       <c r="AH16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="n">
         <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
         <v>21</v>
@@ -3393,16 +3393,16 @@
         <v>4.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR16" t="n">
         <v>41</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>51</v>
       </c>
       <c r="AS16" t="n">
         <v>101</v>
@@ -3417,7 +3417,7 @@
         <v>41</v>
       </c>
       <c r="AW16" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX16" t="n">
         <v>15</v>
@@ -3435,7 +3435,7 @@
         <v>101</v>
       </c>
       <c r="BC16" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD16" t="n">
         <v>81</v>
@@ -3473,88 +3473,88 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="H17" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K17" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L17" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="R17" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="S17" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="T17" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U17" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="W17" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="X17" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="Y17" t="n">
         <v>8.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA17" t="n">
         <v>12</v>
       </c>
       <c r="AB17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH17" t="n">
         <v>15</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>17</v>
       </c>
       <c r="AI17" t="n">
         <v>29</v>
@@ -3566,19 +3566,19 @@
         <v>51</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN17" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ17" t="n">
         <v>23</v>
@@ -3587,34 +3587,34 @@
         <v>41</v>
       </c>
       <c r="AS17" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ17" t="n">
         <v>101</v>
       </c>
-      <c r="AT17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>67</v>
-      </c>
       <c r="BA17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC17" t="n">
         <v>51</v>
@@ -3658,10 +3658,10 @@
         <v>2.05</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J18" t="n">
         <v>2.88</v>
@@ -3670,7 +3670,7 @@
         <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
@@ -3685,16 +3685,16 @@
         <v>2.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R18" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S18" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T18" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U18" t="n">
         <v>2.05</v>
@@ -3706,7 +3706,7 @@
         <v>6</v>
       </c>
       <c r="X18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y18" t="n">
         <v>9.5</v>
@@ -3721,7 +3721,7 @@
         <v>34</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD18" t="n">
         <v>6.5</v>
@@ -3769,10 +3769,10 @@
         <v>67</v>
       </c>
       <c r="AS18" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU18" t="n">
         <v>9</v>
@@ -3784,7 +3784,7 @@
         <v>5.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY18" t="n">
         <v>34</v>
@@ -3793,7 +3793,7 @@
         <v>81</v>
       </c>
       <c r="BA18" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB18" t="n">
         <v>301</v>
@@ -4019,94 +4019,94 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J20" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K20" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N20" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="S20" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T20" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U20" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V20" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="W20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z20" t="n">
         <v>12</v>
       </c>
       <c r="AA20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE20" t="n">
         <v>21</v>
       </c>
       <c r="AF20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG20" t="n">
         <v>201</v>
       </c>
       <c r="AH20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI20" t="n">
         <v>29</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK20" t="n">
         <v>67</v>
@@ -4115,31 +4115,31 @@
         <v>51</v>
       </c>
       <c r="AM20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN20" t="n">
         <v>3.4</v>
       </c>
       <c r="AO20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS20" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV20" t="n">
         <v>81</v>
@@ -4154,10 +4154,10 @@
         <v>41</v>
       </c>
       <c r="AZ20" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA20" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB20" t="n">
         <v>500</v>
@@ -4213,40 +4213,40 @@
         <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R21" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S21" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T21" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U21" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W21" t="n">
         <v>7</v>
@@ -4261,28 +4261,28 @@
         <v>21</v>
       </c>
       <c r="AA21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB21" t="n">
         <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
         <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI21" t="n">
         <v>15</v>
@@ -4306,7 +4306,7 @@
         <v>13</v>
       </c>
       <c r="AP21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
         <v>41</v>
@@ -4318,13 +4318,13 @@
         <v>201</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU21" t="n">
         <v>8.5</v>
       </c>
       <c r="AV21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW21" t="n">
         <v>5</v>
@@ -4339,7 +4339,7 @@
         <v>67</v>
       </c>
       <c r="BA21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB21" t="n">
         <v>251</v>
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H22" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K22" t="n">
         <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.36</v>
@@ -4425,22 +4425,22 @@
         <v>2.5</v>
       </c>
       <c r="U22" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V22" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W22" t="n">
         <v>5</v>
       </c>
       <c r="X22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z22" t="n">
         <v>9</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>9.5</v>
       </c>
       <c r="AA22" t="n">
         <v>15</v>
@@ -4449,13 +4449,13 @@
         <v>41</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD22" t="n">
         <v>8</v>
       </c>
       <c r="AE22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF22" t="n">
         <v>101</v>
@@ -4467,13 +4467,13 @@
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK22" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL22" t="n">
         <v>67</v>
@@ -4565,7 +4565,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>3.4</v>
@@ -4574,7 +4574,7 @@
         <v>3.3</v>
       </c>
       <c r="J23" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K23" t="n">
         <v>2.1</v>
@@ -4589,16 +4589,16 @@
         <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R23" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S23" t="n">
         <v>1.44</v>
@@ -4625,13 +4625,13 @@
         <v>19</v>
       </c>
       <c r="AA23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB23" t="n">
         <v>29</v>
       </c>
       <c r="AC23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD23" t="n">
         <v>6.5</v>
@@ -4676,7 +4676,7 @@
         <v>41</v>
       </c>
       <c r="AR23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS23" t="n">
         <v>151</v>
@@ -4685,7 +4685,7 @@
         <v>2.63</v>
       </c>
       <c r="AU23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV23" t="n">
         <v>51</v>
@@ -4950,19 +4950,19 @@
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O25" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R25" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S25" t="n">
         <v>1.29</v>
@@ -5129,10 +5129,10 @@
         <v>5.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O26" t="n">
         <v>1.2</v>
@@ -5652,43 +5652,43 @@
         <v>1.34</v>
       </c>
       <c r="H29" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="I29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L29" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N29" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R29" t="n">
         <v>1.85</v>
       </c>
-      <c r="K29" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L29" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N29" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.88</v>
-      </c>
       <c r="S29" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T29" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="U29" t="n">
         <v>2.27</v>
@@ -5703,10 +5703,10 @@
         <v>5.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z29" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AA29" t="n">
         <v>12.5</v>
@@ -5715,10 +5715,10 @@
         <v>37</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>26</v>
@@ -5730,13 +5730,13 @@
         <v>201</v>
       </c>
       <c r="AH29" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ29" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AK29" t="n">
         <v>250</v>
@@ -5745,7 +5745,7 @@
         <v>120</v>
       </c>
       <c r="AM29" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN29" t="n">
         <v>3</v>
@@ -5754,19 +5754,19 @@
         <v>6.1</v>
       </c>
       <c r="AP29" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ29" t="n">
         <v>17.5</v>
       </c>
       <c r="AR29" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS29" t="n">
         <v>350</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="AU29" t="n">
         <v>9.75</v>
@@ -5775,16 +5775,16 @@
         <v>120</v>
       </c>
       <c r="AW29" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AX29" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AY29" t="n">
         <v>60</v>
       </c>
       <c r="AZ29" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BA29" t="n">
         <v>500</v>
@@ -5845,16 +5845,16 @@
         <v>2.75</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O30" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P30" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q30" t="n">
         <v>1.67</v>
@@ -6009,13 +6009,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H31" t="n">
         <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J31" t="n">
         <v>2.88</v>
@@ -6024,7 +6024,7 @@
         <v>2.25</v>
       </c>
       <c r="L31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M31" t="n">
         <v>1.04</v>
@@ -6060,10 +6060,10 @@
         <v>10</v>
       </c>
       <c r="X31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z31" t="n">
         <v>21</v>
@@ -6099,10 +6099,10 @@
         <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM31" t="n">
         <v>26</v>
@@ -6114,7 +6114,7 @@
         <v>12</v>
       </c>
       <c r="AP31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ31" t="n">
         <v>41</v>
@@ -6573,10 +6573,10 @@
         <v>2.75</v>
       </c>
       <c r="M34" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O34" t="n">
         <v>1.4</v>
@@ -6755,10 +6755,10 @@
         <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O35" t="n">
         <v>1.29</v>
@@ -7101,22 +7101,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.02</v>
+        <v>2.09</v>
       </c>
       <c r="H37" t="n">
-        <v>3.1</v>
+        <v>3.18</v>
       </c>
       <c r="I37" t="n">
-        <v>3.49</v>
+        <v>3.27</v>
       </c>
       <c r="J37" t="n">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="K37" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="L37" t="n">
-        <v>3.89</v>
+        <v>4.16</v>
       </c>
       <c r="M37" t="n">
         <v>1.04</v>
@@ -7125,28 +7125,28 @@
         <v>8.300000000000001</v>
       </c>
       <c r="O37" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="R37" t="n">
         <v>1.68</v>
       </c>
       <c r="S37" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="T37" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="U37" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="V37" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="W37" t="n">
         <v>6</v>
@@ -7176,7 +7176,7 @@
         <v>11</v>
       </c>
       <c r="AF37" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AG37" t="n">
         <v>201</v>
@@ -7643,10 +7643,10 @@
         <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R40" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S40" t="n">
         <v>1.29</v>
@@ -7795,28 +7795,28 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="H41" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I41" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="J41" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="K41" t="n">
         <v>2.05</v>
       </c>
       <c r="L41" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M41" t="n">
         <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O41" t="n">
         <v>1.36</v>
@@ -7843,31 +7843,31 @@
         <v>1.8</v>
       </c>
       <c r="W41" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X41" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB41" t="n">
         <v>34</v>
       </c>
       <c r="AC41" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF41" t="n">
         <v>51</v>
@@ -7876,31 +7876,31 @@
         <v>351</v>
       </c>
       <c r="AH41" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL41" t="n">
         <v>34</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>29</v>
       </c>
       <c r="AM41" t="n">
         <v>41</v>
       </c>
       <c r="AN41" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ41" t="n">
         <v>41</v>
@@ -7921,10 +7921,10 @@
         <v>67</v>
       </c>
       <c r="AW41" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY41" t="n">
         <v>29</v>
@@ -7933,7 +7933,7 @@
         <v>67</v>
       </c>
       <c r="BA41" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB41" t="n">
         <v>251</v>
@@ -7973,19 +7973,19 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="H42" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I42" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J42" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="K42" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="L42" t="n">
         <v>3.85</v>
@@ -7997,22 +7997,22 @@
         <v>6.95</v>
       </c>
       <c r="O42" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P42" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R42" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S42" t="n">
         <v>1.42</v>
       </c>
       <c r="T42" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="U42" t="n">
         <v>1.78</v>
@@ -8021,7 +8021,7 @@
         <v>1.83</v>
       </c>
       <c r="W42" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="X42" t="n">
         <v>10.5</v>
@@ -8030,7 +8030,7 @@
         <v>9</v>
       </c>
       <c r="Z42" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA42" t="n">
         <v>20</v>
@@ -8039,13 +8039,13 @@
         <v>32</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD42" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF42" t="n">
         <v>70</v>
@@ -8057,7 +8057,7 @@
         <v>9</v>
       </c>
       <c r="AI42" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ42" t="n">
         <v>11.5</v>
@@ -8075,10 +8075,10 @@
         <v>4.1</v>
       </c>
       <c r="AO42" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AP42" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ42" t="n">
         <v>50</v>
@@ -8090,10 +8090,10 @@
         <v>250</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="AU42" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV42" t="n">
         <v>55</v>
@@ -8102,13 +8102,13 @@
         <v>5.2</v>
       </c>
       <c r="AX42" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AY42" t="n">
         <v>24</v>
       </c>
       <c r="AZ42" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BA42" t="n">
         <v>120</v>
@@ -8151,40 +8151,40 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="H43" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I43" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="J43" t="n">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="K43" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="L43" t="n">
-        <v>4.15</v>
+        <v>3.9</v>
       </c>
       <c r="M43" t="n">
         <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>9.15</v>
+        <v>8.75</v>
       </c>
       <c r="O43" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P43" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R43" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S43" t="n">
         <v>1.38</v>
@@ -8193,106 +8193,106 @@
         <v>2.81</v>
       </c>
       <c r="U43" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V43" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="W43" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="X43" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y43" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y43" t="n">
-        <v>8.25</v>
-      </c>
       <c r="Z43" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AB43" t="n">
         <v>28</v>
       </c>
       <c r="AC43" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AD43" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AE43" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF43" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG43" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH43" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AI43" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AJ43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK43" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AL43" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM43" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN43" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="AO43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP43" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ43" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AR43" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS43" t="n">
         <v>200</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="AU43" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AV43" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW43" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="AX43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY43" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ43" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="BA43" t="n">
         <v>120</v>
       </c>
       <c r="BB43" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC43" t="inlineStr"/>
       <c r="BD43" t="inlineStr"/>
@@ -8329,22 +8329,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I44" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="J44" t="n">
-        <v>2.77</v>
+        <v>2.57</v>
       </c>
       <c r="K44" t="n">
         <v>2.07</v>
       </c>
       <c r="L44" t="n">
-        <v>3.6</v>
+        <v>4.05</v>
       </c>
       <c r="M44" t="n">
         <v>1.01</v>
@@ -8353,10 +8353,10 @@
         <v>7.6</v>
       </c>
       <c r="O44" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P44" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="Q44" t="n">
         <v>1.98</v>
@@ -8365,31 +8365,31 @@
         <v>1.65</v>
       </c>
       <c r="S44" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="T44" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="U44" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V44" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="W44" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="X44" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="Y44" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AA44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB44" t="n">
         <v>30</v>
@@ -8398,10 +8398,10 @@
         <v>8.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE44" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF44" t="n">
         <v>70</v>
@@ -8410,67 +8410,67 @@
         <v>600</v>
       </c>
       <c r="AH44" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AJ44" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AK44" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AL44" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AM44" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN44" t="n">
-        <v>4.15</v>
+        <v>3.85</v>
       </c>
       <c r="AO44" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="AP44" t="n">
         <v>18.5</v>
       </c>
       <c r="AQ44" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AR44" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS44" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AU44" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV44" t="n">
         <v>55</v>
       </c>
       <c r="AW44" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="AX44" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AY44" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ44" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BA44" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="BB44" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC44" t="inlineStr"/>
       <c r="BD44" t="inlineStr"/>
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H47" t="n">
         <v>3.7</v>
@@ -8889,10 +8889,10 @@
         <v>2.75</v>
       </c>
       <c r="M47" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O47" t="n">
         <v>1.22</v>
@@ -8901,22 +8901,22 @@
         <v>4</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R47" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S47" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T47" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U47" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V47" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W47" t="n">
         <v>11</v>
@@ -8934,7 +8934,7 @@
         <v>23</v>
       </c>
       <c r="AB47" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC47" t="n">
         <v>13</v>
@@ -8952,10 +8952,10 @@
         <v>151</v>
       </c>
       <c r="AH47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ47" t="n">
         <v>9</v>
@@ -8970,7 +8970,7 @@
         <v>23</v>
       </c>
       <c r="AN47" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO47" t="n">
         <v>17</v>
@@ -8985,16 +8985,16 @@
         <v>67</v>
       </c>
       <c r="AS47" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT47" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU47" t="n">
         <v>7.5</v>
       </c>
       <c r="AV47" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW47" t="n">
         <v>4.33</v>
@@ -9003,7 +9003,7 @@
         <v>12</v>
       </c>
       <c r="AY47" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ47" t="n">
         <v>41</v>
@@ -9015,7 +9015,7 @@
         <v>126</v>
       </c>
       <c r="BC47" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD47" t="n">
         <v>51</v>
@@ -9053,22 +9053,22 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="H48" t="n">
         <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J48" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K48" t="n">
         <v>1.91</v>
       </c>
       <c r="L48" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
         <v>1.11</v>
@@ -9083,10 +9083,10 @@
         <v>2.38</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R48" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S48" t="n">
         <v>1.62</v>
@@ -9095,10 +9095,10 @@
         <v>2.2</v>
       </c>
       <c r="U48" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V48" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W48" t="n">
         <v>6</v>
@@ -9113,7 +9113,7 @@
         <v>23</v>
       </c>
       <c r="AA48" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB48" t="n">
         <v>41</v>
@@ -9134,7 +9134,7 @@
         <v>101</v>
       </c>
       <c r="AH48" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI48" t="n">
         <v>13</v>
@@ -9146,7 +9146,7 @@
         <v>34</v>
       </c>
       <c r="AL48" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM48" t="n">
         <v>41</v>
@@ -9158,7 +9158,7 @@
         <v>15</v>
       </c>
       <c r="AP48" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ48" t="n">
         <v>51</v>
@@ -9179,10 +9179,10 @@
         <v>81</v>
       </c>
       <c r="AW48" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX48" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY48" t="n">
         <v>34</v>
@@ -9191,7 +9191,7 @@
         <v>67</v>
       </c>
       <c r="BA48" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB48" t="n">
         <v>351</v>
@@ -9231,46 +9231,46 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J49" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K49" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L49" t="n">
         <v>7</v>
       </c>
       <c r="M49" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O49" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S49" t="n">
         <v>1.5</v>
       </c>
-      <c r="P49" t="n">
+      <c r="T49" t="n">
         <v>2.5</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T49" t="n">
-        <v>2.25</v>
       </c>
       <c r="U49" t="n">
         <v>2.5</v>
@@ -9279,7 +9279,7 @@
         <v>1.5</v>
       </c>
       <c r="W49" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X49" t="n">
         <v>6</v>
@@ -9288,19 +9288,19 @@
         <v>9.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA49" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB49" t="n">
         <v>41</v>
       </c>
       <c r="AC49" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD49" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE49" t="n">
         <v>26</v>
@@ -9312,16 +9312,16 @@
         <v>101</v>
       </c>
       <c r="AH49" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ49" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK49" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL49" t="n">
         <v>51</v>
@@ -9333,22 +9333,22 @@
         <v>3.25</v>
       </c>
       <c r="AO49" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP49" t="n">
         <v>26</v>
       </c>
       <c r="AQ49" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR49" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS49" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU49" t="n">
         <v>11</v>
@@ -9357,7 +9357,7 @@
         <v>81</v>
       </c>
       <c r="AW49" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX49" t="n">
         <v>41</v>
@@ -9366,7 +9366,7 @@
         <v>51</v>
       </c>
       <c r="AZ49" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA49" t="n">
         <v>251</v>
@@ -9407,28 +9407,28 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I50" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J50" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K50" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L50" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M50" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N50" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O50" t="n">
         <v>1.44</v>
@@ -9437,10 +9437,10 @@
         <v>2.63</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="R50" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S50" t="n">
         <v>1.53</v>
@@ -9449,19 +9449,19 @@
         <v>2.38</v>
       </c>
       <c r="U50" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="V50" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="W50" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X50" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z50" t="n">
         <v>15</v>
@@ -9470,19 +9470,19 @@
         <v>19</v>
       </c>
       <c r="AB50" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC50" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF50" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG50" t="n">
         <v>101</v>
@@ -9491,10 +9491,10 @@
         <v>10</v>
       </c>
       <c r="AI50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ50" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK50" t="n">
         <v>51</v>
@@ -9506,10 +9506,10 @@
         <v>51</v>
       </c>
       <c r="AN50" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP50" t="n">
         <v>26</v>
@@ -9527,16 +9527,16 @@
         <v>2.38</v>
       </c>
       <c r="AU50" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV50" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW50" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY50" t="n">
         <v>41</v>
@@ -9767,16 +9767,16 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H52" t="n">
         <v>3.5</v>
       </c>
       <c r="I52" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J52" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K52" t="n">
         <v>2.4</v>
@@ -9827,10 +9827,10 @@
         <v>34</v>
       </c>
       <c r="AA52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB52" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC52" t="n">
         <v>17</v>
@@ -9854,7 +9854,7 @@
         <v>13</v>
       </c>
       <c r="AJ52" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK52" t="n">
         <v>21</v>
@@ -10131,16 +10131,16 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H54" t="n">
         <v>3.6</v>
       </c>
       <c r="I54" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J54" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K54" t="n">
         <v>2.3</v>
@@ -10191,28 +10191,28 @@
         <v>34</v>
       </c>
       <c r="AA54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB54" t="n">
         <v>26</v>
       </c>
       <c r="AC54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD54" t="n">
         <v>7</v>
       </c>
       <c r="AE54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF54" t="n">
         <v>41</v>
       </c>
       <c r="AG54" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH54" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI54" t="n">
         <v>12</v>
@@ -10224,19 +10224,19 @@
         <v>21</v>
       </c>
       <c r="AL54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM54" t="n">
         <v>23</v>
       </c>
       <c r="AN54" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ54" t="n">
         <v>51</v>
@@ -10257,10 +10257,10 @@
         <v>41</v>
       </c>
       <c r="AW54" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY54" t="n">
         <v>19</v>
@@ -10516,7 +10516,7 @@
         <v>1.01</v>
       </c>
       <c r="N56" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O56" t="n">
         <v>1.08</v>
@@ -10525,10 +10525,10 @@
         <v>8</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R56" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S56" t="n">
         <v>1.2</v>
@@ -10576,7 +10576,7 @@
         <v>81</v>
       </c>
       <c r="AH56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI56" t="n">
         <v>12</v>
@@ -10591,7 +10591,7 @@
         <v>11</v>
       </c>
       <c r="AM56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN56" t="n">
         <v>7.5</v>
@@ -10603,10 +10603,10 @@
         <v>21</v>
       </c>
       <c r="AQ56" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR56" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS56" t="n">
         <v>101</v>
@@ -10633,7 +10633,7 @@
         <v>21</v>
       </c>
       <c r="BA56" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB56" t="n">
         <v>67</v>
@@ -10695,10 +10695,10 @@
         <v>2.5</v>
       </c>
       <c r="M57" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N57" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O57" t="n">
         <v>1.2</v>
@@ -10707,10 +10707,10 @@
         <v>4.33</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R57" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S57" t="n">
         <v>1.33</v>
@@ -11223,7 +11223,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H60" t="n">
         <v>3.75</v>
@@ -11253,10 +11253,10 @@
         <v>4.33</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R60" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S60" t="n">
         <v>1.33</v>
@@ -11265,10 +11265,10 @@
         <v>3.25</v>
       </c>
       <c r="U60" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V60" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W60" t="n">
         <v>12</v>
@@ -11286,13 +11286,13 @@
         <v>23</v>
       </c>
       <c r="AB60" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD60" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE60" t="n">
         <v>13</v>
@@ -11319,7 +11319,7 @@
         <v>15</v>
       </c>
       <c r="AM60" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN60" t="n">
         <v>5.5</v>
@@ -11337,7 +11337,7 @@
         <v>67</v>
       </c>
       <c r="AS60" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT60" t="n">
         <v>3.25</v>
@@ -11364,13 +11364,13 @@
         <v>51</v>
       </c>
       <c r="BB60" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC60" t="n">
         <v>126</v>
       </c>
       <c r="BD60" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61">
@@ -11435,10 +11435,10 @@
         <v>3.75</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R61" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S61" t="n">
         <v>1.36</v>
@@ -11769,13 +11769,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H63" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I63" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J63" t="n">
         <v>5.5</v>
@@ -11784,13 +11784,13 @@
         <v>2.2</v>
       </c>
       <c r="L63" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M63" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N63" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O63" t="n">
         <v>1.3</v>
@@ -11799,10 +11799,10 @@
         <v>3.4</v>
       </c>
       <c r="Q63" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R63" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S63" t="n">
         <v>1.4</v>
@@ -11823,7 +11823,7 @@
         <v>23</v>
       </c>
       <c r="Y63" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z63" t="n">
         <v>51</v>
@@ -11838,10 +11838,10 @@
         <v>9.5</v>
       </c>
       <c r="AD63" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE63" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF63" t="n">
         <v>51</v>
@@ -11859,7 +11859,7 @@
         <v>8.5</v>
       </c>
       <c r="AK63" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL63" t="n">
         <v>15</v>
@@ -11868,7 +11868,7 @@
         <v>29</v>
       </c>
       <c r="AN63" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO63" t="n">
         <v>29</v>
@@ -11883,7 +11883,7 @@
         <v>126</v>
       </c>
       <c r="AS63" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT63" t="n">
         <v>2.75</v>
@@ -11898,7 +11898,7 @@
         <v>3.6</v>
       </c>
       <c r="AX63" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY63" t="n">
         <v>21</v>
@@ -11951,13 +11951,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H64" t="n">
         <v>5</v>
       </c>
       <c r="I64" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J64" t="n">
         <v>1.91</v>
@@ -11969,10 +11969,10 @@
         <v>6</v>
       </c>
       <c r="M64" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N64" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O64" t="n">
         <v>1.17</v>
@@ -12038,7 +12038,7 @@
         <v>34</v>
       </c>
       <c r="AJ64" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK64" t="n">
         <v>67</v>
@@ -12053,7 +12053,7 @@
         <v>3.6</v>
       </c>
       <c r="AO64" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP64" t="n">
         <v>15</v>
@@ -12071,7 +12071,7 @@
         <v>3.5</v>
       </c>
       <c r="AU64" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV64" t="n">
         <v>51</v>
@@ -12080,7 +12080,7 @@
         <v>8</v>
       </c>
       <c r="AX64" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY64" t="n">
         <v>34</v>
@@ -12132,54 +12132,150 @@
           <t>Al-Sadd</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr"/>
-      <c r="AB65" t="inlineStr"/>
-      <c r="AC65" t="inlineStr"/>
-      <c r="AD65" t="inlineStr"/>
-      <c r="AE65" t="inlineStr"/>
-      <c r="AF65" t="inlineStr"/>
-      <c r="AG65" t="inlineStr"/>
-      <c r="AH65" t="inlineStr"/>
-      <c r="AI65" t="inlineStr"/>
-      <c r="AJ65" t="inlineStr"/>
-      <c r="AK65" t="inlineStr"/>
-      <c r="AL65" t="inlineStr"/>
-      <c r="AM65" t="inlineStr"/>
-      <c r="AN65" t="inlineStr"/>
-      <c r="AO65" t="inlineStr"/>
-      <c r="AP65" t="inlineStr"/>
-      <c r="AQ65" t="inlineStr"/>
-      <c r="AR65" t="inlineStr"/>
-      <c r="AS65" t="inlineStr"/>
-      <c r="AT65" t="inlineStr"/>
-      <c r="AU65" t="inlineStr"/>
-      <c r="AV65" t="inlineStr"/>
-      <c r="AW65" t="inlineStr"/>
-      <c r="AX65" t="inlineStr"/>
-      <c r="AY65" t="inlineStr"/>
-      <c r="AZ65" t="inlineStr"/>
-      <c r="BA65" t="inlineStr"/>
-      <c r="BB65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H65" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="J65" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N65" t="n">
+        <v>10</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="T65" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W65" t="n">
+        <v>27</v>
+      </c>
+      <c r="X65" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>175</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>250</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>32</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>150</v>
+      </c>
       <c r="BC65" t="inlineStr"/>
       <c r="BD65" t="inlineStr"/>
     </row>
@@ -12214,54 +12310,150 @@
           <t>Shamal</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr"/>
-      <c r="AB66" t="inlineStr"/>
-      <c r="AC66" t="inlineStr"/>
-      <c r="AD66" t="inlineStr"/>
-      <c r="AE66" t="inlineStr"/>
-      <c r="AF66" t="inlineStr"/>
-      <c r="AG66" t="inlineStr"/>
-      <c r="AH66" t="inlineStr"/>
-      <c r="AI66" t="inlineStr"/>
-      <c r="AJ66" t="inlineStr"/>
-      <c r="AK66" t="inlineStr"/>
-      <c r="AL66" t="inlineStr"/>
-      <c r="AM66" t="inlineStr"/>
-      <c r="AN66" t="inlineStr"/>
-      <c r="AO66" t="inlineStr"/>
-      <c r="AP66" t="inlineStr"/>
-      <c r="AQ66" t="inlineStr"/>
-      <c r="AR66" t="inlineStr"/>
-      <c r="AS66" t="inlineStr"/>
-      <c r="AT66" t="inlineStr"/>
-      <c r="AU66" t="inlineStr"/>
-      <c r="AV66" t="inlineStr"/>
-      <c r="AW66" t="inlineStr"/>
-      <c r="AX66" t="inlineStr"/>
-      <c r="AY66" t="inlineStr"/>
-      <c r="AZ66" t="inlineStr"/>
-      <c r="BA66" t="inlineStr"/>
-      <c r="BB66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H66" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L66" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N66" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T66" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V66" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W66" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="X66" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>200</v>
+      </c>
       <c r="BC66" t="inlineStr"/>
       <c r="BD66" t="inlineStr"/>
     </row>
@@ -12296,54 +12488,150 @@
           <t>Al Wakra</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="inlineStr"/>
-      <c r="AB67" t="inlineStr"/>
-      <c r="AC67" t="inlineStr"/>
-      <c r="AD67" t="inlineStr"/>
-      <c r="AE67" t="inlineStr"/>
-      <c r="AF67" t="inlineStr"/>
-      <c r="AG67" t="inlineStr"/>
-      <c r="AH67" t="inlineStr"/>
-      <c r="AI67" t="inlineStr"/>
-      <c r="AJ67" t="inlineStr"/>
-      <c r="AK67" t="inlineStr"/>
-      <c r="AL67" t="inlineStr"/>
-      <c r="AM67" t="inlineStr"/>
-      <c r="AN67" t="inlineStr"/>
-      <c r="AO67" t="inlineStr"/>
-      <c r="AP67" t="inlineStr"/>
-      <c r="AQ67" t="inlineStr"/>
-      <c r="AR67" t="inlineStr"/>
-      <c r="AS67" t="inlineStr"/>
-      <c r="AT67" t="inlineStr"/>
-      <c r="AU67" t="inlineStr"/>
-      <c r="AV67" t="inlineStr"/>
-      <c r="AW67" t="inlineStr"/>
-      <c r="AX67" t="inlineStr"/>
-      <c r="AY67" t="inlineStr"/>
-      <c r="AZ67" t="inlineStr"/>
-      <c r="BA67" t="inlineStr"/>
-      <c r="BB67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="K67" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N67" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T67" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U67" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V67" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W67" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="X67" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>55</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>75</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>175</v>
+      </c>
       <c r="BC67" t="inlineStr"/>
       <c r="BD67" t="inlineStr"/>
     </row>
@@ -12379,40 +12667,40 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H68" t="n">
         <v>3.5</v>
       </c>
       <c r="I68" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J68" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K68" t="n">
         <v>2.1</v>
       </c>
       <c r="L68" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M68" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N68" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O68" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P68" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R68" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S68" t="n">
         <v>1.44</v>
@@ -12466,7 +12754,7 @@
         <v>26</v>
       </c>
       <c r="AJ68" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK68" t="n">
         <v>51</v>
@@ -12481,7 +12769,7 @@
         <v>3.5</v>
       </c>
       <c r="AO68" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP68" t="n">
         <v>23</v>
@@ -12508,7 +12796,7 @@
         <v>7</v>
       </c>
       <c r="AX68" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY68" t="n">
         <v>41</v>
@@ -12561,16 +12849,16 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H69" t="n">
         <v>3.2</v>
       </c>
       <c r="I69" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K69" t="n">
         <v>1.95</v>
@@ -12609,7 +12897,7 @@
         <v>1.67</v>
       </c>
       <c r="W69" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X69" t="n">
         <v>10</v>
@@ -12618,16 +12906,16 @@
         <v>10</v>
       </c>
       <c r="Z69" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA69" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB69" t="n">
         <v>41</v>
       </c>
       <c r="AC69" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD69" t="n">
         <v>6.5</v>
@@ -12645,7 +12933,7 @@
         <v>7.5</v>
       </c>
       <c r="AI69" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ69" t="n">
         <v>12</v>
@@ -12663,7 +12951,7 @@
         <v>4.33</v>
       </c>
       <c r="AO69" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP69" t="n">
         <v>29</v>
@@ -12690,7 +12978,7 @@
         <v>5</v>
       </c>
       <c r="AX69" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY69" t="n">
         <v>34</v>
@@ -12764,7 +13052,7 @@
         <v>1.03</v>
       </c>
       <c r="N70" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="O70" t="n">
         <v>1.2</v>
@@ -12773,10 +13061,10 @@
         <v>4.33</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R70" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S70" t="n">
         <v>1.3</v>
@@ -12931,7 +13219,7 @@
         <v>3.4</v>
       </c>
       <c r="I71" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
         <v>4</v>
@@ -12940,7 +13228,7 @@
         <v>2.1</v>
       </c>
       <c r="L71" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M71" t="n">
         <v>1.05</v>
@@ -12967,16 +13255,16 @@
         <v>2.75</v>
       </c>
       <c r="U71" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V71" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W71" t="n">
         <v>11</v>
       </c>
       <c r="X71" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y71" t="n">
         <v>13</v>
@@ -12994,7 +13282,7 @@
         <v>10</v>
       </c>
       <c r="AD71" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE71" t="n">
         <v>15</v>
@@ -13027,7 +13315,7 @@
         <v>5.5</v>
       </c>
       <c r="AO71" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP71" t="n">
         <v>29</v>
@@ -13060,7 +13348,7 @@
         <v>21</v>
       </c>
       <c r="AZ71" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA71" t="n">
         <v>51</v>
@@ -13367,7 +13655,7 @@
         <v>51</v>
       </c>
       <c r="AG73" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH73" t="n">
         <v>8</v>
@@ -13403,7 +13691,7 @@
         <v>101</v>
       </c>
       <c r="AS73" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AT73" t="n">
         <v>3.25</v>
@@ -13471,19 +13759,19 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H74" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I74" t="n">
         <v>2.05</v>
       </c>
       <c r="J74" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="K74" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L74" t="n">
         <v>2.65</v>
@@ -13492,67 +13780,67 @@
         <v>1.05</v>
       </c>
       <c r="N74" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="O74" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P74" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="R74" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S74" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="T74" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="U74" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V74" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="W74" t="n">
+        <v>12</v>
+      </c>
+      <c r="X74" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y74" t="n">
         <v>11</v>
-      </c>
-      <c r="X74" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>11.25</v>
       </c>
       <c r="Z74" t="n">
         <v>45</v>
       </c>
       <c r="AA74" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB74" t="n">
         <v>28</v>
       </c>
-      <c r="AB74" t="n">
-        <v>32</v>
-      </c>
       <c r="AC74" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AD74" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AE74" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF74" t="n">
         <v>50</v>
       </c>
       <c r="AG74" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH74" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI74" t="n">
         <v>10.75</v>
@@ -13567,43 +13855,43 @@
         <v>15.5</v>
       </c>
       <c r="AM74" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN74" t="n">
         <v>5.3</v>
       </c>
       <c r="AO74" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AP74" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ74" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AR74" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AS74" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT74" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="AU74" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV74" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW74" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AX74" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AY74" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AZ74" t="n">
         <v>40</v>
@@ -13835,22 +14123,22 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="H76" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I76" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J76" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="K76" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="L76" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M76" t="n">
         <v>1.01</v>
@@ -13859,70 +14147,70 @@
         <v>34</v>
       </c>
       <c r="O76" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P76" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="R76" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S76" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="T76" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U76" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="V76" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W76" t="n">
+        <v>29</v>
+      </c>
+      <c r="X76" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y76" t="n">
         <v>23</v>
       </c>
-      <c r="X76" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>19</v>
-      </c>
       <c r="Z76" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA76" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB76" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC76" t="n">
         <v>34</v>
       </c>
       <c r="AD76" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AE76" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF76" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AG76" t="n">
         <v>151</v>
       </c>
       <c r="AH76" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI76" t="n">
         <v>201</v>
       </c>
       <c r="AJ76" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK76" t="n">
         <v>201</v>
@@ -13931,19 +14219,19 @@
         <v>201</v>
       </c>
       <c r="AM76" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AN76" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO76" t="n">
         <v>4.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ76" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AR76" t="n">
         <v>21</v>
@@ -13952,31 +14240,31 @@
         <v>81</v>
       </c>
       <c r="AT76" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AU76" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV76" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW76" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AX76" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AY76" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AZ76" t="n">
         <v>351</v>
       </c>
       <c r="BA76" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BB76" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC76" t="n">
         <v>301</v>
@@ -14018,58 +14306,58 @@
         <v>4.5</v>
       </c>
       <c r="H77" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I77" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="J77" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="K77" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L77" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="M77" t="n">
         <v>1.06</v>
       </c>
       <c r="N77" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O77" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P77" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="R77" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S77" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T77" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="U77" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V77" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W77" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="X77" t="n">
         <v>27</v>
       </c>
       <c r="Y77" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z77" t="n">
         <v>80</v>
@@ -14081,22 +14369,22 @@
         <v>55</v>
       </c>
       <c r="AC77" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD77" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE77" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF77" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG77" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH77" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AI77" t="n">
         <v>8.5</v>
@@ -14108,19 +14396,19 @@
         <v>14.5</v>
       </c>
       <c r="AL77" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AM77" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AN77" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AO77" t="n">
         <v>26</v>
       </c>
       <c r="AP77" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AQ77" t="n">
         <v>150</v>
@@ -14129,34 +14417,34 @@
         <v>200</v>
       </c>
       <c r="AS77" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT77" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="AU77" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AV77" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW77" t="n">
         <v>3.55</v>
       </c>
       <c r="AX77" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AY77" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ77" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA77" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BB77" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC77" t="n">
         <v>51</v>
@@ -14200,25 +14488,25 @@
         <v>1.91</v>
       </c>
       <c r="H78" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I78" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="J78" t="n">
         <v>2.45</v>
       </c>
       <c r="K78" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L78" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="M78" t="n">
         <v>1.07</v>
       </c>
       <c r="N78" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="O78" t="n">
         <v>1.34</v>
@@ -14227,46 +14515,46 @@
         <v>3</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R78" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S78" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T78" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="U78" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V78" t="n">
         <v>1.87</v>
       </c>
       <c r="W78" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="X78" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Y78" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z78" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA78" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB78" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC78" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AD78" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE78" t="n">
         <v>15</v>
@@ -14275,10 +14563,10 @@
         <v>75</v>
       </c>
       <c r="AG78" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH78" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AI78" t="n">
         <v>21</v>
@@ -14290,7 +14578,7 @@
         <v>60</v>
       </c>
       <c r="AL78" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM78" t="n">
         <v>45</v>
@@ -14302,19 +14590,19 @@
         <v>9.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ78" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR78" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS78" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="AU78" t="n">
         <v>7.1</v>
@@ -14323,16 +14611,16 @@
         <v>60</v>
       </c>
       <c r="AW78" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AX78" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY78" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AZ78" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BA78" t="n">
         <v>150</v>
@@ -14561,13 +14849,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H80" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I80" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J80" t="n">
         <v>3.1</v>
@@ -14582,7 +14870,7 @@
         <v>1.05</v>
       </c>
       <c r="N80" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="O80" t="n">
         <v>1.25</v>
@@ -14597,43 +14885,43 @@
         <v>2</v>
       </c>
       <c r="S80" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="T80" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="U80" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V80" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="W80" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X80" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y80" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z80" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA80" t="n">
         <v>19.5</v>
       </c>
       <c r="AB80" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC80" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AD80" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE80" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF80" t="n">
         <v>45</v>
@@ -14642,10 +14930,10 @@
         <v>300</v>
       </c>
       <c r="AH80" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AI80" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AJ80" t="n">
         <v>9.5</v>
@@ -14660,31 +14948,31 @@
         <v>25</v>
       </c>
       <c r="AN80" t="n">
-        <v>4.7</v>
+        <v>4.55</v>
       </c>
       <c r="AO80" t="n">
         <v>13.5</v>
       </c>
       <c r="AP80" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ80" t="n">
         <v>55</v>
       </c>
       <c r="AR80" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS80" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="AU80" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV80" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW80" t="n">
         <v>4.7</v>
@@ -14743,22 +15031,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.9</v>
+        <v>2.67</v>
       </c>
       <c r="H81" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I81" t="n">
-        <v>2.2</v>
+        <v>2.37</v>
       </c>
       <c r="J81" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K81" t="n">
         <v>2.27</v>
       </c>
       <c r="L81" t="n">
-        <v>2.67</v>
+        <v>2.9</v>
       </c>
       <c r="M81" t="n">
         <v>1.03</v>
@@ -14767,46 +15055,46 @@
         <v>9</v>
       </c>
       <c r="O81" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P81" t="n">
         <v>4.35</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R81" t="n">
         <v>2.32</v>
       </c>
       <c r="S81" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T81" t="n">
         <v>3.25</v>
       </c>
       <c r="U81" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="V81" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="W81" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="X81" t="n">
         <v>18</v>
       </c>
       <c r="Y81" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z81" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA81" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB81" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AC81" t="n">
         <v>9</v>
@@ -14815,49 +15103,49 @@
         <v>7.3</v>
       </c>
       <c r="AE81" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AF81" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG81" t="n">
         <v>175</v>
       </c>
       <c r="AH81" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AI81" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ81" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK81" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL81" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AM81" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AN81" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AO81" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ81" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR81" t="n">
         <v>65</v>
       </c>
-      <c r="AR81" t="n">
-        <v>80</v>
-      </c>
       <c r="AS81" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT81" t="n">
         <v>3.25</v>
@@ -14869,19 +15157,19 @@
         <v>40</v>
       </c>
       <c r="AW81" t="n">
-        <v>4.55</v>
+        <v>4.7</v>
       </c>
       <c r="AX81" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AY81" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AZ81" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="BA81" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="BB81" t="n">
         <v>150</v>
@@ -14925,22 +15213,22 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="H82" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I82" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="K82" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L82" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="M82" t="n">
         <v>1.05</v>
@@ -14964,28 +15252,28 @@
         <v>1.38</v>
       </c>
       <c r="T82" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="U82" t="n">
         <v>1.7</v>
       </c>
       <c r="V82" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="W82" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="X82" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y82" t="n">
         <v>8.25</v>
       </c>
       <c r="Z82" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA82" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB82" t="n">
         <v>23</v>
@@ -14994,70 +15282,70 @@
         <v>7.8</v>
       </c>
       <c r="AD82" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AE82" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ82" t="n">
         <v>13.5</v>
       </c>
-      <c r="AF82" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG82" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH82" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI82" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AK82" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AL82" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM82" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN82" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AO82" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AP82" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ82" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR82" t="n">
         <v>60</v>
       </c>
       <c r="AS82" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU82" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AV82" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW82" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AX82" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY82" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ82" t="n">
         <v>120</v>
@@ -15107,91 +15395,91 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H83" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I83" t="n">
         <v>2.12</v>
       </c>
       <c r="J83" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K83" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="L83" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="M83" t="n">
         <v>1.04</v>
       </c>
       <c r="N83" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O83" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P83" t="n">
-        <v>3.85</v>
+        <v>4.05</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R83" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S83" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="T83" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="U83" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V83" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="W83" t="n">
         <v>12</v>
       </c>
       <c r="X83" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y83" t="n">
         <v>10.75</v>
       </c>
       <c r="Z83" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF83" t="n">
         <v>40</v>
-      </c>
-      <c r="AA83" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB83" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC83" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD83" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE83" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF83" t="n">
-        <v>45</v>
       </c>
       <c r="AG83" t="n">
         <v>250</v>
       </c>
       <c r="AH83" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI83" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AJ83" t="n">
         <v>8.75</v>
@@ -15200,22 +15488,22 @@
         <v>21</v>
       </c>
       <c r="AL83" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AM83" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AN83" t="n">
         <v>5.2</v>
       </c>
       <c r="AO83" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AP83" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ83" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR83" t="n">
         <v>90</v>
@@ -15224,28 +15512,28 @@
         <v>200</v>
       </c>
       <c r="AT83" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AU83" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV83" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW83" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AX83" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AY83" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ83" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BA83" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="BB83" t="n">
         <v>175</v>
@@ -15289,143 +15577,143 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="H84" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="I84" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="J84" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="K84" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="L84" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="M84" t="n">
         <v>1.01</v>
       </c>
       <c r="N84" t="n">
+        <v>20</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T84" t="n">
+        <v>4</v>
+      </c>
+      <c r="U84" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V84" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W84" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="X84" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB84" t="n">
         <v>25</v>
       </c>
-      <c r="O84" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P84" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R84" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="S84" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="T84" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="U84" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V84" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W84" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="X84" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AA84" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AB84" t="n">
-        <v>27</v>
-      </c>
       <c r="AC84" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AD84" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AE84" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AF84" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG84" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH84" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI84" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>900</v>
+      </c>
+      <c r="AL84" t="n">
         <v>250</v>
       </c>
-      <c r="AJ84" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL84" t="n">
-        <v>300</v>
-      </c>
       <c r="AM84" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN84" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO84" t="n">
-        <v>4.55</v>
+        <v>4.75</v>
       </c>
       <c r="AP84" t="n">
         <v>13</v>
       </c>
       <c r="AQ84" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AR84" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS84" t="n">
         <v>120</v>
       </c>
       <c r="AT84" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AU84" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AV84" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW84" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AX84" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AY84" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AZ84" t="inlineStr"/>
       <c r="BA84" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BB84" t="n">
         <v>500</v>
@@ -15465,22 +15753,22 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H85" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I85" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J85" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K85" t="n">
         <v>2.2</v>
       </c>
       <c r="L85" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M85" t="n">
         <v>1.06</v>
@@ -15489,16 +15777,16 @@
         <v>9.5</v>
       </c>
       <c r="O85" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P85" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R85" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S85" t="n">
         <v>1.4</v>
@@ -15516,25 +15804,25 @@
         <v>7</v>
       </c>
       <c r="X85" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y85" t="n">
         <v>8.5</v>
       </c>
       <c r="Z85" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA85" t="n">
         <v>15</v>
       </c>
       <c r="AB85" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC85" t="n">
         <v>9.5</v>
       </c>
       <c r="AD85" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE85" t="n">
         <v>15</v>
@@ -15543,10 +15831,10 @@
         <v>51</v>
       </c>
       <c r="AG85" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH85" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI85" t="n">
         <v>23</v>
@@ -15573,7 +15861,7 @@
         <v>21</v>
       </c>
       <c r="AQ85" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR85" t="n">
         <v>51</v>
@@ -15591,10 +15879,10 @@
         <v>51</v>
       </c>
       <c r="AW85" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX85" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY85" t="n">
         <v>34</v>
@@ -15829,22 +16117,22 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>7.8</v>
+        <v>1.9</v>
       </c>
       <c r="H87" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="I87" t="n">
-        <v>1.42</v>
+        <v>3.55</v>
       </c>
       <c r="J87" t="n">
-        <v>7.7</v>
+        <v>2.42</v>
       </c>
       <c r="K87" t="n">
-        <v>2.1</v>
+        <v>2.27</v>
       </c>
       <c r="L87" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="M87" t="n">
         <v>1.04</v>
@@ -16006,54 +16294,150 @@
           <t>Ittihad Kalba</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
-      <c r="Z88" t="inlineStr"/>
-      <c r="AA88" t="inlineStr"/>
-      <c r="AB88" t="inlineStr"/>
-      <c r="AC88" t="inlineStr"/>
-      <c r="AD88" t="inlineStr"/>
-      <c r="AE88" t="inlineStr"/>
-      <c r="AF88" t="inlineStr"/>
-      <c r="AG88" t="inlineStr"/>
-      <c r="AH88" t="inlineStr"/>
-      <c r="AI88" t="inlineStr"/>
-      <c r="AJ88" t="inlineStr"/>
-      <c r="AK88" t="inlineStr"/>
-      <c r="AL88" t="inlineStr"/>
-      <c r="AM88" t="inlineStr"/>
-      <c r="AN88" t="inlineStr"/>
-      <c r="AO88" t="inlineStr"/>
-      <c r="AP88" t="inlineStr"/>
-      <c r="AQ88" t="inlineStr"/>
-      <c r="AR88" t="inlineStr"/>
-      <c r="AS88" t="inlineStr"/>
-      <c r="AT88" t="inlineStr"/>
-      <c r="AU88" t="inlineStr"/>
-      <c r="AV88" t="inlineStr"/>
-      <c r="AW88" t="inlineStr"/>
-      <c r="AX88" t="inlineStr"/>
-      <c r="AY88" t="inlineStr"/>
-      <c r="AZ88" t="inlineStr"/>
-      <c r="BA88" t="inlineStr"/>
-      <c r="BB88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H88" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I88" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K88" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="L88" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N88" t="n">
+        <v>19</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T88" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U88" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V88" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W88" t="n">
+        <v>12</v>
+      </c>
+      <c r="X88" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>110</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>30</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>250</v>
+      </c>
       <c r="BC88" t="inlineStr"/>
       <c r="BD88" t="inlineStr"/>
     </row>
@@ -16089,88 +16473,88 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="H89" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I89" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="J89" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K89" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="L89" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="M89" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N89" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="O89" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P89" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="R89" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="S89" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="T89" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="U89" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="V89" t="n">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="W89" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="X89" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y89" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z89" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AA89" t="n">
         <v>18</v>
       </c>
       <c r="AB89" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC89" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD89" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AE89" t="n">
         <v>11.5</v>
       </c>
       <c r="AF89" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG89" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AH89" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI89" t="n">
         <v>15</v>
@@ -16179,19 +16563,19 @@
         <v>9.5</v>
       </c>
       <c r="AK89" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL89" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM89" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AN89" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AO89" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP89" t="n">
         <v>16</v>
@@ -16206,7 +16590,7 @@
         <v>150</v>
       </c>
       <c r="AT89" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="AU89" t="n">
         <v>6.4</v>
@@ -16215,25 +16599,25 @@
         <v>37</v>
       </c>
       <c r="AW89" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AX89" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AY89" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AZ89" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BA89" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB89" t="n">
         <v>120</v>
       </c>
       <c r="BC89" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BD89" t="inlineStr"/>
     </row>
@@ -16269,22 +16653,22 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.87</v>
+        <v>2.65</v>
       </c>
       <c r="H90" t="n">
         <v>3.3</v>
       </c>
       <c r="I90" t="n">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="J90" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K90" t="n">
         <v>2.15</v>
       </c>
       <c r="L90" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="M90" t="n">
         <v>1.05</v>
@@ -16296,13 +16680,13 @@
         <v>1.24</v>
       </c>
       <c r="P90" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q90" t="n">
         <v>1.75</v>
       </c>
       <c r="R90" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S90" t="n">
         <v>1.36</v>
@@ -16317,22 +16701,22 @@
         <v>2.2</v>
       </c>
       <c r="W90" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="X90" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y90" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="Z90" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AA90" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB90" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC90" t="n">
         <v>7.9</v>
@@ -16350,37 +16734,37 @@
         <v>300</v>
       </c>
       <c r="AH90" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI90" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ90" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK90" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL90" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AM90" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN90" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="AO90" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AP90" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ90" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR90" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS90" t="n">
         <v>200</v>
@@ -16395,19 +16779,19 @@
         <v>50</v>
       </c>
       <c r="AW90" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="AX90" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AY90" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AZ90" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BA90" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB90" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
@@ -935,7 +935,7 @@
         <v>5.75</v>
       </c>
       <c r="I3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
         <v>1.8</v>
@@ -959,10 +959,10 @@
         <v>5.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="S3" t="n">
         <v>1.25</v>
@@ -1132,7 +1132,7 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O4" t="n">
         <v>1.07</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J5" t="n">
         <v>2.5</v>
@@ -1317,10 +1317,10 @@
         <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="Q5" t="n">
         <v>2.75</v>
@@ -1341,7 +1341,7 @@
         <v>1.44</v>
       </c>
       <c r="W5" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="X5" t="n">
         <v>6.5</v>
@@ -1374,7 +1374,7 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI5" t="n">
         <v>26</v>
@@ -1395,7 +1395,7 @@
         <v>3.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
         <v>29</v>
@@ -1422,7 +1422,7 @@
         <v>7</v>
       </c>
       <c r="AX5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY5" t="n">
         <v>51</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J6" t="n">
         <v>3.75</v>
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
         <v>41</v>
       </c>
       <c r="AA6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="n">
         <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1565,7 +1565,7 @@
         <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="n">
         <v>13</v>
@@ -1574,10 +1574,10 @@
         <v>19</v>
       </c>
       <c r="AN6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
@@ -1586,10 +1586,10 @@
         <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT6" t="n">
         <v>3.5</v>
@@ -1610,13 +1610,13 @@
         <v>17</v>
       </c>
       <c r="AZ6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA6" t="n">
         <v>41</v>
       </c>
       <c r="BB6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC6" t="n">
         <v>351</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H7" t="n">
         <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J7" t="n">
         <v>3.4</v>
@@ -1681,22 +1681,22 @@
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
         <v>1.62</v>
@@ -1729,7 +1729,7 @@
         <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1738,10 +1738,10 @@
         <v>151</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ7" t="n">
         <v>9.5</v>
@@ -1762,7 +1762,7 @@
         <v>15</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
         <v>51</v>
@@ -1771,16 +1771,16 @@
         <v>67</v>
       </c>
       <c r="AS7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
         <v>7.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
         <v>4.5</v>
@@ -2752,16 +2752,16 @@
         <v>4.15</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L13" t="n">
         <v>2.35</v>
@@ -2773,16 +2773,16 @@
         <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P13" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="R13" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -2791,34 +2791,34 @@
         <v>2.52</v>
       </c>
       <c r="U13" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V13" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="W13" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z13" t="n">
         <v>70</v>
       </c>
       <c r="AA13" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AB13" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AE13" t="n">
         <v>15.5</v>
@@ -2830,43 +2830,43 @@
         <v>600</v>
       </c>
       <c r="AH13" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AI13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ13" t="n">
         <v>8.25</v>
       </c>
       <c r="AK13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL13" t="n">
         <v>14.5</v>
       </c>
-      <c r="AL13" t="n">
-        <v>15</v>
-      </c>
       <c r="AM13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN13" t="n">
         <v>5.9</v>
       </c>
       <c r="AO13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP13" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AQ13" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AR13" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS13" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="AU13" t="n">
         <v>7.1</v>
@@ -2881,16 +2881,16 @@
         <v>8.75</v>
       </c>
       <c r="AY13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AZ13" t="n">
         <v>30</v>
       </c>
       <c r="BA13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB13" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="inlineStr"/>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H14" t="n">
         <v>4.75</v>
@@ -2936,10 +2936,10 @@
         <v>6</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K14" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L14" t="n">
         <v>6</v>
@@ -2987,7 +2987,7 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB14" t="n">
         <v>23</v>
@@ -3014,7 +3014,7 @@
         <v>34</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK14" t="n">
         <v>67</v>
@@ -3053,7 +3053,7 @@
         <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX14" t="n">
         <v>34</v>
@@ -3062,7 +3062,7 @@
         <v>34</v>
       </c>
       <c r="AZ14" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA14" t="n">
         <v>126</v>
@@ -3291,16 +3291,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K16" t="n">
         <v>2.4</v>
@@ -3333,10 +3333,10 @@
         <v>3.5</v>
       </c>
       <c r="U16" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V16" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W16" t="n">
         <v>12</v>
@@ -3345,7 +3345,7 @@
         <v>13</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z16" t="n">
         <v>21</v>
@@ -3354,7 +3354,7 @@
         <v>15</v>
       </c>
       <c r="AB16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC16" t="n">
         <v>17</v>
@@ -3378,7 +3378,7 @@
         <v>19</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK16" t="n">
         <v>34</v>
@@ -3390,7 +3390,7 @@
         <v>23</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO16" t="n">
         <v>11</v>
@@ -3423,10 +3423,10 @@
         <v>15</v>
       </c>
       <c r="AY16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA16" t="n">
         <v>51</v>
@@ -3473,19 +3473,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K17" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L17" t="n">
         <v>5.5</v>
@@ -3494,7 +3494,7 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O17" t="n">
         <v>1.22</v>
@@ -3533,19 +3533,19 @@
         <v>12</v>
       </c>
       <c r="AA17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB17" t="n">
         <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
@@ -3593,7 +3593,7 @@
         <v>3.25</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
@@ -3655,13 +3655,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="n">
         <v>2.88</v>
@@ -3685,10 +3685,10 @@
         <v>2.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S18" t="n">
         <v>1.5</v>
@@ -3697,19 +3697,19 @@
         <v>2.5</v>
       </c>
       <c r="U18" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X18" t="n">
         <v>9</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="n">
         <v>19</v>
@@ -3733,7 +3733,7 @@
         <v>67</v>
       </c>
       <c r="AG18" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH18" t="n">
         <v>8.5</v>
@@ -3775,7 +3775,7 @@
         <v>2.5</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV18" t="n">
         <v>67</v>
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H19" t="n">
         <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
         <v>2.2</v>
@@ -3855,22 +3855,22 @@
         <v>6.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="n">
         <v>1.5</v>
@@ -4019,16 +4019,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
         <v>6.25</v>
       </c>
       <c r="J20" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K20" t="n">
         <v>2</v>
@@ -4049,10 +4049,10 @@
         <v>2.63</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R20" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S20" t="n">
         <v>1.53</v>
@@ -4100,7 +4100,7 @@
         <v>201</v>
       </c>
       <c r="AH20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI20" t="n">
         <v>29</v>
@@ -4121,7 +4121,7 @@
         <v>3.4</v>
       </c>
       <c r="AO20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP20" t="n">
         <v>26</v>
@@ -4201,13 +4201,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H21" t="n">
         <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J21" t="n">
         <v>3</v>
@@ -4219,10 +4219,10 @@
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
         <v>1.4</v>
@@ -4243,25 +4243,25 @@
         <v>2.5</v>
       </c>
       <c r="U21" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y21" t="n">
         <v>9.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="n">
         <v>34</v>
@@ -4285,13 +4285,13 @@
         <v>8.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL21" t="n">
         <v>29</v>
@@ -4300,7 +4300,7 @@
         <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO21" t="n">
         <v>13</v>
@@ -4327,13 +4327,13 @@
         <v>67</v>
       </c>
       <c r="AW21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ21" t="n">
         <v>67</v>
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H22" t="n">
         <v>4</v>
@@ -4434,10 +4434,10 @@
         <v>5</v>
       </c>
       <c r="X22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z22" t="n">
         <v>9</v>
@@ -4470,7 +4470,7 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK22" t="n">
         <v>101</v>
@@ -4565,28 +4565,28 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J23" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K23" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L23" t="n">
         <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
         <v>1.36</v>
@@ -4595,10 +4595,10 @@
         <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S23" t="n">
         <v>1.44</v>
@@ -4607,31 +4607,31 @@
         <v>2.63</v>
       </c>
       <c r="U23" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V23" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W23" t="n">
         <v>7</v>
       </c>
       <c r="X23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y23" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y23" t="n">
-        <v>9</v>
-      </c>
       <c r="Z23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA23" t="n">
         <v>19</v>
       </c>
-      <c r="AA23" t="n">
-        <v>17</v>
-      </c>
       <c r="AB23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD23" t="n">
         <v>6.5</v>
@@ -4643,19 +4643,19 @@
         <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ23" t="n">
         <v>12</v>
       </c>
       <c r="AK23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL23" t="n">
         <v>29</v>
@@ -4667,7 +4667,7 @@
         <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP23" t="n">
         <v>23</v>
@@ -4676,25 +4676,25 @@
         <v>41</v>
       </c>
       <c r="AR23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS23" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT23" t="n">
         <v>2.63</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV23" t="n">
         <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY23" t="n">
         <v>29</v>
@@ -4706,7 +4706,7 @@
         <v>101</v>
       </c>
       <c r="BB23" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC23" t="n">
         <v>81</v>
@@ -4750,10 +4750,10 @@
         <v>2.05</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J24" t="n">
         <v>2.75</v>
@@ -4777,22 +4777,22 @@
         <v>3.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R24" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S24" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T24" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U24" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V24" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W24" t="n">
         <v>8</v>
@@ -4807,10 +4807,10 @@
         <v>19</v>
       </c>
       <c r="AA24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC24" t="n">
         <v>11</v>
@@ -4828,7 +4828,7 @@
         <v>201</v>
       </c>
       <c r="AH24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI24" t="n">
         <v>19</v>
@@ -4864,10 +4864,10 @@
         <v>151</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV24" t="n">
         <v>51</v>
@@ -4888,7 +4888,7 @@
         <v>81</v>
       </c>
       <c r="BB24" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC24" t="n">
         <v>501</v>
@@ -4941,10 +4941,10 @@
         <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L25" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
@@ -4959,16 +4959,16 @@
         <v>4.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R25" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S25" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U25" t="n">
         <v>1.53</v>
@@ -4995,7 +4995,7 @@
         <v>29</v>
       </c>
       <c r="AC25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD25" t="n">
         <v>7.5</v>
@@ -5004,7 +5004,7 @@
         <v>12</v>
       </c>
       <c r="AF25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG25" t="n">
         <v>126</v>
@@ -5046,10 +5046,10 @@
         <v>126</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV25" t="n">
         <v>41</v>
@@ -5058,7 +5058,7 @@
         <v>4.33</v>
       </c>
       <c r="AX25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY25" t="n">
         <v>17</v>
@@ -5120,10 +5120,10 @@
         <v>5.75</v>
       </c>
       <c r="J26" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K26" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L26" t="n">
         <v>5.5</v>
@@ -5147,10 +5147,10 @@
         <v>2.15</v>
       </c>
       <c r="S26" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T26" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U26" t="n">
         <v>1.73</v>
@@ -5219,16 +5219,16 @@
         <v>17</v>
       </c>
       <c r="AQ26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR26" t="n">
         <v>41</v>
       </c>
       <c r="AS26" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU26" t="n">
         <v>8</v>
@@ -5237,7 +5237,7 @@
         <v>51</v>
       </c>
       <c r="AW26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX26" t="n">
         <v>29</v>
@@ -5293,28 +5293,28 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H27" t="n">
         <v>2.57</v>
       </c>
       <c r="I27" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="J27" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="K27" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="L27" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M27" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="N27" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="O27" t="n">
         <v>1.65</v>
@@ -5323,28 +5323,28 @@
         <v>2.15</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="R27" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S27" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T27" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="U27" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="W27" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="X27" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y27" t="n">
         <v>13</v>
@@ -5359,7 +5359,7 @@
         <v>65</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="AD27" t="n">
         <v>5.3</v>
@@ -5374,22 +5374,22 @@
         <v>201</v>
       </c>
       <c r="AH27" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AI27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>10.25</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>10.5</v>
       </c>
       <c r="AK27" t="n">
         <v>28</v>
       </c>
       <c r="AL27" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AM27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN27" t="n">
         <v>5.1</v>
@@ -5404,16 +5404,16 @@
         <v>150</v>
       </c>
       <c r="AR27" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AS27" t="n">
         <v>501</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AU27" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AV27" t="n">
         <v>100</v>
@@ -5422,13 +5422,13 @@
         <v>4.1</v>
       </c>
       <c r="AX27" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AY27" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AZ27" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BA27" t="n">
         <v>150</v>
@@ -5827,22 +5827,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
         <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J30" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K30" t="n">
         <v>2.3</v>
       </c>
       <c r="L30" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M30" t="n">
         <v>1.04</v>
@@ -5851,10 +5851,10 @@
         <v>13</v>
       </c>
       <c r="O30" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P30" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q30" t="n">
         <v>1.67</v>
@@ -5863,19 +5863,19 @@
         <v>2.2</v>
       </c>
       <c r="S30" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T30" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U30" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V30" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X30" t="n">
         <v>17</v>
@@ -5893,16 +5893,16 @@
         <v>26</v>
       </c>
       <c r="AC30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD30" t="n">
         <v>7</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG30" t="n">
         <v>126</v>
@@ -5911,7 +5911,7 @@
         <v>10</v>
       </c>
       <c r="AI30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ30" t="n">
         <v>9</v>
@@ -5923,7 +5923,7 @@
         <v>17</v>
       </c>
       <c r="AM30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN30" t="n">
         <v>5</v>
@@ -5938,13 +5938,13 @@
         <v>51</v>
       </c>
       <c r="AR30" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS30" t="n">
         <v>126</v>
       </c>
       <c r="AT30" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU30" t="n">
         <v>7</v>
@@ -5968,10 +5968,10 @@
         <v>51</v>
       </c>
       <c r="BB30" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC30" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD30" t="n">
         <v>151</v>
@@ -6376,7 +6376,7 @@
         <v>1.9</v>
       </c>
       <c r="H33" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I33" t="n">
         <v>4.1</v>
@@ -6391,10 +6391,10 @@
         <v>4.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O33" t="n">
         <v>1.33</v>
@@ -6439,7 +6439,7 @@
         <v>29</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD33" t="n">
         <v>6.5</v>
@@ -6460,7 +6460,7 @@
         <v>21</v>
       </c>
       <c r="AJ33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK33" t="n">
         <v>41</v>
@@ -6505,7 +6505,7 @@
         <v>23</v>
       </c>
       <c r="AY33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ33" t="n">
         <v>81</v>
@@ -6767,10 +6767,10 @@
         <v>3.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R35" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S35" t="n">
         <v>1.4</v>
@@ -7101,119 +7101,149 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.09</v>
+        <v>2.42</v>
       </c>
       <c r="H37" t="n">
-        <v>3.18</v>
+        <v>2.85</v>
       </c>
       <c r="I37" t="n">
-        <v>3.27</v>
+        <v>2.9</v>
       </c>
       <c r="J37" t="n">
-        <v>2.76</v>
+        <v>2.95</v>
       </c>
       <c r="K37" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="L37" t="n">
-        <v>4.16</v>
+        <v>3.5</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>8.300000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="O37" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P37" t="n">
-        <v>2.94</v>
+        <v>2.73</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R37" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="S37" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="T37" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="U37" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="V37" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W37" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="X37" t="n">
-        <v>7.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y37" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="Z37" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AA37" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AB37" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AY37" t="n">
         <v>23</v>
       </c>
-      <c r="AC37" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>56</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN37" t="inlineStr"/>
-      <c r="AO37" t="inlineStr"/>
-      <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="inlineStr"/>
-      <c r="AS37" t="inlineStr"/>
-      <c r="AT37" t="inlineStr"/>
-      <c r="AU37" t="inlineStr"/>
-      <c r="AV37" t="inlineStr"/>
-      <c r="AW37" t="inlineStr"/>
-      <c r="AX37" t="inlineStr"/>
-      <c r="AY37" t="inlineStr"/>
-      <c r="AZ37" t="inlineStr"/>
-      <c r="BA37" t="inlineStr"/>
-      <c r="BB37" t="inlineStr"/>
+      <c r="AZ37" t="n">
+        <v>80</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>300</v>
+      </c>
       <c r="BC37" t="inlineStr"/>
       <c r="BD37" t="inlineStr"/>
     </row>
@@ -7431,13 +7461,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H39" t="n">
         <v>3.9</v>
       </c>
       <c r="I39" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J39" t="n">
         <v>4.33</v>
@@ -7512,7 +7542,7 @@
         <v>126</v>
       </c>
       <c r="AH39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI39" t="n">
         <v>10</v>
@@ -7545,7 +7575,7 @@
         <v>67</v>
       </c>
       <c r="AS39" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT39" t="n">
         <v>3.5</v>
@@ -7566,7 +7596,7 @@
         <v>17</v>
       </c>
       <c r="AZ39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA39" t="n">
         <v>41</v>
@@ -7643,10 +7673,10 @@
         <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R40" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S40" t="n">
         <v>1.29</v>
@@ -7973,28 +8003,28 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="H42" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I42" t="n">
         <v>3.4</v>
       </c>
       <c r="J42" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="K42" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="L42" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="M42" t="n">
         <v>1.03</v>
       </c>
       <c r="N42" t="n">
-        <v>6.95</v>
+        <v>6.9</v>
       </c>
       <c r="O42" t="n">
         <v>1.38</v>
@@ -8021,31 +8051,31 @@
         <v>1.83</v>
       </c>
       <c r="W42" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="X42" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Y42" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z42" t="n">
         <v>24</v>
       </c>
       <c r="AA42" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AD42" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AE42" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF42" t="n">
         <v>70</v>
@@ -8054,43 +8084,43 @@
         <v>600</v>
       </c>
       <c r="AH42" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI42" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AJ42" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AK42" t="n">
         <v>50</v>
       </c>
       <c r="AL42" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM42" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN42" t="n">
         <v>4.1</v>
       </c>
       <c r="AO42" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ42" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR42" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS42" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AU42" t="n">
         <v>6.5</v>
@@ -8099,19 +8129,19 @@
         <v>55</v>
       </c>
       <c r="AW42" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AX42" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AY42" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ42" t="n">
         <v>100</v>
       </c>
       <c r="BA42" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB42" t="n">
         <v>300</v>
@@ -8151,79 +8181,79 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="H43" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I43" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="J43" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="K43" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L43" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M43" t="n">
         <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>8.75</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O43" t="n">
         <v>1.31</v>
       </c>
       <c r="P43" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R43" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S43" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T43" t="n">
-        <v>2.81</v>
+        <v>2.77</v>
       </c>
       <c r="U43" t="n">
         <v>1.72</v>
       </c>
       <c r="V43" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="W43" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X43" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y43" t="n">
         <v>8.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AA43" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AB43" t="n">
         <v>28</v>
       </c>
       <c r="AC43" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD43" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE43" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF43" t="n">
         <v>65</v>
@@ -8232,55 +8262,55 @@
         <v>500</v>
       </c>
       <c r="AH43" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AI43" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ43" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK43" t="n">
         <v>50</v>
       </c>
       <c r="AL43" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM43" t="n">
         <v>37</v>
       </c>
       <c r="AN43" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AO43" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AP43" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ43" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR43" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS43" t="n">
         <v>200</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AU43" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV43" t="n">
         <v>55</v>
       </c>
       <c r="AW43" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AX43" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AY43" t="n">
         <v>23</v>
@@ -8289,7 +8319,7 @@
         <v>90</v>
       </c>
       <c r="BA43" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB43" t="n">
         <v>250</v>
@@ -8880,19 +8910,19 @@
         <v>2.2</v>
       </c>
       <c r="J47" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K47" t="n">
         <v>2.25</v>
       </c>
       <c r="L47" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M47" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O47" t="n">
         <v>1.22</v>
@@ -8901,10 +8931,10 @@
         <v>4</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R47" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S47" t="n">
         <v>1.33</v>
@@ -8931,7 +8961,7 @@
         <v>34</v>
       </c>
       <c r="AA47" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB47" t="n">
         <v>26</v>
@@ -8970,13 +9000,13 @@
         <v>23</v>
       </c>
       <c r="AN47" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO47" t="n">
         <v>17</v>
       </c>
       <c r="AP47" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ47" t="n">
         <v>51</v>
@@ -8997,7 +9027,7 @@
         <v>41</v>
       </c>
       <c r="AW47" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX47" t="n">
         <v>12</v>
@@ -9231,82 +9261,82 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H49" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I49" t="n">
         <v>6</v>
       </c>
       <c r="J49" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K49" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L49" t="n">
         <v>7</v>
       </c>
       <c r="M49" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N49" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="O49" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S49" t="n">
         <v>1.44</v>
       </c>
-      <c r="P49" t="n">
+      <c r="T49" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q49" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S49" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T49" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U49" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V49" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W49" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X49" t="n">
         <v>6</v>
       </c>
       <c r="Y49" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z49" t="n">
         <v>9.5</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>10</v>
       </c>
       <c r="AA49" t="n">
         <v>15</v>
       </c>
       <c r="AB49" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC49" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD49" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF49" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG49" t="n">
         <v>101</v>
@@ -9315,7 +9345,7 @@
         <v>12</v>
       </c>
       <c r="AI49" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ49" t="n">
         <v>21</v>
@@ -9327,31 +9357,31 @@
         <v>51</v>
       </c>
       <c r="AM49" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN49" t="n">
         <v>3.25</v>
       </c>
       <c r="AO49" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP49" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ49" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR49" t="n">
         <v>51</v>
       </c>
       <c r="AS49" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV49" t="n">
         <v>81</v>
@@ -9363,13 +9393,13 @@
         <v>41</v>
       </c>
       <c r="AY49" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ49" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA49" t="n">
         <v>201</v>
-      </c>
-      <c r="BA49" t="n">
-        <v>251</v>
       </c>
       <c r="BB49" t="inlineStr"/>
       <c r="BC49" t="inlineStr"/>
@@ -9407,22 +9437,22 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="H50" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J50" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K50" t="n">
         <v>1.95</v>
       </c>
       <c r="L50" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M50" t="n">
         <v>1.11</v>
@@ -9437,10 +9467,10 @@
         <v>2.63</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R50" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S50" t="n">
         <v>1.53</v>
@@ -9449,16 +9479,16 @@
         <v>2.38</v>
       </c>
       <c r="U50" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V50" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W50" t="n">
         <v>5.5</v>
       </c>
       <c r="X50" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y50" t="n">
         <v>9.5</v>
@@ -9476,13 +9506,13 @@
         <v>6.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE50" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF50" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG50" t="n">
         <v>101</v>
@@ -9491,7 +9521,7 @@
         <v>10</v>
       </c>
       <c r="AI50" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ50" t="n">
         <v>17</v>
@@ -9506,10 +9536,10 @@
         <v>51</v>
       </c>
       <c r="AN50" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP50" t="n">
         <v>26</v>
@@ -9533,10 +9563,10 @@
         <v>81</v>
       </c>
       <c r="AW50" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX50" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY50" t="n">
         <v>41</v>
@@ -9961,7 +9991,7 @@
         <v>2.2</v>
       </c>
       <c r="K53" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L53" t="n">
         <v>5</v>
@@ -9973,16 +10003,16 @@
         <v>15</v>
       </c>
       <c r="O53" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P53" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R53" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S53" t="n">
         <v>1.33</v>
@@ -10018,7 +10048,7 @@
         <v>15</v>
       </c>
       <c r="AD53" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE53" t="n">
         <v>17</v>
@@ -10036,7 +10066,7 @@
         <v>23</v>
       </c>
       <c r="AJ53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK53" t="n">
         <v>51</v>
@@ -10131,16 +10161,16 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I54" t="n">
         <v>2.15</v>
       </c>
       <c r="J54" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K54" t="n">
         <v>2.3</v>
@@ -10155,31 +10185,31 @@
         <v>15</v>
       </c>
       <c r="O54" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P54" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R54" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S54" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T54" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U54" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V54" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X54" t="n">
         <v>17</v>
@@ -10191,7 +10221,7 @@
         <v>34</v>
       </c>
       <c r="AA54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB54" t="n">
         <v>26</v>
@@ -10200,19 +10230,19 @@
         <v>15</v>
       </c>
       <c r="AD54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF54" t="n">
         <v>41</v>
       </c>
       <c r="AG54" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI54" t="n">
         <v>12</v>
@@ -10227,37 +10257,37 @@
         <v>15</v>
       </c>
       <c r="AM54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN54" t="n">
         <v>5.5</v>
       </c>
       <c r="AO54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ54" t="n">
         <v>51</v>
       </c>
       <c r="AR54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS54" t="n">
         <v>126</v>
       </c>
       <c r="AT54" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU54" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV54" t="n">
         <v>41</v>
       </c>
       <c r="AW54" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX54" t="n">
         <v>11</v>
@@ -10272,7 +10302,7 @@
         <v>51</v>
       </c>
       <c r="BB54" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC54" t="n">
         <v>126</v>
@@ -10328,25 +10358,25 @@
         <v>2.4</v>
       </c>
       <c r="L55" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M55" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O55" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P55" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R55" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="S55" t="n">
         <v>1.29</v>
@@ -10409,7 +10439,7 @@
         <v>13</v>
       </c>
       <c r="AM55" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN55" t="n">
         <v>6</v>
@@ -10439,10 +10469,10 @@
         <v>41</v>
       </c>
       <c r="AW55" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX55" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY55" t="n">
         <v>17</v>
@@ -10454,7 +10484,7 @@
         <v>41</v>
       </c>
       <c r="BB55" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC55" t="n">
         <v>351</v>
@@ -10498,10 +10528,10 @@
         <v>4.5</v>
       </c>
       <c r="H56" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I56" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J56" t="n">
         <v>4.5</v>
@@ -10510,13 +10540,13 @@
         <v>2.75</v>
       </c>
       <c r="L56" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="M56" t="n">
         <v>1.01</v>
       </c>
       <c r="N56" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O56" t="n">
         <v>1.08</v>
@@ -10525,25 +10555,25 @@
         <v>8</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R56" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="S56" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="T56" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="U56" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V56" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W56" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X56" t="n">
         <v>34</v>
@@ -10561,7 +10591,7 @@
         <v>26</v>
       </c>
       <c r="AC56" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD56" t="n">
         <v>11</v>
@@ -10573,16 +10603,16 @@
         <v>29</v>
       </c>
       <c r="AG56" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AH56" t="n">
         <v>15</v>
       </c>
       <c r="AI56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ56" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK56" t="n">
         <v>15</v>
@@ -10609,10 +10639,10 @@
         <v>51</v>
       </c>
       <c r="AS56" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT56" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AU56" t="n">
         <v>7</v>
@@ -10624,19 +10654,19 @@
         <v>4.33</v>
       </c>
       <c r="AX56" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ56" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA56" t="n">
         <v>29</v>
       </c>
       <c r="BB56" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC56" t="n">
         <v>201</v>
@@ -10695,10 +10725,10 @@
         <v>2.5</v>
       </c>
       <c r="M57" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O57" t="n">
         <v>1.2</v>
@@ -10707,10 +10737,10 @@
         <v>4.33</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R57" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S57" t="n">
         <v>1.33</v>
@@ -11050,7 +11080,7 @@
         <v>1.95</v>
       </c>
       <c r="J59" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K59" t="n">
         <v>2.38</v>
@@ -11083,10 +11113,10 @@
         <v>3.4</v>
       </c>
       <c r="U59" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V59" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W59" t="n">
         <v>15</v>
@@ -11122,13 +11152,13 @@
         <v>126</v>
       </c>
       <c r="AH59" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI59" t="n">
         <v>11</v>
       </c>
       <c r="AJ59" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK59" t="n">
         <v>17</v>
@@ -11140,7 +11170,7 @@
         <v>21</v>
       </c>
       <c r="AN59" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO59" t="n">
         <v>19</v>
@@ -11423,10 +11453,10 @@
         <v>4</v>
       </c>
       <c r="M61" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N61" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O61" t="n">
         <v>1.25</v>
@@ -11435,10 +11465,10 @@
         <v>3.75</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R61" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S61" t="n">
         <v>1.36</v>
@@ -11769,82 +11799,82 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="H63" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="I63" t="n">
-        <v>1.7</v>
+        <v>1.42</v>
       </c>
       <c r="J63" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="K63" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L63" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="M63" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N63" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O63" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P63" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="R63" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S63" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T63" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U63" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="V63" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W63" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="X63" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Y63" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Z63" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA63" t="n">
         <v>51</v>
       </c>
-      <c r="AA63" t="n">
-        <v>41</v>
-      </c>
       <c r="AB63" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC63" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD63" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AE63" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF63" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG63" t="n">
         <v>351</v>
@@ -11853,61 +11883,61 @@
         <v>6.5</v>
       </c>
       <c r="AI63" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AJ63" t="n">
         <v>8.5</v>
       </c>
       <c r="AK63" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL63" t="n">
         <v>13</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>15</v>
       </c>
       <c r="AM63" t="n">
         <v>29</v>
       </c>
       <c r="AN63" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AO63" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AP63" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ63" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AR63" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS63" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU63" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV63" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW63" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="AX63" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY63" t="n">
         <v>21</v>
       </c>
       <c r="AZ63" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="BA63" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB63" t="n">
         <v>151</v>
@@ -11951,22 +11981,22 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="H64" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I64" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J64" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K64" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L64" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M64" t="n">
         <v>1.02</v>
@@ -11975,22 +12005,22 @@
         <v>19</v>
       </c>
       <c r="O64" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P64" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R64" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S64" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T64" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U64" t="n">
         <v>1.73</v>
@@ -12005,10 +12035,10 @@
         <v>8</v>
       </c>
       <c r="Y64" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z64" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA64" t="n">
         <v>11</v>
@@ -12017,13 +12047,13 @@
         <v>21</v>
       </c>
       <c r="AC64" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD64" t="n">
         <v>10</v>
       </c>
       <c r="AE64" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF64" t="n">
         <v>51</v>
@@ -12032,16 +12062,16 @@
         <v>201</v>
       </c>
       <c r="AH64" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ64" t="n">
         <v>19</v>
       </c>
-      <c r="AI64" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>17</v>
-      </c>
       <c r="AK64" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL64" t="n">
         <v>41</v>
@@ -12050,46 +12080,46 @@
         <v>41</v>
       </c>
       <c r="AN64" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO64" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP64" t="n">
         <v>15</v>
       </c>
       <c r="AQ64" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR64" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS64" t="n">
         <v>101</v>
       </c>
       <c r="AT64" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU64" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV64" t="n">
         <v>51</v>
       </c>
       <c r="AW64" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX64" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY64" t="n">
         <v>34</v>
       </c>
       <c r="AZ64" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA64" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB64" t="n">
         <v>201</v>
@@ -12311,58 +12341,58 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H66" t="n">
-        <v>4.35</v>
+        <v>4.55</v>
       </c>
       <c r="I66" t="n">
-        <v>4.25</v>
+        <v>4.55</v>
       </c>
       <c r="J66" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="K66" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="L66" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="M66" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N66" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="O66" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="P66" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="R66" t="n">
-        <v>2.55</v>
+        <v>2.77</v>
       </c>
       <c r="S66" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="T66" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="U66" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V66" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="W66" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="X66" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y66" t="n">
         <v>8.5</v>
@@ -12371,16 +12401,16 @@
         <v>13.5</v>
       </c>
       <c r="AA66" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AB66" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC66" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD66" t="n">
         <v>9.75</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>9</v>
       </c>
       <c r="AE66" t="n">
         <v>13.5</v>
@@ -12389,22 +12419,22 @@
         <v>40</v>
       </c>
       <c r="AG66" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AH66" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI66" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AJ66" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AK66" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AL66" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM66" t="n">
         <v>30</v>
@@ -12413,22 +12443,22 @@
         <v>3.9</v>
       </c>
       <c r="AO66" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AP66" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AQ66" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AR66" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AS66" t="n">
         <v>120</v>
       </c>
       <c r="AT66" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="AU66" t="n">
         <v>6.9</v>
@@ -12437,16 +12467,16 @@
         <v>45</v>
       </c>
       <c r="AW66" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AX66" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY66" t="n">
         <v>23</v>
       </c>
       <c r="AZ66" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BA66" t="n">
         <v>110</v>
@@ -12454,7 +12484,9 @@
       <c r="BB66" t="n">
         <v>200</v>
       </c>
-      <c r="BC66" t="inlineStr"/>
+      <c r="BC66" t="n">
+        <v>500</v>
+      </c>
       <c r="BD66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -12492,16 +12524,16 @@
         <v>2.35</v>
       </c>
       <c r="H67" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I67" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="J67" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="K67" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L67" t="n">
         <v>3.15</v>
@@ -12510,7 +12542,7 @@
         <v>1.04</v>
       </c>
       <c r="N67" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="O67" t="n">
         <v>1.2</v>
@@ -12528,19 +12560,19 @@
         <v>1.32</v>
       </c>
       <c r="T67" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="U67" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V67" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="W67" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="X67" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y67" t="n">
         <v>9.25</v>
@@ -12555,13 +12587,13 @@
         <v>22</v>
       </c>
       <c r="AC67" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD67" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AE67" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF67" t="n">
         <v>40</v>
@@ -12570,22 +12602,22 @@
         <v>250</v>
       </c>
       <c r="AH67" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AI67" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ67" t="n">
         <v>10</v>
       </c>
       <c r="AK67" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL67" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AM67" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN67" t="n">
         <v>4.55</v>
@@ -12594,7 +12626,7 @@
         <v>12</v>
       </c>
       <c r="AP67" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ67" t="n">
         <v>45</v>
@@ -12606,22 +12638,22 @@
         <v>175</v>
       </c>
       <c r="AT67" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU67" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AV67" t="n">
         <v>45</v>
       </c>
       <c r="AW67" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="AX67" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AY67" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AZ67" t="n">
         <v>55</v>
@@ -12630,7 +12662,7 @@
         <v>75</v>
       </c>
       <c r="BB67" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC67" t="inlineStr"/>
       <c r="BD67" t="inlineStr"/>
@@ -12667,22 +12699,22 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H68" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I68" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J68" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K68" t="n">
         <v>2.1</v>
       </c>
       <c r="L68" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M68" t="n">
         <v>1.06</v>
@@ -12697,10 +12729,10 @@
         <v>3.25</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R68" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S68" t="n">
         <v>1.44</v>
@@ -12718,13 +12750,13 @@
         <v>6</v>
       </c>
       <c r="X68" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y68" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z68" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA68" t="n">
         <v>15</v>
@@ -12736,10 +12768,10 @@
         <v>8.5</v>
       </c>
       <c r="AD68" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE68" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF68" t="n">
         <v>67</v>
@@ -12748,34 +12780,34 @@
         <v>1000</v>
       </c>
       <c r="AH68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI68" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ68" t="n">
         <v>19</v>
       </c>
       <c r="AK68" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL68" t="n">
         <v>51</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>41</v>
       </c>
       <c r="AM68" t="n">
         <v>51</v>
       </c>
       <c r="AN68" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO68" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP68" t="n">
         <v>23</v>
       </c>
       <c r="AQ68" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR68" t="n">
         <v>51</v>
@@ -12787,13 +12819,13 @@
         <v>2.63</v>
       </c>
       <c r="AU68" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV68" t="n">
         <v>67</v>
       </c>
       <c r="AW68" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX68" t="n">
         <v>34</v>
@@ -12870,7 +12902,7 @@
         <v>1.08</v>
       </c>
       <c r="N69" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O69" t="n">
         <v>1.44</v>
@@ -12879,10 +12911,10 @@
         <v>2.63</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R69" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S69" t="n">
         <v>1.53</v>
@@ -12891,13 +12923,13 @@
         <v>2.38</v>
       </c>
       <c r="U69" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V69" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W69" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X69" t="n">
         <v>10</v>
@@ -12912,10 +12944,10 @@
         <v>21</v>
       </c>
       <c r="AB69" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC69" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD69" t="n">
         <v>6.5</v>
@@ -12978,7 +13010,7 @@
         <v>5</v>
       </c>
       <c r="AX69" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY69" t="n">
         <v>34</v>
@@ -13213,13 +13245,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H71" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J71" t="n">
         <v>4</v>
@@ -13228,7 +13260,7 @@
         <v>2.1</v>
       </c>
       <c r="L71" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M71" t="n">
         <v>1.05</v>
@@ -13255,16 +13287,16 @@
         <v>2.75</v>
       </c>
       <c r="U71" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V71" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W71" t="n">
         <v>11</v>
       </c>
       <c r="X71" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y71" t="n">
         <v>13</v>
@@ -13276,13 +13308,13 @@
         <v>29</v>
       </c>
       <c r="AB71" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC71" t="n">
         <v>10</v>
       </c>
       <c r="AD71" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE71" t="n">
         <v>15</v>
@@ -13315,7 +13347,7 @@
         <v>5.5</v>
       </c>
       <c r="AO71" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP71" t="n">
         <v>29</v>
@@ -13327,7 +13359,7 @@
         <v>81</v>
       </c>
       <c r="AS71" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT71" t="n">
         <v>2.75</v>
@@ -13348,7 +13380,7 @@
         <v>21</v>
       </c>
       <c r="AZ71" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA71" t="n">
         <v>51</v>
@@ -13437,10 +13469,10 @@
         <v>3.4</v>
       </c>
       <c r="U72" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V72" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W72" t="n">
         <v>8.5</v>
@@ -13759,22 +13791,22 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="H74" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I74" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="J74" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K74" t="n">
         <v>2.18</v>
       </c>
       <c r="L74" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="M74" t="n">
         <v>1.05</v>
@@ -13786,7 +13818,7 @@
         <v>1.24</v>
       </c>
       <c r="P74" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q74" t="n">
         <v>1.72</v>
@@ -13795,7 +13827,7 @@
         <v>2.05</v>
       </c>
       <c r="S74" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="T74" t="n">
         <v>2.92</v>
@@ -13807,22 +13839,22 @@
         <v>2.18</v>
       </c>
       <c r="W74" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="X74" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y74" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z74" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AA74" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AB74" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC74" t="n">
         <v>8</v>
@@ -13843,34 +13875,34 @@
         <v>8.5</v>
       </c>
       <c r="AI74" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AJ74" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK74" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL74" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AM74" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN74" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AO74" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AP74" t="n">
         <v>22</v>
       </c>
       <c r="AQ74" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AR74" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS74" t="n">
         <v>250</v>
@@ -13885,19 +13917,19 @@
         <v>50</v>
       </c>
       <c r="AW74" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="AX74" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AY74" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AZ74" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BA74" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB74" t="n">
         <v>200</v>
@@ -13941,46 +13973,46 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.82</v>
+        <v>2.65</v>
       </c>
       <c r="H75" t="n">
         <v>3.15</v>
       </c>
       <c r="I75" t="n">
-        <v>2.35</v>
+        <v>2.47</v>
       </c>
       <c r="J75" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K75" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L75" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="M75" t="n">
         <v>1.06</v>
       </c>
       <c r="N75" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="O75" t="n">
         <v>1.29</v>
       </c>
       <c r="P75" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R75" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S75" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T75" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="U75" t="n">
         <v>1.65</v>
@@ -13992,22 +14024,22 @@
         <v>9</v>
       </c>
       <c r="X75" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y75" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="Z75" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA75" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AB75" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC75" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AD75" t="n">
         <v>6.2</v>
@@ -14022,61 +14054,61 @@
         <v>400</v>
       </c>
       <c r="AH75" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AI75" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ75" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK75" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL75" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AM75" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AN75" t="n">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="AO75" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AP75" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ75" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AR75" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS75" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="AU75" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV75" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW75" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="AX75" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AY75" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AZ75" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BA75" t="n">
         <v>80</v>
@@ -14303,22 +14335,22 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H77" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I77" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="J77" t="n">
-        <v>4.75</v>
+        <v>4.45</v>
       </c>
       <c r="K77" t="n">
         <v>2.15</v>
       </c>
       <c r="L77" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="M77" t="n">
         <v>1.06</v>
@@ -14330,19 +14362,19 @@
         <v>1.29</v>
       </c>
       <c r="P77" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R77" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S77" t="n">
         <v>1.42</v>
       </c>
       <c r="T77" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="U77" t="n">
         <v>1.8</v>
@@ -14351,34 +14383,34 @@
         <v>1.9</v>
       </c>
       <c r="W77" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="X77" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y77" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z77" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AA77" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB77" t="n">
         <v>50</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>55</v>
       </c>
       <c r="AC77" t="n">
         <v>8</v>
       </c>
       <c r="AD77" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE77" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF77" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG77" t="n">
         <v>700</v>
@@ -14387,37 +14419,37 @@
         <v>6.8</v>
       </c>
       <c r="AI77" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AJ77" t="n">
         <v>8.75</v>
       </c>
       <c r="AK77" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL77" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AM77" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN77" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AO77" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP77" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ77" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AR77" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AS77" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT77" t="n">
         <v>2.77</v>
@@ -14429,16 +14461,16 @@
         <v>75</v>
       </c>
       <c r="AW77" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="AX77" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY77" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AZ77" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="BA77" t="n">
         <v>65</v>
@@ -14488,91 +14520,91 @@
         <v>1.91</v>
       </c>
       <c r="H78" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I78" t="n">
         <v>3.95</v>
       </c>
       <c r="J78" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="K78" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L78" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="M78" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N78" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="O78" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P78" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R78" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S78" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T78" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="U78" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="V78" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="W78" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="X78" t="n">
         <v>8.75</v>
       </c>
       <c r="Y78" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z78" t="n">
         <v>16.5</v>
       </c>
       <c r="AA78" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AB78" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC78" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AD78" t="n">
         <v>6.3</v>
       </c>
       <c r="AE78" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF78" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG78" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH78" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AI78" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ78" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK78" t="n">
         <v>60</v>
@@ -14581,34 +14613,34 @@
         <v>40</v>
       </c>
       <c r="AM78" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN78" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AO78" t="n">
         <v>9.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ78" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR78" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS78" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AU78" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AV78" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AW78" t="n">
         <v>5.8</v>
@@ -14617,16 +14649,16 @@
         <v>23</v>
       </c>
       <c r="AY78" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AZ78" t="n">
         <v>120</v>
       </c>
       <c r="BA78" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB78" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC78" t="n">
         <v>51</v>
@@ -14745,7 +14777,7 @@
         <v>67</v>
       </c>
       <c r="AG79" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AH79" t="n">
         <v>6.5</v>
@@ -14849,10 +14881,10 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H80" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I80" t="n">
         <v>2.62</v>
@@ -14861,79 +14893,79 @@
         <v>3.1</v>
       </c>
       <c r="K80" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L80" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="M80" t="n">
         <v>1.05</v>
       </c>
       <c r="N80" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="O80" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P80" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R80" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S80" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T80" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="U80" t="n">
         <v>1.6</v>
       </c>
       <c r="V80" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="W80" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="X80" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y80" t="n">
         <v>9.25</v>
       </c>
       <c r="Z80" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA80" t="n">
         <v>19.5</v>
       </c>
       <c r="AB80" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC80" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AD80" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE80" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF80" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG80" t="n">
         <v>300</v>
       </c>
       <c r="AH80" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AI80" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ80" t="n">
         <v>9.5</v>
@@ -14942,31 +14974,31 @@
         <v>30</v>
       </c>
       <c r="AL80" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM80" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN80" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="AO80" t="n">
         <v>13.5</v>
       </c>
       <c r="AP80" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ80" t="n">
         <v>55</v>
       </c>
       <c r="AR80" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS80" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="AU80" t="n">
         <v>6.6</v>
@@ -14975,22 +15007,22 @@
         <v>55</v>
       </c>
       <c r="AW80" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="AX80" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AY80" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AZ80" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BA80" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB80" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC80" t="n">
         <v>51</v>
@@ -15031,22 +15063,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="H81" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I81" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="J81" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K81" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L81" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="M81" t="n">
         <v>1.03</v>
@@ -15058,40 +15090,40 @@
         <v>1.17</v>
       </c>
       <c r="P81" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R81" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="S81" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T81" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="U81" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="V81" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="W81" t="n">
         <v>13.5</v>
       </c>
       <c r="X81" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA81" t="n">
         <v>18</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>19</v>
       </c>
       <c r="AB81" t="n">
         <v>20</v>
@@ -15100,7 +15132,7 @@
         <v>9</v>
       </c>
       <c r="AD81" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AE81" t="n">
         <v>10.75</v>
@@ -15112,19 +15144,19 @@
         <v>175</v>
       </c>
       <c r="AH81" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AI81" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AJ81" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK81" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL81" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AM81" t="n">
         <v>20</v>
@@ -15133,31 +15165,31 @@
         <v>5</v>
       </c>
       <c r="AO81" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AP81" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AQ81" t="n">
         <v>50</v>
       </c>
       <c r="AR81" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS81" t="n">
         <v>150</v>
       </c>
       <c r="AT81" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AU81" t="n">
         <v>6.2</v>
       </c>
       <c r="AV81" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AW81" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AX81" t="n">
         <v>12.5</v>
@@ -15213,148 +15245,148 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="H82" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I82" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="J82" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="K82" t="n">
         <v>2.18</v>
       </c>
       <c r="L82" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="M82" t="n">
         <v>1.05</v>
       </c>
       <c r="N82" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O82" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P82" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="R82" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S82" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="T82" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="U82" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V82" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="W82" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="X82" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y82" t="n">
         <v>8.25</v>
       </c>
       <c r="Z82" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA82" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB82" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC82" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD82" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AE82" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF82" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AG82" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AH82" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ82" t="n">
         <v>12.5</v>
       </c>
-      <c r="AI82" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AK82" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL82" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AM82" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AN82" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AO82" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AP82" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ82" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR82" t="n">
         <v>60</v>
       </c>
       <c r="AS82" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="AU82" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AV82" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AW82" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AX82" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AY82" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AZ82" t="n">
+        <v>110</v>
+      </c>
+      <c r="BA82" t="n">
         <v>120</v>
       </c>
-      <c r="BA82" t="n">
-        <v>150</v>
-      </c>
       <c r="BB82" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC82" t="n">
         <v>51</v>
@@ -15395,7 +15427,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H83" t="n">
         <v>3.6</v>
@@ -15404,13 +15436,13 @@
         <v>2.12</v>
       </c>
       <c r="J83" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K83" t="n">
         <v>2.27</v>
       </c>
       <c r="L83" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="M83" t="n">
         <v>1.04</v>
@@ -15428,13 +15460,13 @@
         <v>1.62</v>
       </c>
       <c r="R83" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S83" t="n">
         <v>1.32</v>
       </c>
       <c r="T83" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="U83" t="n">
         <v>1.53</v>
@@ -15443,7 +15475,7 @@
         <v>2.35</v>
       </c>
       <c r="W83" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="X83" t="n">
         <v>18</v>
@@ -15452,7 +15484,7 @@
         <v>10.75</v>
       </c>
       <c r="Z83" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AA83" t="n">
         <v>23</v>
@@ -15494,7 +15526,7 @@
         <v>20</v>
       </c>
       <c r="AN83" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AO83" t="n">
         <v>16</v>
@@ -15512,7 +15544,7 @@
         <v>200</v>
       </c>
       <c r="AT83" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU83" t="n">
         <v>6.5</v>
@@ -15536,7 +15568,7 @@
         <v>55</v>
       </c>
       <c r="BB83" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC83" t="n">
         <v>51</v>
@@ -15753,22 +15785,22 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H85" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I85" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J85" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K85" t="n">
         <v>2.2</v>
       </c>
       <c r="L85" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M85" t="n">
         <v>1.06</v>
@@ -15777,16 +15809,16 @@
         <v>9.5</v>
       </c>
       <c r="O85" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P85" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q85" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R85" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S85" t="n">
         <v>1.4</v>
@@ -15804,25 +15836,25 @@
         <v>7</v>
       </c>
       <c r="X85" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y85" t="n">
         <v>8.5</v>
       </c>
       <c r="Z85" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA85" t="n">
         <v>15</v>
       </c>
       <c r="AB85" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC85" t="n">
         <v>9.5</v>
       </c>
       <c r="AD85" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE85" t="n">
         <v>15</v>
@@ -15831,16 +15863,16 @@
         <v>51</v>
       </c>
       <c r="AG85" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH85" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI85" t="n">
         <v>23</v>
       </c>
       <c r="AJ85" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK85" t="n">
         <v>51</v>
@@ -15852,16 +15884,16 @@
         <v>41</v>
       </c>
       <c r="AN85" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO85" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP85" t="n">
         <v>21</v>
       </c>
       <c r="AQ85" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR85" t="n">
         <v>51</v>
@@ -15879,10 +15911,10 @@
         <v>51</v>
       </c>
       <c r="AW85" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX85" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY85" t="n">
         <v>34</v>
@@ -15891,7 +15923,7 @@
         <v>81</v>
       </c>
       <c r="BA85" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB85" t="n">
         <v>251</v>
@@ -15935,28 +15967,28 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="H86" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="I86" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J86" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K86" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="L86" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="M86" t="n">
         <v>1.14</v>
       </c>
       <c r="N86" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="O86" t="n">
         <v>1.57</v>
@@ -15977,37 +16009,37 @@
         <v>2.05</v>
       </c>
       <c r="U86" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="V86" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="W86" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="X86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y86" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="Z86" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AA86" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB86" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC86" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="AD86" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AE86" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF86" t="n">
         <v>150</v>
@@ -16016,34 +16048,34 @@
         <v>67</v>
       </c>
       <c r="AH86" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AI86" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AJ86" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK86" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AL86" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AM86" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN86" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AO86" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AP86" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ86" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AR86" t="n">
         <v>150</v>
@@ -16055,25 +16087,25 @@
         <v>2.02</v>
       </c>
       <c r="AU86" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AV86" t="n">
         <v>100</v>
       </c>
       <c r="AW86" t="n">
-        <v>4.9</v>
+        <v>4.65</v>
       </c>
       <c r="AX86" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AY86" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ86" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BA86" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BB86" t="n">
         <v>67</v>
@@ -16117,139 +16149,139 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="H87" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="I87" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="J87" t="n">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="K87" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="L87" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M87" t="n">
         <v>1.04</v>
       </c>
       <c r="N87" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T87" t="n">
+        <v>3</v>
+      </c>
+      <c r="U87" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V87" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="W87" t="n">
+        <v>10</v>
+      </c>
+      <c r="X87" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y87" t="n">
         <v>8.5</v>
       </c>
-      <c r="O87" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P87" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R87" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S87" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T87" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U87" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V87" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="W87" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X87" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Y87" t="n">
-        <v>8.25</v>
-      </c>
       <c r="Z87" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AA87" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB87" t="n">
         <v>20</v>
       </c>
       <c r="AC87" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD87" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AE87" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF87" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG87" t="n">
         <v>250</v>
       </c>
       <c r="AH87" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI87" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AJ87" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AK87" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AL87" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AM87" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AN87" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="AO87" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AP87" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ87" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR87" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS87" t="n">
         <v>150</v>
       </c>
       <c r="AT87" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AU87" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AV87" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW87" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AX87" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY87" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ87" t="n">
         <v>90</v>
@@ -16653,145 +16685,145 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="H90" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I90" t="n">
-        <v>2.37</v>
+        <v>2.15</v>
       </c>
       <c r="J90" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K90" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L90" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="M90" t="n">
         <v>1.05</v>
       </c>
       <c r="N90" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O90" t="n">
         <v>1.24</v>
       </c>
       <c r="P90" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R90" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S90" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="T90" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="U90" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V90" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="W90" t="n">
+        <v>11</v>
+      </c>
+      <c r="X90" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y90" t="n">
         <v>10.5</v>
       </c>
-      <c r="X90" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y90" t="n">
-        <v>9.75</v>
-      </c>
       <c r="Z90" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AA90" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB90" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AC90" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD90" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AE90" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF90" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG90" t="n">
         <v>300</v>
       </c>
       <c r="AH90" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI90" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AJ90" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AK90" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AL90" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AM90" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AN90" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AO90" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AP90" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AQ90" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AR90" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS90" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="AU90" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AV90" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW90" t="n">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="AX90" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AY90" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ90" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BA90" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BB90" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
@@ -765,16 +765,16 @@
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
         <v>1.67</v>
@@ -1323,10 +1323,10 @@
         <v>2.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
         <v>1.62</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H7" t="n">
         <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="J7" t="n">
         <v>3.4</v>
@@ -1741,7 +1741,7 @@
         <v>9.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ7" t="n">
         <v>9.5</v>
@@ -1762,7 +1762,7 @@
         <v>15</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
         <v>51</v>
@@ -2573,16 +2573,16 @@
         <v>4.85</v>
       </c>
       <c r="I12" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="K12" t="n">
         <v>2.52</v>
       </c>
       <c r="L12" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2600,7 +2600,7 @@
         <v>1.53</v>
       </c>
       <c r="R12" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="S12" t="n">
         <v>1.29</v>
@@ -2609,22 +2609,22 @@
         <v>3.3</v>
       </c>
       <c r="U12" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA12" t="n">
         <v>10.5</v>
@@ -2648,7 +2648,7 @@
         <v>500</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
         <v>50</v>
@@ -2657,10 +2657,10 @@
         <v>22</v>
       </c>
       <c r="AK12" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AL12" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM12" t="n">
         <v>60</v>
@@ -2669,7 +2669,7 @@
         <v>3.3</v>
       </c>
       <c r="AO12" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AP12" t="n">
         <v>15</v>
@@ -2690,13 +2690,13 @@
         <v>8</v>
       </c>
       <c r="AV12" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW12" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AX12" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AY12" t="n">
         <v>37</v>
@@ -2749,88 +2749,88 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.15</v>
+        <v>3.95</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="K13" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L13" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="R13" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="U13" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="V13" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="W13" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="X13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB13" t="n">
         <v>45</v>
       </c>
-      <c r="AB13" t="n">
-        <v>50</v>
-      </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE13" t="n">
         <v>15.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG13" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH13" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AI13" t="n">
         <v>8.5</v>
@@ -2839,58 +2839,58 @@
         <v>8.25</v>
       </c>
       <c r="AK13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL13" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AM13" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AO13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP13" t="n">
         <v>29</v>
       </c>
       <c r="AQ13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR13" t="n">
         <v>150</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>175</v>
       </c>
       <c r="AS13" t="n">
         <v>400</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="AU13" t="n">
         <v>7.1</v>
       </c>
       <c r="AV13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW13" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AX13" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AY13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ13" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="BA13" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="BB13" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="inlineStr"/>
@@ -2927,13 +2927,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H14" t="n">
         <v>4.75</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J14" t="n">
         <v>1.95</v>
@@ -2942,7 +2942,7 @@
         <v>2.5</v>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2951,16 +2951,16 @@
         <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S14" t="n">
         <v>1.3</v>
@@ -2996,7 +2996,7 @@
         <v>15</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE14" t="n">
         <v>19</v>
@@ -3008,7 +3008,7 @@
         <v>251</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
         <v>34</v>
@@ -3035,7 +3035,7 @@
         <v>17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR14" t="n">
         <v>41</v>
@@ -3133,10 +3133,10 @@
         <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q15" t="n">
         <v>1.7</v>
@@ -3315,16 +3315,16 @@
         <v>17</v>
       </c>
       <c r="O16" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P16" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R16" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S16" t="n">
         <v>1.29</v>
@@ -3473,40 +3473,40 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R17" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S17" t="n">
         <v>1.33</v>
@@ -3524,46 +3524,46 @@
         <v>7.5</v>
       </c>
       <c r="X17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y17" t="n">
         <v>8.5</v>
       </c>
       <c r="Z17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA17" t="n">
         <v>12</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>13</v>
       </c>
       <c r="AB17" t="n">
         <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL17" t="n">
         <v>41</v>
@@ -3575,13 +3575,13 @@
         <v>3.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR17" t="n">
         <v>41</v>
@@ -3593,13 +3593,13 @@
         <v>3.25</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3611,7 +3611,7 @@
         <v>101</v>
       </c>
       <c r="BA17" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB17" t="n">
         <v>201</v>
@@ -3655,7 +3655,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H18" t="n">
         <v>3.3</v>
@@ -3721,13 +3721,13 @@
         <v>34</v>
       </c>
       <c r="AC18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>67</v>
@@ -3736,7 +3736,7 @@
         <v>451</v>
       </c>
       <c r="AH18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI18" t="n">
         <v>17</v>
@@ -3861,16 +3861,16 @@
         <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R19" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S19" t="n">
         <v>1.5</v>
@@ -4019,61 +4019,61 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
         <v>6.25</v>
       </c>
       <c r="J20" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L20" t="n">
         <v>6.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R20" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S20" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T20" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U20" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V20" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X20" t="n">
         <v>6.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z20" t="n">
         <v>12</v>
@@ -4085,10 +4085,10 @@
         <v>41</v>
       </c>
       <c r="AC20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
         <v>21</v>
@@ -4115,7 +4115,7 @@
         <v>51</v>
       </c>
       <c r="AM20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN20" t="n">
         <v>3.4</v>
@@ -4124,19 +4124,19 @@
         <v>9</v>
       </c>
       <c r="AP20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS20" t="n">
         <v>251</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU20" t="n">
         <v>10</v>
@@ -4225,16 +4225,16 @@
         <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R21" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S21" t="n">
         <v>1.5</v>
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
         <v>1.36</v>
@@ -4413,16 +4413,16 @@
         <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R22" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S22" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T22" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U22" t="n">
         <v>2.5</v>
@@ -4434,7 +4434,7 @@
         <v>5</v>
       </c>
       <c r="X22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y22" t="n">
         <v>9</v>
@@ -4464,13 +4464,13 @@
         <v>201</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
         <v>41</v>
       </c>
       <c r="AJ22" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AK22" t="n">
         <v>101</v>
@@ -4479,13 +4479,13 @@
         <v>67</v>
       </c>
       <c r="AM22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP22" t="n">
         <v>23</v>
@@ -4500,7 +4500,7 @@
         <v>251</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU22" t="n">
         <v>11</v>
@@ -4509,7 +4509,7 @@
         <v>81</v>
       </c>
       <c r="AW22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX22" t="n">
         <v>41</v>
@@ -4518,10 +4518,10 @@
         <v>51</v>
       </c>
       <c r="AZ22" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA22" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB22" t="n">
         <v>501</v>
@@ -4568,10 +4568,10 @@
         <v>2.15</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J23" t="n">
         <v>2.88</v>
@@ -4586,7 +4586,7 @@
         <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O23" t="n">
         <v>1.36</v>
@@ -4601,10 +4601,10 @@
         <v>1.65</v>
       </c>
       <c r="S23" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U23" t="n">
         <v>1.91</v>
@@ -4613,16 +4613,16 @@
         <v>1.8</v>
       </c>
       <c r="W23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y23" t="n">
         <v>9.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA23" t="n">
         <v>19</v>
@@ -4649,13 +4649,13 @@
         <v>9</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
         <v>12</v>
       </c>
       <c r="AK23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL23" t="n">
         <v>29</v>
@@ -4667,7 +4667,7 @@
         <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP23" t="n">
         <v>23</v>
@@ -4682,19 +4682,19 @@
         <v>201</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU23" t="n">
         <v>8.5</v>
       </c>
       <c r="AV23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY23" t="n">
         <v>29</v>
@@ -4747,16 +4747,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J24" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K24" t="n">
         <v>2.2</v>
@@ -4777,22 +4777,22 @@
         <v>3.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R24" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S24" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T24" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U24" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V24" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W24" t="n">
         <v>8</v>
@@ -4804,13 +4804,13 @@
         <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA24" t="n">
         <v>15</v>
       </c>
       <c r="AB24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC24" t="n">
         <v>11</v>
@@ -4864,10 +4864,10 @@
         <v>151</v>
       </c>
       <c r="AT24" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="n">
         <v>51</v>
@@ -4888,7 +4888,7 @@
         <v>81</v>
       </c>
       <c r="BB24" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC24" t="n">
         <v>501</v>
@@ -4929,22 +4929,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I25" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K25" t="n">
         <v>2.38</v>
       </c>
       <c r="L25" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
@@ -4959,10 +4959,10 @@
         <v>4.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R25" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S25" t="n">
         <v>1.3</v>
@@ -4971,16 +4971,16 @@
         <v>3.4</v>
       </c>
       <c r="U25" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V25" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W25" t="n">
         <v>15</v>
       </c>
       <c r="X25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y25" t="n">
         <v>13</v>
@@ -4989,7 +4989,7 @@
         <v>41</v>
       </c>
       <c r="AA25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB25" t="n">
         <v>29</v>
@@ -5001,7 +5001,7 @@
         <v>7.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF25" t="n">
         <v>41</v>
@@ -5010,16 +5010,16 @@
         <v>126</v>
       </c>
       <c r="AH25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI25" t="n">
         <v>10</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>11</v>
       </c>
       <c r="AJ25" t="n">
         <v>8.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL25" t="n">
         <v>13</v>
@@ -5031,19 +5031,19 @@
         <v>6</v>
       </c>
       <c r="AO25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP25" t="n">
         <v>23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR25" t="n">
         <v>67</v>
       </c>
       <c r="AS25" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT25" t="n">
         <v>3.4</v>
@@ -5055,10 +5055,10 @@
         <v>41</v>
       </c>
       <c r="AW25" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY25" t="n">
         <v>17</v>
@@ -5111,31 +5111,31 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
         <v>4.1</v>
       </c>
       <c r="I26" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K26" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L26" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N26" t="n">
         <v>15</v>
       </c>
       <c r="O26" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P26" t="n">
         <v>4.33</v>
@@ -5153,16 +5153,16 @@
         <v>3.25</v>
       </c>
       <c r="U26" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W26" t="n">
         <v>8</v>
       </c>
       <c r="X26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y26" t="n">
         <v>8.5</v>
@@ -5183,7 +5183,7 @@
         <v>8</v>
       </c>
       <c r="AE26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF26" t="n">
         <v>51</v>
@@ -5195,13 +5195,13 @@
         <v>17</v>
       </c>
       <c r="AI26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL26" t="n">
         <v>41</v>
@@ -5219,7 +5219,7 @@
         <v>17</v>
       </c>
       <c r="AQ26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR26" t="n">
         <v>41</v>
@@ -5231,13 +5231,13 @@
         <v>3.25</v>
       </c>
       <c r="AU26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV26" t="n">
         <v>51</v>
       </c>
       <c r="AW26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX26" t="n">
         <v>29</v>
@@ -5249,7 +5249,7 @@
         <v>101</v>
       </c>
       <c r="BA26" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB26" t="n">
         <v>201</v>
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H28" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="I28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L28" t="n">
         <v>7.6</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L28" t="n">
-        <v>6.9</v>
       </c>
       <c r="M28" t="n">
         <v>1.06</v>
@@ -5495,13 +5495,13 @@
         <v>7.3</v>
       </c>
       <c r="O28" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P28" t="n">
         <v>3.25</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R28" t="n">
         <v>1.85</v>
@@ -5513,25 +5513,25 @@
         <v>2.67</v>
       </c>
       <c r="U28" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="V28" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W28" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X28" t="n">
         <v>5.9</v>
       </c>
-      <c r="X28" t="n">
-        <v>6.1</v>
-      </c>
       <c r="Y28" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB28" t="n">
         <v>32</v>
@@ -5540,10 +5540,10 @@
         <v>7.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AE28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF28" t="n">
         <v>120</v>
@@ -5552,37 +5552,37 @@
         <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK28" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AL28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM28" t="n">
         <v>100</v>
       </c>
-      <c r="AM28" t="n">
-        <v>90</v>
-      </c>
       <c r="AN28" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AO28" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AP28" t="n">
         <v>19</v>
       </c>
       <c r="AQ28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS28" t="n">
         <v>300</v>
@@ -5591,25 +5591,25 @@
         <v>2.67</v>
       </c>
       <c r="AU28" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AV28" t="n">
         <v>100</v>
       </c>
       <c r="AW28" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AX28" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AY28" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AZ28" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="BA28" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BB28" t="n">
         <v>501</v>
@@ -6215,10 +6215,10 @@
         <v>8</v>
       </c>
       <c r="O32" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P32" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q32" t="n">
         <v>2.25</v>
@@ -6949,10 +6949,10 @@
         <v>3</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R36" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S36" t="n">
         <v>1.44</v>
@@ -7101,76 +7101,76 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="H37" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="I37" t="n">
-        <v>2.9</v>
+        <v>2.72</v>
       </c>
       <c r="J37" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="K37" t="n">
         <v>1.98</v>
       </c>
       <c r="L37" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="M37" t="n">
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="O37" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P37" t="n">
-        <v>2.73</v>
+        <v>2.78</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="R37" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S37" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T37" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="U37" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V37" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W37" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="X37" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="Y37" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z37" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA37" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AE37" t="n">
         <v>11.5</v>
@@ -7182,64 +7182,64 @@
         <v>400</v>
       </c>
       <c r="AH37" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AJ37" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL37" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AO37" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ37" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR37" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS37" t="n">
         <v>250</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AU37" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV37" t="n">
         <v>60</v>
       </c>
       <c r="AW37" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="AX37" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AY37" t="n">
         <v>23</v>
       </c>
       <c r="AZ37" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BA37" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB37" t="n">
         <v>300</v>
@@ -7461,13 +7461,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H39" t="n">
         <v>3.9</v>
       </c>
       <c r="I39" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J39" t="n">
         <v>4.33</v>
@@ -7596,7 +7596,7 @@
         <v>17</v>
       </c>
       <c r="AZ39" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA39" t="n">
         <v>41</v>
@@ -7643,13 +7643,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H40" t="n">
         <v>3.6</v>
       </c>
       <c r="I40" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J40" t="n">
         <v>3.2</v>
@@ -7703,7 +7703,7 @@
         <v>29</v>
       </c>
       <c r="AA40" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB40" t="n">
         <v>23</v>
@@ -7730,7 +7730,7 @@
         <v>15</v>
       </c>
       <c r="AJ40" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK40" t="n">
         <v>23</v>
@@ -7745,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="AO40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP40" t="n">
         <v>19</v>
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I41" t="n">
         <v>3.3</v>
       </c>
-      <c r="I41" t="n">
-        <v>3.6</v>
-      </c>
       <c r="J41" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K41" t="n">
         <v>2.05</v>
       </c>
       <c r="L41" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
         <v>1.07</v>
@@ -7861,10 +7861,10 @@
         <v>1.67</v>
       </c>
       <c r="S41" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T41" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U41" t="n">
         <v>1.95</v>
@@ -7873,52 +7873,52 @@
         <v>1.8</v>
       </c>
       <c r="W41" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y41" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA41" t="n">
         <v>19</v>
       </c>
       <c r="AB41" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC41" t="n">
         <v>8.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF41" t="n">
         <v>51</v>
       </c>
       <c r="AG41" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH41" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI41" t="n">
         <v>17</v>
       </c>
       <c r="AJ41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK41" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL41" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM41" t="n">
         <v>41</v>
@@ -7927,7 +7927,7 @@
         <v>4</v>
       </c>
       <c r="AO41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP41" t="n">
         <v>23</v>
@@ -7942,19 +7942,19 @@
         <v>201</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU41" t="n">
         <v>8.5</v>
       </c>
       <c r="AV41" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW41" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY41" t="n">
         <v>29</v>
@@ -8181,16 +8181,16 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H43" t="n">
         <v>3.1</v>
       </c>
       <c r="I43" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J43" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="K43" t="n">
         <v>2.07</v>
@@ -8202,19 +8202,19 @@
         <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="O43" t="n">
         <v>1.31</v>
       </c>
       <c r="P43" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R43" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S43" t="n">
         <v>1.39</v>
@@ -8223,49 +8223,49 @@
         <v>2.77</v>
       </c>
       <c r="U43" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V43" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="W43" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="X43" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y43" t="n">
         <v>8.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA43" t="n">
         <v>17.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC43" t="n">
         <v>8.75</v>
       </c>
       <c r="AD43" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE43" t="n">
         <v>13.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG43" t="n">
         <v>500</v>
       </c>
       <c r="AH43" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI43" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AJ43" t="n">
         <v>11.5</v>
@@ -8274,25 +8274,25 @@
         <v>50</v>
       </c>
       <c r="AL43" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM43" t="n">
         <v>37</v>
       </c>
       <c r="AN43" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="AO43" t="n">
         <v>10.75</v>
       </c>
       <c r="AP43" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ43" t="n">
         <v>40</v>
       </c>
       <c r="AR43" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS43" t="n">
         <v>200</v>
@@ -8301,7 +8301,7 @@
         <v>2.75</v>
       </c>
       <c r="AU43" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV43" t="n">
         <v>55</v>
@@ -8319,7 +8319,7 @@
         <v>90</v>
       </c>
       <c r="BA43" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB43" t="n">
         <v>250</v>
@@ -8359,10 +8359,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H44" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I44" t="n">
         <v>3.7</v>
@@ -8401,37 +8401,37 @@
         <v>2.66</v>
       </c>
       <c r="U44" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V44" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W44" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X44" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Y44" t="n">
         <v>8.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD44" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE44" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF44" t="n">
         <v>70</v>
@@ -8458,34 +8458,34 @@
         <v>40</v>
       </c>
       <c r="AN44" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AO44" t="n">
         <v>10.25</v>
       </c>
       <c r="AP44" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ44" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR44" t="n">
         <v>70</v>
       </c>
       <c r="AS44" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT44" t="n">
         <v>2.55</v>
       </c>
       <c r="AU44" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV44" t="n">
         <v>55</v>
       </c>
       <c r="AW44" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AX44" t="n">
         <v>20</v>
@@ -8500,7 +8500,7 @@
         <v>120</v>
       </c>
       <c r="BB44" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC44" t="inlineStr"/>
       <c r="BD44" t="inlineStr"/>
@@ -8555,10 +8555,10 @@
         <v>3.75</v>
       </c>
       <c r="M45" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O45" t="n">
         <v>1.44</v>
@@ -8603,7 +8603,7 @@
         <v>41</v>
       </c>
       <c r="AC45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD45" t="n">
         <v>6</v>
@@ -8901,22 +8901,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H47" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K47" t="n">
         <v>2.2</v>
       </c>
-      <c r="J47" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K47" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L47" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M47" t="n">
         <v>1.04</v>
@@ -8925,40 +8925,40 @@
         <v>13</v>
       </c>
       <c r="O47" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P47" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="R47" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="S47" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T47" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U47" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V47" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X47" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z47" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AA47" t="n">
         <v>21</v>
@@ -8967,7 +8967,7 @@
         <v>26</v>
       </c>
       <c r="AC47" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD47" t="n">
         <v>7</v>
@@ -8985,25 +8985,25 @@
         <v>9.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM47" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN47" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO47" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP47" t="n">
         <v>21</v>
@@ -9015,25 +9015,25 @@
         <v>67</v>
       </c>
       <c r="AS47" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT47" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU47" t="n">
         <v>7.5</v>
       </c>
       <c r="AV47" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW47" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ47" t="n">
         <v>41</v>
@@ -9042,10 +9042,10 @@
         <v>51</v>
       </c>
       <c r="BB47" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC47" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD47" t="n">
         <v>51</v>
@@ -9101,10 +9101,10 @@
         <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N48" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O48" t="n">
         <v>1.53</v>
@@ -9261,16 +9261,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I49" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J49" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K49" t="n">
         <v>2.1</v>
@@ -9282,7 +9282,7 @@
         <v>1.07</v>
       </c>
       <c r="N49" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O49" t="n">
         <v>1.36</v>
@@ -9291,22 +9291,22 @@
         <v>3</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R49" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S49" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T49" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U49" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V49" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W49" t="n">
         <v>5.5</v>
@@ -9318,7 +9318,7 @@
         <v>9</v>
       </c>
       <c r="Z49" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA49" t="n">
         <v>15</v>
@@ -9327,10 +9327,10 @@
         <v>34</v>
       </c>
       <c r="AC49" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD49" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE49" t="n">
         <v>23</v>
@@ -9342,10 +9342,10 @@
         <v>101</v>
       </c>
       <c r="AH49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI49" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ49" t="n">
         <v>21</v>
@@ -9363,13 +9363,13 @@
         <v>3.25</v>
       </c>
       <c r="AO49" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP49" t="n">
         <v>23</v>
       </c>
       <c r="AQ49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR49" t="n">
         <v>51</v>
@@ -9378,7 +9378,7 @@
         <v>201</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU49" t="n">
         <v>10</v>
@@ -9387,7 +9387,7 @@
         <v>81</v>
       </c>
       <c r="AW49" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AX49" t="n">
         <v>41</v>
@@ -9455,10 +9455,10 @@
         <v>5</v>
       </c>
       <c r="M50" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N50" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O50" t="n">
         <v>1.44</v>
@@ -9615,13 +9615,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H51" t="n">
         <v>5.5</v>
       </c>
       <c r="I51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J51" t="n">
         <v>1.73</v>
@@ -9636,7 +9636,7 @@
         <v>1.02</v>
       </c>
       <c r="N51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O51" t="n">
         <v>1.13</v>
@@ -9651,10 +9651,10 @@
         <v>2.7</v>
       </c>
       <c r="S51" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T51" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U51" t="n">
         <v>1.73</v>
@@ -9687,22 +9687,22 @@
         <v>11</v>
       </c>
       <c r="AE51" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF51" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG51" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH51" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI51" t="n">
         <v>41</v>
       </c>
       <c r="AJ51" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK51" t="n">
         <v>81</v>
@@ -9714,7 +9714,7 @@
         <v>41</v>
       </c>
       <c r="AN51" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO51" t="n">
         <v>6</v>
@@ -9732,7 +9732,7 @@
         <v>81</v>
       </c>
       <c r="AT51" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU51" t="n">
         <v>8.5</v>
@@ -9979,22 +9979,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H53" t="n">
         <v>4.5</v>
       </c>
       <c r="I53" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J53" t="n">
         <v>2.2</v>
       </c>
       <c r="K53" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L53" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M53" t="n">
         <v>1.03</v>
@@ -10015,22 +10015,22 @@
         <v>2.2</v>
       </c>
       <c r="S53" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T53" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U53" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V53" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W53" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y53" t="n">
         <v>8.5</v>
@@ -10042,7 +10042,7 @@
         <v>13</v>
       </c>
       <c r="AB53" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC53" t="n">
         <v>15</v>
@@ -10051,22 +10051,22 @@
         <v>8.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF53" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG53" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI53" t="n">
         <v>23</v>
       </c>
       <c r="AJ53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK53" t="n">
         <v>51</v>
@@ -10093,13 +10093,13 @@
         <v>41</v>
       </c>
       <c r="AS53" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT53" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU53" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV53" t="n">
         <v>51</v>
@@ -10108,7 +10108,7 @@
         <v>6.5</v>
       </c>
       <c r="AX53" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY53" t="n">
         <v>29</v>
@@ -10117,10 +10117,10 @@
         <v>81</v>
       </c>
       <c r="BA53" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB53" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC53" t="n">
         <v>126</v>
@@ -10173,7 +10173,7 @@
         <v>3.5</v>
       </c>
       <c r="K54" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L54" t="n">
         <v>2.75</v>
@@ -10236,16 +10236,16 @@
         <v>12</v>
       </c>
       <c r="AF54" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG54" t="n">
         <v>126</v>
       </c>
       <c r="AH54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ54" t="n">
         <v>9</v>
@@ -10343,22 +10343,22 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H55" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I55" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J55" t="n">
         <v>4</v>
       </c>
       <c r="K55" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L55" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M55" t="n">
         <v>1.02</v>
@@ -10379,16 +10379,16 @@
         <v>2.5</v>
       </c>
       <c r="S55" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T55" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U55" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V55" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W55" t="n">
         <v>17</v>
@@ -10409,10 +10409,10 @@
         <v>29</v>
       </c>
       <c r="AC55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD55" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE55" t="n">
         <v>12</v>
@@ -10424,7 +10424,7 @@
         <v>101</v>
       </c>
       <c r="AH55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI55" t="n">
         <v>11</v>
@@ -10433,7 +10433,7 @@
         <v>8.5</v>
       </c>
       <c r="AK55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL55" t="n">
         <v>13</v>
@@ -10442,10 +10442,10 @@
         <v>19</v>
       </c>
       <c r="AN55" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP55" t="n">
         <v>23</v>
@@ -10460,7 +10460,7 @@
         <v>126</v>
       </c>
       <c r="AT55" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU55" t="n">
         <v>7</v>
@@ -10469,16 +10469,16 @@
         <v>41</v>
       </c>
       <c r="AW55" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX55" t="n">
         <v>9</v>
       </c>
       <c r="AY55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ55" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA55" t="n">
         <v>41</v>
@@ -10487,7 +10487,7 @@
         <v>81</v>
       </c>
       <c r="BC55" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD55" t="n">
         <v>151</v>
@@ -10546,13 +10546,13 @@
         <v>1.01</v>
       </c>
       <c r="N56" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O56" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P56" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q56" t="n">
         <v>1.29</v>
@@ -10907,10 +10907,10 @@
         <v>2.5</v>
       </c>
       <c r="M58" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N58" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O58" t="n">
         <v>1.14</v>
@@ -11071,13 +11071,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H59" t="n">
         <v>3.6</v>
       </c>
       <c r="I59" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J59" t="n">
         <v>4</v>
@@ -11101,10 +11101,10 @@
         <v>4.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R59" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S59" t="n">
         <v>1.3</v>
@@ -11283,10 +11283,10 @@
         <v>4.33</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R60" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S60" t="n">
         <v>1.33</v>
@@ -11435,13 +11435,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>3.4</v>
       </c>
       <c r="I61" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J61" t="n">
         <v>2.75</v>
@@ -11450,13 +11450,13 @@
         <v>2.2</v>
       </c>
       <c r="L61" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M61" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N61" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O61" t="n">
         <v>1.25</v>
@@ -11465,10 +11465,10 @@
         <v>3.75</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R61" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S61" t="n">
         <v>1.36</v>
@@ -11486,7 +11486,7 @@
         <v>8.5</v>
       </c>
       <c r="X61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y61" t="n">
         <v>9</v>
@@ -11501,7 +11501,7 @@
         <v>23</v>
       </c>
       <c r="AC61" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD61" t="n">
         <v>6.5</v>
@@ -11519,22 +11519,22 @@
         <v>12</v>
       </c>
       <c r="AI61" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ61" t="n">
         <v>12</v>
       </c>
       <c r="AK61" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL61" t="n">
         <v>26</v>
       </c>
       <c r="AM61" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN61" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO61" t="n">
         <v>11</v>
@@ -11564,16 +11564,16 @@
         <v>5.5</v>
       </c>
       <c r="AX61" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY61" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ61" t="n">
         <v>51</v>
       </c>
       <c r="BA61" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB61" t="n">
         <v>151</v>
@@ -11617,22 +11617,22 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H62" t="n">
         <v>3.7</v>
       </c>
       <c r="I62" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J62" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K62" t="n">
         <v>2.25</v>
       </c>
       <c r="L62" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M62" t="n">
         <v>1.04</v>
@@ -11677,7 +11677,7 @@
         <v>15</v>
       </c>
       <c r="AA62" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB62" t="n">
         <v>23</v>
@@ -11692,7 +11692,7 @@
         <v>15</v>
       </c>
       <c r="AF62" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG62" t="n">
         <v>201</v>
@@ -11701,10 +11701,10 @@
         <v>13</v>
       </c>
       <c r="AI62" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK62" t="n">
         <v>41</v>
@@ -11713,10 +11713,10 @@
         <v>34</v>
       </c>
       <c r="AM62" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN62" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO62" t="n">
         <v>9.5</v>
@@ -11746,16 +11746,16 @@
         <v>6</v>
       </c>
       <c r="AX62" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY62" t="n">
         <v>29</v>
       </c>
       <c r="AZ62" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA62" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB62" t="n">
         <v>201</v>
@@ -11799,22 +11799,22 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="H63" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I63" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="J63" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K63" t="n">
         <v>2.3</v>
       </c>
       <c r="L63" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M63" t="n">
         <v>1.05</v>
@@ -11853,7 +11853,7 @@
         <v>34</v>
       </c>
       <c r="Y63" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z63" t="n">
         <v>81</v>
@@ -11886,10 +11886,10 @@
         <v>6.5</v>
       </c>
       <c r="AJ63" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK63" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL63" t="n">
         <v>13</v>
@@ -11898,7 +11898,7 @@
         <v>29</v>
       </c>
       <c r="AN63" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO63" t="n">
         <v>41</v>
@@ -11910,7 +11910,7 @@
         <v>151</v>
       </c>
       <c r="AR63" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AS63" t="n">
         <v>351</v>
@@ -11987,34 +11987,34 @@
         <v>5.25</v>
       </c>
       <c r="I64" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J64" t="n">
         <v>1.83</v>
       </c>
       <c r="K64" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L64" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M64" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N64" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O64" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P64" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R64" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S64" t="n">
         <v>1.25</v>
@@ -12023,16 +12023,16 @@
         <v>3.75</v>
       </c>
       <c r="U64" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V64" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W64" t="n">
         <v>9</v>
       </c>
       <c r="X64" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y64" t="n">
         <v>9</v>
@@ -12044,10 +12044,10 @@
         <v>11</v>
       </c>
       <c r="AB64" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC64" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD64" t="n">
         <v>10</v>
@@ -12068,13 +12068,13 @@
         <v>41</v>
       </c>
       <c r="AJ64" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK64" t="n">
         <v>81</v>
       </c>
       <c r="AL64" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM64" t="n">
         <v>41</v>
@@ -12163,22 +12163,22 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="H65" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I65" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="J65" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="K65" t="n">
         <v>2.67</v>
       </c>
       <c r="L65" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="M65" t="n">
         <v>1.02</v>
@@ -12190,13 +12190,13 @@
         <v>1.13</v>
       </c>
       <c r="P65" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="R65" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="S65" t="n">
         <v>1.24</v>
@@ -12205,37 +12205,37 @@
         <v>3.65</v>
       </c>
       <c r="U65" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V65" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W65" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="X65" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Y65" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z65" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AA65" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB65" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC65" t="n">
         <v>10</v>
       </c>
       <c r="AD65" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AE65" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF65" t="n">
         <v>60</v>
@@ -12253,25 +12253,25 @@
         <v>8.75</v>
       </c>
       <c r="AK65" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AL65" t="n">
         <v>10</v>
       </c>
       <c r="AM65" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN65" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AO65" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AP65" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AQ65" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AR65" t="n">
         <v>200</v>
@@ -12283,22 +12283,22 @@
         <v>3.65</v>
       </c>
       <c r="AU65" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AV65" t="n">
         <v>55</v>
       </c>
       <c r="AW65" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AX65" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AY65" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AZ65" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="BA65" t="n">
         <v>32</v>
@@ -12341,145 +12341,145 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H66" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="I66" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="J66" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="K66" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L66" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N66" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R66" t="n">
         <v>2.57</v>
       </c>
-      <c r="L66" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N66" t="n">
-        <v>10</v>
-      </c>
-      <c r="O66" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P66" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R66" t="n">
-        <v>2.77</v>
-      </c>
       <c r="S66" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="T66" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="U66" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V66" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="W66" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="X66" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y66" t="n">
         <v>8.5</v>
       </c>
       <c r="Z66" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA66" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AB66" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC66" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD66" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AE66" t="n">
         <v>13.5</v>
       </c>
       <c r="AF66" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG66" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AH66" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI66" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ66" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK66" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL66" t="n">
         <v>35</v>
       </c>
       <c r="AM66" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN66" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AO66" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AP66" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AQ66" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AR66" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AS66" t="n">
         <v>120</v>
       </c>
       <c r="AT66" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="AU66" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV66" t="n">
         <v>45</v>
       </c>
       <c r="AW66" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AX66" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY66" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ66" t="n">
         <v>110</v>
       </c>
       <c r="BA66" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB66" t="n">
         <v>200</v>
@@ -12521,10 +12521,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="H67" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I67" t="n">
         <v>2.65</v>
@@ -12533,10 +12533,10 @@
         <v>2.85</v>
       </c>
       <c r="K67" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L67" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="M67" t="n">
         <v>1.04</v>
@@ -12554,10 +12554,10 @@
         <v>1.62</v>
       </c>
       <c r="R67" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S67" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="T67" t="n">
         <v>3.15</v>
@@ -12566,19 +12566,19 @@
         <v>1.53</v>
       </c>
       <c r="V67" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="W67" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="X67" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y67" t="n">
         <v>9.25</v>
       </c>
       <c r="Z67" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA67" t="n">
         <v>17</v>
@@ -12590,10 +12590,10 @@
         <v>8.75</v>
       </c>
       <c r="AD67" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AE67" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF67" t="n">
         <v>40</v>
@@ -12602,7 +12602,7 @@
         <v>250</v>
       </c>
       <c r="AH67" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AI67" t="n">
         <v>15.5</v>
@@ -12617,16 +12617,16 @@
         <v>19.5</v>
       </c>
       <c r="AM67" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN67" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="AO67" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AP67" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ67" t="n">
         <v>45</v>
@@ -12699,13 +12699,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H68" t="n">
         <v>3.6</v>
       </c>
       <c r="I68" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J68" t="n">
         <v>2.2</v>
@@ -12714,13 +12714,13 @@
         <v>2.1</v>
       </c>
       <c r="L68" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M68" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N68" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O68" t="n">
         <v>1.33</v>
@@ -12801,7 +12801,7 @@
         <v>3.4</v>
       </c>
       <c r="AO68" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP68" t="n">
         <v>23</v>
@@ -12825,7 +12825,7 @@
         <v>67</v>
       </c>
       <c r="AW68" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX68" t="n">
         <v>34</v>
@@ -12902,7 +12902,7 @@
         <v>1.08</v>
       </c>
       <c r="N69" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O69" t="n">
         <v>1.44</v>
@@ -12911,10 +12911,10 @@
         <v>2.63</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R69" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S69" t="n">
         <v>1.53</v>
@@ -13245,13 +13245,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H71" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I71" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
         <v>4</v>
@@ -13260,13 +13260,13 @@
         <v>2.1</v>
       </c>
       <c r="L71" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M71" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N71" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="O71" t="n">
         <v>1.3</v>
@@ -13275,10 +13275,10 @@
         <v>3.4</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R71" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S71" t="n">
         <v>1.4</v>
@@ -13293,10 +13293,10 @@
         <v>1.83</v>
       </c>
       <c r="W71" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X71" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y71" t="n">
         <v>13</v>
@@ -13311,10 +13311,10 @@
         <v>41</v>
       </c>
       <c r="AC71" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD71" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE71" t="n">
         <v>15</v>
@@ -13347,7 +13347,7 @@
         <v>5.5</v>
       </c>
       <c r="AO71" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP71" t="n">
         <v>29</v>
@@ -13359,7 +13359,7 @@
         <v>81</v>
       </c>
       <c r="AS71" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT71" t="n">
         <v>2.75</v>
@@ -13380,7 +13380,7 @@
         <v>21</v>
       </c>
       <c r="AZ71" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA71" t="n">
         <v>51</v>
@@ -13427,28 +13427,28 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I72" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J72" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K72" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L72" t="n">
         <v>5.5</v>
       </c>
       <c r="M72" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N72" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O72" t="n">
         <v>1.2</v>
@@ -13457,10 +13457,10 @@
         <v>4.33</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R72" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S72" t="n">
         <v>1.3</v>
@@ -13475,16 +13475,16 @@
         <v>1.91</v>
       </c>
       <c r="W72" t="n">
+        <v>8</v>
+      </c>
+      <c r="X72" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y72" t="n">
         <v>8.5</v>
       </c>
-      <c r="X72" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>9</v>
-      </c>
       <c r="Z72" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA72" t="n">
         <v>12</v>
@@ -13496,10 +13496,10 @@
         <v>15</v>
       </c>
       <c r="AD72" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE72" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF72" t="n">
         <v>51</v>
@@ -13529,13 +13529,13 @@
         <v>3.6</v>
       </c>
       <c r="AO72" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP72" t="n">
         <v>17</v>
       </c>
       <c r="AQ72" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR72" t="n">
         <v>41</v>
@@ -13565,7 +13565,7 @@
         <v>101</v>
       </c>
       <c r="BA72" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB72" t="n">
         <v>151</v>
@@ -13609,13 +13609,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H73" t="n">
         <v>4</v>
       </c>
       <c r="I73" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J73" t="n">
         <v>4.75</v>
@@ -13666,7 +13666,7 @@
         <v>15</v>
       </c>
       <c r="Z73" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA73" t="n">
         <v>34</v>
@@ -13687,7 +13687,7 @@
         <v>51</v>
       </c>
       <c r="AG73" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH73" t="n">
         <v>8</v>
@@ -13723,7 +13723,7 @@
         <v>101</v>
       </c>
       <c r="AS73" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT73" t="n">
         <v>3.25</v>
@@ -13791,22 +13791,22 @@
         </is>
       </c>
       <c r="G74" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H74" t="n">
         <v>3.35</v>
       </c>
-      <c r="H74" t="n">
-        <v>3.4</v>
-      </c>
       <c r="I74" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="J74" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K74" t="n">
         <v>2.18</v>
       </c>
       <c r="L74" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="M74" t="n">
         <v>1.05</v>
@@ -13827,34 +13827,34 @@
         <v>2.05</v>
       </c>
       <c r="S74" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="T74" t="n">
         <v>2.92</v>
       </c>
       <c r="U74" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V74" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="W74" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="X74" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y74" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Z74" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AA74" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AB74" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC74" t="n">
         <v>8</v>
@@ -13866,22 +13866,22 @@
         <v>12.5</v>
       </c>
       <c r="AF74" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG74" t="n">
         <v>300</v>
       </c>
       <c r="AH74" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ74" t="n">
         <v>8.5</v>
       </c>
-      <c r="AI74" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AK74" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL74" t="n">
         <v>15</v>
@@ -13890,16 +13890,16 @@
         <v>22</v>
       </c>
       <c r="AN74" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AO74" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AP74" t="n">
         <v>22</v>
       </c>
       <c r="AQ74" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AR74" t="n">
         <v>110</v>
@@ -13917,19 +13917,19 @@
         <v>50</v>
       </c>
       <c r="AW74" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AX74" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AY74" t="n">
         <v>17</v>
       </c>
       <c r="AZ74" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BA74" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB74" t="n">
         <v>200</v>
@@ -13973,19 +13973,19 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="H75" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I75" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="J75" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K75" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L75" t="n">
         <v>3.05</v>
@@ -13994,7 +13994,7 @@
         <v>1.06</v>
       </c>
       <c r="N75" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="O75" t="n">
         <v>1.29</v>
@@ -14009,22 +14009,22 @@
         <v>1.87</v>
       </c>
       <c r="S75" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T75" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="U75" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V75" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W75" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X75" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y75" t="n">
         <v>9.75</v>
@@ -14033,19 +14033,19 @@
         <v>32</v>
       </c>
       <c r="AA75" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB75" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC75" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AD75" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AE75" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF75" t="n">
         <v>55</v>
@@ -14054,64 +14054,64 @@
         <v>400</v>
       </c>
       <c r="AH75" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI75" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ75" t="n">
         <v>9.25</v>
       </c>
       <c r="AK75" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL75" t="n">
         <v>20</v>
       </c>
       <c r="AM75" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN75" t="n">
         <v>4.7</v>
       </c>
       <c r="AO75" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AP75" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ75" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR75" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS75" t="n">
         <v>250</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU75" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV75" t="n">
         <v>55</v>
       </c>
       <c r="AW75" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="AX75" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AY75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ75" t="n">
         <v>55</v>
       </c>
       <c r="BA75" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB75" t="n">
         <v>250</v>
@@ -14161,10 +14161,10 @@
         <v>19</v>
       </c>
       <c r="I76" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J76" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="K76" t="n">
         <v>5.5</v>
@@ -14197,10 +14197,10 @@
         <v>9</v>
       </c>
       <c r="U76" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V76" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W76" t="n">
         <v>29</v>
@@ -14212,7 +14212,7 @@
         <v>23</v>
       </c>
       <c r="Z76" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA76" t="n">
         <v>15</v>
@@ -14227,7 +14227,7 @@
         <v>41</v>
       </c>
       <c r="AE76" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AF76" t="n">
         <v>101</v>
@@ -14236,13 +14236,13 @@
         <v>151</v>
       </c>
       <c r="AH76" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI76" t="n">
         <v>201</v>
       </c>
       <c r="AJ76" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK76" t="n">
         <v>201</v>
@@ -14251,10 +14251,10 @@
         <v>201</v>
       </c>
       <c r="AM76" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN76" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO76" t="n">
         <v>4.33</v>
@@ -14278,7 +14278,7 @@
         <v>15</v>
       </c>
       <c r="AV76" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW76" t="n">
         <v>29</v>
@@ -14287,7 +14287,7 @@
         <v>101</v>
       </c>
       <c r="AY76" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AZ76" t="n">
         <v>351</v>
@@ -14335,10 +14335,10 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="H77" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I77" t="n">
         <v>1.78</v>
@@ -14347,10 +14347,10 @@
         <v>4.45</v>
       </c>
       <c r="K77" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L77" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="M77" t="n">
         <v>1.06</v>
@@ -14359,46 +14359,46 @@
         <v>8</v>
       </c>
       <c r="O77" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P77" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R77" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S77" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T77" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="U77" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V77" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W77" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="X77" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y77" t="n">
         <v>14.5</v>
       </c>
       <c r="Z77" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA77" t="n">
         <v>40</v>
       </c>
       <c r="AB77" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC77" t="n">
         <v>8</v>
@@ -14407,40 +14407,40 @@
         <v>7.4</v>
       </c>
       <c r="AE77" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF77" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AG77" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH77" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AI77" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AJ77" t="n">
         <v>8.75</v>
       </c>
       <c r="AK77" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL77" t="n">
         <v>15</v>
       </c>
-      <c r="AL77" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AM77" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN77" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AO77" t="n">
         <v>23</v>
       </c>
       <c r="AP77" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ77" t="n">
         <v>120</v>
@@ -14452,25 +14452,25 @@
         <v>400</v>
       </c>
       <c r="AT77" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="AU77" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AV77" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AW77" t="n">
         <v>3.65</v>
       </c>
       <c r="AX77" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AY77" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ77" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BA77" t="n">
         <v>65</v>
@@ -14881,142 +14881,142 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="H80" t="n">
         <v>3.25</v>
       </c>
       <c r="I80" t="n">
-        <v>2.62</v>
+        <v>2.47</v>
       </c>
       <c r="J80" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K80" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L80" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N80" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T80" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U80" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V80" t="n">
         <v>2.1</v>
       </c>
-      <c r="L80" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M80" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N80" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="O80" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P80" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R80" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S80" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T80" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="U80" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V80" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W80" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="X80" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y80" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ80" t="n">
         <v>9.25</v>
       </c>
-      <c r="Z80" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA80" t="n">
+      <c r="AK80" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL80" t="n">
         <v>19.5</v>
       </c>
-      <c r="AB80" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG80" t="n">
+      <c r="AM80" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS80" t="n">
         <v>300</v>
       </c>
-      <c r="AH80" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AO80" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP80" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ80" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR80" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS80" t="n">
-        <v>200</v>
-      </c>
       <c r="AT80" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="AU80" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AV80" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW80" t="n">
-        <v>4.65</v>
+        <v>4.45</v>
       </c>
       <c r="AX80" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AY80" t="n">
         <v>21</v>
       </c>
       <c r="AZ80" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="BA80" t="n">
         <v>90</v>
@@ -15063,22 +15063,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="H81" t="n">
         <v>3.55</v>
       </c>
       <c r="I81" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K81" t="n">
         <v>2.3</v>
       </c>
       <c r="L81" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="M81" t="n">
         <v>1.03</v>
@@ -15087,22 +15087,22 @@
         <v>9</v>
       </c>
       <c r="O81" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P81" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R81" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="S81" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T81" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="U81" t="n">
         <v>1.44</v>
@@ -15111,19 +15111,19 @@
         <v>2.6</v>
       </c>
       <c r="W81" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X81" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y81" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z81" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA81" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB81" t="n">
         <v>20</v>
@@ -15132,40 +15132,40 @@
         <v>9</v>
       </c>
       <c r="AD81" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE81" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF81" t="n">
         <v>32</v>
       </c>
       <c r="AG81" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AH81" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AI81" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ81" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK81" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL81" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AM81" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AN81" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AO81" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP81" t="n">
         <v>16</v>
@@ -15180,34 +15180,34 @@
         <v>150</v>
       </c>
       <c r="AT81" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AU81" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AV81" t="n">
         <v>37</v>
       </c>
       <c r="AW81" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="AX81" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AY81" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AZ81" t="n">
         <v>45</v>
       </c>
       <c r="BA81" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB81" t="n">
         <v>150</v>
       </c>
       <c r="BC81" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BD81" t="n">
         <v>51</v>
@@ -15427,28 +15427,28 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="H83" t="n">
         <v>3.6</v>
       </c>
       <c r="I83" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="J83" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K83" t="n">
         <v>2.27</v>
       </c>
       <c r="L83" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="M83" t="n">
         <v>1.04</v>
       </c>
       <c r="N83" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="O83" t="n">
         <v>1.2</v>
@@ -15460,13 +15460,13 @@
         <v>1.62</v>
       </c>
       <c r="R83" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S83" t="n">
         <v>1.32</v>
       </c>
       <c r="T83" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="U83" t="n">
         <v>1.53</v>
@@ -15475,25 +15475,25 @@
         <v>2.35</v>
       </c>
       <c r="W83" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="X83" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y83" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Z83" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AA83" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB83" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC83" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD83" t="n">
         <v>7.2</v>
@@ -15508,67 +15508,67 @@
         <v>250</v>
       </c>
       <c r="AH83" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AI83" t="n">
         <v>12.5</v>
       </c>
       <c r="AJ83" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AK83" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AM83" t="n">
         <v>21</v>
       </c>
-      <c r="AL83" t="n">
+      <c r="AN83" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO83" t="n">
         <v>15</v>
       </c>
-      <c r="AM83" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN83" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AO83" t="n">
-        <v>16</v>
-      </c>
       <c r="AP83" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ83" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AR83" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS83" t="n">
         <v>200</v>
       </c>
       <c r="AT83" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AU83" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV83" t="n">
         <v>45</v>
       </c>
       <c r="AW83" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AX83" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AY83" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AZ83" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BA83" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB83" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BC83" t="n">
         <v>51</v>
@@ -15612,76 +15612,76 @@
         <v>1.15</v>
       </c>
       <c r="H84" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="I84" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J84" t="n">
         <v>1.47</v>
       </c>
       <c r="K84" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="L84" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="M84" t="n">
         <v>1.01</v>
       </c>
       <c r="N84" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O84" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P84" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="R84" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="S84" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="T84" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="U84" t="n">
         <v>1.9</v>
       </c>
       <c r="V84" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="W84" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="X84" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z84" t="n">
         <v>7.4</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>7.3</v>
       </c>
       <c r="AA84" t="n">
         <v>10</v>
       </c>
       <c r="AB84" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC84" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AD84" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE84" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF84" t="n">
         <v>90</v>
@@ -15690,62 +15690,62 @@
         <v>500</v>
       </c>
       <c r="AH84" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AI84" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL84" t="n">
         <v>200</v>
       </c>
-      <c r="AJ84" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>900</v>
-      </c>
-      <c r="AL84" t="n">
-        <v>250</v>
-      </c>
       <c r="AM84" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN84" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AO84" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AP84" t="n">
         <v>13</v>
       </c>
       <c r="AQ84" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AR84" t="n">
         <v>27</v>
       </c>
       <c r="AS84" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AT84" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AU84" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AV84" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW84" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX84" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AY84" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AZ84" t="inlineStr"/>
       <c r="BA84" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BB84" t="n">
         <v>500</v>
@@ -15785,13 +15785,13 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H85" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I85" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="J85" t="n">
         <v>2.38</v>
@@ -15806,13 +15806,13 @@
         <v>1.06</v>
       </c>
       <c r="N85" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O85" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P85" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q85" t="n">
         <v>1.98</v>
@@ -15848,16 +15848,16 @@
         <v>15</v>
       </c>
       <c r="AB85" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC85" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD85" t="n">
         <v>7</v>
       </c>
       <c r="AE85" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF85" t="n">
         <v>51</v>
@@ -15866,13 +15866,13 @@
         <v>301</v>
       </c>
       <c r="AH85" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI85" t="n">
         <v>23</v>
       </c>
       <c r="AJ85" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK85" t="n">
         <v>51</v>
@@ -15884,10 +15884,10 @@
         <v>41</v>
       </c>
       <c r="AN85" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO85" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP85" t="n">
         <v>21</v>
@@ -15923,7 +15923,7 @@
         <v>81</v>
       </c>
       <c r="BA85" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB85" t="n">
         <v>251</v>
@@ -15967,37 +15967,37 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="H86" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="I86" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J86" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="K86" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="L86" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="M86" t="n">
         <v>1.14</v>
       </c>
       <c r="N86" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="O86" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P86" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="R86" t="n">
         <v>1.36</v>
@@ -16006,40 +16006,40 @@
         <v>1.6</v>
       </c>
       <c r="T86" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="U86" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="V86" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="W86" t="n">
         <v>5.8</v>
       </c>
       <c r="X86" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Y86" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Z86" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA86" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AB86" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC86" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="AD86" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AE86" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF86" t="n">
         <v>150</v>
@@ -16048,43 +16048,43 @@
         <v>67</v>
       </c>
       <c r="AH86" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AI86" t="n">
         <v>14</v>
       </c>
       <c r="AJ86" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK86" t="n">
         <v>45</v>
       </c>
       <c r="AL86" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM86" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN86" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AO86" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP86" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AQ86" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AR86" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AS86" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="AU86" t="n">
         <v>7.9</v>
@@ -16093,10 +16093,10 @@
         <v>100</v>
       </c>
       <c r="AW86" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="AX86" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AY86" t="n">
         <v>32</v>
@@ -16105,7 +16105,7 @@
         <v>110</v>
       </c>
       <c r="BA86" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BB86" t="n">
         <v>67</v>
@@ -16149,64 +16149,64 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="H87" t="n">
         <v>3.45</v>
       </c>
       <c r="I87" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J87" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="K87" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L87" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="M87" t="n">
         <v>1.04</v>
       </c>
       <c r="N87" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O87" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P87" t="n">
-        <v>3.95</v>
+        <v>4.15</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R87" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="S87" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="T87" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="U87" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V87" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="W87" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X87" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y87" t="n">
         <v>8.5</v>
       </c>
       <c r="Z87" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA87" t="n">
         <v>14.5</v>
@@ -16215,82 +16215,82 @@
         <v>20</v>
       </c>
       <c r="AC87" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD87" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AE87" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AF87" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG87" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AH87" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AI87" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AJ87" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AK87" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL87" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AM87" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AN87" t="n">
         <v>4.2</v>
       </c>
       <c r="AO87" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AP87" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ87" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR87" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS87" t="n">
         <v>150</v>
       </c>
       <c r="AT87" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AU87" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AV87" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW87" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AX87" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AY87" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AZ87" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="BA87" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="BB87" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="BC87" t="inlineStr"/>
       <c r="BD87" t="inlineStr"/>
@@ -16505,25 +16505,25 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="H89" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I89" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="J89" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="K89" t="n">
         <v>2.47</v>
       </c>
       <c r="L89" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="M89" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N89" t="n">
         <v>9.75</v>
@@ -16532,37 +16532,37 @@
         <v>1.14</v>
       </c>
       <c r="P89" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="R89" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="S89" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="T89" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="U89" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="V89" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="W89" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X89" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y89" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z89" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA89" t="n">
         <v>18</v>
@@ -16574,16 +16574,16 @@
         <v>9.75</v>
       </c>
       <c r="AD89" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AE89" t="n">
         <v>11.5</v>
       </c>
       <c r="AF89" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG89" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AH89" t="n">
         <v>13.5</v>
@@ -16598,16 +16598,16 @@
         <v>24</v>
       </c>
       <c r="AL89" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AM89" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AN89" t="n">
         <v>5.1</v>
       </c>
       <c r="AO89" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP89" t="n">
         <v>16</v>
@@ -16622,7 +16622,7 @@
         <v>150</v>
       </c>
       <c r="AT89" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AU89" t="n">
         <v>6.4</v>
@@ -16631,10 +16631,10 @@
         <v>37</v>
       </c>
       <c r="AW89" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AX89" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AY89" t="n">
         <v>15</v>
@@ -16700,7 +16700,7 @@
         <v>2.2</v>
       </c>
       <c r="L90" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="M90" t="n">
         <v>1.05</v>
@@ -16778,7 +16778,7 @@
         <v>21</v>
       </c>
       <c r="AL90" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AM90" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD23"/>
+  <dimension ref="A1:BD24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1471,22 +1471,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H6" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="I6" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="J6" t="n">
         <v>4.25</v>
       </c>
       <c r="K6" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="L6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="n">
         <v>1.16</v>
@@ -1504,13 +1504,13 @@
         <v>2.87</v>
       </c>
       <c r="R6" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T6" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="U6" t="n">
         <v>2.2</v>
@@ -1543,7 +1543,7 @@
         <v>5.3</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF6" t="n">
         <v>150</v>
@@ -1555,16 +1555,16 @@
         <v>5.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AJ6" t="n">
         <v>10.25</v>
       </c>
       <c r="AK6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL6" t="n">
         <v>28</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>27</v>
       </c>
       <c r="AM6" t="n">
         <v>50</v>
@@ -1573,7 +1573,7 @@
         <v>5.1</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP6" t="n">
         <v>35</v>
@@ -1598,16 +1598,16 @@
       </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="AY6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AZ6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BB6" t="n">
         <v>150</v>
@@ -1649,34 +1649,34 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H7" t="n">
         <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="J7" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="K7" t="n">
         <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q7" t="n">
         <v>1.88</v>
@@ -1691,10 +1691,10 @@
         <v>2.67</v>
       </c>
       <c r="U7" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="V7" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="W7" t="n">
         <v>5.8</v>
@@ -1709,19 +1709,19 @@
         <v>8.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB7" t="n">
         <v>32</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AD7" t="n">
         <v>8.25</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF7" t="n">
         <v>120</v>
@@ -1736,31 +1736,31 @@
         <v>55</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK7" t="n">
         <v>250</v>
       </c>
       <c r="AL7" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM7" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AP7" t="n">
         <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AR7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS7" t="n">
         <v>300</v>
@@ -1769,26 +1769,26 @@
         <v>2.67</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AV7" t="n">
         <v>100</v>
       </c>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AY7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AZ7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BA7" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BB7" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BC7" t="n">
         <v>501</v>
@@ -1851,10 +1851,10 @@
         <v>7.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>2.78</v>
+        <v>2.73</v>
       </c>
       <c r="Q8" t="n">
         <v>2.07</v>
@@ -2382,7 +2382,7 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="O11" t="n">
         <v>1.33</v>
@@ -2692,7 +2692,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2PGl7IVh</t>
+          <t>EZYulMqf</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2702,179 +2702,175 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Club Tijuana</t>
+          <t>Raja Casablanca</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Club America</t>
+          <t>Wydad</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
         <v>2.88</v>
       </c>
-      <c r="H13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P13" t="n">
         <v>2.38</v>
       </c>
-      <c r="J13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>11</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.5</v>
-      </c>
       <c r="Q13" t="n">
-        <v>1.98</v>
+        <v>2.7</v>
       </c>
       <c r="R13" t="n">
-        <v>1.88</v>
+        <v>1.44</v>
       </c>
       <c r="S13" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="T13" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="W13" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y13" t="n">
         <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
         <v>23</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
       </c>
       <c r="AE13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO13" t="n">
         <v>15</v>
       </c>
-      <c r="AF13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>29</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>23</v>
       </c>
       <c r="AQ13" t="n">
         <v>51</v>
       </c>
       <c r="AR13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA13" t="n">
         <v>67</v>
       </c>
-      <c r="AS13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>41</v>
-      </c>
       <c r="BB13" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BC13" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>51</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="BD13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EZYulMqf</t>
+          <t>WOOOogV0</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2884,175 +2880,175 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Raja Casablanca</t>
+          <t>Al Khor</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Wydad</t>
+          <t>Al-Sadd</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.88</v>
+        <v>1.34</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
-        <v>1.91</v>
+        <v>2.7</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
-        <v>1.53</v>
+        <v>1.13</v>
       </c>
       <c r="P14" t="n">
-        <v>2.38</v>
+        <v>5.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.44</v>
+        <v>2.72</v>
       </c>
       <c r="S14" t="n">
-        <v>1.62</v>
+        <v>1.23</v>
       </c>
       <c r="T14" t="n">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="V14" t="n">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="X14" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC14" t="n">
         <v>10</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AD14" t="n">
         <v>11</v>
       </c>
-      <c r="Z14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE14" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AG14" t="n">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>8.25</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>8.75</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>9.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="AM14" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.33</v>
+        <v>8.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AP14" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AQ14" t="n">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="AR14" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="AS14" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="AU14" t="n">
-        <v>9.5</v>
+        <v>7.7</v>
       </c>
       <c r="AV14" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>21</v>
+        <v>5.9</v>
       </c>
       <c r="AZ14" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="BA14" t="n">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="BB14" t="n">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="BC14" t="n">
-        <v>351</v>
+        <v>120</v>
       </c>
       <c r="BD14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>WOOOogV0</t>
+          <t>ObLGmF0l</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3072,165 +3068,167 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Al Khor</t>
+          <t>Al Rayyan</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Al-Sadd</t>
+          <t>Shamal</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="H15" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="I15" t="n">
-        <v>1.34</v>
+        <v>4.35</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>2.07</v>
       </c>
       <c r="K15" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="L15" t="n">
-        <v>1.75</v>
+        <v>4.3</v>
       </c>
       <c r="M15" t="n">
         <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="O15" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P15" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R15" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="S15" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="T15" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="U15" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="V15" t="n">
-        <v>2.1</v>
+        <v>2.37</v>
       </c>
       <c r="W15" t="n">
-        <v>26</v>
+        <v>11.25</v>
       </c>
       <c r="X15" t="n">
-        <v>50</v>
+        <v>10.25</v>
       </c>
       <c r="Y15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>500</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AY15" t="n">
         <v>22</v>
       </c>
-      <c r="Z15" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>35</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ15" t="n">
+      <c r="AZ15" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>110</v>
+      </c>
+      <c r="BC15" t="n">
         <v>200</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>14</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>32</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>120</v>
       </c>
       <c r="BD15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ObLGmF0l</t>
+          <t>hvDXqXaD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3240,7 +3238,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3250,55 +3248,55 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Al Rayyan</t>
+          <t>Al-Gharafa</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Shamal</t>
+          <t>Al Wakra</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.6</v>
+        <v>2.32</v>
       </c>
       <c r="H16" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="I16" t="n">
-        <v>4.45</v>
+        <v>2.65</v>
       </c>
       <c r="J16" t="n">
-        <v>2.05</v>
+        <v>2.85</v>
       </c>
       <c r="K16" t="n">
-        <v>2.52</v>
+        <v>2.3</v>
       </c>
       <c r="L16" t="n">
-        <v>4.45</v>
+        <v>3.1</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="O16" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>4.9</v>
+        <v>4.05</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="R16" t="n">
-        <v>2.57</v>
+        <v>2.22</v>
       </c>
       <c r="S16" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="T16" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="U16" t="n">
         <v>1.53</v>
@@ -3307,100 +3305,98 @@
         <v>2.32</v>
       </c>
       <c r="W16" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="X16" t="n">
-        <v>9.75</v>
+        <v>13.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z16" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AA16" t="n">
-        <v>11.25</v>
+        <v>17</v>
       </c>
       <c r="AB16" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AD16" t="n">
-        <v>9.25</v>
+        <v>7.3</v>
       </c>
       <c r="AE16" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AF16" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG16" t="n">
         <v>250</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>11.75</v>
       </c>
       <c r="AI16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK16" t="n">
         <v>30</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>70</v>
-      </c>
       <c r="AL16" t="n">
-        <v>35</v>
+        <v>19.5</v>
       </c>
       <c r="AM16" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>7.4</v>
+        <v>11.75</v>
       </c>
       <c r="AP16" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="AR16" t="n">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="AS16" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="AU16" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AV16" t="n">
         <v>45</v>
       </c>
-      <c r="AW16" t="n">
-        <v>500</v>
-      </c>
+      <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="n">
-        <v>6.7</v>
+        <v>4.85</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="BA16" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="BB16" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="BC16" t="n">
         <v>200</v>
@@ -3410,7 +3406,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hvDXqXaD</t>
+          <t>nkhrOTUG</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3420,170 +3416,174 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Al-Gharafa</t>
+          <t>Sepsi Sf. Gheorghe</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Al Wakra</t>
+          <t>Gloria Buzau</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.32</v>
+        <v>1.57</v>
       </c>
       <c r="H17" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>2.65</v>
+        <v>5.5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.85</v>
+        <v>2.2</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>4.05</v>
+        <v>3.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="R17" t="n">
-        <v>2.22</v>
+        <v>1.7</v>
       </c>
       <c r="S17" t="n">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="T17" t="n">
-        <v>3.15</v>
+        <v>2.63</v>
       </c>
       <c r="U17" t="n">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="V17" t="n">
-        <v>2.32</v>
+        <v>1.67</v>
       </c>
       <c r="W17" t="n">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="X17" t="n">
-        <v>13.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AA17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB17" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AG17" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AI17" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AK17" t="n">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="AL17" t="n">
-        <v>19.5</v>
+        <v>51</v>
       </c>
       <c r="AM17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP17" t="n">
         <v>23</v>
       </c>
-      <c r="AN17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AQ17" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AR17" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AS17" t="n">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.15</v>
+        <v>2.63</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.6</v>
+        <v>9.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW17" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>51</v>
+      </c>
       <c r="AX17" t="n">
-        <v>4.85</v>
+        <v>7</v>
       </c>
       <c r="AY17" t="n">
-        <v>13.5</v>
+        <v>34</v>
       </c>
       <c r="AZ17" t="n">
-        <v>18.5</v>
+        <v>41</v>
       </c>
       <c r="BA17" t="n">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="BB17" t="n">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="BC17" t="n">
-        <v>200</v>
-      </c>
-      <c r="BD17" t="inlineStr"/>
+        <v>351</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3877,7 +3877,7 @@
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH19" t="n">
         <v>7.5</v>
@@ -4660,6 +4660,186 @@
         <v>250</v>
       </c>
       <c r="BD23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CzKe0my8</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Al Wahda</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Al Wasl</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>37</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>450</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>40</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>55</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>120</v>
+      </c>
+      <c r="BD24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
@@ -1649,28 +1649,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="I7" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="J7" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L7" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="O7" t="n">
         <v>1.29</v>
@@ -1682,46 +1682,46 @@
         <v>1.88</v>
       </c>
       <c r="R7" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S7" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="U7" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V7" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W7" t="n">
         <v>5.8</v>
       </c>
       <c r="X7" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y7" t="n">
         <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB7" t="n">
         <v>32</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
         <v>120</v>
@@ -1730,65 +1730,65 @@
         <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK7" t="n">
         <v>250</v>
       </c>
       <c r="AL7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM7" t="n">
         <v>110</v>
       </c>
-      <c r="AM7" t="n">
-        <v>90</v>
-      </c>
       <c r="AN7" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AP7" t="n">
         <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AR7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS7" t="n">
         <v>300</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
         <v>100</v>
       </c>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AY7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AZ7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BA7" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BB7" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BC7" t="n">
         <v>501</v>
@@ -1851,10 +1851,10 @@
         <v>7.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>2.73</v>
+        <v>2.78</v>
       </c>
       <c r="Q8" t="n">
         <v>2.07</v>
@@ -2899,16 +2899,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="H14" t="n">
         <v>5.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="K14" t="n">
         <v>2.7</v>
@@ -2926,19 +2926,19 @@
         <v>1.13</v>
       </c>
       <c r="P14" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="R14" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="S14" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="T14" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="U14" t="n">
         <v>1.65</v>
@@ -2947,7 +2947,7 @@
         <v>2.1</v>
       </c>
       <c r="W14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X14" t="n">
         <v>50</v>
@@ -2968,7 +2968,7 @@
         <v>10</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AE14" t="n">
         <v>17.5</v>
@@ -2980,7 +2980,7 @@
         <v>350</v>
       </c>
       <c r="AH14" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI14" t="n">
         <v>8.25</v>
@@ -2992,7 +2992,7 @@
         <v>9.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AM14" t="n">
         <v>20</v>
@@ -3013,13 +3013,13 @@
         <v>200</v>
       </c>
       <c r="AS14" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AV14" t="n">
         <v>55</v>
@@ -3035,13 +3035,13 @@
         <v>13</v>
       </c>
       <c r="BA14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="BB14" t="n">
         <v>32</v>
       </c>
       <c r="BC14" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BD14" t="inlineStr"/>
     </row>
@@ -3489,7 +3489,7 @@
         <v>6.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
         <v>11</v>
@@ -3543,7 +3543,7 @@
         <v>23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR17" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD24"/>
+  <dimension ref="A1:BD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H8" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="I8" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
         <v>1.98</v>
       </c>
       <c r="L8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
@@ -1851,10 +1851,10 @@
         <v>7.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>2.78</v>
+        <v>2.73</v>
       </c>
       <c r="Q8" t="n">
         <v>2.07</v>
@@ -1863,10 +1863,10 @@
         <v>1.6</v>
       </c>
       <c r="S8" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="U8" t="n">
         <v>1.85</v>
@@ -1875,52 +1875,52 @@
         <v>1.91</v>
       </c>
       <c r="W8" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="X8" t="n">
         <v>10.25</v>
       </c>
       <c r="Y8" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Z8" t="n">
         <v>22</v>
       </c>
       <c r="AA8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC8" t="n">
         <v>7.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
         <v>50</v>
       </c>
       <c r="AG8" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AH8" t="n">
         <v>6.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AK8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM8" t="n">
         <v>28</v>
@@ -1929,44 +1929,44 @@
         <v>4.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR8" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS8" t="n">
         <v>250</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AV8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="AY8" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AZ8" t="n">
         <v>23</v>
       </c>
       <c r="BA8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB8" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BC8" t="n">
         <v>300</v>
@@ -2183,22 +2183,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I10" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="K10" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
@@ -2231,101 +2231,101 @@
         <v>1.93</v>
       </c>
       <c r="W10" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="X10" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z10" t="n">
         <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
         <v>60</v>
       </c>
       <c r="AG10" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH10" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AP10" t="n">
         <v>18</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AQ10" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS10" t="n">
         <v>200</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="n">
         <v>5.3</v>
       </c>
       <c r="AY10" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA10" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB10" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BC10" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BD10" t="inlineStr"/>
     </row>
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="H16" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J16" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="K16" t="n">
         <v>2.3</v>
       </c>
       <c r="L16" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
@@ -3284,13 +3284,13 @@
         <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R16" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S16" t="n">
         <v>1.31</v>
@@ -3302,31 +3302,31 @@
         <v>1.53</v>
       </c>
       <c r="V16" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="W16" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="X16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="n">
         <v>9.25</v>
       </c>
       <c r="Z16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC16" t="n">
         <v>8.75</v>
       </c>
       <c r="AD16" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AE16" t="n">
         <v>12</v>
@@ -3341,34 +3341,34 @@
         <v>11.75</v>
       </c>
       <c r="AI16" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ16" t="n">
         <v>10</v>
       </c>
       <c r="AK16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL16" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AM16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="AO16" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AP16" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ16" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS16" t="n">
         <v>175</v>
@@ -3380,23 +3380,23 @@
         <v>6.6</v>
       </c>
       <c r="AV16" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AY16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AZ16" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="BA16" t="n">
         <v>55</v>
       </c>
       <c r="BB16" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BC16" t="n">
         <v>200</v>
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
@@ -3444,7 +3444,7 @@
         <v>5.5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
@@ -3486,10 +3486,10 @@
         <v>6</v>
       </c>
       <c r="X17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z17" t="n">
         <v>11</v>
@@ -3504,7 +3504,7 @@
         <v>8.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -3543,7 +3543,7 @@
         <v>23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR17" t="n">
         <v>51</v>
@@ -3799,7 +3799,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
@@ -3817,10 +3817,10 @@
         <v>2.63</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="O19" t="n">
         <v>1.3</v>
@@ -3856,13 +3856,13 @@
         <v>13</v>
       </c>
       <c r="Z19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA19" t="n">
         <v>29</v>
       </c>
       <c r="AB19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC19" t="n">
         <v>9.5</v>
@@ -3952,7 +3952,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>xpKWnHAs</t>
+          <t>dYbmKML6</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3962,177 +3962,179 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tampines</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tanjong Pagar</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.03</v>
+        <v>3.2</v>
       </c>
       <c r="H20" t="n">
-        <v>19</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>34</v>
+        <v>2.02</v>
       </c>
       <c r="J20" t="n">
-        <v>1.18</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>5.5</v>
+        <v>2.18</v>
       </c>
       <c r="L20" t="n">
-        <v>21</v>
+        <v>2.6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="P20" t="n">
-        <v>21</v>
+        <v>3.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.08</v>
+        <v>1.72</v>
       </c>
       <c r="R20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC20" t="n">
         <v>8</v>
       </c>
-      <c r="S20" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="T20" t="n">
+      <c r="AD20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH20" t="n">
         <v>9</v>
       </c>
-      <c r="U20" t="n">
-        <v>2</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W20" t="n">
-        <v>29</v>
-      </c>
-      <c r="X20" t="n">
+      <c r="AI20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL20" t="n">
         <v>15</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AM20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AP20" t="n">
         <v>23</v>
       </c>
-      <c r="Z20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE20" t="n">
+      <c r="AQ20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW20" t="n">
         <v>51</v>
       </c>
-      <c r="AF20" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>126</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>201</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>201</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV20" t="n">
+      <c r="AX20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>37</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>60</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>200</v>
+      </c>
+      <c r="BD20" t="n">
         <v>51</v>
       </c>
-      <c r="AW20" t="n">
-        <v>301</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>101</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2VZFUi4c</t>
+          <t>xpKWnHAs</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4142,173 +4144,177 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Buriram</t>
+          <t>Tampines</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Sukhothai</t>
+          <t>Tanjong Pagar</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.15</v>
+        <v>1.03</v>
       </c>
       <c r="H21" t="n">
-        <v>6.9</v>
+        <v>19</v>
       </c>
       <c r="I21" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="J21" t="n">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="K21" t="n">
-        <v>3.05</v>
+        <v>5.5</v>
       </c>
       <c r="L21" t="n">
-        <v>9.75</v>
+        <v>21</v>
       </c>
       <c r="M21" t="n">
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="O21" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="P21" t="n">
-        <v>6.1</v>
+        <v>21</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.3</v>
+        <v>1.08</v>
       </c>
       <c r="R21" t="n">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="S21" t="n">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="T21" t="n">
-        <v>4.1</v>
+        <v>9</v>
       </c>
       <c r="U21" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="W21" t="n">
-        <v>11.5</v>
+        <v>29</v>
       </c>
       <c r="X21" t="n">
-        <v>7.7</v>
+        <v>15</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="Z21" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AB21" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="AE21" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AF21" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="AG21" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="AH21" t="n">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="AI21" t="n">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="AJ21" t="n">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="n">
-        <v>600</v>
+        <v>201</v>
       </c>
       <c r="AL21" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM21" t="n">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>4.7</v>
+        <v>4.33</v>
       </c>
       <c r="AP21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ21" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="AR21" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AS21" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="AT21" t="n">
-        <v>4.1</v>
+        <v>9</v>
       </c>
       <c r="AU21" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AV21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW21" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>301</v>
+      </c>
       <c r="AX21" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AY21" t="n">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AZ21" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA21" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>351</v>
+      </c>
       <c r="BB21" t="n">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="BC21" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="BD21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ppjD0Hnl</t>
+          <t>2VZFUi4c</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4318,175 +4324,173 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Al Sharjah</t>
+          <t>Buriram</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Sukhothai</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1.15</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>6.9</v>
       </c>
       <c r="I22" t="n">
-        <v>3.4</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>2.57</v>
+        <v>1.47</v>
       </c>
       <c r="K22" t="n">
-        <v>2.22</v>
+        <v>3.05</v>
       </c>
       <c r="L22" t="n">
-        <v>3.7</v>
+        <v>9.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>8.75</v>
+        <v>25</v>
       </c>
       <c r="O22" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P22" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S22" t="n">
         <v>1.19</v>
       </c>
-      <c r="P22" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.32</v>
-      </c>
       <c r="T22" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="U22" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="V22" t="n">
-        <v>2.4</v>
+        <v>1.82</v>
       </c>
       <c r="W22" t="n">
-        <v>9.75</v>
+        <v>11.5</v>
       </c>
       <c r="X22" t="n">
-        <v>11.5</v>
+        <v>7.7</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>19.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA22" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="AB22" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.75</v>
+        <v>27</v>
       </c>
       <c r="AD22" t="n">
-        <v>7.1</v>
+        <v>16</v>
       </c>
       <c r="AE22" t="n">
-        <v>11.25</v>
+        <v>26</v>
       </c>
       <c r="AF22" t="n">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="AG22" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL22" t="n">
         <v>200</v>
       </c>
-      <c r="AH22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>25</v>
-      </c>
       <c r="AM22" t="n">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="AO22" t="n">
-        <v>10.25</v>
+        <v>4.7</v>
       </c>
       <c r="AP22" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AQ22" t="n">
-        <v>37</v>
+        <v>9.5</v>
       </c>
       <c r="AR22" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="AS22" t="n">
         <v>150</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="AU22" t="n">
-        <v>6.3</v>
+        <v>9</v>
       </c>
       <c r="AV22" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="n">
-        <v>5.6</v>
+        <v>14</v>
       </c>
       <c r="AY22" t="n">
-        <v>17.5</v>
+        <v>75</v>
       </c>
       <c r="AZ22" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>80</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="BA22" t="inlineStr"/>
       <c r="BB22" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="BC22" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="BD22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>hnBY7afE</t>
+          <t>WEiW6Wxq</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4496,175 +4500,179 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Shabab Al-Ahli Dubai</t>
+          <t>Karpaty Lviv</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Kolos Kovalivka</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.38</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
-        <v>5.2</v>
+        <v>2.7</v>
       </c>
       <c r="I23" t="n">
-        <v>6.2</v>
+        <v>3.15</v>
       </c>
       <c r="J23" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
-        <v>2.72</v>
+        <v>1.82</v>
       </c>
       <c r="L23" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.14</v>
       </c>
       <c r="N23" t="n">
-        <v>19</v>
+        <v>4.35</v>
       </c>
       <c r="O23" t="n">
-        <v>1.11</v>
+        <v>1.6</v>
       </c>
       <c r="P23" t="n">
-        <v>5.7</v>
+        <v>2.07</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.35</v>
+        <v>2.67</v>
       </c>
       <c r="R23" t="n">
-        <v>2.95</v>
+        <v>1.36</v>
       </c>
       <c r="S23" t="n">
-        <v>1.22</v>
+        <v>1.6</v>
       </c>
       <c r="T23" t="n">
-        <v>3.9</v>
+        <v>2.07</v>
       </c>
       <c r="U23" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.55</v>
       </c>
-      <c r="V23" t="n">
-        <v>2.3</v>
-      </c>
       <c r="W23" t="n">
-        <v>12</v>
+        <v>5.8</v>
       </c>
       <c r="X23" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="Y23" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>10.75</v>
+        <v>28</v>
       </c>
       <c r="AA23" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AB23" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="AC23" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP23" t="n">
         <v>27</v>
       </c>
-      <c r="AD23" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK23" t="n">
+      <c r="AQ23" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR23" t="n">
         <v>120</v>
       </c>
-      <c r="AL23" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>30</v>
-      </c>
       <c r="AS23" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>32</v>
+      </c>
+      <c r="BA23" t="n">
         <v>110</v>
       </c>
-      <c r="AT23" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW23" t="inlineStr"/>
-      <c r="AX23" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>30</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>27</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>150</v>
-      </c>
       <c r="BB23" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BC23" t="n">
-        <v>250</v>
-      </c>
-      <c r="BD23" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CzKe0my8</t>
+          <t>ppjD0Hnl</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4674,7 +4682,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>09:40</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4684,124 +4692,124 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Al Wahda</t>
+          <t>Al Sharjah</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Al Wasl</t>
+          <t>Al Nasr</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V24" t="n">
         <v>2.37</v>
       </c>
-      <c r="J24" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.62</v>
-      </c>
       <c r="W24" t="n">
-        <v>13.5</v>
+        <v>9.75</v>
       </c>
       <c r="X24" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="Z24" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AB24" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>8.25</v>
+        <v>7.1</v>
       </c>
       <c r="AE24" t="n">
         <v>11.25</v>
       </c>
       <c r="AF24" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AG24" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AH24" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP24" t="n">
         <v>15.5</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>16</v>
-      </c>
       <c r="AQ24" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AR24" t="n">
         <v>55</v>
@@ -4810,36 +4818,392 @@
         <v>150</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="AU24" t="n">
         <v>6.3</v>
       </c>
       <c r="AV24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW24" t="inlineStr"/>
+      <c r="AX24" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>90</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>200</v>
+      </c>
+      <c r="BD24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>hnBY7afE</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Shabab Al-Ahli Dubai</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Ittihad Kalba</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="L25" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N25" t="n">
+        <v>19</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W25" t="n">
+        <v>12</v>
+      </c>
+      <c r="X25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>110</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>250</v>
+      </c>
+      <c r="BD25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CzKe0my8</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Al Wahda</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Al Wasl</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV26" t="n">
         <v>37</v>
       </c>
-      <c r="AW24" t="n">
+      <c r="AW26" t="n">
         <v>450</v>
       </c>
-      <c r="AX24" t="n">
+      <c r="AX26" t="n">
         <v>4.85</v>
       </c>
-      <c r="AY24" t="n">
+      <c r="AY26" t="n">
         <v>11.5</v>
       </c>
-      <c r="AZ24" t="n">
+      <c r="AZ26" t="n">
         <v>15</v>
       </c>
-      <c r="BA24" t="n">
+      <c r="BA26" t="n">
         <v>40</v>
       </c>
-      <c r="BB24" t="n">
+      <c r="BB26" t="n">
         <v>55</v>
       </c>
-      <c r="BC24" t="n">
+      <c r="BC26" t="n">
         <v>120</v>
       </c>
-      <c r="BD24" t="inlineStr"/>
+      <c r="BD26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD26"/>
+  <dimension ref="A1:BD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J2" t="n">
         <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.75</v>
       </c>
       <c r="K2" t="n">
         <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -789,10 +789,10 @@
         <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W2" t="n">
         <v>15</v>
@@ -801,13 +801,13 @@
         <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
         <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>26</v>
@@ -819,25 +819,25 @@
         <v>8</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>34</v>
       </c>
       <c r="AG2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH2" t="n">
         <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
         <v>13</v>
@@ -846,22 +846,22 @@
         <v>19</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
         <v>3.5</v>
@@ -879,19 +879,19 @@
         <v>4.33</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AZ2" t="n">
         <v>17</v>
       </c>
       <c r="BA2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB2" t="n">
         <v>41</v>
       </c>
       <c r="BC2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
         <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -977,16 +977,16 @@
         <v>2.2</v>
       </c>
       <c r="W3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
         <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
@@ -1001,7 +1001,7 @@
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
@@ -1010,7 +1010,7 @@
         <v>151</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>13</v>
@@ -1022,13 +1022,13 @@
         <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO3" t="n">
         <v>15</v>
@@ -1037,13 +1037,13 @@
         <v>21</v>
       </c>
       <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
         <v>51</v>
       </c>
-      <c r="AR3" t="n">
-        <v>67</v>
-      </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT3" t="n">
         <v>3</v>
@@ -1058,7 +1058,7 @@
         <v>501</v>
       </c>
       <c r="AX3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -1289,28 +1289,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1331,16 +1331,16 @@
         <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
@@ -1355,7 +1355,7 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
         <v>8</v>
@@ -1370,13 +1370,13 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
         <v>41</v>
       </c>
       <c r="AJ5" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AK5" t="n">
         <v>101</v>
@@ -1385,13 +1385,13 @@
         <v>67</v>
       </c>
       <c r="AM5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
@@ -1403,7 +1403,7 @@
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
         <v>2.63</v>
@@ -1418,7 +1418,7 @@
         <v>51</v>
       </c>
       <c r="AX5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
@@ -1427,10 +1427,10 @@
         <v>51</v>
       </c>
       <c r="BA5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB5" t="n">
         <v>251</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>301</v>
       </c>
       <c r="BC5" t="n">
         <v>501</v>
@@ -1471,28 +1471,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H6" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="I6" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J6" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
         <v>1.75</v>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.65</v>
@@ -1501,7 +1501,7 @@
         <v>2.15</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="R6" t="n">
         <v>1.36</v>
@@ -1519,76 +1519,76 @@
         <v>1.6</v>
       </c>
       <c r="W6" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AC6" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AE6" t="n">
         <v>18.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="n">
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AI6" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AL6" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP6" t="n">
         <v>35</v>
       </c>
       <c r="AQ6" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AR6" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AS6" t="n">
         <v>501</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AU6" t="n">
         <v>7.9</v>
@@ -1598,16 +1598,16 @@
       </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="AY6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA6" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB6" t="n">
         <v>150</v>
@@ -2005,22 +2005,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="H9" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="I9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J9" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="K9" t="n">
         <v>1.98</v>
       </c>
       <c r="L9" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
@@ -2029,22 +2029,22 @@
         <v>6.95</v>
       </c>
       <c r="O9" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S9" t="n">
         <v>1.42</v>
       </c>
       <c r="T9" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="U9" t="n">
         <v>1.78</v>
@@ -2053,31 +2053,31 @@
         <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="X9" t="n">
         <v>10.75</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
         <v>24</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AD9" t="n">
         <v>5.6</v>
       </c>
       <c r="AE9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF9" t="n">
         <v>70</v>
@@ -2086,40 +2086,40 @@
         <v>600</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AK9" t="n">
         <v>50</v>
       </c>
       <c r="AL9" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="AO9" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR9" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS9" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT9" t="n">
         <v>2.42</v>
@@ -2132,22 +2132,22 @@
       </c>
       <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AY9" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AZ9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA9" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB9" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="BC9" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD9" t="inlineStr"/>
     </row>
@@ -2183,22 +2183,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L10" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
@@ -2207,10 +2207,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Q10" t="n">
         <v>1.95</v>
@@ -2231,16 +2231,16 @@
         <v>1.93</v>
       </c>
       <c r="W10" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X10" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Y10" t="n">
         <v>8.75</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA10" t="n">
         <v>18.5</v>
@@ -2264,10 +2264,10 @@
         <v>450</v>
       </c>
       <c r="AH10" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AI10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AJ10" t="n">
         <v>11</v>
@@ -2276,56 +2276,56 @@
         <v>45</v>
       </c>
       <c r="AL10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM10" t="n">
         <v>32</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="AO10" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AQ10" t="n">
         <v>45</v>
       </c>
       <c r="AR10" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS10" t="n">
         <v>200</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV10" t="n">
         <v>50</v>
       </c>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AZ10" t="n">
         <v>21</v>
       </c>
       <c r="BA10" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB10" t="n">
         <v>100</v>
       </c>
       <c r="BC10" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BD10" t="inlineStr"/>
     </row>
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
         <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J16" t="n">
-        <v>2.77</v>
+        <v>2.9</v>
       </c>
       <c r="K16" t="n">
         <v>2.3</v>
       </c>
       <c r="L16" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
@@ -3287,10 +3287,10 @@
         <v>4.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R16" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S16" t="n">
         <v>1.31</v>
@@ -3302,25 +3302,25 @@
         <v>1.53</v>
       </c>
       <c r="V16" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="W16" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="X16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA16" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC16" t="n">
         <v>8.75</v>
@@ -3338,37 +3338,37 @@
         <v>250</v>
       </c>
       <c r="AH16" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AI16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AK16" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL16" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AM16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="AO16" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AP16" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR16" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS16" t="n">
         <v>175</v>
@@ -3380,26 +3380,26 @@
         <v>6.6</v>
       </c>
       <c r="AV16" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="AY16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB16" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BC16" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BD16" t="inlineStr"/>
     </row>
@@ -3638,7 +3638,7 @@
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
         <v>1.2</v>
@@ -3647,10 +3647,10 @@
         <v>4.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R18" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S18" t="n">
         <v>1.3</v>
@@ -4314,7 +4314,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2VZFUi4c</t>
+          <t>j1izldfS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4324,65 +4324,65 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Buriram</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sukhothai</t>
+          <t>Radomlje</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.15</v>
+        <v>1.88</v>
       </c>
       <c r="H22" t="n">
-        <v>6.9</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>1.47</v>
+        <v>2.47</v>
       </c>
       <c r="K22" t="n">
-        <v>3.05</v>
+        <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>9.75</v>
+        <v>4.4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>25</v>
+        <v>6.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
-        <v>6.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.3</v>
+        <v>2.07</v>
       </c>
       <c r="R22" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="S22" t="n">
-        <v>1.19</v>
+        <v>1.42</v>
       </c>
       <c r="T22" t="n">
-        <v>4.1</v>
+        <v>2.67</v>
       </c>
       <c r="U22" t="n">
         <v>1.9</v>
@@ -4391,106 +4391,112 @@
         <v>1.82</v>
       </c>
       <c r="W22" t="n">
-        <v>11.5</v>
+        <v>6.3</v>
       </c>
       <c r="X22" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="Y22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH22" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>55</v>
-      </c>
       <c r="AI22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB22" t="n">
         <v>150</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>600</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>27</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW22" t="inlineStr"/>
-      <c r="AX22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA22" t="inlineStr"/>
-      <c r="BB22" t="n">
+      <c r="BC22" t="n">
         <v>400</v>
       </c>
-      <c r="BC22" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD22" t="inlineStr"/>
+      <c r="BD22" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>WEiW6Wxq</t>
+          <t>2VZFUi4c</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4500,179 +4506,173 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Karpaty Lviv</t>
+          <t>Buriram</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Sukhothai</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>1.15</v>
       </c>
       <c r="H23" t="n">
-        <v>2.7</v>
+        <v>6.9</v>
       </c>
       <c r="I23" t="n">
-        <v>3.15</v>
+        <v>15</v>
       </c>
       <c r="J23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L23" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N23" t="n">
+        <v>25</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P23" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R23" t="n">
         <v>3.2</v>
       </c>
-      <c r="K23" t="n">
+      <c r="S23" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="T23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.82</v>
       </c>
-      <c r="L23" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N23" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.55</v>
-      </c>
       <c r="W23" t="n">
-        <v>5.8</v>
+        <v>11.5</v>
       </c>
       <c r="X23" t="n">
-        <v>10.75</v>
+        <v>7.7</v>
       </c>
       <c r="Y23" t="n">
         <v>10.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>28</v>
+        <v>7.4</v>
       </c>
       <c r="AA23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC23" t="n">
         <v>27</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AD23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>200</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>50</v>
       </c>
-      <c r="AC23" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>27</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>32</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>110</v>
-      </c>
+      <c r="BA23" t="inlineStr"/>
       <c r="BB23" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="BC23" t="n">
-        <v>67</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>81</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="BD23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ppjD0Hnl</t>
+          <t>WEiW6Wxq</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4682,175 +4682,179 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Al Sharjah</t>
+          <t>Karpaty Lviv</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Kolos Kovalivka</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="I24" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="J24" t="n">
-        <v>2.52</v>
+        <v>3.2</v>
       </c>
       <c r="K24" t="n">
-        <v>2.22</v>
+        <v>1.82</v>
       </c>
       <c r="L24" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="N24" t="n">
-        <v>8.5</v>
+        <v>4.35</v>
       </c>
       <c r="O24" t="n">
-        <v>1.19</v>
+        <v>1.6</v>
       </c>
       <c r="P24" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W24" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X24" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN24" t="n">
         <v>4.1</v>
       </c>
-      <c r="Q24" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="W24" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="X24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z24" t="n">
+      <c r="AO24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY24" t="n">
         <v>19.5</v>
       </c>
-      <c r="AA24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>37</v>
-      </c>
-      <c r="AG24" t="n">
+      <c r="AZ24" t="n">
+        <v>32</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB24" t="n">
         <v>200</v>
       </c>
-      <c r="AH24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>35</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW24" t="inlineStr"/>
-      <c r="AX24" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>80</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>90</v>
-      </c>
       <c r="BC24" t="n">
-        <v>200</v>
-      </c>
-      <c r="BD24" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>hnBY7afE</t>
+          <t>ppjD0Hnl</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4870,340 +4874,518 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Shabab Al-Ahli Dubai</t>
+          <t>Al Sharjah</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Al Nasr</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
       <c r="J25" t="n">
-        <v>1.8</v>
+        <v>2.52</v>
       </c>
       <c r="K25" t="n">
-        <v>2.72</v>
+        <v>2.22</v>
       </c>
       <c r="L25" t="n">
-        <v>5.4</v>
+        <v>3.75</v>
       </c>
       <c r="M25" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="P25" t="n">
-        <v>5.7</v>
+        <v>4.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="R25" t="n">
-        <v>2.95</v>
+        <v>2.2</v>
       </c>
       <c r="S25" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="T25" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="U25" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="V25" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="W25" t="n">
-        <v>12</v>
+        <v>9.75</v>
       </c>
       <c r="X25" t="n">
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="Z25" t="n">
-        <v>10.75</v>
+        <v>19.5</v>
       </c>
       <c r="AA25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO25" t="n">
         <v>10</v>
       </c>
-      <c r="AB25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AE25" t="n">
+      <c r="AP25" t="n">
         <v>15.5</v>
       </c>
-      <c r="AF25" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AQ25" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AR25" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AS25" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="AU25" t="n">
-        <v>7.3</v>
+        <v>6.3</v>
       </c>
       <c r="AV25" t="n">
         <v>45</v>
       </c>
       <c r="AW25" t="inlineStr"/>
       <c r="AX25" t="n">
-        <v>8.25</v>
+        <v>5.6</v>
       </c>
       <c r="AY25" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AZ25" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="BA25" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="BB25" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="BC25" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BD25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>hnBY7afE</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Shabab Al-Ahli Dubai</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Ittihad Kalba</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N26" t="n">
+        <v>19</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W26" t="n">
+        <v>12</v>
+      </c>
+      <c r="X26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>110</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW26" t="inlineStr"/>
+      <c r="AX26" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>250</v>
+      </c>
+      <c r="BD26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>CzKe0my8</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>22/11/2024</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>12:30</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Al Wahda</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Al Wasl</t>
         </is>
       </c>
-      <c r="G26" t="n">
+      <c r="G27" t="n">
         <v>2.5</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H27" t="n">
         <v>3.9</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I27" t="n">
         <v>2.37</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J27" t="n">
         <v>2.92</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K27" t="n">
         <v>2.45</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L27" t="n">
         <v>2.8</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M27" t="n">
         <v>1.03</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N27" t="n">
         <v>9.5</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O27" t="n">
         <v>1.15</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P27" t="n">
         <v>4.8</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q27" t="n">
         <v>1.47</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R27" t="n">
         <v>2.52</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S27" t="n">
         <v>1.25</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T27" t="n">
         <v>3.6</v>
       </c>
-      <c r="U26" t="n">
+      <c r="U27" t="n">
         <v>1.44</v>
       </c>
-      <c r="V26" t="n">
+      <c r="V27" t="n">
         <v>2.62</v>
       </c>
-      <c r="W26" t="n">
+      <c r="W27" t="n">
         <v>13.5</v>
       </c>
-      <c r="X26" t="n">
+      <c r="X27" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="Y27" t="n">
         <v>10</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="Z27" t="n">
         <v>29</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AA27" t="n">
         <v>17.5</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AB27" t="n">
         <v>20</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AC27" t="n">
         <v>9.5</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AD27" t="n">
         <v>8.25</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AE27" t="n">
         <v>11.25</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AF27" t="n">
         <v>32</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AG27" t="n">
         <v>175</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AH27" t="n">
         <v>13.5</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AI27" t="n">
         <v>15.5</v>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AJ27" t="n">
         <v>9.75</v>
       </c>
-      <c r="AK26" t="n">
+      <c r="AK27" t="n">
         <v>26</v>
       </c>
-      <c r="AL26" t="n">
+      <c r="AL27" t="n">
         <v>16.5</v>
       </c>
-      <c r="AM26" t="n">
+      <c r="AM27" t="n">
         <v>19</v>
       </c>
-      <c r="AN26" t="n">
+      <c r="AN27" t="n">
         <v>5</v>
       </c>
-      <c r="AO26" t="n">
+      <c r="AO27" t="n">
         <v>12.5</v>
       </c>
-      <c r="AP26" t="n">
+      <c r="AP27" t="n">
         <v>16</v>
       </c>
-      <c r="AQ26" t="n">
+      <c r="AQ27" t="n">
         <v>45</v>
       </c>
-      <c r="AR26" t="n">
+      <c r="AR27" t="n">
         <v>55</v>
       </c>
-      <c r="AS26" t="n">
+      <c r="AS27" t="n">
         <v>150</v>
       </c>
-      <c r="AT26" t="n">
+      <c r="AT27" t="n">
         <v>3.6</v>
       </c>
-      <c r="AU26" t="n">
+      <c r="AU27" t="n">
         <v>6.3</v>
       </c>
-      <c r="AV26" t="n">
+      <c r="AV27" t="n">
         <v>37</v>
       </c>
-      <c r="AW26" t="n">
+      <c r="AW27" t="n">
         <v>450</v>
       </c>
-      <c r="AX26" t="n">
+      <c r="AX27" t="n">
         <v>4.85</v>
       </c>
-      <c r="AY26" t="n">
+      <c r="AY27" t="n">
         <v>11.5</v>
       </c>
-      <c r="AZ26" t="n">
+      <c r="AZ27" t="n">
         <v>15</v>
       </c>
-      <c r="BA26" t="n">
+      <c r="BA27" t="n">
         <v>40</v>
       </c>
-      <c r="BB26" t="n">
+      <c r="BB27" t="n">
         <v>55</v>
       </c>
-      <c r="BC26" t="n">
+      <c r="BC27" t="n">
         <v>120</v>
       </c>
-      <c r="BD26" t="inlineStr"/>
+      <c r="BD27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD27"/>
+  <dimension ref="A1:BD38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -801,13 +801,13 @@
         <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
         <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
         <v>26</v>
@@ -852,7 +852,7 @@
         <v>19</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dpPhx5Zp</t>
+          <t>GnDS6jq2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,175 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AZERBAIJAN - PREMIER LEAGUE</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kapaz</t>
+          <t>Amstetten</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Araz</t>
+          <t>First Vienna</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.95</v>
+        <v>2.27</v>
       </c>
       <c r="H4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L4" t="n">
         <v>3.25</v>
       </c>
-      <c r="I4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.45</v>
-      </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="R4" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="T4" t="n">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="U4" t="n">
-        <v>1.82</v>
+        <v>1.53</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="W4" t="n">
         <v>10.25</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>40</v>
+        <v>16.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="AC4" t="n">
         <v>8.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="AE4" t="n">
-        <v>15.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB4" t="n">
         <v>80</v>
       </c>
-      <c r="AG4" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>150</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>18</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>35</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>65</v>
-      </c>
       <c r="BC4" t="n">
-        <v>250</v>
-      </c>
-      <c r="BD4" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MVKd3J5t</t>
+          <t>xYZuGfMF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1270,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Hebar</t>
+          <t>ASK Voitsberg</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.44</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>3.15</v>
       </c>
       <c r="J5" t="n">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="L5" t="n">
-        <v>8</v>
+        <v>3.65</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S5" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="T5" t="n">
-        <v>2.63</v>
+        <v>2.77</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>1.78</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.93</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="X5" t="n">
-        <v>6</v>
+        <v>10.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z5" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="AE5" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AF5" t="n">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>600</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>9.25</v>
       </c>
       <c r="AI5" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="AJ5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>23</v>
       </c>
-      <c r="AK5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV5" t="n">
+      <c r="BA5" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>110</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>300</v>
+      </c>
+      <c r="BD5" t="n">
         <v>81</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Y3gWdANp</t>
+          <t>48gNSX5L</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1452,175 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>Lafnitz</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Enppi</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.35</v>
+        <v>2.92</v>
       </c>
       <c r="H6" t="n">
-        <v>2.52</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.17</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.65</v>
+        <v>1.12</v>
       </c>
       <c r="P6" t="n">
-        <v>2.15</v>
+        <v>5.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.9</v>
+        <v>1.38</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>2.82</v>
       </c>
       <c r="S6" t="n">
-        <v>1.7</v>
+        <v>1.22</v>
       </c>
       <c r="T6" t="n">
-        <v>2.07</v>
+        <v>3.8</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>1.37</v>
       </c>
       <c r="V6" t="n">
-        <v>1.6</v>
+        <v>2.85</v>
       </c>
       <c r="W6" t="n">
-        <v>6.8</v>
+        <v>18</v>
       </c>
       <c r="X6" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP6" t="n">
         <v>16</v>
       </c>
-      <c r="Y6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA6" t="n">
+      <c r="AQ6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>350</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>32</v>
+      </c>
+      <c r="BB6" t="n">
         <v>40</v>
       </c>
-      <c r="AB6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>35</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>501</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>30</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>80</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>150</v>
-      </c>
       <c r="BC6" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD6" t="inlineStr"/>
+        <v>110</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>v3ybFIwC</t>
+          <t>OhzfNBTr</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1630,175 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>SK Rapid</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>National Bank Egypt</t>
+          <t>St. Polten</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.37</v>
+        <v>2.82</v>
       </c>
       <c r="H7" t="n">
-        <v>4.25</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>8.75</v>
+        <v>2.18</v>
       </c>
       <c r="J7" t="n">
-        <v>1.88</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R7" t="n">
         <v>2.22</v>
       </c>
-      <c r="L7" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.87</v>
-      </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="T7" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="U7" t="n">
-        <v>2.18</v>
+        <v>1.55</v>
       </c>
       <c r="V7" t="n">
-        <v>1.62</v>
+        <v>2.32</v>
       </c>
       <c r="W7" t="n">
-        <v>5.8</v>
+        <v>12</v>
       </c>
       <c r="X7" t="n">
-        <v>5.8</v>
+        <v>16.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.25</v>
+        <v>32</v>
       </c>
       <c r="AA7" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.3</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AI7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>60</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AR7" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AS7" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>6.7</v>
       </c>
       <c r="AV7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW7" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>81</v>
+      </c>
       <c r="AX7" t="n">
-        <v>9.25</v>
+        <v>4.35</v>
       </c>
       <c r="AY7" t="n">
-        <v>55</v>
+        <v>10.75</v>
       </c>
       <c r="AZ7" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="BA7" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="BB7" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="BC7" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD7" t="inlineStr"/>
+        <v>175</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pKpvC5be</t>
+          <t>dpPhx5Zp</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1808,175 +1820,175 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+          <t>AZERBAIJAN - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Gagra</t>
+          <t>Kapaz</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Telavi</t>
+          <t>Araz</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>3.95</v>
       </c>
       <c r="H8" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.8</v>
+        <v>1.88</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>4.35</v>
       </c>
       <c r="K8" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="L8" t="n">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>2.73</v>
+        <v>2.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="U8" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>6.6</v>
+        <v>10.25</v>
       </c>
       <c r="X8" t="n">
-        <v>10.25</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.9</v>
+        <v>13.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="AB8" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>4.9</v>
+        <v>6.3</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AG8" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="AH8" t="n">
         <v>6.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>11.25</v>
+        <v>8.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AK8" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AL8" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AM8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AP8" t="n">
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AR8" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AS8" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="AV8" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="AY8" t="n">
-        <v>16</v>
+        <v>9.25</v>
       </c>
       <c r="AZ8" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="BA8" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="BB8" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="BC8" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t4XCamF8</t>
+          <t>MVKd3J5t</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1986,175 +1998,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Hebar</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.27</v>
+        <v>1.48</v>
       </c>
       <c r="H9" t="n">
-        <v>2.85</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>3.35</v>
+        <v>7.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.87</v>
+        <v>2.1</v>
       </c>
       <c r="K9" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>6.95</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="R9" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>2.47</v>
+        <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>1.78</v>
+        <v>2.38</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="W9" t="n">
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="X9" t="n">
-        <v>10.75</v>
+        <v>6</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>24</v>
+        <v>9.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB9" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="AG9" t="n">
-        <v>600</v>
+        <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11.25</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AM9" t="n">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.15</v>
+        <v>3.2</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="AR9" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.42</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AV9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW9" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>51</v>
+      </c>
       <c r="AX9" t="n">
-        <v>5.2</v>
+        <v>8</v>
       </c>
       <c r="AY9" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="BB9" t="n">
-        <v>110</v>
+        <v>251</v>
       </c>
       <c r="BC9" t="n">
-        <v>250</v>
-      </c>
-      <c r="BD9" t="inlineStr"/>
+        <v>501</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Qe3Siyd2</t>
+          <t>fw6RHKYO</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2164,175 +2180,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>CROATIA - HNL</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Istra 1961</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PSBS Biak Numfor</t>
+          <t>Slaven Belupo</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2.2</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.95</v>
-      </c>
       <c r="R10" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
-        <v>2.77</v>
+        <v>2.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AC10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH10" t="n">
         <v>9</v>
       </c>
-      <c r="AD10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>10</v>
-      </c>
       <c r="AI10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AM10" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW10" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>81</v>
+      </c>
       <c r="AX10" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="BA10" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="BB10" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BC10" t="n">
-        <v>250</v>
-      </c>
-      <c r="BD10" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EHVKcRqL</t>
+          <t>Y3gWdANp</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2342,175 +2362,175 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Enppi</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.02</v>
+        <v>3.35</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>2.52</v>
       </c>
       <c r="I11" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="J11" t="n">
-        <v>2.57</v>
+        <v>4.1</v>
       </c>
       <c r="K11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T11" t="n">
         <v>2.07</v>
       </c>
-      <c r="L11" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.66</v>
-      </c>
       <c r="U11" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="W11" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="X11" t="n">
-        <v>9.25</v>
+        <v>16</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE11" t="n">
         <v>18.5</v>
       </c>
-      <c r="AA11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>14</v>
-      </c>
       <c r="AF11" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AG11" t="n">
-        <v>600</v>
+        <v>201</v>
       </c>
       <c r="AH11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>10.5</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AK11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO11" t="n">
         <v>21</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL11" t="n">
+      <c r="AP11" t="n">
         <v>35</v>
       </c>
-      <c r="AM11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>18</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AR11" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="AS11" t="n">
-        <v>200</v>
+        <v>501</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.6</v>
+        <v>7.9</v>
       </c>
       <c r="AV11" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="n">
-        <v>5.6</v>
+        <v>4.25</v>
       </c>
       <c r="AY11" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ11" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="BA11" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="BB11" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BC11" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="BD11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>rDs18Mtm</t>
+          <t>v3ybFIwC</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2520,179 +2540,175 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>National Bank Egypt</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.88</v>
+        <v>1.37</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.35</v>
+        <v>9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>1.91</v>
       </c>
       <c r="K12" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>2.88</v>
+        <v>7.7</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>15</v>
+        <v>7.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="R12" t="n">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="S12" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="T12" t="n">
-        <v>3.4</v>
+        <v>2.67</v>
       </c>
       <c r="U12" t="n">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="V12" t="n">
-        <v>2.5</v>
+        <v>1.62</v>
       </c>
       <c r="W12" t="n">
-        <v>13</v>
+        <v>5.7</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>5.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>29</v>
+        <v>8.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AC12" t="n">
-        <v>15</v>
+        <v>7.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AF12" t="n">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="n">
-        <v>101</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9.5</v>
+        <v>27</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="AL12" t="n">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="AM12" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="AN12" t="n">
-        <v>5</v>
+        <v>3.05</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>6.4</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>19.5</v>
       </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AS12" t="n">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.4</v>
+        <v>2.67</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>351</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="n">
-        <v>4.75</v>
+        <v>9.25</v>
       </c>
       <c r="AY12" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="AZ12" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="BA12" t="n">
-        <v>41</v>
+        <v>450</v>
       </c>
       <c r="BB12" t="n">
-        <v>51</v>
+        <v>450</v>
       </c>
       <c r="BC12" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>81</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="BD12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EZYulMqf</t>
+          <t>pKpvC5be</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2707,170 +2723,170 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Raja Casablanca</t>
+          <t>Gagra</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Wydad</t>
+          <t>Telavi</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="I13" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.91</v>
       </c>
-      <c r="L13" t="n">
-        <v>4</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>7</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W13" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="X13" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Y13" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AE13" t="n">
         <v>11</v>
       </c>
-      <c r="Z13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC13" t="n">
+      <c r="AF13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH13" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE13" t="n">
+      <c r="AI13" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL13" t="n">
         <v>21</v>
       </c>
-      <c r="AF13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI13" t="n">
+      <c r="AM13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO13" t="n">
         <v>13</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>15</v>
-      </c>
       <c r="AP13" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AR13" t="n">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AS13" t="n">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AU13" t="n">
-        <v>9.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV13" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AZ13" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="BA13" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="BB13" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="BC13" t="n">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="BD13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>WOOOogV0</t>
+          <t>t4XCamF8</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2880,175 +2896,175 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Al Khor</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Al-Sadd</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6.9</v>
+        <v>2.27</v>
       </c>
       <c r="H14" t="n">
-        <v>5.2</v>
+        <v>2.85</v>
       </c>
       <c r="I14" t="n">
-        <v>1.35</v>
+        <v>3.35</v>
       </c>
       <c r="J14" t="n">
-        <v>5.9</v>
+        <v>2.87</v>
       </c>
       <c r="K14" t="n">
-        <v>2.7</v>
+        <v>1.98</v>
       </c>
       <c r="L14" t="n">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>6.95</v>
       </c>
       <c r="O14" t="n">
-        <v>1.13</v>
+        <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>5.1</v>
+        <v>2.62</v>
       </c>
       <c r="Q14" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S14" t="n">
         <v>1.42</v>
       </c>
-      <c r="R14" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.24</v>
-      </c>
       <c r="T14" t="n">
-        <v>3.65</v>
+        <v>2.47</v>
       </c>
       <c r="U14" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="V14" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="W14" t="n">
-        <v>25</v>
+        <v>6.7</v>
       </c>
       <c r="X14" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AK14" t="n">
         <v>50</v>
       </c>
-      <c r="Y14" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB14" t="n">
+      <c r="AL14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>50</v>
       </c>
-      <c r="AC14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>35</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>200</v>
-      </c>
       <c r="AR14" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AS14" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.65</v>
+        <v>2.42</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="AV14" t="n">
         <v>55</v>
       </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="AY14" t="n">
-        <v>5.9</v>
+        <v>18</v>
       </c>
       <c r="AZ14" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="BA14" t="n">
-        <v>14.5</v>
+        <v>90</v>
       </c>
       <c r="BB14" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="BC14" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="BD14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ObLGmF0l</t>
+          <t>Qe3Siyd2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3058,177 +3074,175 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Al Rayyan</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Shamal</t>
+          <t>PSBS Biak Numfor</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>4.35</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K15" t="n">
         <v>2.07</v>
       </c>
-      <c r="K15" t="n">
-        <v>2.55</v>
-      </c>
       <c r="L15" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>9.75</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="O15" t="n">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>2.92</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.44</v>
+        <v>1.95</v>
       </c>
       <c r="R15" t="n">
-        <v>2.62</v>
+        <v>1.75</v>
       </c>
       <c r="S15" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="T15" t="n">
-        <v>3.6</v>
+        <v>2.77</v>
       </c>
       <c r="U15" t="n">
-        <v>1.52</v>
+        <v>1.7</v>
       </c>
       <c r="V15" t="n">
-        <v>2.37</v>
+        <v>1.93</v>
       </c>
       <c r="W15" t="n">
-        <v>11.25</v>
+        <v>7.3</v>
       </c>
       <c r="X15" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z15" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AA15" t="n">
-        <v>11.25</v>
+        <v>18.5</v>
       </c>
       <c r="AB15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI15" t="n">
         <v>18</v>
       </c>
-      <c r="AC15" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG15" t="n">
+      <c r="AJ15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS15" t="n">
         <v>200</v>
       </c>
-      <c r="AH15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AQ15" t="n">
+      <c r="AT15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>21</v>
       </c>
-      <c r="AR15" t="n">
-        <v>37</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>500</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>22</v>
-      </c>
       <c r="BA15" t="n">
+        <v>75</v>
+      </c>
+      <c r="BB15" t="n">
         <v>100</v>
       </c>
-      <c r="BB15" t="n">
-        <v>110</v>
-      </c>
       <c r="BC15" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BD15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>hvDXqXaD</t>
+          <t>EHVKcRqL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3238,175 +3252,175 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Al-Gharafa</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Al Wakra</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>2.02</v>
       </c>
       <c r="H16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I16" t="n">
         <v>3.7</v>
       </c>
-      <c r="I16" t="n">
-        <v>2.55</v>
-      </c>
       <c r="J16" t="n">
-        <v>2.9</v>
+        <v>2.57</v>
       </c>
       <c r="K16" t="n">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="L16" t="n">
-        <v>3.05</v>
+        <v>4.05</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>8.75</v>
+        <v>7.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.98</v>
       </c>
       <c r="R16" t="n">
-        <v>2.22</v>
+        <v>1.65</v>
       </c>
       <c r="S16" t="n">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="T16" t="n">
-        <v>3.15</v>
+        <v>2.66</v>
       </c>
       <c r="U16" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="V16" t="n">
-        <v>2.32</v>
+        <v>1.85</v>
       </c>
       <c r="W16" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="X16" t="n">
-        <v>14</v>
+        <v>9.25</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AA16" t="n">
         <v>17.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AD16" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM16" t="n">
         <v>40</v>
       </c>
-      <c r="AG16" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>23</v>
-      </c>
       <c r="AN16" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="AO16" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="AP16" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ16" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR16" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS16" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.15</v>
+        <v>2.55</v>
       </c>
       <c r="AU16" t="n">
         <v>6.6</v>
       </c>
       <c r="AV16" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="n">
-        <v>4.75</v>
+        <v>5.6</v>
       </c>
       <c r="AY16" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ16" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="BA16" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BB16" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="BC16" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="BD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>nkhrOTUG</t>
+          <t>rDs18Mtm</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3416,179 +3430,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>JAPAN - J1 LEAGUE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sepsi Sf. Gheorghe</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>15</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1.6</v>
       </c>
-      <c r="H17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.1</v>
-      </c>
       <c r="R17" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="S17" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="T17" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="U17" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="V17" t="n">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="W17" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X17" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AA17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC17" t="n">
         <v>15</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.5</v>
       </c>
       <c r="AD17" t="n">
         <v>7</v>
       </c>
       <c r="AE17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM17" t="n">
         <v>21</v>
       </c>
-      <c r="AF17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>51</v>
-      </c>
       <c r="AN17" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="AO17" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AP17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ17" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR17" t="n">
         <v>51</v>
       </c>
       <c r="AS17" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="AU17" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AV17" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB17" t="n">
         <v>51</v>
       </c>
-      <c r="AX17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>151</v>
-      </c>
       <c r="BC17" t="n">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="BD17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>hbT7lS4s</t>
+          <t>EZYulMqf</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3598,179 +3612,175 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Raja Casablanca</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Wydad</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="H18" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>1.48</v>
+        <v>2.88</v>
       </c>
       <c r="J18" t="n">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="L18" t="n">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
+        <v>7</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W18" t="n">
+        <v>6</v>
+      </c>
+      <c r="X18" t="n">
         <v>10</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W18" t="n">
-        <v>17</v>
-      </c>
-      <c r="X18" t="n">
-        <v>29</v>
-      </c>
       <c r="Y18" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Z18" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="AA18" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AB18" t="n">
         <v>41</v>
       </c>
       <c r="AC18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO18" t="n">
         <v>15</v>
       </c>
-      <c r="AD18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF18" t="n">
+      <c r="AP18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>51</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>101</v>
       </c>
       <c r="AR18" t="n">
         <v>101</v>
       </c>
       <c r="AS18" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW18" t="n">
         <v>81</v>
       </c>
+      <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="AY18" t="n">
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="AZ18" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="BA18" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="BB18" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BC18" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>81</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="BD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aa1J6RQP</t>
+          <t>Maxln0E6</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3780,179 +3790,173 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>FAR Rabat</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Union Touarga</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.3</v>
+        <v>1.57</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="K19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>2.63</v>
+        <v>6.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="R19" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="S19" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T19" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U19" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="V19" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="W19" t="n">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="X19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA19" t="n">
         <v>17</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>29</v>
       </c>
       <c r="AB19" t="n">
         <v>34</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL19" t="n">
         <v>51</v>
       </c>
-      <c r="AG19" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>17</v>
-      </c>
       <c r="AM19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>29</v>
       </c>
-      <c r="AN19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>67</v>
-      </c>
       <c r="AR19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV19" t="n">
         <v>81</v>
       </c>
-      <c r="AS19" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>81</v>
-      </c>
+      <c r="AW19" t="inlineStr"/>
       <c r="AX19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY19" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AZ19" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="BA19" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BB19" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>81</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>dYbmKML6</t>
+          <t>KK9PNiw3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3962,179 +3966,179 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Zaglebie</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Motor Lublin</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="H20" t="n">
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.02</v>
+        <v>3.5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="K20" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="R20" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
         <v>1.36</v>
       </c>
       <c r="T20" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="V20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W20" t="n">
-        <v>11.5</v>
+        <v>8.5</v>
       </c>
       <c r="X20" t="n">
-        <v>18.5</v>
+        <v>10</v>
       </c>
       <c r="Y20" t="n">
-        <v>11.25</v>
+        <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="AA20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="n">
         <v>26</v>
       </c>
-      <c r="AB20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI20" t="n">
+      <c r="AM20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO20" t="n">
         <v>11</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ20" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AR20" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AS20" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="AU20" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AW20" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA20" t="n">
         <v>51</v>
       </c>
-      <c r="AX20" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>37</v>
-      </c>
       <c r="BB20" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="BC20" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="BD20" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>xpKWnHAs</t>
+          <t>xz9LzwPE</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4144,177 +4148,179 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tampines</t>
+          <t>Kotwica Kolobrzeg</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tanjong Pagar</t>
+          <t>Termalica B-B.</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.03</v>
+        <v>6.5</v>
       </c>
       <c r="H21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N21" t="n">
+        <v>11</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W21" t="n">
+        <v>17</v>
+      </c>
+      <c r="X21" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA21" t="n">
         <v>19</v>
       </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="K21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L21" t="n">
-        <v>21</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N21" t="n">
-        <v>34</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P21" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="R21" t="n">
-        <v>8</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="T21" t="n">
-        <v>9</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W21" t="n">
-        <v>29</v>
-      </c>
-      <c r="X21" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB21" t="n">
+      <c r="BB21" t="n">
         <v>41</v>
       </c>
-      <c r="AC21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG21" t="n">
+      <c r="BC21" t="n">
         <v>151</v>
       </c>
-      <c r="AH21" t="n">
-        <v>126</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>201</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>201</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS21" t="n">
+      <c r="BD21" t="n">
         <v>81</v>
       </c>
-      <c r="AT21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>301</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>101</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>j1izldfS</t>
+          <t>WOOOogV0</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4324,179 +4330,175 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Al Khor</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Radomlje</t>
+          <t>Al-Sadd</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.88</v>
+        <v>6.9</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>1.35</v>
       </c>
       <c r="J22" t="n">
-        <v>2.47</v>
+        <v>5.9</v>
       </c>
       <c r="K22" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V22" t="n">
         <v>2.1</v>
       </c>
-      <c r="L22" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.82</v>
-      </c>
       <c r="W22" t="n">
-        <v>6.3</v>
+        <v>25</v>
       </c>
       <c r="X22" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI22" t="n">
         <v>8.25</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AJ22" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN22" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>3.7</v>
-      </c>
       <c r="AO22" t="n">
-        <v>9.5</v>
+        <v>35</v>
       </c>
       <c r="AP22" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AQ22" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="AR22" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="AS22" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.67</v>
+        <v>3.65</v>
       </c>
       <c r="AU22" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AV22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>51</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="n">
-        <v>5.8</v>
+        <v>3.5</v>
       </c>
       <c r="AY22" t="n">
-        <v>23</v>
+        <v>5.9</v>
       </c>
       <c r="AZ22" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="BA22" t="n">
-        <v>120</v>
+        <v>14.5</v>
       </c>
       <c r="BB22" t="n">
+        <v>32</v>
+      </c>
+      <c r="BC22" t="n">
         <v>150</v>
       </c>
-      <c r="BC22" t="n">
-        <v>400</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>51</v>
-      </c>
+      <c r="BD22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2VZFUi4c</t>
+          <t>ObLGmF0l</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4506,173 +4508,177 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Buriram</t>
+          <t>Al Rayyan</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sukhothai</t>
+          <t>Shamal</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.15</v>
+        <v>1.6</v>
       </c>
       <c r="H23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N23" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W23" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="X23" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>37</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AU23" t="n">
         <v>6.9</v>
       </c>
-      <c r="I23" t="n">
-        <v>15</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L23" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N23" t="n">
-        <v>25</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P23" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R23" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="T23" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="W23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="X23" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG23" t="n">
+      <c r="AV23" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW23" t="n">
         <v>500</v>
       </c>
-      <c r="AH23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>600</v>
-      </c>
-      <c r="AL23" t="n">
+      <c r="AX23" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>110</v>
+      </c>
+      <c r="BC23" t="n">
         <v>200</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>27</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW23" t="inlineStr"/>
-      <c r="AX23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>75</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA23" t="inlineStr"/>
-      <c r="BB23" t="n">
-        <v>400</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>500</v>
       </c>
       <c r="BD23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>WEiW6Wxq</t>
+          <t>hvDXqXaD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4682,179 +4688,175 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Karpaty Lviv</t>
+          <t>Al-Gharafa</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Al Wakra</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="H24" t="n">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="I24" t="n">
-        <v>3.15</v>
+        <v>2.32</v>
       </c>
       <c r="J24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N24" t="n">
+        <v>9</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T24" t="n">
         <v>3.2</v>
       </c>
-      <c r="K24" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N24" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.07</v>
-      </c>
       <c r="U24" t="n">
-        <v>2.15</v>
+        <v>1.53</v>
       </c>
       <c r="V24" t="n">
-        <v>1.55</v>
+        <v>2.35</v>
       </c>
       <c r="W24" t="n">
-        <v>5.8</v>
+        <v>11.75</v>
       </c>
       <c r="X24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH24" t="n">
         <v>10.75</v>
       </c>
-      <c r="Y24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB24" t="n">
+      <c r="AI24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ24" t="n">
         <v>50</v>
       </c>
-      <c r="AC24" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK24" t="n">
+      <c r="AR24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV24" t="n">
         <v>45</v>
       </c>
-      <c r="AL24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM24" t="n">
+      <c r="AW24" t="inlineStr"/>
+      <c r="AX24" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>45</v>
+      </c>
+      <c r="BB24" t="n">
         <v>65</v>
       </c>
-      <c r="AN24" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>27</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>32</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>200</v>
-      </c>
       <c r="BC24" t="n">
-        <v>67</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>81</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="BD24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ppjD0Hnl</t>
+          <t>nkhrOTUG</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4864,175 +4866,179 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Al Sharjah</t>
+          <t>Sepsi Sf. Gheorghe</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Gloria Buzau</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.52</v>
+        <v>2.25</v>
       </c>
       <c r="K25" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="L25" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
+        <v>9</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W25" t="n">
+        <v>6</v>
+      </c>
+      <c r="X25" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y25" t="n">
         <v>8.5</v>
       </c>
-      <c r="O25" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T25" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="W25" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="X25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>8.25</v>
-      </c>
       <c r="Z25" t="n">
-        <v>19.5</v>
+        <v>11</v>
       </c>
       <c r="AA25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB25" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="AC25" t="n">
         <v>8.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
-        <v>11.25</v>
+        <v>21</v>
       </c>
       <c r="AF25" t="n">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="AG25" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI25" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="AK25" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AL25" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AM25" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="AO25" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AP25" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AR25" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AS25" t="n">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="AU25" t="n">
-        <v>6.3</v>
+        <v>9.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW25" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>51</v>
+      </c>
       <c r="AX25" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="AY25" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AZ25" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="BA25" t="n">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="BB25" t="n">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="BC25" t="n">
-        <v>200</v>
-      </c>
-      <c r="BD25" t="inlineStr"/>
+        <v>351</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>hnBY7afE</t>
+          <t>hbT7lS4s</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5042,175 +5048,179 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Shabab Al-Ahli Dubai</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.38</v>
+        <v>5.25</v>
       </c>
       <c r="H26" t="n">
-        <v>5.2</v>
+        <v>4.75</v>
       </c>
       <c r="I26" t="n">
-        <v>6.2</v>
+        <v>1.48</v>
       </c>
       <c r="J26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U26" t="n">
         <v>1.8</v>
       </c>
-      <c r="K26" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="L26" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="V26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W26" t="n">
+        <v>17</v>
+      </c>
+      <c r="X26" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE26" t="n">
         <v>19</v>
       </c>
-      <c r="O26" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T26" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W26" t="n">
+      <c r="AF26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL26" t="n">
         <v>12</v>
       </c>
-      <c r="X26" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>50</v>
-      </c>
       <c r="AM26" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.7</v>
+        <v>7.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>6.2</v>
+        <v>29</v>
       </c>
       <c r="AP26" t="n">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="AQ26" t="n">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="AR26" t="n">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="AS26" t="n">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="AU26" t="n">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="AV26" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW26" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>81</v>
+      </c>
       <c r="AX26" t="n">
-        <v>8.25</v>
+        <v>3.6</v>
       </c>
       <c r="AY26" t="n">
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="AZ26" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="BA26" t="n">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="BB26" t="n">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="BC26" t="n">
-        <v>250</v>
-      </c>
-      <c r="BD26" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CzKe0my8</t>
+          <t>Aa1J6RQP</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5220,172 +5230,2158 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Al Wahda</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Al Wasl</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="H27" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>2.37</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.92</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="M27" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="P27" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
-        <v>2.52</v>
+        <v>1.8</v>
       </c>
       <c r="S27" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="T27" t="n">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="U27" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="V27" t="n">
-        <v>2.62</v>
+        <v>1.83</v>
       </c>
       <c r="W27" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="X27" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y27" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA27" t="n">
         <v>29</v>
       </c>
-      <c r="AA27" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AB27" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AC27" t="n">
         <v>9.5</v>
       </c>
       <c r="AD27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>xYNxflsK</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Al Qadisiya</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L28" t="n">
+        <v>5</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N28" t="n">
+        <v>15</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2</v>
+      </c>
+      <c r="W28" t="n">
+        <v>8</v>
+      </c>
+      <c r="X28" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>dYbmKML6</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>IMT Novi Beograd</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>TSC</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N29" t="n">
+        <v>8</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>37</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>60</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>200</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>xpKWnHAs</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>08:45</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Tampines</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Tanjong Pagar</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H30" t="n">
+        <v>19</v>
+      </c>
+      <c r="I30" t="n">
+        <v>34</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L30" t="n">
+        <v>21</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
+        <v>34</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P30" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="R30" t="n">
+        <v>8</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="T30" t="n">
+        <v>9</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W30" t="n">
+        <v>29</v>
+      </c>
+      <c r="X30" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>126</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>201</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>101</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>201</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>301</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>101</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>351</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>QDELJxlI</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SLOVAKIA - NIKE LIGA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Kosice</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N31" t="n">
+        <v>8</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W31" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="X31" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>30</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>65</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>250</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>j1izldfS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SLOVENIA - PRVA LIGA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Bravo</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Radomlje</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N32" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W32" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X32" t="n">
         <v>8.25</v>
       </c>
-      <c r="AE27" t="n">
+      <c r="Y32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>400</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2VZFUi4c</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>THAILAND - THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Buriram</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sukhothai</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H33" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I33" t="n">
+        <v>15</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L33" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N33" t="n">
+        <v>28</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P33" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="T33" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W33" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>200</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>27</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW33" t="inlineStr"/>
+      <c r="AX33" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>75</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA33" t="inlineStr"/>
+      <c r="BB33" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>jPRoB7i2</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Umraniyespor</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>5</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N34" t="n">
+        <v>11</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W34" t="n">
+        <v>7</v>
+      </c>
+      <c r="X34" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>WEiW6Wxq</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Karpaty Lviv</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Kolos Kovalivka</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W35" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X35" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>32</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>67</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ppjD0Hnl</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Al Sharjah</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Al Nasr</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W36" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X36" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE36" t="n">
         <v>11.25</v>
       </c>
-      <c r="AF27" t="n">
+      <c r="AF36" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW36" t="inlineStr"/>
+      <c r="AX36" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>90</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>200</v>
+      </c>
+      <c r="BD36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>hnBY7afE</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Shabab Al-Ahli Dubai</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Ittihad Kalba</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="L37" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N37" t="n">
+        <v>19</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T37" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W37" t="n">
+        <v>12</v>
+      </c>
+      <c r="X37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>110</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW37" t="inlineStr"/>
+      <c r="AX37" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>250</v>
+      </c>
+      <c r="BD37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CzKe0my8</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Al Wahda</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Al Wasl</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T38" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X38" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF38" t="n">
         <v>32</v>
       </c>
-      <c r="AG27" t="n">
+      <c r="AG38" t="n">
         <v>175</v>
       </c>
-      <c r="AH27" t="n">
+      <c r="AH38" t="n">
         <v>13.5</v>
       </c>
-      <c r="AI27" t="n">
+      <c r="AI38" t="n">
         <v>15.5</v>
       </c>
-      <c r="AJ27" t="n">
+      <c r="AJ38" t="n">
         <v>9.75</v>
       </c>
-      <c r="AK27" t="n">
+      <c r="AK38" t="n">
         <v>26</v>
       </c>
-      <c r="AL27" t="n">
+      <c r="AL38" t="n">
         <v>16.5</v>
       </c>
-      <c r="AM27" t="n">
+      <c r="AM38" t="n">
         <v>19</v>
       </c>
-      <c r="AN27" t="n">
+      <c r="AN38" t="n">
         <v>5</v>
       </c>
-      <c r="AO27" t="n">
+      <c r="AO38" t="n">
         <v>12.5</v>
       </c>
-      <c r="AP27" t="n">
+      <c r="AP38" t="n">
         <v>16</v>
       </c>
-      <c r="AQ27" t="n">
+      <c r="AQ38" t="n">
         <v>45</v>
       </c>
-      <c r="AR27" t="n">
+      <c r="AR38" t="n">
         <v>55</v>
       </c>
-      <c r="AS27" t="n">
+      <c r="AS38" t="n">
         <v>150</v>
       </c>
-      <c r="AT27" t="n">
+      <c r="AT38" t="n">
         <v>3.6</v>
       </c>
-      <c r="AU27" t="n">
+      <c r="AU38" t="n">
         <v>6.3</v>
       </c>
-      <c r="AV27" t="n">
+      <c r="AV38" t="n">
         <v>37</v>
       </c>
-      <c r="AW27" t="n">
+      <c r="AW38" t="n">
         <v>450</v>
       </c>
-      <c r="AX27" t="n">
+      <c r="AX38" t="n">
         <v>4.85</v>
       </c>
-      <c r="AY27" t="n">
+      <c r="AY38" t="n">
         <v>11.5</v>
       </c>
-      <c r="AZ27" t="n">
+      <c r="AZ38" t="n">
         <v>15</v>
       </c>
-      <c r="BA27" t="n">
+      <c r="BA38" t="n">
         <v>40</v>
       </c>
-      <c r="BB27" t="n">
+      <c r="BB38" t="n">
         <v>55</v>
       </c>
-      <c r="BC27" t="n">
+      <c r="BC38" t="n">
         <v>120</v>
       </c>
-      <c r="BD27" t="inlineStr"/>
+      <c r="BD38" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD38"/>
+  <dimension ref="A1:BD41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -932,7 +932,7 @@
         <v>2.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
         <v>2.5</v>
@@ -941,7 +941,7 @@
         <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
         <v>3.1</v>
@@ -950,7 +950,7 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -959,10 +959,10 @@
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -971,10 +971,10 @@
         <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W3" t="n">
         <v>10</v>
@@ -995,13 +995,13 @@
         <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
@@ -1010,13 +1010,13 @@
         <v>151</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI3" t="n">
         <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK3" t="n">
         <v>23</v>
@@ -1034,16 +1034,16 @@
         <v>15</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT3" t="n">
         <v>3</v>
@@ -1073,7 +1073,7 @@
         <v>51</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD3" t="n">
         <v>126</v>
@@ -2761,10 +2761,10 @@
         <v>7.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P13" t="n">
-        <v>2.73</v>
+        <v>2.78</v>
       </c>
       <c r="Q13" t="n">
         <v>2.07</v>
@@ -2886,7 +2886,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t4XCamF8</t>
+          <t>04Gll1uH</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2896,175 +2896,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.27</v>
+        <v>1.91</v>
       </c>
       <c r="H14" t="n">
-        <v>2.85</v>
+        <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.87</v>
+        <v>2.5</v>
       </c>
       <c r="K14" t="n">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="L14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>6.95</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.62</v>
+        <v>4.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.07</v>
+        <v>1.62</v>
       </c>
       <c r="R14" t="n">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="S14" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="T14" t="n">
-        <v>2.47</v>
+        <v>3.4</v>
       </c>
       <c r="U14" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="V14" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="W14" t="n">
-        <v>6.7</v>
+        <v>9.5</v>
       </c>
       <c r="X14" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB14" t="n">
         <v>21</v>
       </c>
-      <c r="AB14" t="n">
-        <v>32</v>
-      </c>
       <c r="AC14" t="n">
-        <v>7.4</v>
+        <v>15</v>
       </c>
       <c r="AD14" t="n">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>600</v>
+        <v>151</v>
       </c>
       <c r="AH14" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AI14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AK14" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AM14" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.15</v>
+        <v>4.33</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AR14" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AS14" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.42</v>
+        <v>3.4</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW14" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>351</v>
+      </c>
       <c r="AX14" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ14" t="n">
         <v>23</v>
       </c>
       <c r="BA14" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="BB14" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="BC14" t="n">
-        <v>250</v>
-      </c>
-      <c r="BD14" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Qe3Siyd2</t>
+          <t>txiN20fA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3074,175 +3078,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Preussen Munster</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>PSBS Biak Numfor</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V15" t="n">
         <v>2.2</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N15" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.93</v>
-      </c>
       <c r="W15" t="n">
-        <v>7.3</v>
+        <v>15</v>
       </c>
       <c r="X15" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.75</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="AA15" t="n">
-        <v>18.5</v>
+        <v>29</v>
       </c>
       <c r="AB15" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>450</v>
+        <v>151</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
-        <v>18</v>
+        <v>9.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="AM15" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.15</v>
+        <v>6</v>
       </c>
       <c r="AO15" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AP15" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="AQ15" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AR15" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AS15" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU15" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW15" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>351</v>
+      </c>
       <c r="AX15" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="AY15" t="n">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="AZ15" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BA15" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="BB15" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="BC15" t="n">
-        <v>250</v>
-      </c>
-      <c r="BD15" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EHVKcRqL</t>
+          <t>O6ecm1eJ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3252,175 +3260,175 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>GREECE - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Borneo</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="J16" t="n">
-        <v>2.57</v>
+        <v>2.88</v>
       </c>
       <c r="K16" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L16" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="R16" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S16" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T16" t="n">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V16" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X16" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="n">
         <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD16" t="n">
         <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>600</v>
+        <v>301</v>
       </c>
       <c r="AH16" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AI16" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK16" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AM16" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>10.25</v>
+        <v>13</v>
       </c>
       <c r="AP16" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AS16" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="AU16" t="n">
-        <v>6.6</v>
+        <v>8.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="BA16" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="BB16" t="n">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="BC16" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>rDs18Mtm</t>
+          <t>t4XCamF8</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3430,179 +3438,175 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.88</v>
+        <v>2.27</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>2.85</v>
       </c>
       <c r="I17" t="n">
-        <v>2.35</v>
+        <v>3.35</v>
       </c>
       <c r="J17" t="n">
-        <v>3.25</v>
+        <v>2.87</v>
       </c>
       <c r="K17" t="n">
-        <v>2.38</v>
+        <v>1.98</v>
       </c>
       <c r="L17" t="n">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>15</v>
+        <v>6.95</v>
       </c>
       <c r="O17" t="n">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>2.62</v>
       </c>
       <c r="Q17" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R17" t="n">
         <v>1.6</v>
       </c>
-      <c r="R17" t="n">
-        <v>2.3</v>
-      </c>
       <c r="S17" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="T17" t="n">
-        <v>3.4</v>
+        <v>2.47</v>
       </c>
       <c r="U17" t="n">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="V17" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="W17" t="n">
-        <v>13</v>
+        <v>6.7</v>
       </c>
       <c r="X17" t="n">
-        <v>17</v>
+        <v>10.75</v>
       </c>
       <c r="Y17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AA17" t="n">
         <v>21</v>
       </c>
       <c r="AB17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ17" t="n">
         <v>23</v>
       </c>
-      <c r="AC17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>19</v>
-      </c>
       <c r="BA17" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="BB17" t="n">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="BC17" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>81</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="BD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EZYulMqf</t>
+          <t>Qe3Siyd2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3612,175 +3616,175 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Raja Casablanca</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Wydad</t>
+          <t>PSBS Biak Numfor</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>2.77</v>
       </c>
       <c r="K18" t="n">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O18" t="n">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>2.38</v>
+        <v>2.92</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="R18" t="n">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
       <c r="S18" t="n">
-        <v>1.62</v>
+        <v>1.39</v>
       </c>
       <c r="T18" t="n">
-        <v>2.2</v>
+        <v>2.77</v>
       </c>
       <c r="U18" t="n">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="V18" t="n">
-        <v>1.57</v>
+        <v>1.93</v>
       </c>
       <c r="W18" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="X18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD18" t="n">
         <v>6</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AE18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH18" t="n">
         <v>10</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AI18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>11</v>
       </c>
-      <c r="Z18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC18" t="n">
+      <c r="AK18" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU18" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AV18" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AY18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AZ18" t="n">
         <v>21</v>
       </c>
-      <c r="AZ18" t="n">
-        <v>34</v>
-      </c>
       <c r="BA18" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="BB18" t="n">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="BC18" t="n">
-        <v>351</v>
+        <v>250</v>
       </c>
       <c r="BD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Maxln0E6</t>
+          <t>EHVKcRqL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3790,173 +3794,175 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FAR Rabat</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Union Touarga</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.57</v>
+        <v>2.02</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="I19" t="n">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="J19" t="n">
-        <v>2.3</v>
+        <v>2.57</v>
       </c>
       <c r="K19" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L19" t="n">
-        <v>6.5</v>
+        <v>4.05</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.3</v>
+        <v>1.98</v>
       </c>
       <c r="R19" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S19" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="T19" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="U19" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="V19" t="n">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="W19" t="n">
-        <v>5.5</v>
+        <v>6.7</v>
       </c>
       <c r="X19" t="n">
-        <v>6.5</v>
+        <v>9.25</v>
       </c>
       <c r="Y19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="n">
         <v>17</v>
       </c>
       <c r="AB19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD19" t="n">
-        <v>7.5</v>
+        <v>5.9</v>
       </c>
       <c r="AE19" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AF19" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="AG19" t="n">
-        <v>101</v>
+        <v>600</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AJ19" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AL19" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="AM19" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="AO19" t="n">
-        <v>8.5</v>
+        <v>10.25</v>
       </c>
       <c r="AP19" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AR19" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AS19" t="n">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU19" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AV19" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="AW19" t="inlineStr"/>
       <c r="AX19" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="AY19" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AZ19" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="BA19" t="n">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="BB19" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC19" t="inlineStr"/>
+        <v>120</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>250</v>
+      </c>
       <c r="BD19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>KK9PNiw3</t>
+          <t>rDs18Mtm</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3966,128 +3972,128 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>JAPAN - J1 LEAGUE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Zaglebie</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Motor Lublin</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.05</v>
+        <v>2.88</v>
       </c>
       <c r="H20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>15</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T20" t="n">
         <v>3.4</v>
       </c>
-      <c r="I20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N20" t="n">
+      <c r="U20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W20" t="n">
+        <v>13</v>
+      </c>
+      <c r="X20" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y20" t="n">
         <v>11</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X20" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>9</v>
-      </c>
       <c r="Z20" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AA20" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB20" t="n">
         <v>23</v>
       </c>
       <c r="AC20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE20" t="n">
         <v>11</v>
       </c>
-      <c r="AD20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE20" t="n">
+      <c r="AF20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI20" t="n">
         <v>13</v>
       </c>
-      <c r="AF20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ20" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AM20" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
         <v>21</v>
@@ -4099,37 +4105,37 @@
         <v>51</v>
       </c>
       <c r="AS20" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT20" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB20" t="n">
         <v>51</v>
       </c>
-      <c r="AW20" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>81</v>
-      </c>
       <c r="BC20" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BD20" t="n">
         <v>81</v>
@@ -4138,7 +4144,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>xz9LzwPE</t>
+          <t>EZYulMqf</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4148,179 +4154,175 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Raja Casablanca</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Termalica B-B.</t>
+          <t>Wydad</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W21" t="n">
+        <v>6</v>
+      </c>
+      <c r="X21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC21" t="n">
         <v>6.5</v>
       </c>
-      <c r="H21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N21" t="n">
-        <v>11</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W21" t="n">
-        <v>17</v>
-      </c>
-      <c r="X21" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y21" t="n">
+      <c r="AD21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE21" t="n">
         <v>21</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>23</v>
       </c>
       <c r="AF21" t="n">
         <v>81</v>
       </c>
       <c r="AG21" t="n">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="AH21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI21" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AK21" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="AL21" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AM21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP21" t="n">
         <v>29</v>
       </c>
-      <c r="AN21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>41</v>
-      </c>
       <c r="AQ21" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="AR21" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AS21" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT21" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AU21" t="n">
         <v>9.5</v>
       </c>
       <c r="AV21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW21" t="inlineStr"/>
+      <c r="AX21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA21" t="n">
         <v>67</v>
       </c>
-      <c r="AW21" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>19</v>
-      </c>
       <c r="BB21" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BC21" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>81</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="BD21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>WOOOogV0</t>
+          <t>Maxln0E6</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4330,175 +4332,173 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Al Khor</t>
+          <t>FAR Rabat</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Al-Sadd</t>
+          <t>Union Touarga</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>6.9</v>
+        <v>1.57</v>
       </c>
       <c r="H22" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>1.35</v>
+        <v>5.25</v>
       </c>
       <c r="J22" t="n">
-        <v>5.9</v>
+        <v>2.3</v>
       </c>
       <c r="K22" t="n">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="L22" t="n">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU22" t="n">
         <v>10</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="T22" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W22" t="n">
-        <v>25</v>
-      </c>
-      <c r="X22" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>35</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>200</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AV22" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="AY22" t="n">
-        <v>5.9</v>
+        <v>34</v>
       </c>
       <c r="AZ22" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="BA22" t="n">
-        <v>14.5</v>
+        <v>151</v>
       </c>
       <c r="BB22" t="n">
-        <v>32</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>150</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BC22" t="inlineStr"/>
       <c r="BD22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ObLGmF0l</t>
+          <t>KK9PNiw3</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4508,177 +4508,179 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Al Rayyan</t>
+          <t>Zaglebie</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Shamal</t>
+          <t>Motor Lublin</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="H23" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>4.35</v>
+        <v>3.5</v>
       </c>
       <c r="J23" t="n">
-        <v>2.07</v>
+        <v>2.75</v>
       </c>
       <c r="K23" t="n">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.44</v>
+        <v>1.85</v>
       </c>
       <c r="R23" t="n">
-        <v>2.62</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="T23" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="U23" t="n">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
       <c r="V23" t="n">
-        <v>2.37</v>
+        <v>2.1</v>
       </c>
       <c r="W23" t="n">
-        <v>11.25</v>
+        <v>8.5</v>
       </c>
       <c r="X23" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z23" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="AA23" t="n">
-        <v>11.25</v>
+        <v>17</v>
       </c>
       <c r="AB23" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
-        <v>9.25</v>
+        <v>6.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF23" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG23" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="AH23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI23" t="n">
         <v>19</v>
       </c>
-      <c r="AI23" t="n">
-        <v>30</v>
-      </c>
       <c r="AJ23" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AK23" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AL23" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AM23" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AO23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU23" t="n">
         <v>7.5</v>
       </c>
-      <c r="AP23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>37</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>6.9</v>
-      </c>
       <c r="AV23" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AX23" t="n">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AZ23" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BA23" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="BB23" t="n">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="BC23" t="n">
-        <v>200</v>
-      </c>
-      <c r="BD23" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>hvDXqXaD</t>
+          <t>xz9LzwPE</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4688,175 +4690,179 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Al-Gharafa</t>
+          <t>Kotwica Kolobrzeg</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Al Wakra</t>
+          <t>Termalica B-B.</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.62</v>
+        <v>6</v>
       </c>
       <c r="H24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J24" t="n">
+        <v>7</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N24" t="n">
+        <v>13</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P24" t="n">
         <v>3.75</v>
       </c>
-      <c r="I24" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N24" t="n">
+      <c r="Q24" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W24" t="n">
+        <v>15</v>
+      </c>
+      <c r="X24" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>9</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="W24" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="X24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA24" t="n">
+      <c r="AK24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ24" t="n">
         <v>19</v>
       </c>
-      <c r="AB24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW24" t="inlineStr"/>
-      <c r="AX24" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>17</v>
-      </c>
       <c r="BA24" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="BB24" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="BC24" t="n">
-        <v>175</v>
-      </c>
-      <c r="BD24" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>nkhrOTUG</t>
+          <t>WOOOogV0</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4866,179 +4872,175 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sepsi Sf. Gheorghe</t>
+          <t>Al Khor</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>Al-Sadd</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.6</v>
+        <v>6.9</v>
       </c>
       <c r="H25" t="n">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="I25" t="n">
-        <v>5.5</v>
+        <v>1.35</v>
       </c>
       <c r="J25" t="n">
-        <v>2.25</v>
+        <v>5.9</v>
       </c>
       <c r="K25" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N25" t="n">
+        <v>10</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V25" t="n">
         <v>2.1</v>
       </c>
-      <c r="L25" t="n">
-        <v>6</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N25" t="n">
-        <v>9</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W25" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="X25" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="Y25" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN25" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH25" t="n">
+      <c r="AO25" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>200</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AZ25" t="n">
         <v>13</v>
       </c>
-      <c r="AI25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>41</v>
-      </c>
       <c r="BA25" t="n">
-        <v>126</v>
+        <v>14.5</v>
       </c>
       <c r="BB25" t="n">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="BC25" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>51</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="BD25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>hbT7lS4s</t>
+          <t>ObLGmF0l</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5048,179 +5050,177 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Rayyan</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Shamal</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="H26" t="n">
-        <v>4.75</v>
+        <v>4.4</v>
       </c>
       <c r="I26" t="n">
-        <v>1.48</v>
+        <v>4.35</v>
       </c>
       <c r="J26" t="n">
-        <v>5.5</v>
+        <v>2.07</v>
       </c>
       <c r="K26" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="L26" t="n">
-        <v>1.95</v>
+        <v>4.3</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="O26" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="P26" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="R26" t="n">
-        <v>2.3</v>
+        <v>2.62</v>
       </c>
       <c r="S26" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="T26" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="U26" t="n">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
       <c r="V26" t="n">
-        <v>1.91</v>
+        <v>2.37</v>
       </c>
       <c r="W26" t="n">
-        <v>17</v>
+        <v>11.25</v>
       </c>
       <c r="X26" t="n">
-        <v>29</v>
+        <v>10.25</v>
       </c>
       <c r="Y26" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>51</v>
+        <v>13.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>41</v>
+        <v>11.25</v>
       </c>
       <c r="AB26" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="AC26" t="n">
-        <v>15</v>
+        <v>9.75</v>
       </c>
       <c r="AD26" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AE26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH26" t="n">
         <v>19</v>
       </c>
-      <c r="AF26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AI26" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="AL26" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AM26" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AN26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO26" t="n">
         <v>7.5</v>
       </c>
-      <c r="AO26" t="n">
-        <v>29</v>
-      </c>
       <c r="AP26" t="n">
-        <v>34</v>
+        <v>13.5</v>
       </c>
       <c r="AQ26" t="n">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="AR26" t="n">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AS26" t="n">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AU26" t="n">
-        <v>8.5</v>
+        <v>6.9</v>
       </c>
       <c r="AV26" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AW26" t="n">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="AX26" t="n">
-        <v>3.6</v>
+        <v>6.6</v>
       </c>
       <c r="AY26" t="n">
-        <v>7.5</v>
+        <v>22</v>
       </c>
       <c r="AZ26" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BA26" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="BB26" t="n">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="BC26" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>81</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="BD26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aa1J6RQP</t>
+          <t>hvDXqXaD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5230,179 +5230,175 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>Al-Gharafa</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Wakra</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.3</v>
+        <v>2.62</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="K27" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="L27" t="n">
-        <v>2.63</v>
+        <v>2.82</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O27" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S27" t="n">
         <v>1.3</v>
       </c>
-      <c r="P27" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.4</v>
-      </c>
       <c r="T27" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="U27" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="V27" t="n">
-        <v>1.83</v>
+        <v>2.35</v>
       </c>
       <c r="W27" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="X27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y27" t="n">
         <v>10</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW27" t="inlineStr"/>
+      <c r="AX27" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AZ27" t="n">
         <v>17</v>
       </c>
-      <c r="Y27" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>21</v>
-      </c>
       <c r="BA27" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="BB27" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC27" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>81</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="BD27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>xYNxflsK</t>
+          <t>nkhrOTUG</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5412,77 +5408,77 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Sepsi Sf. Gheorghe</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Gloria Buzau</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H28" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J28" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="K28" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O28" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="P28" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="R28" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="S28" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="T28" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="U28" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="W28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y28" t="n">
         <v>8.5</v>
@@ -5491,100 +5487,100 @@
         <v>11</v>
       </c>
       <c r="AA28" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB28" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AC28" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF28" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG28" t="n">
-        <v>151</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AI28" t="n">
         <v>29</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL28" t="n">
         <v>51</v>
       </c>
-      <c r="AL28" t="n">
-        <v>41</v>
-      </c>
       <c r="AM28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN28" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AO28" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ28" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AR28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS28" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT28" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="AU28" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW28" t="n">
         <v>51</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>81</v>
       </c>
       <c r="AX28" t="n">
         <v>7</v>
       </c>
       <c r="AY28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA28" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB28" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC28" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BD28" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>dYbmKML6</t>
+          <t>hbT7lS4s</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5594,179 +5590,179 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="H29" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T29" t="n">
         <v>3.4</v>
       </c>
-      <c r="I29" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N29" t="n">
+      <c r="U29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W29" t="n">
+        <v>17</v>
+      </c>
+      <c r="X29" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI29" t="n">
         <v>8</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V29" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="X29" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>45</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>11</v>
       </c>
       <c r="AJ29" t="n">
         <v>8.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>19.5</v>
+        <v>11</v>
       </c>
       <c r="AL29" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AM29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN29" t="n">
-        <v>5.3</v>
+        <v>7.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>17.5</v>
+        <v>29</v>
       </c>
       <c r="AP29" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ29" t="n">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AR29" t="n">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="AS29" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.92</v>
+        <v>3.4</v>
       </c>
       <c r="AU29" t="n">
-        <v>6.7</v>
+        <v>8.5</v>
       </c>
       <c r="AV29" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AW29" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX29" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="AY29" t="n">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="AZ29" t="n">
         <v>17</v>
       </c>
       <c r="BA29" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="BB29" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="BC29" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="BD29" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>xpKWnHAs</t>
+          <t>Aa1J6RQP</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5776,177 +5772,179 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Tampines</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tanjong Pagar</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.03</v>
+        <v>3.3</v>
       </c>
       <c r="H30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N30" t="n">
+        <v>8</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W30" t="n">
+        <v>10</v>
+      </c>
+      <c r="X30" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO30" t="n">
         <v>19</v>
       </c>
-      <c r="I30" t="n">
-        <v>34</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="K30" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L30" t="n">
-        <v>21</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N30" t="n">
-        <v>34</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P30" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="R30" t="n">
+      <c r="AP30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU30" t="n">
         <v>8</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="T30" t="n">
-        <v>9</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W30" t="n">
-        <v>29</v>
-      </c>
-      <c r="X30" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>126</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>201</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>201</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>6</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>15</v>
       </c>
       <c r="AV30" t="n">
         <v>51</v>
       </c>
       <c r="AW30" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="AX30" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="AY30" t="n">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="AZ30" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB30" t="n">
         <v>51</v>
       </c>
-      <c r="BA30" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>351</v>
-      </c>
       <c r="BC30" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD30" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>QDELJxlI</t>
+          <t>xYNxflsK</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -5961,174 +5959,174 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Kosice</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Al Qadisiya</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.15</v>
+        <v>1.53</v>
       </c>
       <c r="H31" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="I31" t="n">
-        <v>1.82</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>4.45</v>
+        <v>2.05</v>
       </c>
       <c r="K31" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="L31" t="n">
-        <v>2.35</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N31" t="n">
+        <v>15</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2</v>
+      </c>
+      <c r="W31" t="n">
         <v>8</v>
       </c>
-      <c r="O31" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W31" t="n">
-        <v>11.75</v>
-      </c>
       <c r="X31" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="AA31" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="AB31" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="AC31" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AD31" t="n">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF31" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AG31" t="n">
-        <v>600</v>
+        <v>151</v>
       </c>
       <c r="AH31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX31" t="n">
         <v>7</v>
       </c>
-      <c r="AI31" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP31" t="n">
+      <c r="AY31" t="n">
         <v>29</v>
       </c>
-      <c r="AQ31" t="n">
-        <v>120</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AZ31" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="BA31" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="BB31" t="n">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="BC31" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="BD31" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>j1izldfS</t>
+          <t>dYbmKML6</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6138,170 +6136,170 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Radomlje</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.88</v>
+        <v>3.2</v>
       </c>
       <c r="H32" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>2.02</v>
       </c>
       <c r="J32" t="n">
-        <v>2.47</v>
+        <v>3.75</v>
       </c>
       <c r="K32" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="L32" t="n">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="M32" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="O32" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S32" t="n">
         <v>1.36</v>
       </c>
-      <c r="P32" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.42</v>
-      </c>
       <c r="T32" t="n">
-        <v>2.67</v>
+        <v>2.92</v>
       </c>
       <c r="U32" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="V32" t="n">
-        <v>1.82</v>
+        <v>2.2</v>
       </c>
       <c r="W32" t="n">
-        <v>6.3</v>
+        <v>11.5</v>
       </c>
       <c r="X32" t="n">
-        <v>8.25</v>
+        <v>18.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>8.5</v>
+        <v>11.25</v>
       </c>
       <c r="Z32" t="n">
-        <v>15.5</v>
+        <v>45</v>
       </c>
       <c r="AA32" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AB32" t="n">
         <v>30</v>
       </c>
       <c r="AC32" t="n">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="AD32" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AE32" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AF32" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ32" t="n">
         <v>80</v>
       </c>
-      <c r="AG32" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>35</v>
-      </c>
       <c r="AR32" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AS32" t="n">
         <v>250</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.67</v>
+        <v>2.92</v>
       </c>
       <c r="AU32" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="AV32" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AW32" t="n">
         <v>51</v>
       </c>
       <c r="AX32" t="n">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="AY32" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="AZ32" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="BA32" t="n">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="BB32" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="BC32" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="BD32" t="n">
         <v>51</v>
@@ -6310,7 +6308,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2VZFUi4c</t>
+          <t>xpKWnHAs</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6320,173 +6318,177 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Buriram</t>
+          <t>Tampines</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Sukhothai</t>
+          <t>Tanjong Pagar</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.15</v>
+        <v>1.03</v>
       </c>
       <c r="H33" t="n">
-        <v>6.9</v>
+        <v>19</v>
       </c>
       <c r="I33" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="J33" t="n">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="K33" t="n">
-        <v>3.05</v>
+        <v>5.5</v>
       </c>
       <c r="L33" t="n">
-        <v>9.75</v>
+        <v>21</v>
       </c>
       <c r="M33" t="n">
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="O33" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="P33" t="n">
-        <v>6.1</v>
+        <v>21</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.3</v>
+        <v>1.08</v>
       </c>
       <c r="R33" t="n">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="S33" t="n">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="T33" t="n">
-        <v>4.1</v>
+        <v>9</v>
       </c>
       <c r="U33" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="W33" t="n">
-        <v>11.5</v>
+        <v>29</v>
       </c>
       <c r="X33" t="n">
-        <v>7.7</v>
+        <v>15</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="Z33" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="AA33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AB33" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC33" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AD33" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="AE33" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AF33" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="AG33" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="AH33" t="n">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="AI33" t="n">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="AJ33" t="n">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="n">
-        <v>600</v>
+        <v>201</v>
       </c>
       <c r="AL33" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM33" t="n">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="AN33" t="n">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>4.7</v>
+        <v>4.33</v>
       </c>
       <c r="AP33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ33" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="AR33" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AS33" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="AT33" t="n">
-        <v>4.1</v>
+        <v>9</v>
       </c>
       <c r="AU33" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AV33" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW33" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>301</v>
+      </c>
       <c r="AX33" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AY33" t="n">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AZ33" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA33" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>351</v>
+      </c>
       <c r="BB33" t="n">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="BC33" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="BD33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>jPRoB7i2</t>
+          <t>QDELJxlI</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6501,174 +6503,174 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SLOVAKIA - NIKE LIGA</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Kosice</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.75</v>
+        <v>4.15</v>
       </c>
       <c r="H34" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>4.33</v>
+        <v>1.82</v>
       </c>
       <c r="J34" t="n">
-        <v>2.38</v>
+        <v>4.45</v>
       </c>
       <c r="K34" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L34" t="n">
-        <v>5</v>
+        <v>2.35</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O34" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P34" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q34" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R34" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="S34" t="n">
         <v>1.4</v>
       </c>
       <c r="T34" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="U34" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="V34" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="W34" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="X34" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH34" t="n">
         <v>7</v>
       </c>
-      <c r="X34" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA34" t="n">
+      <c r="AI34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL34" t="n">
         <v>15</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AM34" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP34" t="n">
         <v>29</v>
       </c>
-      <c r="AC34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF34" t="n">
+      <c r="AQ34" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW34" t="n">
         <v>51</v>
       </c>
-      <c r="AG34" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK34" t="n">
+      <c r="AX34" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>30</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>65</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>250</v>
+      </c>
+      <c r="BD34" t="n">
         <v>51</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD34" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>WEiW6Wxq</t>
+          <t>j1izldfS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6678,179 +6680,179 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Karpaty Lviv</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Radomlje</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="H35" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>3.2</v>
+        <v>2.47</v>
       </c>
       <c r="K35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N35" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V35" t="n">
         <v>1.82</v>
       </c>
-      <c r="L35" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N35" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="T35" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="U35" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.55</v>
-      </c>
       <c r="W35" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="X35" t="n">
-        <v>10.75</v>
+        <v>8.25</v>
       </c>
       <c r="Y35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH35" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z35" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>6.4</v>
-      </c>
       <c r="AI35" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AJ35" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK35" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AL35" t="n">
         <v>40</v>
       </c>
       <c r="AM35" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AN35" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="AO35" t="n">
-        <v>14</v>
+        <v>9.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AQ35" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR35" t="n">
         <v>70</v>
       </c>
-      <c r="AR35" t="n">
+      <c r="AS35" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA35" t="n">
         <v>120</v>
       </c>
-      <c r="AS35" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>32</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>110</v>
-      </c>
       <c r="BB35" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="BC35" t="n">
-        <v>67</v>
+        <v>400</v>
       </c>
       <c r="BD35" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ppjD0Hnl</t>
+          <t>2VZFUi4c</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6860,175 +6862,173 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Al Sharjah</t>
+          <t>Buriram</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Sukhothai</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1.15</v>
       </c>
       <c r="H36" t="n">
-        <v>3.5</v>
+        <v>6.9</v>
       </c>
       <c r="I36" t="n">
-        <v>3.4</v>
+        <v>15</v>
       </c>
       <c r="J36" t="n">
-        <v>2.52</v>
+        <v>1.47</v>
       </c>
       <c r="K36" t="n">
-        <v>2.22</v>
+        <v>3.05</v>
       </c>
       <c r="L36" t="n">
-        <v>3.75</v>
+        <v>9.75</v>
       </c>
       <c r="M36" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>8.5</v>
+        <v>28</v>
       </c>
       <c r="O36" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P36" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S36" t="n">
         <v>1.19</v>
       </c>
-      <c r="P36" t="n">
+      <c r="T36" t="n">
         <v>4.1</v>
       </c>
-      <c r="Q36" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R36" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T36" t="n">
-        <v>3.1</v>
-      </c>
       <c r="U36" t="n">
-        <v>1.52</v>
+        <v>1.9</v>
       </c>
       <c r="V36" t="n">
-        <v>2.37</v>
+        <v>1.82</v>
       </c>
       <c r="W36" t="n">
-        <v>9.75</v>
+        <v>11.5</v>
       </c>
       <c r="X36" t="n">
-        <v>11.5</v>
+        <v>7.7</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>19.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA36" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AB36" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.5</v>
+        <v>27</v>
       </c>
       <c r="AD36" t="n">
-        <v>7.1</v>
+        <v>16</v>
       </c>
       <c r="AE36" t="n">
-        <v>11.25</v>
+        <v>26</v>
       </c>
       <c r="AF36" t="n">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="AG36" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL36" t="n">
         <v>200</v>
       </c>
-      <c r="AH36" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>26</v>
-      </c>
       <c r="AM36" t="n">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="AN36" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="AO36" t="n">
-        <v>10</v>
+        <v>4.7</v>
       </c>
       <c r="AP36" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AQ36" t="n">
-        <v>35</v>
+        <v>9.5</v>
       </c>
       <c r="AR36" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="AS36" t="n">
         <v>150</v>
       </c>
       <c r="AT36" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="AU36" t="n">
-        <v>6.3</v>
+        <v>9</v>
       </c>
       <c r="AV36" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AW36" t="inlineStr"/>
       <c r="AX36" t="n">
-        <v>5.6</v>
+        <v>14</v>
       </c>
       <c r="AY36" t="n">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="AZ36" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>80</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="BA36" t="inlineStr"/>
       <c r="BB36" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="BC36" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="BD36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>hnBY7afE</t>
+          <t>jPRoB7i2</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7038,175 +7038,179 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Shabab Al-Ahli Dubai</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="H37" t="n">
-        <v>5.2</v>
+        <v>3.75</v>
       </c>
       <c r="I37" t="n">
-        <v>6.2</v>
+        <v>4.33</v>
       </c>
       <c r="J37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L37" t="n">
+        <v>5</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N37" t="n">
+        <v>10</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
         <v>1.8</v>
       </c>
-      <c r="K37" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="L37" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N37" t="n">
-        <v>19</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2.95</v>
-      </c>
       <c r="S37" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="T37" t="n">
-        <v>3.9</v>
+        <v>2.75</v>
       </c>
       <c r="U37" t="n">
-        <v>1.55</v>
+        <v>1.91</v>
       </c>
       <c r="V37" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="W37" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="X37" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO37" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y37" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>6.2</v>
-      </c>
       <c r="AP37" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AQ37" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AR37" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="AS37" t="n">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="AT37" t="n">
-        <v>3.9</v>
+        <v>2.75</v>
       </c>
       <c r="AU37" t="n">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="AV37" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW37" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>126</v>
+      </c>
       <c r="AX37" t="n">
-        <v>8.25</v>
+        <v>6</v>
       </c>
       <c r="AY37" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AZ37" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="BA37" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="BB37" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="BC37" t="n">
-        <v>250</v>
-      </c>
-      <c r="BD37" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CzKe0my8</t>
+          <t>WEiW6Wxq</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7216,172 +7220,710 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Al Wahda</t>
+          <t>Karpaty Lviv</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Al Wasl</t>
+          <t>Kolos Kovalivka</t>
         </is>
       </c>
       <c r="G38" t="n">
         <v>2.5</v>
       </c>
       <c r="H38" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L38" t="n">
         <v>3.9</v>
       </c>
-      <c r="I38" t="n">
+      <c r="M38" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N38" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W38" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X38" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>32</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>67</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ppjD0Hnl</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Al Sharjah</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Al Nasr</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V39" t="n">
         <v>2.37</v>
       </c>
-      <c r="J38" t="n">
+      <c r="W39" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X39" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW39" t="inlineStr"/>
+      <c r="AX39" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>90</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>200</v>
+      </c>
+      <c r="BD39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>hnBY7afE</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Shabab Al-Ahli Dubai</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Ittihad Kalba</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I40" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="L40" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N40" t="n">
+        <v>19</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T40" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W40" t="n">
+        <v>12</v>
+      </c>
+      <c r="X40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>110</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW40" t="inlineStr"/>
+      <c r="AX40" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>250</v>
+      </c>
+      <c r="BD40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CzKe0my8</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Al Wahda</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Al Wasl</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="J41" t="n">
         <v>2.92</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K41" t="n">
         <v>2.45</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L41" t="n">
         <v>2.8</v>
       </c>
-      <c r="M38" t="n">
+      <c r="M41" t="n">
         <v>1.03</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N41" t="n">
         <v>9.5</v>
       </c>
-      <c r="O38" t="n">
+      <c r="O41" t="n">
         <v>1.15</v>
       </c>
-      <c r="P38" t="n">
+      <c r="P41" t="n">
         <v>4.8</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="Q41" t="n">
         <v>1.47</v>
       </c>
-      <c r="R38" t="n">
+      <c r="R41" t="n">
         <v>2.52</v>
       </c>
-      <c r="S38" t="n">
+      <c r="S41" t="n">
         <v>1.25</v>
       </c>
-      <c r="T38" t="n">
+      <c r="T41" t="n">
         <v>3.6</v>
       </c>
-      <c r="U38" t="n">
+      <c r="U41" t="n">
         <v>1.44</v>
       </c>
-      <c r="V38" t="n">
+      <c r="V41" t="n">
         <v>2.62</v>
       </c>
-      <c r="W38" t="n">
+      <c r="W41" t="n">
         <v>13.5</v>
       </c>
-      <c r="X38" t="n">
+      <c r="X41" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="Y41" t="n">
         <v>10</v>
       </c>
-      <c r="Z38" t="n">
+      <c r="Z41" t="n">
         <v>29</v>
       </c>
-      <c r="AA38" t="n">
+      <c r="AA41" t="n">
         <v>17.5</v>
       </c>
-      <c r="AB38" t="n">
+      <c r="AB41" t="n">
         <v>20</v>
       </c>
-      <c r="AC38" t="n">
+      <c r="AC41" t="n">
         <v>9.5</v>
       </c>
-      <c r="AD38" t="n">
+      <c r="AD41" t="n">
         <v>8.25</v>
       </c>
-      <c r="AE38" t="n">
+      <c r="AE41" t="n">
         <v>11.25</v>
       </c>
-      <c r="AF38" t="n">
+      <c r="AF41" t="n">
         <v>32</v>
       </c>
-      <c r="AG38" t="n">
+      <c r="AG41" t="n">
         <v>175</v>
       </c>
-      <c r="AH38" t="n">
+      <c r="AH41" t="n">
         <v>13.5</v>
       </c>
-      <c r="AI38" t="n">
+      <c r="AI41" t="n">
         <v>15.5</v>
       </c>
-      <c r="AJ38" t="n">
+      <c r="AJ41" t="n">
         <v>9.75</v>
       </c>
-      <c r="AK38" t="n">
+      <c r="AK41" t="n">
         <v>26</v>
       </c>
-      <c r="AL38" t="n">
+      <c r="AL41" t="n">
         <v>16.5</v>
       </c>
-      <c r="AM38" t="n">
+      <c r="AM41" t="n">
         <v>19</v>
       </c>
-      <c r="AN38" t="n">
+      <c r="AN41" t="n">
         <v>5</v>
       </c>
-      <c r="AO38" t="n">
+      <c r="AO41" t="n">
         <v>12.5</v>
       </c>
-      <c r="AP38" t="n">
+      <c r="AP41" t="n">
         <v>16</v>
       </c>
-      <c r="AQ38" t="n">
+      <c r="AQ41" t="n">
         <v>45</v>
       </c>
-      <c r="AR38" t="n">
+      <c r="AR41" t="n">
         <v>55</v>
       </c>
-      <c r="AS38" t="n">
+      <c r="AS41" t="n">
         <v>150</v>
       </c>
-      <c r="AT38" t="n">
+      <c r="AT41" t="n">
         <v>3.6</v>
       </c>
-      <c r="AU38" t="n">
+      <c r="AU41" t="n">
         <v>6.3</v>
       </c>
-      <c r="AV38" t="n">
+      <c r="AV41" t="n">
         <v>37</v>
       </c>
-      <c r="AW38" t="n">
+      <c r="AW41" t="n">
         <v>450</v>
       </c>
-      <c r="AX38" t="n">
+      <c r="AX41" t="n">
         <v>4.85</v>
       </c>
-      <c r="AY38" t="n">
+      <c r="AY41" t="n">
         <v>11.5</v>
       </c>
-      <c r="AZ38" t="n">
+      <c r="AZ41" t="n">
         <v>15</v>
       </c>
-      <c r="BA38" t="n">
+      <c r="BA41" t="n">
         <v>40</v>
       </c>
-      <c r="BB38" t="n">
+      <c r="BB41" t="n">
         <v>55</v>
       </c>
-      <c r="BC38" t="n">
+      <c r="BC41" t="n">
         <v>120</v>
       </c>
-      <c r="BD38" t="inlineStr"/>
+      <c r="BD41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD48"/>
+  <dimension ref="A1:BD51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
         <v>4.1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4.2</v>
       </c>
       <c r="I3" t="n">
         <v>1.75</v>
@@ -965,10 +965,10 @@
         <v>2.3</v>
       </c>
       <c r="S3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U3" t="n">
         <v>1.57</v>
@@ -1007,10 +1007,10 @@
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI3" t="n">
         <v>10</v>
@@ -1028,7 +1028,7 @@
         <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO3" t="n">
         <v>21</v>
@@ -1040,13 +1040,13 @@
         <v>67</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU3" t="n">
         <v>7.5</v>
@@ -1064,7 +1064,7 @@
         <v>17</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA3" t="n">
         <v>41</v>
@@ -2199,13 +2199,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H10" t="n">
         <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
         <v>2.1</v>
@@ -2214,13 +2214,13 @@
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2241,10 +2241,10 @@
         <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V10" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W10" t="n">
         <v>5.5</v>
@@ -2256,13 +2256,13 @@
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA10" t="n">
         <v>15</v>
       </c>
       <c r="AB10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC10" t="n">
         <v>8</v>
@@ -2280,13 +2280,13 @@
         <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
         <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
         <v>81</v>
@@ -2298,7 +2298,7 @@
         <v>67</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO10" t="n">
         <v>7.5</v>
@@ -2307,7 +2307,7 @@
         <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
@@ -2334,10 +2334,10 @@
         <v>41</v>
       </c>
       <c r="AZ10" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA10" t="n">
         <v>201</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>251</v>
       </c>
       <c r="BB10" t="n">
         <v>501</v>
@@ -4566,7 +4566,7 @@
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>6.95</v>
+        <v>7</v>
       </c>
       <c r="O23" t="n">
         <v>1.37</v>
@@ -5982,10 +5982,10 @@
         <v>6.7</v>
       </c>
       <c r="H31" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I31" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="J31" t="n">
         <v>5.8</v>
@@ -5994,7 +5994,7 @@
         <v>2.65</v>
       </c>
       <c r="L31" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="M31" t="n">
         <v>1.02</v>
@@ -6012,10 +6012,10 @@
         <v>1.42</v>
       </c>
       <c r="R31" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="S31" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="T31" t="n">
         <v>3.6</v>
@@ -6048,13 +6048,13 @@
         <v>10</v>
       </c>
       <c r="AD31" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AE31" t="n">
         <v>17</v>
       </c>
       <c r="AF31" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG31" t="n">
         <v>350</v>
@@ -6066,7 +6066,7 @@
         <v>8.25</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK31" t="n">
         <v>9.75</v>
@@ -6090,16 +6090,16 @@
         <v>200</v>
       </c>
       <c r="AR31" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AS31" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT31" t="n">
         <v>3.6</v>
       </c>
       <c r="AU31" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AV31" t="n">
         <v>55</v>
@@ -6108,7 +6108,7 @@
         <v>3.5</v>
       </c>
       <c r="AX31" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AY31" t="n">
         <v>13.5</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.62</v>
+        <v>2.47</v>
       </c>
       <c r="H33" t="n">
         <v>3.75</v>
       </c>
       <c r="I33" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="J33" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="K33" t="n">
         <v>2.32</v>
       </c>
       <c r="L33" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -6361,16 +6361,16 @@
         <v>9</v>
       </c>
       <c r="O33" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P33" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="Q33" t="n">
         <v>1.6</v>
       </c>
       <c r="R33" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S33" t="n">
         <v>1.3</v>
@@ -6382,22 +6382,22 @@
         <v>1.53</v>
       </c>
       <c r="V33" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="W33" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="X33" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z33" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AA33" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB33" t="n">
         <v>23</v>
@@ -6409,7 +6409,7 @@
         <v>7.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF33" t="n">
         <v>40</v>
@@ -6418,28 +6418,28 @@
         <v>250</v>
       </c>
       <c r="AH33" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AI33" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ33" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL33" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AM33" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN33" t="n">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="AO33" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP33" t="n">
         <v>18</v>
@@ -6457,19 +6457,19 @@
         <v>3.2</v>
       </c>
       <c r="AU33" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV33" t="n">
         <v>45</v>
       </c>
       <c r="AW33" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="AX33" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AY33" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AZ33" t="n">
         <v>45</v>
@@ -6668,7 +6668,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>hbT7lS4s</t>
+          <t>fyqcIbbe</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6678,179 +6678,179 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Otelul</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="H35" t="n">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="I35" t="n">
-        <v>1.48</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="K35" t="n">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L35" t="n">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="O35" t="n">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
       <c r="P35" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X35" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN35" t="n">
         <v>4.33</v>
       </c>
-      <c r="Q35" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T35" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W35" t="n">
-        <v>17</v>
-      </c>
-      <c r="X35" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z35" t="n">
+      <c r="AO35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ35" t="n">
         <v>51</v>
       </c>
-      <c r="AA35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>101</v>
-      </c>
       <c r="AR35" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS35" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT35" t="n">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="AU35" t="n">
         <v>8.5</v>
       </c>
       <c r="AV35" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC35" t="n">
         <v>51</v>
       </c>
-      <c r="AW35" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC35" t="n">
-        <v>81</v>
-      </c>
       <c r="BD35" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Aa1J6RQP</t>
+          <t>hbT7lS4s</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6860,7 +6860,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6870,157 +6870,157 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="H36" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="J36" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T36" t="n">
         <v>3.4</v>
       </c>
-      <c r="I36" t="n">
-        <v>2</v>
-      </c>
-      <c r="J36" t="n">
-        <v>4</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N36" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T36" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U36" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V36" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W36" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="X36" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y36" t="n">
         <v>17</v>
       </c>
-      <c r="Y36" t="n">
-        <v>13</v>
-      </c>
       <c r="Z36" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AA36" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AB36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD36" t="n">
         <v>9.5</v>
       </c>
-      <c r="AD36" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE36" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF36" t="n">
         <v>51</v>
       </c>
       <c r="AG36" t="n">
-        <v>600</v>
+        <v>151</v>
       </c>
       <c r="AH36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN36" t="n">
         <v>7.5</v>
       </c>
-      <c r="AI36" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM36" t="n">
+      <c r="AO36" t="n">
         <v>29</v>
       </c>
-      <c r="AN36" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>19</v>
-      </c>
       <c r="AP36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ36" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AR36" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS36" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU36" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV36" t="n">
         <v>51</v>
       </c>
       <c r="AW36" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AX36" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AY36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ36" t="n">
         <v>21</v>
       </c>
-      <c r="AZ36" t="n">
+      <c r="BA36" t="n">
         <v>41</v>
       </c>
-      <c r="BA36" t="n">
-        <v>51</v>
-      </c>
       <c r="BB36" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BC36" t="n">
         <v>81</v>
@@ -7032,7 +7032,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>xYNxflsK</t>
+          <t>Aa1J6RQP</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7042,7 +7042,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -7052,154 +7052,154 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.53</v>
+        <v>3.3</v>
       </c>
       <c r="H37" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>2.63</v>
       </c>
       <c r="M37" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W37" t="n">
+        <v>10</v>
+      </c>
+      <c r="X37" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE37" t="n">
         <v>15</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T37" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V37" t="n">
-        <v>2</v>
-      </c>
-      <c r="W37" t="n">
-        <v>8</v>
-      </c>
-      <c r="X37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>17</v>
       </c>
       <c r="AF37" t="n">
         <v>51</v>
       </c>
       <c r="AG37" t="n">
-        <v>151</v>
+        <v>600</v>
       </c>
       <c r="AH37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK37" t="n">
         <v>17</v>
       </c>
-      <c r="AI37" t="n">
+      <c r="AL37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM37" t="n">
         <v>29</v>
       </c>
-      <c r="AJ37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>41</v>
-      </c>
       <c r="AN37" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="AO37" t="n">
-        <v>7.5</v>
+        <v>19</v>
       </c>
       <c r="AP37" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AQ37" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="AR37" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS37" t="n">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="AT37" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="AU37" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV37" t="n">
         <v>51</v>
       </c>
       <c r="AW37" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX37" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AY37" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AZ37" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA37" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB37" t="n">
         <v>151</v>
@@ -7214,7 +7214,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>dYbmKML6</t>
+          <t>xYNxflsK</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7224,179 +7224,179 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Al Qadisiya</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.2</v>
+        <v>1.53</v>
       </c>
       <c r="H38" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L38" t="n">
+        <v>5</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N38" t="n">
+        <v>15</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T38" t="n">
         <v>3.4</v>
       </c>
-      <c r="I38" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="J38" t="n">
+      <c r="U38" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2</v>
+      </c>
+      <c r="W38" t="n">
+        <v>8</v>
+      </c>
+      <c r="X38" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN38" t="n">
         <v>3.75</v>
       </c>
-      <c r="K38" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N38" t="n">
-        <v>8</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P38" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R38" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T38" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V38" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W38" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="X38" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>45</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ38" t="n">
+      <c r="AO38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU38" t="n">
         <v>8.5</v>
       </c>
-      <c r="AK38" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>110</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>6.7</v>
-      </c>
       <c r="AV38" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AW38" t="n">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="AX38" t="n">
-        <v>10.5</v>
+        <v>29</v>
       </c>
       <c r="AY38" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AZ38" t="n">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="BA38" t="n">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="BB38" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="BC38" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD38" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>zJAvMrif</t>
+          <t>dYbmKML6</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -7416,157 +7416,157 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H39" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>2.42</v>
+        <v>2.02</v>
       </c>
       <c r="J39" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="K39" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N39" t="n">
+        <v>8</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R39" t="n">
         <v>2.05</v>
       </c>
-      <c r="L39" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N39" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.83</v>
-      </c>
       <c r="S39" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="T39" t="n">
-        <v>2.65</v>
+        <v>2.92</v>
       </c>
       <c r="U39" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="V39" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="W39" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X39" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH39" t="n">
         <v>9</v>
       </c>
-      <c r="X39" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA39" t="n">
+      <c r="AI39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AP39" t="n">
         <v>23</v>
       </c>
-      <c r="AB39" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF39" t="n">
+      <c r="AQ39" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV39" t="n">
         <v>55</v>
       </c>
-      <c r="AG39" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>20</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV39" t="n">
+      <c r="AW39" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>37</v>
+      </c>
+      <c r="BA39" t="n">
         <v>60</v>
       </c>
-      <c r="AW39" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>60</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>90</v>
-      </c>
       <c r="BB39" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC39" t="n">
         <v>51</v>
@@ -7578,7 +7578,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>xpKWnHAs</t>
+          <t>zJAvMrif</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -7588,177 +7588,179 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Tampines</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tanjong Pagar</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.03</v>
+        <v>2.7</v>
       </c>
       <c r="H40" t="n">
-        <v>19</v>
+        <v>3.15</v>
       </c>
       <c r="I40" t="n">
-        <v>34</v>
+        <v>2.42</v>
       </c>
       <c r="J40" t="n">
-        <v>1.18</v>
+        <v>3.35</v>
       </c>
       <c r="K40" t="n">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="L40" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N40" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W40" t="n">
+        <v>9</v>
+      </c>
+      <c r="X40" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AY40" t="n">
         <v>21</v>
       </c>
-      <c r="M40" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N40" t="n">
-        <v>34</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P40" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="R40" t="n">
-        <v>8</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="T40" t="n">
-        <v>9</v>
-      </c>
-      <c r="U40" t="n">
-        <v>2</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W40" t="n">
-        <v>29</v>
-      </c>
-      <c r="X40" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE40" t="n">
+      <c r="AZ40" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC40" t="n">
         <v>51</v>
       </c>
-      <c r="AF40" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>126</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>201</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>201</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>6</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV40" t="n">
+      <c r="BD40" t="n">
         <v>51</v>
       </c>
-      <c r="AW40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>101</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>351</v>
-      </c>
-      <c r="BA40" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB40" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC40" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>QDELJxlI</t>
+          <t>xpKWnHAs</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -7768,179 +7770,177 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Kosice</t>
+          <t>Tampines</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Tanjong Pagar</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.15</v>
+        <v>1.03</v>
       </c>
       <c r="H41" t="n">
-        <v>3.6</v>
+        <v>19</v>
       </c>
       <c r="I41" t="n">
-        <v>1.82</v>
+        <v>34</v>
       </c>
       <c r="J41" t="n">
-        <v>4.45</v>
+        <v>1.18</v>
       </c>
       <c r="K41" t="n">
-        <v>2.18</v>
+        <v>5.5</v>
       </c>
       <c r="L41" t="n">
-        <v>2.35</v>
+        <v>21</v>
       </c>
       <c r="M41" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N41" t="n">
+        <v>34</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P41" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="R41" t="n">
         <v>8</v>
       </c>
-      <c r="O41" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.93</v>
-      </c>
       <c r="S41" t="n">
-        <v>1.4</v>
+        <v>1.07</v>
       </c>
       <c r="T41" t="n">
-        <v>2.87</v>
+        <v>9</v>
       </c>
       <c r="U41" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="W41" t="n">
-        <v>11.75</v>
+        <v>29</v>
       </c>
       <c r="X41" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Y41" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="Z41" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="AA41" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="AB41" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC41" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="AD41" t="n">
-        <v>7.4</v>
+        <v>41</v>
       </c>
       <c r="AE41" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="AF41" t="n">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AG41" t="n">
-        <v>600</v>
+        <v>151</v>
       </c>
       <c r="AH41" t="n">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="AI41" t="n">
+        <v>201</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>101</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>201</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT41" t="n">
         <v>9</v>
       </c>
-      <c r="AJ41" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL41" t="n">
+      <c r="AU41" t="n">
         <v>15</v>
       </c>
-      <c r="AM41" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP41" t="n">
+      <c r="AV41" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW41" t="n">
         <v>29</v>
       </c>
-      <c r="AQ41" t="n">
-        <v>120</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>3.65</v>
-      </c>
       <c r="AX41" t="n">
-        <v>8.75</v>
+        <v>101</v>
       </c>
       <c r="AY41" t="n">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="AZ41" t="n">
-        <v>30</v>
+        <v>351</v>
       </c>
       <c r="BA41" t="n">
-        <v>65</v>
+        <v>351</v>
       </c>
       <c r="BB41" t="n">
-        <v>250</v>
+        <v>351</v>
       </c>
       <c r="BC41" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD41" t="n">
-        <v>51</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="BD41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>j1izldfS</t>
+          <t>QDELJxlI</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -7950,167 +7950,167 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>SLOVAKIA - NIKE LIGA</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Kosice</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Radomlje</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.88</v>
+        <v>4.25</v>
       </c>
       <c r="H42" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>1.78</v>
       </c>
       <c r="J42" t="n">
-        <v>2.47</v>
+        <v>4.45</v>
       </c>
       <c r="K42" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="L42" t="n">
-        <v>4.4</v>
+        <v>2.35</v>
       </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="O42" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="P42" t="n">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="R42" t="n">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="S42" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T42" t="n">
-        <v>2.67</v>
+        <v>2.87</v>
       </c>
       <c r="U42" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V42" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="W42" t="n">
-        <v>6.3</v>
+        <v>11.75</v>
       </c>
       <c r="X42" t="n">
-        <v>8.25</v>
+        <v>26</v>
       </c>
       <c r="Y42" t="n">
-        <v>8.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>15.5</v>
+        <v>75</v>
       </c>
       <c r="AA42" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AB42" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="AC42" t="n">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="AD42" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="AE42" t="n">
         <v>16</v>
       </c>
       <c r="AF42" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG42" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH42" t="n">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="AI42" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AJ42" t="n">
-        <v>13.5</v>
+        <v>8.75</v>
       </c>
       <c r="AK42" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV42" t="n">
         <v>65</v>
       </c>
-      <c r="AL42" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>35</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS42" t="n">
+      <c r="AW42" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>30</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>65</v>
+      </c>
+      <c r="BB42" t="n">
         <v>250</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>120</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>150</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>400</v>
       </c>
       <c r="BC42" t="n">
         <v>51</v>
@@ -8122,7 +8122,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2VZFUi4c</t>
+          <t>j1izldfS</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8132,173 +8132,179 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Buriram</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Sukhothai</t>
+          <t>Radomlje</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.15</v>
+        <v>1.88</v>
       </c>
       <c r="H43" t="n">
-        <v>6.8</v>
+        <v>3.3</v>
       </c>
       <c r="I43" t="n">
+        <v>4</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N43" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W43" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X43" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA43" t="n">
         <v>16</v>
       </c>
-      <c r="J43" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L43" t="n">
+      <c r="AB43" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH43" t="n">
         <v>10.5</v>
       </c>
-      <c r="M43" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N43" t="n">
-        <v>25</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P43" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R43" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="T43" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W43" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="X43" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>55</v>
-      </c>
       <c r="AI43" t="n">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="AJ43" t="n">
-        <v>50</v>
+        <v>13.5</v>
       </c>
       <c r="AK43" t="n">
-        <v>700</v>
+        <v>65</v>
       </c>
       <c r="AL43" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AM43" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ43" t="n">
         <v>120</v>
       </c>
-      <c r="AN43" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>25</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>90</v>
-      </c>
-      <c r="AY43" t="n">
-        <v>55</v>
-      </c>
-      <c r="AZ43" t="inlineStr"/>
       <c r="BA43" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="BB43" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC43" t="inlineStr"/>
-      <c r="BD43" t="inlineStr"/>
+        <v>400</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>jPRoB7i2</t>
+          <t>WWp90WXG</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8308,179 +8314,179 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Schaffhausen</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N44" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R44" t="n">
         <v>1.85</v>
       </c>
-      <c r="H44" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J44" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="S44" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V44" t="n">
         <v>2.1</v>
       </c>
-      <c r="L44" t="n">
+      <c r="W44" t="n">
+        <v>9</v>
+      </c>
+      <c r="X44" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN44" t="n">
         <v>4.5</v>
       </c>
-      <c r="M44" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N44" t="n">
-        <v>11</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P44" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T44" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W44" t="n">
+      <c r="AO44" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU44" t="n">
         <v>7</v>
       </c>
-      <c r="X44" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z44" t="n">
+      <c r="AV44" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AX44" t="n">
         <v>15</v>
       </c>
-      <c r="AA44" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF44" t="n">
+      <c r="AY44" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>70</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC44" t="n">
         <v>51</v>
       </c>
-      <c r="AG44" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR44" t="n">
+      <c r="BD44" t="n">
         <v>51</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW44" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX44" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY44" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ44" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA44" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB44" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC44" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD44" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>WEiW6Wxq</t>
+          <t>4tmXLw0f</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -8490,179 +8496,179 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Karpaty Lviv</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Vaduz</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="H45" t="n">
-        <v>2.7</v>
+        <v>3.55</v>
       </c>
       <c r="I45" t="n">
-        <v>3.15</v>
+        <v>2.35</v>
       </c>
       <c r="J45" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K45" t="n">
-        <v>1.82</v>
+        <v>2.3</v>
       </c>
       <c r="L45" t="n">
-        <v>3.9</v>
+        <v>2.85</v>
       </c>
       <c r="M45" t="n">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>4.35</v>
+        <v>9</v>
       </c>
       <c r="O45" t="n">
-        <v>1.6</v>
+        <v>1.16</v>
       </c>
       <c r="P45" t="n">
-        <v>2.07</v>
+        <v>4.55</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.67</v>
+        <v>1.5</v>
       </c>
       <c r="R45" t="n">
-        <v>1.36</v>
+        <v>2.4</v>
       </c>
       <c r="S45" t="n">
-        <v>1.6</v>
+        <v>1.28</v>
       </c>
       <c r="T45" t="n">
-        <v>2.07</v>
+        <v>3.35</v>
       </c>
       <c r="U45" t="n">
-        <v>2.15</v>
+        <v>1.44</v>
       </c>
       <c r="V45" t="n">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="W45" t="n">
-        <v>5.8</v>
+        <v>14</v>
       </c>
       <c r="X45" t="n">
-        <v>10.75</v>
+        <v>18.5</v>
       </c>
       <c r="Y45" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE45" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z45" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB45" t="n">
+      <c r="AF45" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ45" t="n">
         <v>50</v>
       </c>
-      <c r="AC45" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF45" t="n">
+      <c r="AR45" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS45" t="n">
         <v>150</v>
       </c>
-      <c r="AG45" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>27</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR45" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>450</v>
-      </c>
       <c r="AT45" t="n">
-        <v>2.07</v>
+        <v>3.35</v>
       </c>
       <c r="AU45" t="n">
-        <v>7.9</v>
+        <v>6.1</v>
       </c>
       <c r="AV45" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AW45" t="n">
         <v>4.75</v>
       </c>
       <c r="AX45" t="n">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="AY45" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AZ45" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="BA45" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="BB45" t="n">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="BC45" t="n">
-        <v>81</v>
+        <v>450</v>
       </c>
       <c r="BD45" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ppjD0Hnl</t>
+          <t>2VZFUi4c</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -8672,167 +8678,165 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Al Sharjah</t>
+          <t>Buriram</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Sukhothai</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.98</v>
+        <v>1.15</v>
       </c>
       <c r="H46" t="n">
-        <v>3.5</v>
+        <v>6.8</v>
       </c>
       <c r="I46" t="n">
-        <v>3.45</v>
+        <v>16</v>
       </c>
       <c r="J46" t="n">
-        <v>2.47</v>
+        <v>1.45</v>
       </c>
       <c r="K46" t="n">
-        <v>2.25</v>
+        <v>3.05</v>
       </c>
       <c r="L46" t="n">
-        <v>3.85</v>
+        <v>10.5</v>
       </c>
       <c r="M46" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>8.5</v>
+        <v>25</v>
       </c>
       <c r="O46" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="P46" t="n">
-        <v>4.1</v>
+        <v>6.1</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.6</v>
+        <v>1.31</v>
       </c>
       <c r="R46" t="n">
-        <v>2.22</v>
+        <v>3.2</v>
       </c>
       <c r="S46" t="n">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
       <c r="T46" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="U46" t="n">
-        <v>1.52</v>
+        <v>1.88</v>
       </c>
       <c r="V46" t="n">
-        <v>2.37</v>
+        <v>1.83</v>
       </c>
       <c r="W46" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X46" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y46" t="n">
         <v>10.25</v>
       </c>
-      <c r="X46" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>8.25</v>
-      </c>
       <c r="Z46" t="n">
-        <v>19.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AB46" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.5</v>
+        <v>25</v>
       </c>
       <c r="AD46" t="n">
-        <v>7.1</v>
+        <v>15.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>11.5</v>
+        <v>27</v>
       </c>
       <c r="AF46" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AG46" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="AH46" t="n">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="AI46" t="n">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="AJ46" t="n">
-        <v>11.75</v>
+        <v>50</v>
       </c>
       <c r="AK46" t="n">
-        <v>50</v>
+        <v>700</v>
       </c>
       <c r="AL46" t="n">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="AM46" t="n">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="AN46" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT46" t="n">
         <v>4.2</v>
       </c>
-      <c r="AO46" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR46" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>3.15</v>
-      </c>
       <c r="AU46" t="n">
-        <v>6.4</v>
+        <v>9</v>
       </c>
       <c r="AV46" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AW46" t="n">
-        <v>5.7</v>
+        <v>15</v>
       </c>
       <c r="AX46" t="n">
-        <v>18.5</v>
+        <v>90</v>
       </c>
       <c r="AY46" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>90</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AZ46" t="inlineStr"/>
       <c r="BA46" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="BB46" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="BC46" t="inlineStr"/>
       <c r="BD46" t="inlineStr"/>
@@ -8840,7 +8844,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>hnBY7afE</t>
+          <t>jPRoB7i2</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -8850,175 +8854,179 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Shabab Al-Ahli Dubai</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.38</v>
+        <v>1.85</v>
       </c>
       <c r="H47" t="n">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
       <c r="I47" t="n">
-        <v>6.2</v>
+        <v>3.9</v>
       </c>
       <c r="J47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N47" t="n">
+        <v>11</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
         <v>1.8</v>
       </c>
-      <c r="K47" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="L47" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N47" t="n">
-        <v>19</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R47" t="n">
-        <v>2.95</v>
-      </c>
       <c r="S47" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="T47" t="n">
-        <v>3.9</v>
+        <v>2.75</v>
       </c>
       <c r="U47" t="n">
-        <v>1.55</v>
+        <v>1.83</v>
       </c>
       <c r="V47" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="W47" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="X47" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>10.75</v>
+        <v>15</v>
       </c>
       <c r="AA47" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC47" t="n">
         <v>10</v>
       </c>
-      <c r="AB47" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>27</v>
-      </c>
       <c r="AD47" t="n">
-        <v>11.25</v>
+        <v>7</v>
       </c>
       <c r="AE47" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AF47" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AG47" t="n">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="AH47" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="AI47" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AJ47" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AK47" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AL47" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AM47" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AN47" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AO47" t="n">
-        <v>6.2</v>
+        <v>10</v>
       </c>
       <c r="AP47" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AQ47" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AR47" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="AS47" t="n">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="AT47" t="n">
-        <v>3.9</v>
+        <v>2.75</v>
       </c>
       <c r="AU47" t="n">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="AV47" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AW47" t="n">
-        <v>8.25</v>
+        <v>6</v>
       </c>
       <c r="AX47" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AY47" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AZ47" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="BA47" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="BB47" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC47" t="inlineStr"/>
-      <c r="BD47" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CzKe0my8</t>
+          <t>WEiW6Wxq</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9028,172 +9036,710 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Al Wahda</t>
+          <t>Karpaty Lviv</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Al Wasl</t>
+          <t>Kolos Kovalivka</t>
         </is>
       </c>
       <c r="G48" t="n">
         <v>2.5</v>
       </c>
       <c r="H48" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L48" t="n">
         <v>3.9</v>
       </c>
-      <c r="I48" t="n">
+      <c r="M48" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N48" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T48" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W48" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X48" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>110</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ppjD0Hnl</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Al Sharjah</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Al Nasr</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N49" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T49" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V49" t="n">
         <v>2.37</v>
       </c>
-      <c r="J48" t="n">
+      <c r="W49" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X49" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>90</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC49" t="inlineStr"/>
+      <c r="BD49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>hnBY7afE</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Shabab Al-Ahli Dubai</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Ittihad Kalba</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="L50" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N50" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R50" t="n">
         <v>2.92</v>
       </c>
-      <c r="K48" t="n">
+      <c r="S50" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="T50" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V50" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="W50" t="n">
+        <v>12</v>
+      </c>
+      <c r="X50" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>110</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC50" t="inlineStr"/>
+      <c r="BD50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CzKe0my8</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Al Wahda</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Al Wasl</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K51" t="n">
         <v>2.45</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L51" t="n">
         <v>2.8</v>
       </c>
-      <c r="M48" t="n">
+      <c r="M51" t="n">
         <v>1.03</v>
       </c>
-      <c r="N48" t="n">
+      <c r="N51" t="n">
         <v>9.5</v>
       </c>
-      <c r="O48" t="n">
+      <c r="O51" t="n">
         <v>1.15</v>
       </c>
-      <c r="P48" t="n">
+      <c r="P51" t="n">
         <v>4.8</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="Q51" t="n">
         <v>1.47</v>
       </c>
-      <c r="R48" t="n">
+      <c r="R51" t="n">
         <v>2.52</v>
       </c>
-      <c r="S48" t="n">
+      <c r="S51" t="n">
         <v>1.25</v>
       </c>
-      <c r="T48" t="n">
+      <c r="T51" t="n">
         <v>3.6</v>
       </c>
-      <c r="U48" t="n">
+      <c r="U51" t="n">
         <v>1.44</v>
       </c>
-      <c r="V48" t="n">
+      <c r="V51" t="n">
         <v>2.62</v>
       </c>
-      <c r="W48" t="n">
+      <c r="W51" t="n">
         <v>13.5</v>
       </c>
-      <c r="X48" t="n">
+      <c r="X51" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y48" t="n">
+      <c r="Y51" t="n">
         <v>10</v>
       </c>
-      <c r="Z48" t="n">
+      <c r="Z51" t="n">
         <v>29</v>
       </c>
-      <c r="AA48" t="n">
+      <c r="AA51" t="n">
         <v>17.5</v>
       </c>
-      <c r="AB48" t="n">
+      <c r="AB51" t="n">
         <v>20</v>
       </c>
-      <c r="AC48" t="n">
+      <c r="AC51" t="n">
         <v>9.5</v>
       </c>
-      <c r="AD48" t="n">
+      <c r="AD51" t="n">
         <v>8.25</v>
       </c>
-      <c r="AE48" t="n">
+      <c r="AE51" t="n">
         <v>11.25</v>
       </c>
-      <c r="AF48" t="n">
+      <c r="AF51" t="n">
         <v>32</v>
       </c>
-      <c r="AG48" t="n">
+      <c r="AG51" t="n">
         <v>175</v>
       </c>
-      <c r="AH48" t="n">
+      <c r="AH51" t="n">
         <v>13.5</v>
       </c>
-      <c r="AI48" t="n">
+      <c r="AI51" t="n">
         <v>15.5</v>
       </c>
-      <c r="AJ48" t="n">
+      <c r="AJ51" t="n">
         <v>9.75</v>
       </c>
-      <c r="AK48" t="n">
+      <c r="AK51" t="n">
         <v>26</v>
       </c>
-      <c r="AL48" t="n">
+      <c r="AL51" t="n">
         <v>16.5</v>
       </c>
-      <c r="AM48" t="n">
+      <c r="AM51" t="n">
         <v>19</v>
       </c>
-      <c r="AN48" t="n">
+      <c r="AN51" t="n">
         <v>5</v>
       </c>
-      <c r="AO48" t="n">
+      <c r="AO51" t="n">
         <v>12.5</v>
       </c>
-      <c r="AP48" t="n">
+      <c r="AP51" t="n">
         <v>16</v>
       </c>
-      <c r="AQ48" t="n">
+      <c r="AQ51" t="n">
         <v>45</v>
       </c>
-      <c r="AR48" t="n">
+      <c r="AR51" t="n">
         <v>55</v>
       </c>
-      <c r="AS48" t="n">
+      <c r="AS51" t="n">
         <v>150</v>
       </c>
-      <c r="AT48" t="n">
+      <c r="AT51" t="n">
         <v>3.6</v>
       </c>
-      <c r="AU48" t="n">
+      <c r="AU51" t="n">
         <v>6.3</v>
       </c>
-      <c r="AV48" t="n">
+      <c r="AV51" t="n">
         <v>37</v>
       </c>
-      <c r="AW48" t="n">
+      <c r="AW51" t="n">
         <v>4.85</v>
       </c>
-      <c r="AX48" t="n">
+      <c r="AX51" t="n">
         <v>11.5</v>
       </c>
-      <c r="AY48" t="n">
+      <c r="AY51" t="n">
         <v>15</v>
       </c>
-      <c r="AZ48" t="n">
+      <c r="AZ51" t="n">
         <v>40</v>
       </c>
-      <c r="BA48" t="n">
+      <c r="BA51" t="n">
         <v>55</v>
       </c>
-      <c r="BB48" t="n">
+      <c r="BB51" t="n">
         <v>120</v>
       </c>
-      <c r="BC48" t="n">
+      <c r="BC51" t="n">
         <v>450</v>
       </c>
-      <c r="BD48" t="inlineStr"/>
+      <c r="BD51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="H2" t="n">
         <v>4.33</v>
@@ -789,7 +789,7 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V2" t="n">
         <v>2</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Im9H9ezS</t>
+          <t>EuQnZBVQ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,167 +910,167 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 1</t>
+          <t>GERMANY - BUNDESLIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PSG</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.36</v>
+        <v>1.11</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J3" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>11</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N3" t="n">
+        <v>29</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T3" t="n">
+        <v>5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.8</v>
       </c>
-      <c r="K3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N3" t="n">
-        <v>19</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2</v>
-      </c>
       <c r="W3" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="X3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z3" t="n">
         <v>8</v>
       </c>
-      <c r="Y3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AA3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD3" t="n">
         <v>21</v>
       </c>
-      <c r="AC3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>11</v>
-      </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AF3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM3" t="n">
         <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>41</v>
       </c>
       <c r="AN3" t="n">
         <v>3.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="AP3" t="n">
         <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AR3" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AS3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AX3" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="n">
         <v>501</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EuQnZBVQ</t>
+          <t>SCX7iT7M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,119 +1092,119 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GERMANY - BUNDESLIGA</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.13</v>
+        <v>1.63</v>
       </c>
       <c r="H4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
         <v>10</v>
       </c>
-      <c r="I4" t="n">
-        <v>15</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N4" t="n">
-        <v>26</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="T4" t="n">
-        <v>5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W4" t="n">
-        <v>12</v>
-      </c>
-      <c r="X4" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC4" t="n">
+      <c r="AI4" t="n">
         <v>29</v>
       </c>
-      <c r="AD4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF4" t="n">
+      <c r="AJ4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK4" t="n">
         <v>67</v>
       </c>
-      <c r="AG4" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>251</v>
-      </c>
       <c r="AL4" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AM4" t="n">
         <v>67</v>
@@ -1213,58 +1213,58 @@
         <v>3.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AT4" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="AU4" t="n">
         <v>11</v>
       </c>
       <c r="AV4" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AW4" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AY4" t="n">
         <v>51</v>
       </c>
       <c r="AZ4" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BA4" t="n">
         <v>251</v>
       </c>
       <c r="BB4" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="BC4" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SCX7iT7M</t>
+          <t>GnDS6jq2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Amstetten</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>First Vienna</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>2.27</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I5" t="n">
-        <v>6.25</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.75</v>
+        <v>1.62</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>2.2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.62</v>
+        <v>1.32</v>
       </c>
       <c r="T5" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="U5" t="n">
-        <v>2.63</v>
+        <v>1.53</v>
       </c>
       <c r="V5" t="n">
-        <v>1.44</v>
+        <v>2.35</v>
       </c>
       <c r="W5" t="n">
-        <v>4.5</v>
+        <v>10.25</v>
       </c>
       <c r="X5" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AY5" t="n">
         <v>19</v>
       </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>51</v>
-      </c>
       <c r="AZ5" t="n">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="BA5" t="n">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="BB5" t="n">
-        <v>501</v>
+        <v>200</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GnDS6jq2</t>
+          <t>xYZuGfMF</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,67 +1466,67 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Amstetten</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>First Vienna</t>
+          <t>ASK Voitsberg</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L6" t="n">
         <v>3.55</v>
       </c>
-      <c r="I6" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.25</v>
-      </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>8.5</v>
+        <v>6.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.62</v>
+        <v>2.07</v>
       </c>
       <c r="R6" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="T6" t="n">
-        <v>3.1</v>
+        <v>2.67</v>
       </c>
       <c r="U6" t="n">
-        <v>1.53</v>
+        <v>1.82</v>
       </c>
       <c r="V6" t="n">
-        <v>2.35</v>
+        <v>1.88</v>
       </c>
       <c r="W6" t="n">
-        <v>10.25</v>
+        <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>10.75</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
@@ -1535,88 +1535,88 @@
         <v>23</v>
       </c>
       <c r="AA6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX6" t="n">
         <v>16.5</v>
       </c>
-      <c r="AB6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>35</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM6" t="n">
+      <c r="AY6" t="n">
         <v>24</v>
       </c>
-      <c r="AN6" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>19</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BA6" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="BB6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="BC6" t="n">
         <v>81</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>xYZuGfMF</t>
+          <t>48gNSX5L</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,160 +1648,160 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Lafnitz</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ASK Voitsberg</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.92</v>
       </c>
       <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.2</v>
       </c>
-      <c r="I7" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="V7" t="n">
         <v>2.85</v>
       </c>
-      <c r="K7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.88</v>
-      </c>
       <c r="W7" t="n">
-        <v>7.3</v>
+        <v>18</v>
       </c>
       <c r="X7" t="n">
-        <v>10.75</v>
+        <v>22</v>
       </c>
       <c r="Y7" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AD7" t="n">
         <v>9</v>
       </c>
-      <c r="Z7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.1</v>
-      </c>
       <c r="AE7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH7" t="n">
         <v>14.5</v>
       </c>
-      <c r="AF7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>9.25</v>
       </c>
       <c r="AK7" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="AL7" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="AM7" t="n">
-        <v>37</v>
+        <v>16.5</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>11.75</v>
+        <v>14.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AQ7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR7" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AS7" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.67</v>
+        <v>3.8</v>
       </c>
       <c r="AU7" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AV7" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.9</v>
+        <v>4.65</v>
       </c>
       <c r="AX7" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="AY7" t="n">
-        <v>24</v>
+        <v>13.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="BA7" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="BB7" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="BC7" t="n">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="BD7" t="n">
         <v>81</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>48gNSX5L</t>
+          <t>OhzfNBTr</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,160 +1830,160 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lafnitz</t>
+          <t>SK Rapid</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>St. Polten</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="L8" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>5.4</v>
+        <v>3.85</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.38</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
-        <v>2.82</v>
+        <v>2.07</v>
       </c>
       <c r="S8" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="T8" t="n">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="U8" t="n">
-        <v>1.37</v>
+        <v>1.6</v>
       </c>
       <c r="V8" t="n">
-        <v>2.85</v>
+        <v>2.2</v>
       </c>
       <c r="W8" t="n">
-        <v>18</v>
+        <v>11.25</v>
       </c>
       <c r="X8" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA8" t="n">
         <v>22</v>
       </c>
-      <c r="Y8" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="Z8" t="n">
+      <c r="AB8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>40</v>
       </c>
-      <c r="AA8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>32</v>
-      </c>
       <c r="BA8" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="BB8" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="BC8" t="n">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="BD8" t="n">
         <v>81</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OhzfNBTr</t>
+          <t>pbwlEYjS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,157 +2012,157 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SK Rapid</t>
+          <t>Ried</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>St. Polten</t>
+          <t>Bregenz</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.85</v>
+        <v>1.36</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>4.85</v>
       </c>
       <c r="I9" t="n">
-        <v>2.18</v>
+        <v>7.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>1.82</v>
       </c>
       <c r="K9" t="n">
-        <v>2.27</v>
+        <v>2.52</v>
       </c>
       <c r="L9" t="n">
-        <v>2.72</v>
+        <v>6.2</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W9" t="n">
         <v>8.5</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W9" t="n">
-        <v>11.25</v>
-      </c>
       <c r="X9" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>16</v>
       </c>
-      <c r="Y9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>65</v>
-      </c>
       <c r="AR9" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AS9" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>37</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>37</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>250</v>
       </c>
-      <c r="AT9" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>40</v>
-      </c>
       <c r="BA9" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="BB9" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="BC9" t="n">
         <v>81</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pbwlEYjS</t>
+          <t>dpPhx5Zp</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,175 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AUSTRIA - 2. LIGA</t>
+          <t>AZERBAIJAN - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ried</t>
+          <t>Kapaz</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bregenz</t>
+          <t>Araz</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.36</v>
+        <v>4.05</v>
       </c>
       <c r="H10" t="n">
-        <v>4.85</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>7.1</v>
+        <v>1.85</v>
       </c>
       <c r="J10" t="n">
-        <v>1.82</v>
+        <v>4.3</v>
       </c>
       <c r="K10" t="n">
-        <v>2.52</v>
+        <v>2.12</v>
       </c>
       <c r="L10" t="n">
-        <v>6.2</v>
+        <v>2.42</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>9.25</v>
+        <v>7.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.53</v>
+        <v>1.98</v>
       </c>
       <c r="R10" t="n">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="S10" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>11.25</v>
       </c>
       <c r="X10" t="n">
-        <v>7.3</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.25</v>
+        <v>65</v>
       </c>
       <c r="AA10" t="n">
-        <v>10.5</v>
+        <v>37</v>
       </c>
       <c r="AB10" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="AC10" t="n">
         <v>9.25</v>
       </c>
       <c r="AD10" t="n">
-        <v>9.75</v>
+        <v>6.4</v>
       </c>
       <c r="AE10" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG10" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH10" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AO10" t="n">
         <v>22</v>
       </c>
-      <c r="AI10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK10" t="n">
+      <c r="AP10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR10" t="n">
         <v>150</v>
       </c>
-      <c r="AL10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM10" t="n">
+      <c r="AS10" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV10" t="n">
         <v>60</v>
       </c>
-      <c r="AN10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>70</v>
-      </c>
       <c r="AW10" t="n">
-        <v>8.25</v>
+        <v>3.7</v>
       </c>
       <c r="AX10" t="n">
-        <v>37</v>
+        <v>9.25</v>
       </c>
       <c r="AY10" t="n">
-        <v>37</v>
+        <v>17.5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="BA10" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="BB10" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>81</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dpPhx5Zp</t>
+          <t>YmNgaudn</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,175 +2362,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>AZERBAIJAN - PREMIER LEAGUE</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Kapaz</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Araz</t>
+          <t>Dender</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.95</v>
+        <v>1.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1.88</v>
+        <v>5.5</v>
       </c>
       <c r="J11" t="n">
-        <v>4.35</v>
+        <v>2.05</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="L11" t="n">
-        <v>2.42</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>7.9</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.95</v>
       </c>
-      <c r="R11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.85</v>
-      </c>
       <c r="W11" t="n">
-        <v>10.75</v>
+        <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>7.5</v>
       </c>
       <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="n">
         <v>13</v>
       </c>
-      <c r="Z11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9</v>
-      </c>
       <c r="AD11" t="n">
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>600</v>
+        <v>251</v>
       </c>
       <c r="AH11" t="n">
-        <v>6.8</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
-        <v>8.75</v>
+        <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8.25</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="AL11" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.8</v>
+        <v>3.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>7.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="AR11" t="n">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="AS11" t="n">
-        <v>350</v>
+        <v>126</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="AU11" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.7</v>
+        <v>7.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>9.25</v>
+        <v>29</v>
       </c>
       <c r="AY11" t="n">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="AZ11" t="n">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="BA11" t="n">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="BB11" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>YmNgaudn</t>
+          <t>jDB7XlJk</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2544,53 +2544,53 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Club Brugge KV U23</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dender</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="J12" t="n">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q12" t="n">
         <v>1.7</v>
@@ -2605,76 +2605,76 @@
         <v>3.25</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="V12" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="X12" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AA12" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC12" t="n">
         <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL12" t="n">
         <v>19</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AM12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR12" t="n">
         <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>41</v>
       </c>
       <c r="AS12" t="n">
         <v>126</v>
@@ -2683,40 +2683,40 @@
         <v>3.25</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA12" t="n">
         <v>51</v>
       </c>
-      <c r="AW12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA12" t="n">
+      <c r="BB12" t="n">
         <v>126</v>
       </c>
-      <c r="BB12" t="n">
-        <v>251</v>
-      </c>
       <c r="BC12" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BD12" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jDB7XlJk</t>
+          <t>bTB1gWu9</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2736,85 +2736,85 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Club Brugge KV U23</t>
+          <t>K. Lierse S.K.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Genk U23</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.55</v>
+        <v>1.83</v>
       </c>
       <c r="H13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N13" t="n">
+        <v>15</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T13" t="n">
         <v>3.4</v>
       </c>
-      <c r="I13" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="U13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W13" t="n">
+        <v>10</v>
+      </c>
+      <c r="X13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA13" t="n">
         <v>13</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W13" t="n">
-        <v>11</v>
-      </c>
-      <c r="X13" t="n">
+      <c r="AB13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC13" t="n">
         <v>15</v>
       </c>
-      <c r="Y13" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>13</v>
-      </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE13" t="n">
         <v>12</v>
@@ -2823,46 +2823,46 @@
         <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH13" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>13</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>10</v>
-      </c>
       <c r="AK13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="n">
         <v>26</v>
       </c>
-      <c r="AL13" t="n">
-        <v>19</v>
-      </c>
       <c r="AM13" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AO13" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR13" t="n">
         <v>41</v>
       </c>
-      <c r="AR13" t="n">
-        <v>51</v>
-      </c>
       <c r="AS13" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU13" t="n">
         <v>7.5</v>
@@ -2871,25 +2871,25 @@
         <v>41</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="AX13" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB13" t="n">
         <v>126</v>
       </c>
       <c r="BC13" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -2898,7 +2898,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>bTB1gWu9</t>
+          <t>bcwMI4Uc</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2908,170 +2908,170 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>K. Lierse S.K.</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Genk U23</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.83</v>
+        <v>1.55</v>
       </c>
       <c r="H14" t="n">
         <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="K14" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
+        <v>8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA14" t="n">
         <v>15</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W14" t="n">
-        <v>10</v>
-      </c>
-      <c r="X14" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>13</v>
-      </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
         <v>7.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AF14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY14" t="n">
         <v>41</v>
       </c>
-      <c r="AG14" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ14" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BA14" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="BB14" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BC14" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD14" t="n">
         <v>81</v>
@@ -3324,7 +3324,7 @@
         <v>2.2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S16" t="n">
         <v>1.5</v>
@@ -3479,13 +3479,13 @@
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J17" t="n">
         <v>2.88</v>
       </c>
       <c r="K17" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L17" t="n">
         <v>4</v>
@@ -3506,7 +3506,7 @@
         <v>2.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S17" t="n">
         <v>1.44</v>
@@ -3515,10 +3515,10 @@
         <v>2.63</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W17" t="n">
         <v>7</v>
@@ -3530,7 +3530,7 @@
         <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="n">
         <v>19</v>
@@ -3539,7 +3539,7 @@
         <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD17" t="n">
         <v>6</v>
@@ -3560,7 +3560,7 @@
         <v>17</v>
       </c>
       <c r="AJ17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK17" t="n">
         <v>41</v>
@@ -3587,13 +3587,13 @@
         <v>67</v>
       </c>
       <c r="AS17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT17" t="n">
         <v>2.63</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
@@ -3611,10 +3611,10 @@
         <v>67</v>
       </c>
       <c r="BA17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC17" t="n">
         <v>501</v>
@@ -3685,7 +3685,7 @@
         <v>4.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R18" t="n">
         <v>2.3</v>
@@ -4553,13 +4553,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H23" t="n">
         <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J23" t="n">
         <v>3.25</v>
@@ -4574,19 +4574,19 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O23" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R23" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
         <v>1.29</v>
@@ -4601,7 +4601,7 @@
         <v>2.2</v>
       </c>
       <c r="W23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X23" t="n">
         <v>17</v>
@@ -4619,13 +4619,13 @@
         <v>29</v>
       </c>
       <c r="AC23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD23" t="n">
         <v>6.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF23" t="n">
         <v>41</v>
@@ -4634,7 +4634,7 @@
         <v>151</v>
       </c>
       <c r="AH23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI23" t="n">
         <v>12</v>
@@ -5099,19 +5099,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J26" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K26" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L26" t="n">
         <v>4.5</v>
@@ -5162,13 +5162,13 @@
         <v>15</v>
       </c>
       <c r="AB26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>15</v>
@@ -5180,13 +5180,13 @@
         <v>251</v>
       </c>
       <c r="AH26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI26" t="n">
         <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK26" t="n">
         <v>41</v>
@@ -5281,13 +5281,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H27" t="n">
         <v>3.2</v>
       </c>
       <c r="I27" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J27" t="n">
         <v>4</v>
@@ -5296,25 +5296,25 @@
         <v>2</v>
       </c>
       <c r="L27" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
         <v>8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P27" t="n">
         <v>2.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R27" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S27" t="n">
         <v>1.5</v>
@@ -5329,16 +5329,16 @@
         <v>1.8</v>
       </c>
       <c r="W27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X27" t="n">
         <v>15</v>
       </c>
       <c r="Y27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA27" t="n">
         <v>29</v>
@@ -5347,7 +5347,7 @@
         <v>41</v>
       </c>
       <c r="AC27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD27" t="n">
         <v>6</v>
@@ -5362,10 +5362,10 @@
         <v>351</v>
       </c>
       <c r="AH27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ27" t="n">
         <v>9.5</v>
@@ -5383,10 +5383,10 @@
         <v>5</v>
       </c>
       <c r="AO27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ27" t="n">
         <v>67</v>
@@ -5407,7 +5407,7 @@
         <v>67</v>
       </c>
       <c r="AW27" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX27" t="n">
         <v>13</v>
@@ -5481,13 +5481,13 @@
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N28" t="n">
         <v>11</v>
       </c>
       <c r="O28" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P28" t="n">
         <v>3.5</v>
@@ -5648,13 +5648,13 @@
         <v>2.2</v>
       </c>
       <c r="H29" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I29" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J29" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
         <v>2.05</v>
@@ -5663,13 +5663,13 @@
         <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
         <v>9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -5687,22 +5687,22 @@
         <v>2.5</v>
       </c>
       <c r="U29" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V29" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W29" t="n">
         <v>7</v>
       </c>
       <c r="X29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y29" t="n">
         <v>9.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA29" t="n">
         <v>19</v>
@@ -5711,13 +5711,13 @@
         <v>34</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
         <v>6</v>
       </c>
       <c r="AE29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF29" t="n">
         <v>51</v>
@@ -5729,13 +5729,13 @@
         <v>9</v>
       </c>
       <c r="AI29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ29" t="n">
         <v>12</v>
       </c>
       <c r="AK29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL29" t="n">
         <v>29</v>
@@ -5744,10 +5744,10 @@
         <v>41</v>
       </c>
       <c r="AN29" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
         <v>23</v>
@@ -5768,7 +5768,7 @@
         <v>8.5</v>
       </c>
       <c r="AV29" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW29" t="n">
         <v>5</v>
@@ -5827,10 +5827,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="H30" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I30" t="n">
         <v>2.87</v>
@@ -5839,7 +5839,7 @@
         <v>3.2</v>
       </c>
       <c r="K30" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="L30" t="n">
         <v>3.45</v>
@@ -5857,16 +5857,16 @@
         <v>2.69</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R30" t="n">
         <v>1.57</v>
       </c>
       <c r="S30" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T30" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="U30" t="n">
         <v>1.88</v>
@@ -5887,13 +5887,13 @@
         <v>26</v>
       </c>
       <c r="AA30" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC30" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AD30" t="n">
         <v>4.55</v>
@@ -5905,10 +5905,10 @@
         <v>45</v>
       </c>
       <c r="AG30" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH30" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AI30" t="n">
         <v>12</v>
@@ -5923,13 +5923,13 @@
         <v>21</v>
       </c>
       <c r="AM30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="AO30" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AP30" t="n">
         <v>20</v>
@@ -5944,28 +5944,28 @@
         <v>250</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AU30" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AV30" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW30" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="AX30" t="n">
         <v>16.5</v>
       </c>
       <c r="AY30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ30" t="n">
         <v>80</v>
       </c>
       <c r="BA30" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB30" t="n">
         <v>250</v>
@@ -6029,16 +6029,16 @@
         <v>15</v>
       </c>
       <c r="O31" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P31" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q31" t="n">
         <v>1.62</v>
       </c>
       <c r="R31" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S31" t="n">
         <v>1.3</v>
@@ -6217,10 +6217,10 @@
         <v>4.33</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R32" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S32" t="n">
         <v>1.3</v>
@@ -6369,13 +6369,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="n">
         <v>3.6</v>
       </c>
       <c r="I33" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J33" t="n">
         <v>3</v>
@@ -6399,7 +6399,7 @@
         <v>5.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R33" t="n">
         <v>2.4</v>
@@ -6429,7 +6429,7 @@
         <v>26</v>
       </c>
       <c r="AA33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB33" t="n">
         <v>21</v>
@@ -6462,7 +6462,7 @@
         <v>26</v>
       </c>
       <c r="AL33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM33" t="n">
         <v>21</v>
@@ -6495,7 +6495,7 @@
         <v>41</v>
       </c>
       <c r="AW33" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX33" t="n">
         <v>13</v>
@@ -6551,7 +6551,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
         <v>3.25</v>
@@ -6584,7 +6584,7 @@
         <v>2.15</v>
       </c>
       <c r="R34" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S34" t="n">
         <v>1.44</v>
@@ -6593,10 +6593,10 @@
         <v>2.63</v>
       </c>
       <c r="U34" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V34" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W34" t="n">
         <v>7</v>
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H36" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="J36" t="n">
         <v>3.6</v>
       </c>
       <c r="K36" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L36" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M36" t="n">
         <v>1.1</v>
@@ -6940,7 +6940,7 @@
         <v>2.5</v>
       </c>
       <c r="R36" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S36" t="n">
         <v>1.57</v>
@@ -6949,16 +6949,16 @@
         <v>2.25</v>
       </c>
       <c r="U36" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V36" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W36" t="n">
         <v>7</v>
       </c>
       <c r="X36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y36" t="n">
         <v>11</v>
@@ -6967,19 +6967,19 @@
         <v>29</v>
       </c>
       <c r="AA36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB36" t="n">
         <v>41</v>
       </c>
       <c r="AC36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD36" t="n">
         <v>6</v>
       </c>
-      <c r="AD36" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AE36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF36" t="n">
         <v>67</v>
@@ -6988,7 +6988,7 @@
         <v>501</v>
       </c>
       <c r="AH36" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI36" t="n">
         <v>12</v>
@@ -6997,7 +6997,7 @@
         <v>11</v>
       </c>
       <c r="AK36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL36" t="n">
         <v>26</v>
@@ -7006,13 +7006,13 @@
         <v>41</v>
       </c>
       <c r="AN36" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO36" t="n">
         <v>17</v>
       </c>
       <c r="AP36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ36" t="n">
         <v>51</v>
@@ -7030,7 +7030,7 @@
         <v>9</v>
       </c>
       <c r="AV36" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW36" t="n">
         <v>4.5</v>
@@ -7039,13 +7039,13 @@
         <v>17</v>
       </c>
       <c r="AY36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ36" t="n">
         <v>51</v>
       </c>
       <c r="BA36" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB36" t="n">
         <v>301</v>
@@ -7289,10 +7289,10 @@
         <v>6</v>
       </c>
       <c r="M38" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O38" t="n">
         <v>1.44</v>
@@ -7301,10 +7301,10 @@
         <v>2.63</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R38" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S38" t="n">
         <v>1.53</v>
@@ -7649,22 +7649,22 @@
         <v>8</v>
       </c>
       <c r="O40" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P40" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R40" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S40" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T40" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U40" t="n">
         <v>2.1</v>
@@ -7673,7 +7673,7 @@
         <v>1.67</v>
       </c>
       <c r="W40" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X40" t="n">
         <v>8</v>
@@ -7685,13 +7685,13 @@
         <v>15</v>
       </c>
       <c r="AA40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB40" t="n">
         <v>34</v>
       </c>
       <c r="AC40" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD40" t="n">
         <v>6.5</v>
@@ -7706,7 +7706,7 @@
         <v>101</v>
       </c>
       <c r="AH40" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI40" t="n">
         <v>21</v>
@@ -7715,13 +7715,13 @@
         <v>15</v>
       </c>
       <c r="AK40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL40" t="n">
         <v>41</v>
       </c>
       <c r="AM40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN40" t="n">
         <v>3.75</v>
@@ -7730,7 +7730,7 @@
         <v>11</v>
       </c>
       <c r="AP40" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ40" t="n">
         <v>41</v>
@@ -7739,10 +7739,10 @@
         <v>67</v>
       </c>
       <c r="AS40" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU40" t="n">
         <v>9</v>
@@ -7757,13 +7757,13 @@
         <v>26</v>
       </c>
       <c r="AY40" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ40" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA40" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB40" t="n">
         <v>351</v>
@@ -7985,13 +7985,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H42" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J42" t="n">
         <v>3.75</v>
@@ -8000,7 +8000,7 @@
         <v>2.38</v>
       </c>
       <c r="L42" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M42" t="n">
         <v>1.03</v>
@@ -8045,10 +8045,10 @@
         <v>41</v>
       </c>
       <c r="AA42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB42" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC42" t="n">
         <v>15</v>
@@ -8069,16 +8069,16 @@
         <v>11</v>
       </c>
       <c r="AI42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ42" t="n">
         <v>9</v>
       </c>
       <c r="AK42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM42" t="n">
         <v>21</v>
@@ -8120,7 +8120,7 @@
         <v>17</v>
       </c>
       <c r="AZ42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA42" t="n">
         <v>41</v>
@@ -9653,10 +9653,10 @@
         <v>4</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R51" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S51" t="n">
         <v>1.36</v>
@@ -10529,13 +10529,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H56" t="n">
         <v>4.4</v>
       </c>
       <c r="I56" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="J56" t="n">
         <v>2.07</v>
@@ -10544,10 +10544,10 @@
         <v>2.55</v>
       </c>
       <c r="L56" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M56" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N56" t="n">
         <v>9.75</v>
@@ -10556,25 +10556,25 @@
         <v>1.14</v>
       </c>
       <c r="P56" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Q56" t="n">
         <v>1.44</v>
       </c>
       <c r="R56" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="S56" t="n">
         <v>1.24</v>
       </c>
       <c r="T56" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="U56" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="V56" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="W56" t="n">
         <v>11.25</v>
@@ -10586,10 +10586,10 @@
         <v>8.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA56" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB56" t="n">
         <v>18</v>
@@ -10601,7 +10601,7 @@
         <v>9.25</v>
       </c>
       <c r="AE56" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF56" t="n">
         <v>40</v>
@@ -10610,16 +10610,16 @@
         <v>200</v>
       </c>
       <c r="AH56" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI56" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ56" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK56" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL56" t="n">
         <v>32</v>
@@ -10628,13 +10628,13 @@
         <v>30</v>
       </c>
       <c r="AN56" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AO56" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AP56" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AQ56" t="n">
         <v>21</v>
@@ -10646,19 +10646,19 @@
         <v>120</v>
       </c>
       <c r="AT56" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AU56" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV56" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW56" t="n">
         <v>6.6</v>
       </c>
       <c r="AX56" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY56" t="n">
         <v>22</v>
@@ -10667,7 +10667,7 @@
         <v>100</v>
       </c>
       <c r="BA56" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB56" t="n">
         <v>200</v>
@@ -10965,7 +10965,7 @@
         <v>67</v>
       </c>
       <c r="AG58" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AH58" t="n">
         <v>12</v>
@@ -11433,28 +11433,28 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="H61" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J61" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3.75</v>
       </c>
       <c r="K61" t="n">
         <v>2.1</v>
       </c>
       <c r="L61" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N61" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="O61" t="n">
         <v>1.3</v>
@@ -11469,37 +11469,37 @@
         <v>1.8</v>
       </c>
       <c r="S61" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T61" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U61" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V61" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W61" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X61" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y61" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z61" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA61" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB61" t="n">
         <v>34</v>
       </c>
       <c r="AC61" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD61" t="n">
         <v>6.5</v>
@@ -11511,31 +11511,31 @@
         <v>51</v>
       </c>
       <c r="AG61" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH61" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI61" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ61" t="n">
         <v>10</v>
       </c>
-      <c r="AJ61" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK61" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AL61" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM61" t="n">
         <v>29</v>
       </c>
       <c r="AN61" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO61" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AP61" t="n">
         <v>26</v>
@@ -11544,13 +11544,13 @@
         <v>51</v>
       </c>
       <c r="AR61" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS61" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU61" t="n">
         <v>8</v>
@@ -11559,10 +11559,10 @@
         <v>51</v>
       </c>
       <c r="AW61" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX61" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY61" t="n">
         <v>23</v>
@@ -11571,7 +11571,7 @@
         <v>41</v>
       </c>
       <c r="BA61" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB61" t="n">
         <v>151</v>
@@ -11615,28 +11615,28 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="H62" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I62" t="n">
         <v>4.2</v>
       </c>
-      <c r="I62" t="n">
-        <v>4.75</v>
-      </c>
       <c r="J62" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="K62" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L62" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M62" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N62" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O62" t="n">
         <v>1.2</v>
@@ -11657,25 +11657,25 @@
         <v>3.4</v>
       </c>
       <c r="U62" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V62" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W62" t="n">
         <v>8.5</v>
       </c>
       <c r="X62" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y62" t="n">
         <v>8.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB62" t="n">
         <v>23</v>
@@ -11696,34 +11696,34 @@
         <v>151</v>
       </c>
       <c r="AH62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI62" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK62" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL62" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM62" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN62" t="n">
         <v>3.75</v>
       </c>
       <c r="AO62" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP62" t="n">
         <v>17</v>
       </c>
       <c r="AQ62" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR62" t="n">
         <v>41</v>
@@ -11741,19 +11741,19 @@
         <v>51</v>
       </c>
       <c r="AW62" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX62" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY62" t="n">
         <v>29</v>
       </c>
       <c r="AZ62" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA62" t="n">
         <v>81</v>
-      </c>
-      <c r="BA62" t="n">
-        <v>101</v>
       </c>
       <c r="BB62" t="n">
         <v>151</v>
@@ -12887,13 +12887,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H69" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I69" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J69" t="n">
         <v>4</v>
@@ -12902,7 +12902,7 @@
         <v>2</v>
       </c>
       <c r="L69" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M69" t="n">
         <v>1.08</v>
@@ -12911,28 +12911,28 @@
         <v>8</v>
       </c>
       <c r="O69" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P69" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R69" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S69" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T69" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U69" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V69" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W69" t="n">
         <v>8.5</v>
@@ -12959,7 +12959,7 @@
         <v>6</v>
       </c>
       <c r="AE69" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF69" t="n">
         <v>51</v>
@@ -12968,13 +12968,13 @@
         <v>351</v>
       </c>
       <c r="AH69" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI69" t="n">
         <v>10</v>
       </c>
       <c r="AJ69" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK69" t="n">
         <v>21</v>
@@ -13004,7 +13004,7 @@
         <v>251</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU69" t="n">
         <v>8.5</v>
@@ -13022,13 +13022,13 @@
         <v>26</v>
       </c>
       <c r="AZ69" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA69" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB69" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC69" t="n">
         <v>81</v>
@@ -13800,7 +13800,7 @@
         <v>1.16</v>
       </c>
       <c r="H74" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="I74" t="n">
         <v>15</v>
@@ -13812,7 +13812,7 @@
         <v>3.1</v>
       </c>
       <c r="L74" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="M74" t="n">
         <v>1.01</v>
@@ -13821,49 +13821,49 @@
         <v>28</v>
       </c>
       <c r="O74" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P74" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R74" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="S74" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="T74" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="U74" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V74" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="W74" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="X74" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="Y74" t="n">
         <v>10.25</v>
       </c>
       <c r="Z74" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AA74" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AB74" t="n">
         <v>23</v>
       </c>
       <c r="AC74" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD74" t="n">
         <v>15.5</v>
@@ -13872,7 +13872,7 @@
         <v>24</v>
       </c>
       <c r="AF74" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG74" t="n">
         <v>400</v>
@@ -13884,43 +13884,43 @@
         <v>175</v>
       </c>
       <c r="AJ74" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AK74" t="n">
         <v>700</v>
       </c>
       <c r="AL74" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AM74" t="n">
         <v>100</v>
       </c>
       <c r="AN74" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AO74" t="n">
         <v>4.8</v>
       </c>
       <c r="AP74" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AQ74" t="n">
         <v>9.5</v>
       </c>
       <c r="AR74" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS74" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AT74" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="AU74" t="n">
         <v>8.5</v>
       </c>
       <c r="AV74" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW74" t="n">
         <v>14.5</v>
@@ -13935,10 +13935,10 @@
         <v>500</v>
       </c>
       <c r="BA74" t="n">
+        <v>300</v>
+      </c>
+      <c r="BB74" t="n">
         <v>350</v>
-      </c>
-      <c r="BB74" t="n">
-        <v>400</v>
       </c>
       <c r="BC74" t="inlineStr"/>
       <c r="BD74" t="inlineStr"/>
@@ -14535,10 +14535,10 @@
         <v>5.2</v>
       </c>
       <c r="M78" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N78" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="O78" t="n">
         <v>1.11</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD81"/>
+  <dimension ref="A1:BD80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,10 +756,10 @@
         <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
         <v>5.5</v>
@@ -777,10 +777,10 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -789,16 +789,16 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -816,7 +816,7 @@
         <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -825,10 +825,10 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
         <v>29</v>
@@ -861,7 +861,7 @@
         <v>41</v>
       </c>
       <c r="AS2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
         <v>3.25</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
         <v>29</v>
@@ -1159,28 +1159,28 @@
         <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB4" t="n">
         <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
         <v>29</v>
@@ -1192,7 +1192,7 @@
         <v>301</v>
       </c>
       <c r="AH4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
         <v>67</v>
@@ -1246,13 +1246,13 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BA4" t="n">
         <v>201</v>
       </c>
       <c r="BB4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC4" t="n">
         <v>501</v>
@@ -1663,13 +1663,13 @@
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L7" t="n">
         <v>3.55</v>
@@ -1681,10 +1681,10 @@
         <v>6.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="Q7" t="n">
         <v>2.07</v>
@@ -1696,31 +1696,31 @@
         <v>1.42</v>
       </c>
       <c r="T7" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="U7" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="W7" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="X7" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z7" t="n">
         <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC7" t="n">
         <v>6.6</v>
@@ -1729,7 +1729,7 @@
         <v>6.1</v>
       </c>
       <c r="AE7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>75</v>
@@ -1744,43 +1744,43 @@
         <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AK7" t="n">
         <v>37</v>
       </c>
       <c r="AL7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM7" t="n">
         <v>37</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="AO7" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AP7" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
         <v>50</v>
       </c>
       <c r="AR7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS7" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU7" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AV7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW7" t="n">
         <v>4.9</v>
@@ -1795,7 +1795,7 @@
         <v>80</v>
       </c>
       <c r="BA7" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB7" t="n">
         <v>300</v>
@@ -2927,16 +2927,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H14" t="n">
         <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K14" t="n">
         <v>2.38</v>
@@ -3026,10 +3026,10 @@
         <v>29</v>
       </c>
       <c r="AN14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
         <v>17</v>
@@ -3291,28 +3291,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H16" t="n">
         <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
         <v>1.36</v>
@@ -3339,7 +3339,7 @@
         <v>1.67</v>
       </c>
       <c r="W16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X16" t="n">
         <v>6.5</v>
@@ -3372,10 +3372,10 @@
         <v>201</v>
       </c>
       <c r="AH16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ16" t="n">
         <v>21</v>
@@ -3393,13 +3393,13 @@
         <v>3.4</v>
       </c>
       <c r="AO16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP16" t="n">
         <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR16" t="n">
         <v>51</v>
@@ -3417,7 +3417,7 @@
         <v>67</v>
       </c>
       <c r="AW16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX16" t="n">
         <v>34</v>
@@ -3426,7 +3426,7 @@
         <v>41</v>
       </c>
       <c r="AZ16" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA16" t="n">
         <v>151</v>
@@ -3491,10 +3491,10 @@
         <v>7.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
         <v>1.36</v>
@@ -3855,22 +3855,22 @@
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R19" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="S19" t="n">
         <v>1.44</v>
@@ -3903,13 +3903,13 @@
         <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD19" t="n">
         <v>6</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
         <v>51</v>
@@ -3924,7 +3924,7 @@
         <v>17</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK19" t="n">
         <v>41</v>
@@ -3933,7 +3933,7 @@
         <v>29</v>
       </c>
       <c r="AM19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN19" t="n">
         <v>4</v>
@@ -3948,7 +3948,7 @@
         <v>41</v>
       </c>
       <c r="AR19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS19" t="n">
         <v>151</v>
@@ -3984,7 +3984,7 @@
         <v>501</v>
       </c>
       <c r="BD19" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
@@ -4019,19 +4019,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H20" t="n">
         <v>3.9</v>
       </c>
       <c r="I20" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J20" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K20" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L20" t="n">
         <v>2.3</v>
@@ -4055,16 +4055,16 @@
         <v>2.25</v>
       </c>
       <c r="S20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U20" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V20" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W20" t="n">
         <v>15</v>
@@ -4073,7 +4073,7 @@
         <v>23</v>
       </c>
       <c r="Y20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z20" t="n">
         <v>41</v>
@@ -4082,13 +4082,13 @@
         <v>29</v>
       </c>
       <c r="AB20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE20" t="n">
         <v>13</v>
@@ -4097,13 +4097,13 @@
         <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ20" t="n">
         <v>8.5</v>
@@ -4118,25 +4118,25 @@
         <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO20" t="n">
         <v>21</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
         <v>67</v>
       </c>
       <c r="AR20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS20" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU20" t="n">
         <v>7.5</v>
@@ -4154,7 +4154,7 @@
         <v>17</v>
       </c>
       <c r="AZ20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA20" t="n">
         <v>41</v>
@@ -5284,10 +5284,10 @@
         <v>3.4</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J27" t="n">
         <v>4</v>
@@ -5299,10 +5299,10 @@
         <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O27" t="n">
         <v>1.36</v>
@@ -5329,13 +5329,13 @@
         <v>1.83</v>
       </c>
       <c r="W27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z27" t="n">
         <v>34</v>
@@ -6372,10 +6372,10 @@
         <v>1.9</v>
       </c>
       <c r="H33" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I33" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J33" t="n">
         <v>2.5</v>
@@ -6411,16 +6411,16 @@
         <v>3.4</v>
       </c>
       <c r="U33" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V33" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W33" t="n">
         <v>9.5</v>
       </c>
       <c r="X33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y33" t="n">
         <v>8.5</v>
@@ -6438,7 +6438,7 @@
         <v>15</v>
       </c>
       <c r="AD33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE33" t="n">
         <v>13</v>
@@ -6447,16 +6447,16 @@
         <v>41</v>
       </c>
       <c r="AG33" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI33" t="n">
         <v>21</v>
       </c>
       <c r="AJ33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK33" t="n">
         <v>41</v>
@@ -6468,7 +6468,7 @@
         <v>29</v>
       </c>
       <c r="AN33" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO33" t="n">
         <v>10</v>
@@ -6510,7 +6510,7 @@
         <v>67</v>
       </c>
       <c r="BB33" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC33" t="n">
         <v>351</v>
@@ -7093,52 +7093,52 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H37" t="n">
         <v>2.85</v>
       </c>
       <c r="I37" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J37" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="K37" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="L37" t="n">
-        <v>3.85</v>
+        <v>4.05</v>
       </c>
       <c r="M37" t="n">
         <v>1.02</v>
       </c>
       <c r="N37" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="O37" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P37" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R37" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S37" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="T37" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="U37" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V37" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W37" t="n">
         <v>6.9</v>
@@ -7147,94 +7147,94 @@
         <v>10.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA37" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB37" t="n">
         <v>29</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AD37" t="n">
         <v>5.6</v>
       </c>
       <c r="AE37" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AG37" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH37" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AI37" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AJ37" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK37" t="n">
         <v>55</v>
       </c>
       <c r="AL37" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AM37" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="AO37" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AP37" t="n">
         <v>17.5</v>
       </c>
       <c r="AQ37" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR37" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS37" t="n">
         <v>200</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="AU37" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AV37" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW37" t="n">
         <v>5.5</v>
       </c>
       <c r="AX37" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY37" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AZ37" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="BA37" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="BB37" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC37" t="inlineStr"/>
       <c r="BD37" t="inlineStr"/>
@@ -7837,10 +7837,10 @@
         <v>2.63</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R41" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S41" t="n">
         <v>1.53</v>
@@ -9289,10 +9289,10 @@
         <v>5.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R49" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S49" t="n">
         <v>1.25</v>
@@ -9328,7 +9328,7 @@
         <v>19</v>
       </c>
       <c r="AD49" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE49" t="n">
         <v>11</v>
@@ -9391,7 +9391,7 @@
         <v>10</v>
       </c>
       <c r="AY49" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ49" t="n">
         <v>29</v>
@@ -9459,22 +9459,22 @@
         <v>2.6</v>
       </c>
       <c r="M50" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N50" t="n">
         <v>13</v>
       </c>
       <c r="O50" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P50" t="n">
         <v>4.33</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R50" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S50" t="n">
         <v>1.33</v>
@@ -9641,13 +9641,13 @@
         <v>2.6</v>
       </c>
       <c r="M51" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N51" t="n">
         <v>15</v>
       </c>
       <c r="O51" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P51" t="n">
         <v>4.5</v>
@@ -9823,13 +9823,13 @@
         <v>3.75</v>
       </c>
       <c r="M52" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N52" t="n">
         <v>13</v>
       </c>
       <c r="O52" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -10005,13 +10005,13 @@
         <v>4.75</v>
       </c>
       <c r="M53" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N53" t="n">
         <v>12</v>
       </c>
       <c r="O53" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P53" t="n">
         <v>3.75</v>
@@ -10187,13 +10187,13 @@
         <v>1.95</v>
       </c>
       <c r="M54" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N54" t="n">
         <v>13</v>
       </c>
       <c r="O54" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P54" t="n">
         <v>3.75</v>
@@ -10375,16 +10375,16 @@
         <v>19</v>
       </c>
       <c r="O55" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P55" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R55" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S55" t="n">
         <v>1.25</v>
@@ -10533,22 +10533,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="H56" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I56" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="J56" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="K56" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="L56" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="M56" t="n">
         <v>1.02</v>
@@ -10560,52 +10560,52 @@
         <v>1.13</v>
       </c>
       <c r="P56" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="R56" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="S56" t="n">
         <v>1.24</v>
       </c>
       <c r="T56" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="U56" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V56" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W56" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="X56" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Y56" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z56" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AA56" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB56" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC56" t="n">
         <v>10</v>
       </c>
       <c r="AD56" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AE56" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF56" t="n">
         <v>60</v>
@@ -10623,25 +10623,25 @@
         <v>8.75</v>
       </c>
       <c r="AK56" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AL56" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AM56" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN56" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AO56" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP56" t="n">
         <v>35</v>
       </c>
-      <c r="AP56" t="n">
-        <v>32</v>
-      </c>
       <c r="AQ56" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AR56" t="n">
         <v>200</v>
@@ -10650,25 +10650,25 @@
         <v>350</v>
       </c>
       <c r="AT56" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AU56" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AV56" t="n">
         <v>55</v>
       </c>
       <c r="AW56" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AX56" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AY56" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AZ56" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA56" t="n">
         <v>32</v>
@@ -10711,79 +10711,79 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H57" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I57" t="n">
-        <v>4.2</v>
+        <v>4.55</v>
       </c>
       <c r="J57" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="K57" t="n">
         <v>2.55</v>
       </c>
       <c r="L57" t="n">
-        <v>4.2</v>
+        <v>4.45</v>
       </c>
       <c r="M57" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N57" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="O57" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P57" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="R57" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="S57" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="T57" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="U57" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="V57" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="W57" t="n">
         <v>11.25</v>
       </c>
       <c r="X57" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Y57" t="n">
         <v>8.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA57" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AB57" t="n">
         <v>18</v>
       </c>
       <c r="AC57" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AD57" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF57" t="n">
         <v>40</v>
@@ -10792,34 +10792,34 @@
         <v>200</v>
       </c>
       <c r="AH57" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AI57" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AJ57" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK57" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AL57" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM57" t="n">
         <v>32</v>
       </c>
-      <c r="AM57" t="n">
-        <v>30</v>
-      </c>
       <c r="AN57" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="AO57" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AP57" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AQ57" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR57" t="n">
         <v>37</v>
@@ -10828,28 +10828,28 @@
         <v>120</v>
       </c>
       <c r="AT57" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AU57" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW57" t="n">
         <v>6.8</v>
       </c>
-      <c r="AV57" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW57" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AX57" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY57" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ57" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BA57" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB57" t="n">
         <v>200</v>
@@ -11254,10 +11254,10 @@
         <v>2.3</v>
       </c>
       <c r="H60" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I60" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
         <v>3.2</v>
@@ -11269,10 +11269,10 @@
         <v>4</v>
       </c>
       <c r="M60" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N60" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O60" t="n">
         <v>1.44</v>
@@ -11308,10 +11308,10 @@
         <v>10</v>
       </c>
       <c r="Z60" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA60" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB60" t="n">
         <v>41</v>
@@ -11320,10 +11320,10 @@
         <v>7</v>
       </c>
       <c r="AD60" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE60" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF60" t="n">
         <v>67</v>
@@ -11332,10 +11332,10 @@
         <v>1250</v>
       </c>
       <c r="AH60" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ60" t="n">
         <v>12</v>
@@ -11433,55 +11433,55 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H61" t="n">
         <v>4.5</v>
       </c>
       <c r="I61" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="J61" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K61" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L61" t="n">
         <v>1.95</v>
       </c>
       <c r="M61" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N61" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O61" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P61" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R61" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S61" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T61" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U61" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V61" t="n">
         <v>1.8</v>
       </c>
-      <c r="V61" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X61" t="n">
         <v>29</v>
@@ -11499,13 +11499,13 @@
         <v>41</v>
       </c>
       <c r="AC61" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD61" t="n">
         <v>9</v>
       </c>
       <c r="AE61" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF61" t="n">
         <v>51</v>
@@ -11514,28 +11514,28 @@
         <v>151</v>
       </c>
       <c r="AH61" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI61" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ61" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK61" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL61" t="n">
         <v>12</v>
       </c>
       <c r="AM61" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN61" t="n">
         <v>7.5</v>
       </c>
       <c r="AO61" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP61" t="n">
         <v>34</v>
@@ -11544,13 +11544,13 @@
         <v>101</v>
       </c>
       <c r="AR61" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS61" t="n">
         <v>151</v>
       </c>
       <c r="AT61" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU61" t="n">
         <v>8.5</v>
@@ -11559,13 +11559,13 @@
         <v>51</v>
       </c>
       <c r="AW61" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AX61" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY61" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ61" t="n">
         <v>21</v>
@@ -11574,7 +11574,7 @@
         <v>41</v>
       </c>
       <c r="BB61" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC61" t="n">
         <v>81</v>
@@ -11615,13 +11615,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H62" t="n">
         <v>3.3</v>
       </c>
       <c r="I62" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J62" t="n">
         <v>3.4</v>
@@ -11633,10 +11633,10 @@
         <v>3</v>
       </c>
       <c r="M62" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N62" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="O62" t="n">
         <v>1.3</v>
@@ -11663,10 +11663,10 @@
         <v>1.91</v>
       </c>
       <c r="W62" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y62" t="n">
         <v>11</v>
@@ -11693,31 +11693,31 @@
         <v>51</v>
       </c>
       <c r="AG62" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH62" t="n">
         <v>8</v>
       </c>
       <c r="AI62" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ62" t="n">
         <v>10</v>
       </c>
       <c r="AK62" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL62" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM62" t="n">
         <v>29</v>
       </c>
       <c r="AN62" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO62" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP62" t="n">
         <v>26</v>
@@ -11726,7 +11726,7 @@
         <v>51</v>
       </c>
       <c r="AR62" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS62" t="n">
         <v>151</v>
@@ -11797,22 +11797,22 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H63" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I63" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J63" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K63" t="n">
         <v>2.3</v>
       </c>
       <c r="L63" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M63" t="n">
         <v>1.03</v>
@@ -11827,16 +11827,16 @@
         <v>4.33</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R63" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S63" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T63" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U63" t="n">
         <v>1.67</v>
@@ -11866,7 +11866,7 @@
         <v>15</v>
       </c>
       <c r="AD63" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE63" t="n">
         <v>15</v>
@@ -11884,28 +11884,28 @@
         <v>23</v>
       </c>
       <c r="AJ63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK63" t="n">
         <v>41</v>
       </c>
       <c r="AL63" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM63" t="n">
         <v>34</v>
       </c>
       <c r="AN63" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO63" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP63" t="n">
         <v>17</v>
       </c>
       <c r="AQ63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR63" t="n">
         <v>41</v>
@@ -11914,7 +11914,7 @@
         <v>101</v>
       </c>
       <c r="AT63" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU63" t="n">
         <v>8</v>
@@ -11926,10 +11926,10 @@
         <v>6.5</v>
       </c>
       <c r="AX63" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY63" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ63" t="n">
         <v>67</v>
@@ -11991,16 +11991,16 @@
         <v>4.75</v>
       </c>
       <c r="K64" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L64" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M64" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O64" t="n">
         <v>1.2</v>
@@ -12009,10 +12009,10 @@
         <v>4.33</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R64" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S64" t="n">
         <v>1.3</v>
@@ -12021,16 +12021,16 @@
         <v>3.4</v>
       </c>
       <c r="U64" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V64" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W64" t="n">
         <v>15</v>
       </c>
       <c r="X64" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y64" t="n">
         <v>15</v>
@@ -12075,7 +12075,7 @@
         <v>13</v>
       </c>
       <c r="AM64" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN64" t="n">
         <v>6.5</v>
@@ -12108,7 +12108,7 @@
         <v>3.75</v>
       </c>
       <c r="AX64" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY64" t="n">
         <v>17</v>
@@ -12525,22 +12525,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="H67" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I67" t="n">
         <v>41</v>
       </c>
       <c r="J67" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K67" t="n">
         <v>6</v>
       </c>
       <c r="L67" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M67" t="n">
         <v>1.01</v>
@@ -12549,22 +12549,22 @@
         <v>34</v>
       </c>
       <c r="O67" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P67" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="R67" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S67" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="T67" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U67" t="n">
         <v>2.25</v>
@@ -12573,19 +12573,19 @@
         <v>1.57</v>
       </c>
       <c r="W67" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X67" t="n">
         <v>15</v>
       </c>
       <c r="Y67" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z67" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA67" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB67" t="n">
         <v>41</v>
@@ -12594,13 +12594,13 @@
         <v>34</v>
       </c>
       <c r="AD67" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE67" t="n">
         <v>51</v>
       </c>
       <c r="AF67" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AG67" t="n">
         <v>151</v>
@@ -12612,7 +12612,7 @@
         <v>201</v>
       </c>
       <c r="AJ67" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK67" t="n">
         <v>201</v>
@@ -12624,7 +12624,7 @@
         <v>151</v>
       </c>
       <c r="AN67" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO67" t="n">
         <v>4</v>
@@ -12642,22 +12642,22 @@
         <v>81</v>
       </c>
       <c r="AT67" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU67" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV67" t="n">
         <v>67</v>
       </c>
       <c r="AW67" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AX67" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AY67" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AZ67" t="n">
         <v>351</v>
@@ -13950,7 +13950,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2VZFUi4c</t>
+          <t>jPRoB7i2</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -13960,175 +13960,179 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Buriram</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Sukhothai</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.16</v>
+        <v>1.8</v>
       </c>
       <c r="H75" t="n">
-        <v>6.9</v>
+        <v>3.7</v>
       </c>
       <c r="I75" t="n">
-        <v>14</v>
+        <v>4.1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="K75" t="n">
-        <v>3.15</v>
+        <v>2.2</v>
       </c>
       <c r="L75" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N75" t="n">
+        <v>11</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T75" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U75" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V75" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W75" t="n">
+        <v>7</v>
+      </c>
+      <c r="X75" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO75" t="n">
         <v>9.5</v>
       </c>
-      <c r="M75" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N75" t="n">
-        <v>28</v>
-      </c>
-      <c r="O75" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P75" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R75" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="S75" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="T75" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="U75" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V75" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="W75" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="X75" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK75" t="n">
-        <v>600</v>
-      </c>
-      <c r="AL75" t="n">
-        <v>175</v>
-      </c>
-      <c r="AM75" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO75" t="n">
-        <v>4.75</v>
-      </c>
       <c r="AP75" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AQ75" t="n">
-        <v>9.25</v>
+        <v>34</v>
       </c>
       <c r="AR75" t="n">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="AS75" t="n">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="AT75" t="n">
-        <v>4.4</v>
+        <v>2.75</v>
       </c>
       <c r="AU75" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV75" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AW75" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AX75" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AY75" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AZ75" t="n">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="BA75" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="BB75" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC75" t="inlineStr"/>
-      <c r="BD75" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>jPRoB7i2</t>
+          <t>WEiW6Wxq</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -14138,179 +14142,179 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Karpaty Lviv</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Kolos Kovalivka</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.8</v>
+        <v>2.32</v>
       </c>
       <c r="H76" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="I76" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="J76" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="K76" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="L76" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M76" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="N76" t="n">
-        <v>11</v>
+        <v>4.35</v>
       </c>
       <c r="O76" t="n">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="P76" t="n">
-        <v>3.4</v>
+        <v>2.18</v>
       </c>
       <c r="Q76" t="n">
-        <v>2</v>
+        <v>2.52</v>
       </c>
       <c r="R76" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="S76" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="T76" t="n">
-        <v>2.75</v>
+        <v>2.12</v>
       </c>
       <c r="U76" t="n">
-        <v>1.83</v>
+        <v>2.07</v>
       </c>
       <c r="V76" t="n">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="W76" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="X76" t="n">
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y76" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z76" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AA76" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AB76" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AC76" t="n">
-        <v>10</v>
+        <v>4.9</v>
       </c>
       <c r="AD76" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="AE76" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AF76" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="AG76" t="n">
-        <v>301</v>
+        <v>67</v>
       </c>
       <c r="AH76" t="n">
-        <v>11</v>
+        <v>7.3</v>
       </c>
       <c r="AI76" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AJ76" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AK76" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AL76" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AM76" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AN76" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="AO76" t="n">
-        <v>9.5</v>
+        <v>13.5</v>
       </c>
       <c r="AP76" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AQ76" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AR76" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="AS76" t="n">
-        <v>151</v>
+        <v>500</v>
       </c>
       <c r="AT76" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="AU76" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AV76" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="AW76" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="AX76" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AY76" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AZ76" t="n">
+        <v>110</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC76" t="n">
         <v>81</v>
       </c>
-      <c r="BA76" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB76" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC76" t="n">
-        <v>126</v>
-      </c>
       <c r="BD76" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>WEiW6Wxq</t>
+          <t>ppjD0Hnl</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -14320,179 +14324,175 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:40</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Karpaty Lviv</t>
+          <t>Al Sharjah</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Al Nasr</t>
         </is>
       </c>
       <c r="G77" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H77" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I77" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K77" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L77" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N77" t="n">
+        <v>9</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="T77" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V77" t="n">
         <v>2.32</v>
       </c>
-      <c r="H77" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J77" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K77" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L77" t="n">
-        <v>4</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N77" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="O77" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P77" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R77" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S77" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T77" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U77" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="V77" t="n">
-        <v>1.6</v>
-      </c>
       <c r="W77" t="n">
-        <v>5.6</v>
+        <v>10</v>
       </c>
       <c r="X77" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Y77" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z77" t="n">
-        <v>24</v>
+        <v>14.5</v>
       </c>
       <c r="AA77" t="n">
-        <v>25</v>
+        <v>11.75</v>
       </c>
       <c r="AB77" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="AC77" t="n">
-        <v>4.9</v>
+        <v>9</v>
       </c>
       <c r="AD77" t="n">
-        <v>5.7</v>
+        <v>8</v>
       </c>
       <c r="AE77" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="AF77" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="AG77" t="n">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="AH77" t="n">
-        <v>7.3</v>
+        <v>16.5</v>
       </c>
       <c r="AI77" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AJ77" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AK77" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AL77" t="n">
         <v>37</v>
       </c>
       <c r="AM77" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AN77" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AO77" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AP77" t="n">
         <v>13.5</v>
       </c>
-      <c r="AP77" t="n">
-        <v>27</v>
-      </c>
       <c r="AQ77" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="AR77" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS77" t="n">
         <v>120</v>
       </c>
-      <c r="AS77" t="n">
-        <v>500</v>
-      </c>
       <c r="AT77" t="n">
-        <v>2.1</v>
+        <v>3.35</v>
       </c>
       <c r="AU77" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="AV77" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AW77" t="n">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="AX77" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AY77" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AZ77" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BA77" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="BB77" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC77" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD77" t="n">
-        <v>81</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="BC77" t="inlineStr"/>
+      <c r="BD77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ppjD0Hnl</t>
+          <t>hnBY7afE</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -14512,165 +14512,167 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Al Sharjah</t>
+          <t>Shabab Al-Ahli Dubai</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.98</v>
+        <v>1.28</v>
       </c>
       <c r="H78" t="n">
-        <v>3.5</v>
+        <v>5.7</v>
       </c>
       <c r="I78" t="n">
-        <v>3.45</v>
+        <v>8.25</v>
       </c>
       <c r="J78" t="n">
-        <v>2.47</v>
+        <v>1.65</v>
       </c>
       <c r="K78" t="n">
-        <v>2.25</v>
+        <v>2.87</v>
       </c>
       <c r="L78" t="n">
-        <v>3.85</v>
+        <v>6.4</v>
       </c>
       <c r="M78" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N78" t="n">
-        <v>8.5</v>
+        <v>19.5</v>
       </c>
       <c r="O78" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P78" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="S78" t="n">
         <v>1.2</v>
       </c>
-      <c r="P78" t="n">
+      <c r="T78" t="n">
         <v>4.1</v>
       </c>
-      <c r="Q78" t="n">
+      <c r="U78" t="n">
         <v>1.6</v>
       </c>
-      <c r="R78" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S78" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T78" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U78" t="n">
-        <v>1.52</v>
-      </c>
       <c r="V78" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="W78" t="n">
-        <v>10.25</v>
+        <v>12.5</v>
       </c>
       <c r="X78" t="n">
-        <v>11.75</v>
+        <v>9.25</v>
       </c>
       <c r="Y78" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="Z78" t="n">
-        <v>19.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA78" t="n">
-        <v>14</v>
+        <v>9.75</v>
       </c>
       <c r="AB78" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC78" t="n">
-        <v>8.5</v>
+        <v>29</v>
       </c>
       <c r="AD78" t="n">
-        <v>7.1</v>
+        <v>13</v>
       </c>
       <c r="AE78" t="n">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF78" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG78" t="n">
         <v>250</v>
       </c>
       <c r="AH78" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="AI78" t="n">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="AJ78" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AP78" t="n">
         <v>11.75</v>
       </c>
-      <c r="AK78" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL78" t="n">
+      <c r="AQ78" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AR78" t="n">
         <v>27</v>
       </c>
-      <c r="AM78" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AO78" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AP78" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ78" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR78" t="n">
-        <v>50</v>
-      </c>
       <c r="AS78" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AT78" t="n">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="AU78" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="AV78" t="n">
         <v>45</v>
       </c>
       <c r="AW78" t="n">
-        <v>5.7</v>
+        <v>9.75</v>
       </c>
       <c r="AX78" t="n">
-        <v>18.5</v>
+        <v>40</v>
       </c>
       <c r="AY78" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AZ78" t="n">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="BA78" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="BB78" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC78" t="inlineStr"/>
+        <v>250</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>500</v>
+      </c>
       <c r="BD78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>hnBY7afE</t>
+          <t>CzKe0my8</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -14680,7 +14682,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -14690,157 +14692,157 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Shabab Al-Ahli Dubai</t>
+          <t>Al Wahda</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Al Wasl</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.39</v>
+        <v>2.45</v>
       </c>
       <c r="H79" t="n">
-        <v>5</v>
+        <v>3.85</v>
       </c>
       <c r="I79" t="n">
-        <v>6.1</v>
+        <v>2.42</v>
       </c>
       <c r="J79" t="n">
-        <v>1.78</v>
+        <v>2.9</v>
       </c>
       <c r="K79" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="L79" t="n">
-        <v>5.4</v>
+        <v>2.9</v>
       </c>
       <c r="M79" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N79" t="n">
-        <v>19.5</v>
+        <v>9.25</v>
       </c>
       <c r="O79" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="P79" t="n">
-        <v>5.6</v>
+        <v>4.55</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="R79" t="n">
-        <v>2.95</v>
+        <v>2.4</v>
       </c>
       <c r="S79" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="T79" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="U79" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="V79" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="W79" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X79" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AO79" t="n">
         <v>12</v>
       </c>
-      <c r="X79" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF79" t="n">
+      <c r="AP79" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ79" t="n">
         <v>45</v>
       </c>
-      <c r="AG79" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM79" t="n">
+      <c r="AR79" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV79" t="n">
         <v>40</v>
       </c>
-      <c r="AN79" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO79" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AP79" t="n">
+      <c r="AW79" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AX79" t="n">
         <v>12</v>
       </c>
-      <c r="AQ79" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR79" t="n">
-        <v>28</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>100</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AU79" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV79" t="n">
+      <c r="AY79" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AZ79" t="n">
         <v>45</v>
       </c>
-      <c r="AW79" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AX79" t="n">
-        <v>30</v>
-      </c>
-      <c r="AY79" t="n">
-        <v>27</v>
-      </c>
-      <c r="AZ79" t="n">
+      <c r="BA79" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB79" t="n">
         <v>150</v>
-      </c>
-      <c r="BA79" t="n">
-        <v>150</v>
-      </c>
-      <c r="BB79" t="n">
-        <v>250</v>
       </c>
       <c r="BC79" t="n">
         <v>500</v>
@@ -14850,7 +14852,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>CzKe0my8</t>
+          <t>ABXWOPog</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -14860,350 +14862,170 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>WALES - CYMRU PREMIER</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Al Wahda</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Al Wasl</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="H80" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="I80" t="n">
         <v>2.4</v>
       </c>
       <c r="J80" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="K80" t="n">
-        <v>2.45</v>
+        <v>2.22</v>
       </c>
       <c r="L80" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="M80" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N80" t="n">
-        <v>9.75</v>
+        <v>8.25</v>
       </c>
       <c r="O80" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="P80" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.47</v>
+        <v>1.72</v>
       </c>
       <c r="R80" t="n">
-        <v>2.52</v>
+        <v>2.05</v>
       </c>
       <c r="S80" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="T80" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="U80" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="V80" t="n">
-        <v>2.6</v>
+        <v>2.18</v>
       </c>
       <c r="W80" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="X80" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y80" t="n">
         <v>9.75</v>
       </c>
       <c r="Z80" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA80" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AB80" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AC80" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH80" t="n">
         <v>9.75</v>
       </c>
-      <c r="AD80" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>175</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AI80" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AJ80" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AK80" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL80" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AM80" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AN80" t="n">
-        <v>4.85</v>
+        <v>4.65</v>
       </c>
       <c r="AO80" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP80" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AQ80" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AR80" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV80" t="n">
         <v>55</v>
       </c>
-      <c r="AS80" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT80" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AU80" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV80" t="n">
-        <v>40</v>
-      </c>
       <c r="AW80" t="n">
-        <v>4.85</v>
+        <v>4.5</v>
       </c>
       <c r="AX80" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AY80" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ80" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BA80" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="BB80" t="n">
-        <v>150</v>
-      </c>
-      <c r="BC80" t="n">
-        <v>500</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="BC80" t="inlineStr"/>
       <c r="BD80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>ABXWOPog</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>22/11/2024</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>WALES - CYMRU PREMIER</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Newtown</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Connahs Q.</t>
-        </is>
-      </c>
-      <c r="G81" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="H81" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J81" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K81" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L81" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N81" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O81" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P81" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R81" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S81" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T81" t="n">
-        <v>3</v>
-      </c>
-      <c r="U81" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V81" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="W81" t="n">
-        <v>10</v>
-      </c>
-      <c r="X81" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH81" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AM81" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN81" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AO81" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP81" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ81" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR81" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS81" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT81" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU81" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV81" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW81" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX81" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AY81" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ81" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA81" t="n">
-        <v>75</v>
-      </c>
-      <c r="BB81" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC81" t="inlineStr"/>
-      <c r="BD81" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
@@ -1153,10 +1153,10 @@
         <v>5</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
         <v>12</v>
@@ -1219,7 +1219,7 @@
         <v>15</v>
       </c>
       <c r="AQ4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J5" t="n">
         <v>2.38</v>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
         <v>29</v>
@@ -1655,22 +1655,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H7" t="n">
         <v>3.05</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J7" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="K7" t="n">
         <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
@@ -1682,7 +1682,7 @@
         <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="Q7" t="n">
         <v>2.07</v>
@@ -1697,28 +1697,28 @@
         <v>2.67</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="V7" t="n">
         <v>1.9</v>
       </c>
       <c r="W7" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC7" t="n">
         <v>6.4</v>
@@ -1739,31 +1739,31 @@
         <v>8.75</v>
       </c>
       <c r="AI7" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AK7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM7" t="n">
         <v>40</v>
       </c>
-      <c r="AL7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>37</v>
-      </c>
       <c r="AN7" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="AO7" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AP7" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR7" t="n">
         <v>80</v>
@@ -1781,19 +1781,19 @@
         <v>60</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AX7" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BA7" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB7" t="n">
         <v>300</v>
@@ -2395,10 +2395,10 @@
         <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2413,10 +2413,10 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S11" t="n">
         <v>1.33</v>
@@ -2446,7 +2446,7 @@
         <v>12</v>
       </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
         <v>13</v>
@@ -2482,13 +2482,13 @@
         <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO11" t="n">
         <v>7</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
         <v>21</v>
@@ -4222,7 +4222,7 @@
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.3</v>
@@ -4234,7 +4234,7 @@
         <v>2.05</v>
       </c>
       <c r="R21" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S21" t="n">
         <v>1.44</v>
@@ -4258,7 +4258,7 @@
         <v>9</v>
       </c>
       <c r="Z21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA21" t="n">
         <v>17</v>
@@ -4267,13 +4267,13 @@
         <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD21" t="n">
         <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF21" t="n">
         <v>51</v>
@@ -4288,7 +4288,7 @@
         <v>17</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK21" t="n">
         <v>41</v>
@@ -4297,7 +4297,7 @@
         <v>29</v>
       </c>
       <c r="AM21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN21" t="n">
         <v>4</v>
@@ -4312,7 +4312,7 @@
         <v>41</v>
       </c>
       <c r="AR21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS21" t="n">
         <v>151</v>
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H22" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I22" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J22" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K22" t="n">
         <v>2.38</v>
       </c>
       <c r="L22" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
@@ -4437,7 +4437,7 @@
         <v>23</v>
       </c>
       <c r="Y22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z22" t="n">
         <v>41</v>
@@ -4467,7 +4467,7 @@
         <v>9.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ22" t="n">
         <v>8.5</v>
@@ -4482,7 +4482,7 @@
         <v>21</v>
       </c>
       <c r="AN22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO22" t="n">
         <v>21</v>
@@ -4518,7 +4518,7 @@
         <v>17</v>
       </c>
       <c r="AZ22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA22" t="n">
         <v>41</v>
@@ -4747,28 +4747,28 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H24" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="I24" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="J24" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
         <v>1.7</v>
       </c>
       <c r="L24" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="M24" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="N24" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="O24" t="n">
         <v>1.78</v>
@@ -4789,7 +4789,7 @@
         <v>2</v>
       </c>
       <c r="U24" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="V24" t="n">
         <v>1.53</v>
@@ -4798,10 +4798,10 @@
         <v>5.9</v>
       </c>
       <c r="X24" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y24" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z24" t="n">
         <v>45</v>
@@ -4813,13 +4813,13 @@
         <v>70</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="AD24" t="n">
         <v>5.2</v>
       </c>
       <c r="AE24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF24" t="n">
         <v>175</v>
@@ -4831,59 +4831,59 @@
         <v>5.7</v>
       </c>
       <c r="AI24" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AK24" t="n">
         <v>40</v>
       </c>
       <c r="AL24" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AM24" t="n">
         <v>65</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AO24" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AP24" t="n">
         <v>35</v>
       </c>
       <c r="AQ24" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AR24" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AS24" t="inlineStr"/>
       <c r="AT24" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AU24" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AW24" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="AX24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY24" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ24" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BA24" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BB24" t="n">
         <v>500</v>
@@ -5099,19 +5099,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H26" t="n">
         <v>4.15</v>
       </c>
       <c r="I26" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="J26" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="K26" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L26" t="n">
         <v>8.5</v>
@@ -5120,13 +5120,13 @@
         <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P26" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="Q26" t="n">
         <v>2.15</v>
@@ -5135,10 +5135,10 @@
         <v>1.65</v>
       </c>
       <c r="S26" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T26" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="U26" t="n">
         <v>2.6</v>
@@ -5156,7 +5156,7 @@
         <v>9.25</v>
       </c>
       <c r="Z26" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AA26" t="n">
         <v>14</v>
@@ -5165,7 +5165,7 @@
         <v>50</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AD26" t="n">
         <v>8.75</v>
@@ -5180,16 +5180,16 @@
         <v>101</v>
       </c>
       <c r="AH26" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ26" t="n">
         <v>32</v>
       </c>
       <c r="AK26" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AL26" t="n">
         <v>175</v>
@@ -5216,7 +5216,7 @@
         <v>350</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="AU26" t="n">
         <v>10</v>
@@ -5225,13 +5225,13 @@
         <v>120</v>
       </c>
       <c r="AW26" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AX26" t="n">
         <v>65</v>
       </c>
       <c r="AY26" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AZ26" t="n">
         <v>500</v>
@@ -5293,22 +5293,22 @@
         <v>2.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O27" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R27" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S27" t="n">
         <v>1.29</v>
@@ -5657,10 +5657,10 @@
         <v>2.88</v>
       </c>
       <c r="M29" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O29" t="n">
         <v>1.36</v>
@@ -5669,10 +5669,10 @@
         <v>3</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R29" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S29" t="n">
         <v>1.5</v>
@@ -5824,19 +5824,19 @@
         <v>1.8</v>
       </c>
       <c r="H30" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J30" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K30" t="n">
         <v>2.1</v>
       </c>
       <c r="L30" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
         <v>1.06</v>
@@ -5845,16 +5845,16 @@
         <v>10</v>
       </c>
       <c r="O30" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R30" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S30" t="n">
         <v>1.44</v>
@@ -5902,7 +5902,7 @@
         <v>301</v>
       </c>
       <c r="AH30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI30" t="n">
         <v>21</v>
@@ -5911,7 +5911,7 @@
         <v>15</v>
       </c>
       <c r="AK30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL30" t="n">
         <v>41</v>
@@ -5923,7 +5923,7 @@
         <v>3.75</v>
       </c>
       <c r="AO30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP30" t="n">
         <v>21</v>
@@ -5950,7 +5950,7 @@
         <v>6</v>
       </c>
       <c r="AX30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY30" t="n">
         <v>34</v>
@@ -6185,22 +6185,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="H32" t="n">
         <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="J32" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K32" t="n">
         <v>2.2</v>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
@@ -6215,10 +6215,10 @@
         <v>3.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R32" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S32" t="n">
         <v>1.4</v>
@@ -6227,25 +6227,25 @@
         <v>2.75</v>
       </c>
       <c r="U32" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V32" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W32" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB32" t="n">
         <v>26</v>
@@ -6257,43 +6257,43 @@
         <v>6.5</v>
       </c>
       <c r="AE32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>13</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>12</v>
       </c>
       <c r="AK32" t="n">
         <v>41</v>
       </c>
       <c r="AL32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN32" t="n">
         <v>4</v>
       </c>
       <c r="AO32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP32" t="n">
         <v>21</v>
       </c>
       <c r="AQ32" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR32" t="n">
         <v>51</v>
@@ -6314,10 +6314,10 @@
         <v>5.5</v>
       </c>
       <c r="AX32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ32" t="n">
         <v>67</v>
@@ -6757,10 +6757,10 @@
         <v>4.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R35" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S35" t="n">
         <v>1.3</v>
@@ -7651,16 +7651,16 @@
         <v>6</v>
       </c>
       <c r="M40" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N40" t="n">
         <v>8</v>
       </c>
       <c r="O40" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P40" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q40" t="n">
         <v>2.35</v>
@@ -7669,10 +7669,10 @@
         <v>1.57</v>
       </c>
       <c r="S40" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T40" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="U40" t="n">
         <v>2.25</v>
@@ -7827,16 +7827,16 @@
         <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N41" t="n">
         <v>7</v>
       </c>
       <c r="O41" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P41" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q41" t="n">
         <v>2.7</v>
@@ -7845,7 +7845,7 @@
         <v>1.44</v>
       </c>
       <c r="S41" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T41" t="n">
         <v>2.2</v>
@@ -8005,25 +8005,25 @@
         <v>5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N42" t="n">
         <v>8</v>
       </c>
       <c r="O42" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P42" t="n">
         <v>2.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R42" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S42" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T42" t="n">
         <v>2.5</v>
@@ -8559,10 +8559,10 @@
         <v>4</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R45" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S45" t="n">
         <v>1.33</v>
@@ -8711,19 +8711,19 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H46" t="n">
         <v>3.75</v>
       </c>
       <c r="I46" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J46" t="n">
         <v>3.4</v>
       </c>
       <c r="K46" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L46" t="n">
         <v>2.75</v>
@@ -8741,10 +8741,10 @@
         <v>5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R46" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S46" t="n">
         <v>1.29</v>
@@ -8759,7 +8759,7 @@
         <v>2.5</v>
       </c>
       <c r="W46" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X46" t="n">
         <v>19</v>
@@ -8798,7 +8798,7 @@
         <v>13</v>
       </c>
       <c r="AJ46" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK46" t="n">
         <v>21</v>
@@ -8819,7 +8819,7 @@
         <v>21</v>
       </c>
       <c r="AQ46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR46" t="n">
         <v>51</v>
@@ -8849,7 +8849,7 @@
         <v>34</v>
       </c>
       <c r="BA46" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB46" t="n">
         <v>101</v>
@@ -9985,13 +9985,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
         <v>3.4</v>
       </c>
       <c r="I53" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J53" t="n">
         <v>2.75</v>
@@ -10009,16 +10009,16 @@
         <v>13</v>
       </c>
       <c r="O53" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P53" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R53" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S53" t="n">
         <v>1.36</v>
@@ -10027,10 +10027,10 @@
         <v>3</v>
       </c>
       <c r="U53" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V53" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W53" t="n">
         <v>9</v>
@@ -10042,10 +10042,10 @@
         <v>9</v>
       </c>
       <c r="Z53" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA53" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB53" t="n">
         <v>23</v>
@@ -10069,16 +10069,16 @@
         <v>12</v>
       </c>
       <c r="AI53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ53" t="n">
         <v>12</v>
       </c>
       <c r="AK53" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM53" t="n">
         <v>29</v>
@@ -10087,7 +10087,7 @@
         <v>4.33</v>
       </c>
       <c r="AO53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP53" t="n">
         <v>21</v>
@@ -10114,7 +10114,7 @@
         <v>5.5</v>
       </c>
       <c r="AX53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY53" t="n">
         <v>23</v>
@@ -10167,13 +10167,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H54" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I54" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J54" t="n">
         <v>2.3</v>
@@ -10191,16 +10191,16 @@
         <v>13</v>
       </c>
       <c r="O54" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P54" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R54" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S54" t="n">
         <v>1.36</v>
@@ -10215,7 +10215,7 @@
         <v>2</v>
       </c>
       <c r="W54" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X54" t="n">
         <v>8.5</v>
@@ -11091,10 +11091,10 @@
         <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N59" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O59" t="n">
         <v>1.5</v>
@@ -11261,49 +11261,49 @@
         <v>4.5</v>
       </c>
       <c r="I60" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="J60" t="n">
         <v>5.5</v>
       </c>
       <c r="K60" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L60" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M60" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N60" t="n">
+        <v>9</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T60" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W60" t="n">
         <v>15</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P60" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R60" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S60" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T60" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U60" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V60" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W60" t="n">
-        <v>17</v>
       </c>
       <c r="X60" t="n">
         <v>29</v>
@@ -11321,7 +11321,7 @@
         <v>41</v>
       </c>
       <c r="AC60" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD60" t="n">
         <v>9</v>
@@ -11336,7 +11336,7 @@
         <v>151</v>
       </c>
       <c r="AH60" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI60" t="n">
         <v>7.5</v>
@@ -11351,7 +11351,7 @@
         <v>12</v>
       </c>
       <c r="AM60" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN60" t="n">
         <v>7.5</v>
@@ -11366,13 +11366,13 @@
         <v>101</v>
       </c>
       <c r="AR60" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS60" t="n">
         <v>151</v>
       </c>
       <c r="AT60" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU60" t="n">
         <v>8.5</v>
@@ -11387,7 +11387,7 @@
         <v>7.5</v>
       </c>
       <c r="AY60" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ60" t="n">
         <v>21</v>
@@ -11396,7 +11396,7 @@
         <v>41</v>
       </c>
       <c r="BB60" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC60" t="n">
         <v>81</v>
@@ -11437,13 +11437,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H61" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I61" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J61" t="n">
         <v>3.25</v>
@@ -11461,16 +11461,16 @@
         <v>8</v>
       </c>
       <c r="O61" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P61" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="R61" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="S61" t="n">
         <v>1.44</v>
@@ -11479,13 +11479,13 @@
         <v>2.63</v>
       </c>
       <c r="U61" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V61" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W61" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X61" t="n">
         <v>13</v>
@@ -11503,7 +11503,7 @@
         <v>34</v>
       </c>
       <c r="AC61" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD61" t="n">
         <v>6.5</v>
@@ -11515,10 +11515,10 @@
         <v>51</v>
       </c>
       <c r="AG61" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH61" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI61" t="n">
         <v>12</v>
@@ -11533,7 +11533,7 @@
         <v>21</v>
       </c>
       <c r="AM61" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN61" t="n">
         <v>4.75</v>
@@ -11566,13 +11566,13 @@
         <v>4.5</v>
       </c>
       <c r="AX61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY61" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ61" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA61" t="n">
         <v>67</v>
@@ -11619,28 +11619,28 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H62" t="n">
         <v>4</v>
       </c>
       <c r="I62" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J62" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K62" t="n">
         <v>2.3</v>
       </c>
       <c r="L62" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M62" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N62" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O62" t="n">
         <v>1.2</v>
@@ -11700,7 +11700,7 @@
         <v>151</v>
       </c>
       <c r="AH62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI62" t="n">
         <v>23</v>
@@ -11709,25 +11709,25 @@
         <v>15</v>
       </c>
       <c r="AK62" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL62" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM62" t="n">
         <v>34</v>
       </c>
       <c r="AN62" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO62" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP62" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ62" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR62" t="n">
         <v>41</v>
@@ -11754,7 +11754,7 @@
         <v>29</v>
       </c>
       <c r="AZ62" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA62" t="n">
         <v>81</v>
@@ -12350,19 +12350,19 @@
         <v>4.25</v>
       </c>
       <c r="H66" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I66" t="n">
         <v>1.78</v>
       </c>
       <c r="J66" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="K66" t="n">
         <v>2.18</v>
       </c>
       <c r="L66" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="M66" t="n">
         <v>1.06</v>
@@ -12374,13 +12374,13 @@
         <v>1.28</v>
       </c>
       <c r="P66" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R66" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S66" t="n">
         <v>1.4</v>
@@ -12395,22 +12395,22 @@
         <v>1.95</v>
       </c>
       <c r="W66" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="X66" t="n">
         <v>26</v>
       </c>
       <c r="Y66" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z66" t="n">
         <v>75</v>
       </c>
       <c r="AA66" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AB66" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC66" t="n">
         <v>8</v>
@@ -12428,10 +12428,10 @@
         <v>600</v>
       </c>
       <c r="AH66" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AI66" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AJ66" t="n">
         <v>8.75</v>
@@ -12440,22 +12440,22 @@
         <v>15.5</v>
       </c>
       <c r="AL66" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AM66" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN66" t="n">
         <v>6</v>
       </c>
       <c r="AO66" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP66" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ66" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AR66" t="n">
         <v>175</v>
@@ -12470,7 +12470,7 @@
         <v>7.4</v>
       </c>
       <c r="AV66" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW66" t="n">
         <v>3.65</v>
@@ -12479,13 +12479,13 @@
         <v>8.75</v>
       </c>
       <c r="AY66" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AZ66" t="n">
         <v>30</v>
       </c>
       <c r="BA66" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB66" t="n">
         <v>250</v>
@@ -12893,10 +12893,10 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H69" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I69" t="n">
         <v>2.22</v>
@@ -12905,10 +12905,10 @@
         <v>3.6</v>
       </c>
       <c r="K69" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L69" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="M69" t="n">
         <v>1.06</v>
@@ -12923,28 +12923,28 @@
         <v>3.4</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R69" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S69" t="n">
         <v>1.42</v>
       </c>
       <c r="T69" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="U69" t="n">
         <v>1.65</v>
       </c>
       <c r="V69" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W69" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="X69" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y69" t="n">
         <v>10.5</v>
@@ -12953,10 +12953,10 @@
         <v>40</v>
       </c>
       <c r="AA69" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB69" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AC69" t="n">
         <v>7.5</v>
@@ -13010,7 +13010,7 @@
         <v>300</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU69" t="n">
         <v>6.9</v>
@@ -13022,16 +13022,16 @@
         <v>4.2</v>
       </c>
       <c r="AX69" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AY69" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ69" t="n">
         <v>50</v>
       </c>
       <c r="BA69" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB69" t="n">
         <v>250</v>
@@ -13257,25 +13257,25 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="H71" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I71" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="J71" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="K71" t="n">
         <v>2.1</v>
       </c>
       <c r="L71" t="n">
-        <v>4.15</v>
+        <v>4.35</v>
       </c>
       <c r="M71" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N71" t="n">
         <v>7.1</v>
@@ -13287,7 +13287,7 @@
         <v>3.15</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R71" t="n">
         <v>1.8</v>
@@ -13296,109 +13296,109 @@
         <v>1.42</v>
       </c>
       <c r="T71" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="U71" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V71" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="W71" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="X71" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y71" t="n">
         <v>8.25</v>
       </c>
       <c r="Z71" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA71" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB71" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC71" t="n">
         <v>7.1</v>
       </c>
       <c r="AD71" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AE71" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF71" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG71" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH71" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="AI71" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AJ71" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK71" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL71" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM71" t="n">
         <v>40</v>
       </c>
       <c r="AN71" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="AO71" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP71" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ71" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR71" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS71" t="n">
         <v>250</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU71" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AV71" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW71" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AX71" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY71" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ71" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BA71" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB71" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC71" t="n">
         <v>51</v>
@@ -13621,46 +13621,46 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H73" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I73" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J73" t="n">
         <v>2.5</v>
       </c>
       <c r="K73" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L73" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M73" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N73" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O73" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P73" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q73" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R73" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S73" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T73" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U73" t="n">
         <v>1.83</v>
@@ -13675,7 +13675,7 @@
         <v>8.5</v>
       </c>
       <c r="Y73" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z73" t="n">
         <v>15</v>
@@ -13687,7 +13687,7 @@
         <v>29</v>
       </c>
       <c r="AC73" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD73" t="n">
         <v>7</v>
@@ -13708,7 +13708,7 @@
         <v>21</v>
       </c>
       <c r="AJ73" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK73" t="n">
         <v>41</v>
@@ -13723,7 +13723,7 @@
         <v>3.75</v>
       </c>
       <c r="AO73" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP73" t="n">
         <v>21</v>
@@ -13738,7 +13738,7 @@
         <v>151</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU73" t="n">
         <v>8.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
@@ -929,100 +929,100 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="H3" t="n">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="L3" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="N3" t="n">
-        <v>4.15</v>
+        <v>4.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.15</v>
+        <v>2.85</v>
       </c>
       <c r="R3" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="S3" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="T3" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="U3" t="n">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="V3" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="X3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AA3" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AB3" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.15</v>
+        <v>4.6</v>
       </c>
       <c r="AD3" t="n">
         <v>5.2</v>
       </c>
       <c r="AE3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF3" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG3" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="AH3" t="n">
         <v>14</v>
       </c>
       <c r="AI3" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AJ3" t="n">
         <v>45</v>
       </c>
       <c r="AK3" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AL3" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
         <v>101</v>
@@ -1031,41 +1031,43 @@
         <v>4.45</v>
       </c>
       <c r="AO3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AR3" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS3" t="inlineStr"/>
+        <v>150</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>500</v>
+      </c>
       <c r="AT3" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AW3" t="n">
         <v>4.7</v>
       </c>
       <c r="AX3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY3" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BA3" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="inlineStr"/>
@@ -1105,149 +1107,151 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I4" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="J4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q4" t="n">
         <v>2.07</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.15</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="W4" t="n">
         <v>5.6</v>
       </c>
       <c r="X4" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Y4" t="n">
         <v>8.25</v>
       </c>
       <c r="Z4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB4" t="n">
         <v>32</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AE4" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>120</v>
       </c>
-      <c r="AG4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>37</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>150</v>
-      </c>
       <c r="AK4" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AL4" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AP4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ4" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AR4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS4" t="n">
         <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="AV4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AW4" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="AX4" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AY4" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AZ4" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="BA4" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="BB4" t="inlineStr"/>
       <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr"/>
+      <c r="BD4" t="n">
+        <v>450</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1281,22 +1285,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="H5" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K5" t="n">
         <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1329,13 +1333,13 @@
         <v>1.91</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X5" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z5" t="n">
         <v>20</v>
@@ -1350,25 +1354,25 @@
         <v>7.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AE5" t="n">
         <v>10.75</v>
       </c>
       <c r="AF5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AH5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AK5" t="n">
         <v>23</v>
@@ -1389,7 +1393,7 @@
         <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR5" t="n">
         <v>80</v>
@@ -1410,7 +1414,7 @@
         <v>5.1</v>
       </c>
       <c r="AX5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AY5" t="n">
         <v>23</v>
@@ -1459,22 +1463,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="H6" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J6" t="n">
         <v>2.77</v>
       </c>
-      <c r="J6" t="n">
-        <v>2.65</v>
-      </c>
       <c r="K6" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="L6" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1483,31 +1487,31 @@
         <v>9.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.5</v>
       </c>
-      <c r="R6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.47</v>
-      </c>
       <c r="V6" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="W6" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="X6" t="n">
         <v>13.5</v>
@@ -1516,85 +1520,85 @@
         <v>9.25</v>
       </c>
       <c r="Z6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB6" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
         <v>9.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
       </c>
       <c r="AF6" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK6" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM6" t="n">
         <v>200</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="AO6" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AP6" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS6" t="n">
         <v>150</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV6" t="n">
         <v>45</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AX6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BA6" t="n">
         <v>70</v>
@@ -1819,22 +1823,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H8" t="n">
         <v>4.33</v>
       </c>
       <c r="I8" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J8" t="n">
         <v>6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1843,28 +1847,28 @@
         <v>8.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
         <v>15</v>
@@ -1876,34 +1880,34 @@
         <v>19</v>
       </c>
       <c r="Z8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA8" t="n">
         <v>41</v>
       </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
         <v>8.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ8" t="n">
         <v>10</v>
@@ -1930,34 +1934,34 @@
         <v>126</v>
       </c>
       <c r="AR8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS8" t="n">
         <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AX8" t="n">
         <v>7.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
         <v>81</v>
@@ -2001,40 +2005,40 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R9" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>
@@ -2052,19 +2056,19 @@
         <v>8.5</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
         <v>29</v>
       </c>
       <c r="AA9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
         <v>8.5</v>
@@ -2088,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="AJ9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
         <v>21</v>
@@ -2100,13 +2104,13 @@
         <v>700</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
         <v>17</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ9" t="n">
         <v>51</v>
@@ -2127,7 +2131,7 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX9" t="n">
         <v>13</v>
@@ -2183,22 +2187,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="H10" t="n">
         <v>3.45</v>
       </c>
       <c r="I10" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
         <v>2.22</v>
       </c>
       <c r="L10" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -2210,7 +2214,7 @@
         <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q10" t="n">
         <v>1.7</v>
@@ -2225,25 +2229,25 @@
         <v>3</v>
       </c>
       <c r="U10" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V10" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="W10" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z10" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB10" t="n">
         <v>26</v>
@@ -2255,7 +2259,7 @@
         <v>6.9</v>
       </c>
       <c r="AE10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
         <v>45</v>
@@ -2264,16 +2268,16 @@
         <v>9.75</v>
       </c>
       <c r="AH10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AI10" t="n">
         <v>9</v>
       </c>
       <c r="AJ10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK10" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL10" t="n">
         <v>23</v>
@@ -2282,22 +2286,22 @@
         <v>300</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AO10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
         <v>20</v>
       </c>
       <c r="AQ10" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR10" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS10" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT10" t="n">
         <v>3</v>
@@ -2309,19 +2313,19 @@
         <v>50</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="AX10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AZ10" t="n">
         <v>45</v>
       </c>
       <c r="BA10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BB10" t="n">
         <v>51</v>
@@ -2736,10 +2740,10 @@
         <v>2.42</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="K13" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L13" t="n">
         <v>2.9</v>
@@ -2751,34 +2755,34 @@
         <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="Q13" t="n">
         <v>1.57</v>
       </c>
       <c r="R13" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="S13" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="V13" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="W13" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="X13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y13" t="n">
         <v>9.75</v>
@@ -2805,7 +2809,7 @@
         <v>40</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH13" t="n">
         <v>14.5</v>
@@ -2817,7 +2821,7 @@
         <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL13" t="n">
         <v>22</v>
@@ -2838,22 +2842,22 @@
         <v>50</v>
       </c>
       <c r="AR13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS13" t="n">
         <v>175</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV13" t="n">
         <v>45</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="AX13" t="n">
         <v>12</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD13"/>
+  <dimension ref="A1:BD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,39 +596,39 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
-        </is>
-      </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-0_HT</t>
@@ -701,24 +701,24 @@
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_2-3_HT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_4-4_HT</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MVKd3J5t</t>
+          <t>GnDS6jq2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Amstetten</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Hebar</t>
+          <t>First Vienna</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.45</v>
+        <v>2.27</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>2.82</v>
       </c>
       <c r="J2" t="n">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>3.95</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="T2" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>1.55</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>2.32</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="X2" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.5</v>
+        <v>24</v>
       </c>
       <c r="AA2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX2" t="n">
         <v>15</v>
       </c>
-      <c r="AB2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF2" t="n">
+      <c r="AY2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC2" t="n">
         <v>81</v>
       </c>
-      <c r="AG2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ2" t="n">
+      <c r="BD2" t="n">
         <v>81</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>251</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Y3gWdANp</t>
+          <t>xYZuGfMF</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,175 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Enppi</t>
+          <t>ASK Voitsberg</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.77</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
-        <v>2.55</v>
+        <v>3.05</v>
       </c>
       <c r="I3" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>2.82</v>
       </c>
       <c r="K3" t="n">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>4.6</v>
+        <v>6.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.65</v>
+        <v>1.37</v>
       </c>
       <c r="P3" t="n">
-        <v>2.15</v>
+        <v>2.85</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.85</v>
+        <v>2.07</v>
       </c>
       <c r="R3" t="n">
-        <v>1.37</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="T3" t="n">
-        <v>2.15</v>
+        <v>2.67</v>
       </c>
       <c r="U3" t="n">
-        <v>2.15</v>
+        <v>1.82</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="W3" t="n">
+        <v>7</v>
+      </c>
+      <c r="X3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AD3" t="n">
         <v>5.9</v>
       </c>
-      <c r="X3" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5.2</v>
-      </c>
       <c r="AE3" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AF3" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AG3" t="n">
-        <v>6.5</v>
+        <v>600</v>
       </c>
       <c r="AH3" t="n">
-        <v>14</v>
+        <v>8.75</v>
       </c>
       <c r="AI3" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ3" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AK3" t="n">
         <v>45</v>
       </c>
-      <c r="AK3" t="n">
-        <v>35</v>
-      </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AM3" t="n">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.45</v>
+        <v>4.15</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>11.75</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AR3" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AS3" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.15</v>
+        <v>2.67</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="AV3" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="AX3" t="n">
         <v>18</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AZ3" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BA3" t="n">
-        <v>150</v>
-      </c>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
+        <v>120</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>81</v>
+      </c>
       <c r="BD3" t="n">
-        <v>500</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>v3ybFIwC</t>
+          <t>48gNSX5L</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1088,175 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Lafnitz</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>National Bank Egypt</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.35</v>
+        <v>3.95</v>
       </c>
       <c r="I4" t="n">
-        <v>5.8</v>
+        <v>2.12</v>
       </c>
       <c r="J4" t="n">
-        <v>2.18</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="L4" t="n">
-        <v>5.6</v>
+        <v>2.55</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.36</v>
       </c>
-      <c r="P4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.72</v>
+        <v>2.87</v>
       </c>
       <c r="W4" t="n">
-        <v>5.6</v>
+        <v>17</v>
       </c>
       <c r="X4" t="n">
-        <v>6.8</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="AA4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL4" t="n">
         <v>14.5</v>
       </c>
-      <c r="AB4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>35</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>60</v>
-      </c>
       <c r="AM4" t="n">
-        <v>800</v>
+        <v>16.5</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AP4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AQ4" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="AR4" t="n">
         <v>60</v>
       </c>
       <c r="AS4" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.4</v>
+        <v>6.1</v>
       </c>
       <c r="AV4" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AW4" t="n">
-        <v>7.2</v>
+        <v>4.8</v>
       </c>
       <c r="AX4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>32</v>
       </c>
-      <c r="AY4" t="n">
-        <v>35</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>200</v>
-      </c>
       <c r="BA4" t="n">
-        <v>200</v>
-      </c>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
+        <v>40</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>350</v>
+      </c>
       <c r="BD4" t="n">
-        <v>450</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>pKpvC5be</t>
+          <t>OhzfNBTr</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1266,134 +1274,134 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Gagra</t>
+          <t>SK Rapid</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Telavi</t>
+          <t>St. Polten</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.35</v>
+        <v>2.82</v>
       </c>
       <c r="H5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L5" t="n">
         <v>2.75</v>
       </c>
-      <c r="I5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.65</v>
-      </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>2.78</v>
+        <v>3.85</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.07</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.6</v>
       </c>
-      <c r="S5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.85</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.91</v>
+        <v>2.22</v>
       </c>
       <c r="W5" t="n">
-        <v>6.1</v>
+        <v>11.25</v>
       </c>
       <c r="X5" t="n">
-        <v>9.5</v>
+        <v>16</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.6</v>
+        <v>10.25</v>
       </c>
       <c r="Z5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP5" t="n">
         <v>20</v>
       </c>
-      <c r="AA5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>350</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR5" t="n">
         <v>80</v>
@@ -1402,39 +1410,43 @@
         <v>250</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AV5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="AX5" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AY5" t="n">
         <v>17.5</v>
       </c>
-      <c r="AY5" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ5" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="BA5" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
+        <v>65</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>81</v>
+      </c>
       <c r="BD5" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hvDXqXaD</t>
+          <t>MVKd3J5t</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1449,170 +1461,174 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Gharafa</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Al Wakra</t>
+          <t>Hebar</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.27</v>
+        <v>1.45</v>
       </c>
       <c r="H6" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.62</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>2.77</v>
+        <v>2.05</v>
       </c>
       <c r="K6" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.05</v>
+        <v>7.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>9.25</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.53</v>
       </c>
-      <c r="R6" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.42</v>
-      </c>
       <c r="W6" t="n">
-        <v>11.5</v>
+        <v>5.5</v>
       </c>
       <c r="X6" t="n">
-        <v>13.5</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>24</v>
+        <v>9.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.25</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AF6" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.5</v>
+        <v>101</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU6" t="n">
         <v>10</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AV6" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.9</v>
+        <v>8.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AY6" t="n">
-        <v>17.5</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="BA6" t="n">
-        <v>70</v>
-      </c>
-      <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>51</v>
+      </c>
       <c r="BD6" t="n">
-        <v>175</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>nkhrOTUG</t>
+          <t>fw6RHKYO</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1622,86 +1638,86 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>CROATIA - HNL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sepsi Sf. Gheorghe</t>
+          <t>Istra 1961</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>Slaven Belupo</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I7" t="n">
         <v>3.5</v>
       </c>
-      <c r="I7" t="n">
-        <v>5.25</v>
-      </c>
       <c r="J7" t="n">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="n">
         <v>34</v>
@@ -1710,91 +1726,91 @@
         <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>351</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
         <v>41</v>
       </c>
       <c r="AL7" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
         <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS7" t="n">
         <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AY7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BA7" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD7" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>hbT7lS4s</t>
+          <t>Y3gWdANp</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1804,179 +1820,175 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Enppi</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.75</v>
+        <v>2.77</v>
       </c>
       <c r="H8" t="n">
-        <v>4.33</v>
+        <v>2.55</v>
       </c>
       <c r="I8" t="n">
-        <v>1.48</v>
+        <v>3.05</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>3.55</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>1.78</v>
       </c>
       <c r="L8" t="n">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.16</v>
       </c>
       <c r="N8" t="n">
-        <v>8.5</v>
+        <v>4.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.65</v>
       </c>
       <c r="P8" t="n">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>2.85</v>
       </c>
       <c r="R8" t="n">
-        <v>1.8</v>
+        <v>1.37</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>15</v>
+        <v>5.9</v>
       </c>
       <c r="X8" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="AA8" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AB8" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>4.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.5</v>
+        <v>5.2</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="n">
-        <v>6.5</v>
+        <v>101</v>
       </c>
       <c r="AH8" t="n">
         <v>6.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="AL8" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP8" t="n">
         <v>29</v>
       </c>
-      <c r="AM8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AU8" t="n">
         <v>7.5</v>
       </c>
-      <c r="AO8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="AX8" t="n">
-        <v>7.5</v>
+        <v>18</v>
       </c>
       <c r="AY8" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="BB8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>151</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Aa1J6RQP</t>
+          <t>v3ybFIwC</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1986,179 +1998,175 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>National Bank Egypt</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.3</v>
+        <v>5.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>2.12</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>5.7</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S9" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="T9" t="n">
-        <v>2.63</v>
+        <v>2.77</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="W9" t="n">
-        <v>8.5</v>
+        <v>5.9</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>7.1</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Z9" t="n">
-        <v>29</v>
+        <v>12.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AB9" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="AG9" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU9" t="n">
         <v>7.5</v>
       </c>
-      <c r="AH9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>700</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AV9" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.33</v>
+        <v>7.2</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="BB9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>151</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dYbmKML6</t>
+          <t>pKpvC5be</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2168,179 +2176,175 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Gagra</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Telavi</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.77</v>
+        <v>2.35</v>
       </c>
       <c r="H10" t="n">
-        <v>3.45</v>
+        <v>2.75</v>
       </c>
       <c r="I10" t="n">
-        <v>2.22</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>2.92</v>
       </c>
       <c r="K10" t="n">
-        <v>2.22</v>
+        <v>1.95</v>
       </c>
       <c r="L10" t="n">
-        <v>2.8</v>
+        <v>3.65</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>8.25</v>
+        <v>8.77</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>3.8</v>
+        <v>2.81</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.7</v>
+        <v>2.07</v>
       </c>
       <c r="R10" t="n">
-        <v>2.07</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="U10" t="n">
-        <v>1.57</v>
+        <v>1.93</v>
       </c>
       <c r="V10" t="n">
-        <v>2.25</v>
+        <v>1.74</v>
       </c>
       <c r="W10" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="X10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AE10" t="n">
         <v>10.75</v>
       </c>
-      <c r="X10" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>12</v>
-      </c>
       <c r="AF10" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.75</v>
+        <v>350</v>
       </c>
       <c r="AH10" t="n">
-        <v>12.5</v>
+        <v>7.2</v>
       </c>
       <c r="AI10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>9</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>23</v>
-      </c>
       <c r="AK10" t="n">
-        <v>16.5</v>
+        <v>32</v>
       </c>
       <c r="AL10" t="n">
         <v>23</v>
       </c>
       <c r="AM10" t="n">
-        <v>300</v>
+        <v>28</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.9</v>
+        <v>4.25</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ10" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AR10" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS10" t="n">
         <v>250</v>
       </c>
       <c r="AT10" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AV10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.35</v>
+        <v>5.1</v>
       </c>
       <c r="AX10" t="n">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="BA10" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="BB10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>200</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>j1izldfS</t>
+          <t>Maxln0E6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2350,179 +2354,173 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>FAR Rabat</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Radomlje</t>
+          <t>Union Touarga</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.05</v>
+        <v>4.75</v>
       </c>
       <c r="J11" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>2.82</v>
+        <v>2.63</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T11" t="n">
-        <v>2.62</v>
+        <v>2.38</v>
       </c>
       <c r="U11" t="n">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="V11" t="n">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="W11" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="X11" t="n">
-        <v>8.25</v>
+        <v>7</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AG11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH11" t="n">
         <v>10</v>
       </c>
-      <c r="AH11" t="n">
-        <v>21</v>
-      </c>
       <c r="AI11" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AJ11" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AL11" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AM11" t="n">
-        <v>800</v>
+        <v>51</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AO11" t="n">
         <v>9.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AR11" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.62</v>
+        <v>2.38</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AY11" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AZ11" t="n">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="BA11" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>450</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>WEiW6Wxq</t>
+          <t>EZYulMqf</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2532,35 +2530,35 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Karpaty Lviv</t>
+          <t>Raja Casablanca</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Wydad</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
         <v>1.83</v>
@@ -2569,140 +2567,138 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>4.35</v>
+        <v>6.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P12" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="R12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.57</v>
       </c>
-      <c r="T12" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.6</v>
-      </c>
       <c r="W12" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="X12" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB12" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="AD12" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="AG12" t="n">
-        <v>7.3</v>
+        <v>101</v>
       </c>
       <c r="AH12" t="n">
-        <v>15.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ12" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM12" t="inlineStr"/>
+        <v>34</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
       <c r="AN12" t="n">
-        <v>3.95</v>
+        <v>4.33</v>
       </c>
       <c r="AO12" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AQ12" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="AS12" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.9</v>
+        <v>9.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AZ12" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="BA12" t="n">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="BB12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>500</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CzKe0my8</t>
+          <t>KK9PNiw3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2712,172 +2708,2350 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al Wahda</t>
+          <t>Zaglebie</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Al Wasl</t>
+          <t>Motor Lublin</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L13" t="n">
         <v>3.75</v>
       </c>
-      <c r="I13" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.9</v>
-      </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W13" t="n">
         <v>9</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="W13" t="n">
-        <v>11.75</v>
-      </c>
       <c r="X13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA13" t="n">
         <v>15</v>
       </c>
-      <c r="Y13" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>18</v>
-      </c>
       <c r="AB13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE13" t="n">
         <v>12</v>
       </c>
       <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>xz9LzwPE</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>POLAND - DIVISION 1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Kotwica Kolobrzeg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Termalica B-B.</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W14" t="n">
+        <v>15</v>
+      </c>
+      <c r="X14" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>hvDXqXaD</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>QATAR - QSL</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Al-Gharafa</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Al Wakra</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N15" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF15" t="n">
         <v>40</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG15" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>70</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>175</v>
+      </c>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>nkhrOTUG</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Sepsi Sf. Gheorghe</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Gloria Buzau</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W16" t="n">
+        <v>6</v>
+      </c>
+      <c r="X16" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>hbT7lS4s</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>11:50</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Al Feiha</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Al Ahli SC</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W17" t="n">
+        <v>15</v>
+      </c>
+      <c r="X17" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Aa1J6RQP</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>12:05</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Al Okhdood</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>xYNxflsK</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Al Qadisiya</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2</v>
+      </c>
+      <c r="W19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>dYbmKML6</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>IMT Novi Beograd</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>TSC</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W20" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="X20" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>65</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>QDELJxlI</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SLOVAKIA - NIKE LIGA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Kosice</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>30</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>j1izldfS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SLOVENIA - PRVA LIGA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Bravo</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Radomlje</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W22" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X22" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>jPRoB7i2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Umraniyespor</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N23" t="n">
+        <v>10</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W23" t="n">
+        <v>7</v>
+      </c>
+      <c r="X23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>WEiW6Wxq</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Karpaty Lviv</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kolos Kovalivka</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W24" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X24" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>110</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CzKe0my8</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Al Wahda</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Al Wasl</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N25" t="n">
+        <v>9</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W25" t="n">
+        <v>12</v>
+      </c>
+      <c r="X25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE25" t="n">
         <v>11.75</v>
       </c>
-      <c r="AH13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP13" t="n">
+      <c r="AF25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP25" t="n">
         <v>17.5</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AQ25" t="n">
         <v>50</v>
       </c>
-      <c r="AR13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS13" t="n">
+      <c r="AR25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS25" t="n">
         <v>175</v>
       </c>
-      <c r="AT13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AU13" t="n">
+      <c r="AT25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU25" t="n">
         <v>6.5</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AV25" t="n">
         <v>45</v>
       </c>
-      <c r="AW13" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>45</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>65</v>
-      </c>
-      <c r="BB13" t="n">
+      <c r="AW25" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC25" t="n">
         <v>500</v>
       </c>
-      <c r="BC13" t="inlineStr"/>
-      <c r="BD13" t="n">
-        <v>175</v>
-      </c>
+      <c r="BD25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD25"/>
+  <dimension ref="A1:BD23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2549,13 +2549,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J12" t="n">
         <v>3.4</v>
@@ -2615,7 +2615,7 @@
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD12" t="n">
         <v>6.5</v>
@@ -2642,7 +2642,7 @@
         <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM12" t="n">
         <v>41</v>
@@ -2675,10 +2675,10 @@
         <v>81</v>
       </c>
       <c r="AW12" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY12" t="n">
         <v>34</v>
@@ -2751,16 +2751,16 @@
         <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -3062,7 +3062,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>hvDXqXaD</t>
+          <t>nkhrOTUG</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3072,175 +3072,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Al-Gharafa</t>
+          <t>Sepsi Sf. Gheorghe</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Al Wakra</t>
+          <t>Gloria Buzau</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.27</v>
+        <v>1.62</v>
       </c>
       <c r="H15" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>2.62</v>
+        <v>5.25</v>
       </c>
       <c r="J15" t="n">
-        <v>2.77</v>
+        <v>2.3</v>
       </c>
       <c r="K15" t="n">
-        <v>2.37</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>3.05</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.53</v>
+        <v>2.08</v>
       </c>
       <c r="R15" t="n">
-        <v>2.32</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="n">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="T15" t="n">
-        <v>3.35</v>
+        <v>2.63</v>
       </c>
       <c r="U15" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>2.42</v>
+        <v>1.67</v>
       </c>
       <c r="W15" t="n">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="X15" t="n">
-        <v>13.5</v>
+        <v>7</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AA15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH15" t="n">
         <v>12</v>
       </c>
-      <c r="AF15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AK15" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="AL15" t="n">
-        <v>18.5</v>
+        <v>41</v>
       </c>
       <c r="AM15" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.55</v>
+        <v>3.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>11.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP15" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AQ15" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AR15" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AS15" t="n">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.35</v>
+        <v>2.63</v>
       </c>
       <c r="AU15" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="AV15" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.9</v>
+        <v>7</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AY15" t="n">
-        <v>17.5</v>
+        <v>41</v>
       </c>
       <c r="AZ15" t="n">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="BA15" t="n">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="BB15" t="n">
-        <v>175</v>
-      </c>
-      <c r="BC15" t="inlineStr"/>
-      <c r="BD15" t="inlineStr"/>
+        <v>351</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>nkhrOTUG</t>
+          <t>Aa1J6RQP</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3250,53 +3254,53 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sepsi Sf. Gheorghe</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.62</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="J16" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>2.1</v>
@@ -3311,118 +3315,118 @@
         <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="W16" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="X16" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AA16" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AB16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="n">
         <v>8.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AH16" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AJ16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO16" t="n">
         <v>17</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AP16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>51</v>
       </c>
-      <c r="AL16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>29</v>
-      </c>
       <c r="AR16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT16" t="n">
         <v>2.63</v>
       </c>
       <c r="AU16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA16" t="n">
         <v>67</v>
       </c>
-      <c r="AW16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA16" t="n">
+      <c r="BB16" t="n">
         <v>151</v>
       </c>
-      <c r="BB16" t="n">
-        <v>351</v>
-      </c>
       <c r="BC16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hbT7lS4s</t>
+          <t>xYNxflsK</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3432,7 +3436,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3442,154 +3446,154 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Qadisiya</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.75</v>
+        <v>1.7</v>
       </c>
       <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P17" t="n">
         <v>4.33</v>
       </c>
-      <c r="I17" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="J17" t="n">
-        <v>6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="Q17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2</v>
+      </c>
+      <c r="W17" t="n">
         <v>8.5</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE17" t="n">
         <v>15</v>
       </c>
-      <c r="X17" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA17" t="n">
+      <c r="AF17" t="n">
         <v>41</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>67</v>
       </c>
       <c r="AG17" t="n">
         <v>151</v>
       </c>
       <c r="AH17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
         <v>6.5</v>
       </c>
-      <c r="AI17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM17" t="n">
+      <c r="AX17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY17" t="n">
         <v>29</v>
       </c>
-      <c r="AN17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV17" t="n">
+      <c r="AZ17" t="n">
         <v>67</v>
       </c>
-      <c r="AW17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>23</v>
-      </c>
       <c r="BA17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB17" t="n">
         <v>151</v>
@@ -3604,7 +3608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aa1J6RQP</t>
+          <t>dYbmKML6</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3614,179 +3618,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T18" t="n">
         <v>3</v>
       </c>
-      <c r="H18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="U18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT18" t="n">
         <v>3</v>
       </c>
-      <c r="M18" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X18" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF18" t="n">
+      <c r="AU18" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>37</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC18" t="n">
         <v>51</v>
       </c>
-      <c r="AG18" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ18" t="n">
+      <c r="BD18" t="n">
         <v>51</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>xYNxflsK</t>
+          <t>QDELJxlI</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3801,174 +3805,174 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SLOVAKIA - NIKE LIGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Kosice</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.7</v>
+        <v>4.25</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>4.1</v>
+        <v>1.78</v>
       </c>
       <c r="J19" t="n">
-        <v>2.25</v>
+        <v>4.55</v>
       </c>
       <c r="K19" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="L19" t="n">
-        <v>4.5</v>
+        <v>2.32</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="R19" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="S19" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T19" t="n">
-        <v>3.25</v>
+        <v>2.87</v>
       </c>
       <c r="U19" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W19" t="n">
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="X19" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Z19" t="n">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="AA19" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="AC19" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AD19" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF19" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AG19" t="n">
-        <v>151</v>
+        <v>600</v>
       </c>
       <c r="AH19" t="n">
-        <v>15</v>
+        <v>7.2</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>9.25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>8.75</v>
       </c>
       <c r="AK19" t="n">
-        <v>41</v>
+        <v>15.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>34</v>
+        <v>14.5</v>
       </c>
       <c r="AM19" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AN19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO19" t="n">
-        <v>8.5</v>
+        <v>24</v>
       </c>
       <c r="AP19" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AQ19" t="n">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="AR19" t="n">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AS19" t="n">
-        <v>101</v>
+        <v>400</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="AU19" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AV19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>30</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC19" t="n">
         <v>51</v>
       </c>
-      <c r="AW19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>81</v>
-      </c>
       <c r="BD19" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>dYbmKML6</t>
+          <t>j1izldfS</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3978,167 +3982,167 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Radomlje</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.77</v>
+        <v>1.9</v>
       </c>
       <c r="H20" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>2.22</v>
+        <v>4.05</v>
       </c>
       <c r="J20" t="n">
-        <v>3.35</v>
+        <v>2.47</v>
       </c>
       <c r="K20" t="n">
-        <v>2.22</v>
+        <v>2.07</v>
       </c>
       <c r="L20" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W20" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X20" t="n">
         <v>8.25</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W20" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="X20" t="n">
+      <c r="Y20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z20" t="n">
         <v>16</v>
       </c>
-      <c r="Y20" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Z20" t="n">
+      <c r="AA20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>35</v>
       </c>
-      <c r="AA20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>65</v>
-      </c>
       <c r="AR20" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AS20" t="n">
         <v>250</v>
       </c>
       <c r="AT20" t="n">
-        <v>3</v>
+        <v>2.62</v>
       </c>
       <c r="AU20" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="AV20" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AW20" t="n">
-        <v>4.35</v>
+        <v>5.8</v>
       </c>
       <c r="AX20" t="n">
-        <v>11.5</v>
+        <v>24</v>
       </c>
       <c r="AY20" t="n">
-        <v>17.5</v>
+        <v>30</v>
       </c>
       <c r="AZ20" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="BA20" t="n">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="BB20" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="BC20" t="n">
         <v>51</v>
@@ -4150,7 +4154,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>QDELJxlI</t>
+          <t>jPRoB7i2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4165,174 +4169,174 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Kosice</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.25</v>
+        <v>1.85</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>1.78</v>
+        <v>3.9</v>
       </c>
       <c r="J21" t="n">
-        <v>4.55</v>
+        <v>2.5</v>
       </c>
       <c r="K21" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>2.32</v>
+        <v>4.75</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.83</v>
       </c>
-      <c r="R21" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.75</v>
-      </c>
       <c r="V21" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="W21" t="n">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="X21" t="n">
-        <v>26</v>
+        <v>8.5</v>
       </c>
       <c r="Y21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z21" t="n">
         <v>15</v>
       </c>
-      <c r="Z21" t="n">
-        <v>75</v>
-      </c>
       <c r="AA21" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AB21" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>600</v>
+        <v>301</v>
       </c>
       <c r="AH21" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="AI21" t="n">
-        <v>9.25</v>
+        <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8.75</v>
+        <v>13</v>
       </c>
       <c r="AK21" t="n">
-        <v>15.5</v>
+        <v>41</v>
       </c>
       <c r="AL21" t="n">
-        <v>14.5</v>
+        <v>34</v>
       </c>
       <c r="AM21" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="AN21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
         <v>6</v>
       </c>
-      <c r="AO21" t="n">
-        <v>24</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>30</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>3.65</v>
-      </c>
       <c r="AX21" t="n">
-        <v>8.75</v>
+        <v>23</v>
       </c>
       <c r="AY21" t="n">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="AZ21" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="BA21" t="n">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="BB21" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC21" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD21" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>j1izldfS</t>
+          <t>WEiW6Wxq</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4342,179 +4346,177 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Karpaty Lviv</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Radomlje</t>
+          <t>Kolos Kovalivka</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.9</v>
+        <v>2.32</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="I22" t="n">
-        <v>4.05</v>
+        <v>3.3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.47</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U22" t="n">
         <v>2.07</v>
       </c>
-      <c r="L22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.93</v>
-      </c>
       <c r="V22" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="W22" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="X22" t="n">
-        <v>8.25</v>
+        <v>9.75</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z22" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AA22" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AB22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY22" t="n">
         <v>32</v>
       </c>
-      <c r="AC22" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>35</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>30</v>
-      </c>
       <c r="AZ22" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="BA22" t="n">
         <v>175</v>
       </c>
       <c r="BB22" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC22" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD22" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>jPRoB7i2</t>
+          <t>CzKe0my8</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4524,534 +4526,172 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Al Wahda</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Al Wasl</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.85</v>
+        <v>2.67</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I23" t="n">
-        <v>3.9</v>
+        <v>2.32</v>
       </c>
       <c r="J23" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="K23" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="L23" t="n">
-        <v>4.5</v>
+        <v>2.82</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
+        <v>9</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y23" t="n">
         <v>10</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P23" t="n">
+      <c r="Z23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT23" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q23" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W23" t="n">
-        <v>7</v>
-      </c>
-      <c r="X23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2.63</v>
-      </c>
       <c r="AU23" t="n">
-        <v>8.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV23" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AW23" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="AX23" t="n">
-        <v>23</v>
+        <v>11.75</v>
       </c>
       <c r="AY23" t="n">
-        <v>34</v>
+        <v>16.5</v>
       </c>
       <c r="AZ23" t="n">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="BA23" t="n">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="BB23" t="n">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="BC23" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>WEiW6Wxq</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>22/11/2024</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Karpaty Lviv</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Kolos Kovalivka</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L24" t="n">
-        <v>4</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N24" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W24" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="X24" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>37</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>27</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS24" t="n">
         <v>500</v>
       </c>
-      <c r="AT24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>20</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>110</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>CzKe0my8</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>22/11/2024</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Al Wahda</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Al Wasl</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="H25" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N25" t="n">
-        <v>9</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="W25" t="n">
-        <v>12</v>
-      </c>
-      <c r="X25" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>40</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>60</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>150</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD25" t="inlineStr"/>
+      <c r="BD23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD23"/>
+  <dimension ref="A1:BD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MVKd3J5t</t>
+          <t>fw6RHKYO</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,47 +1456,47 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>CROATIA - HNL</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Istra 1961</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hebar</t>
+          <t>Slaven Belupo</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K6" t="n">
         <v>2.05</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L6" t="n">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1505,130 +1505,130 @@
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="W6" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK6" t="n">
         <v>41</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>81</v>
-      </c>
       <c r="AL6" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
         <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
         <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>81</v>
       </c>
-      <c r="AW6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>201</v>
-      </c>
       <c r="BA6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB6" t="n">
         <v>251</v>
       </c>
-      <c r="BB6" t="n">
-        <v>51</v>
-      </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>fw6RHKYO</t>
+          <t>04Gll1uH</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,110 +1638,110 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CROATIA - HNL</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Istra 1961</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Slaven Belupo</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J7" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="L7" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R7" t="n">
         <v>2.2</v>
       </c>
-      <c r="R7" t="n">
-        <v>1.65</v>
-      </c>
       <c r="S7" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="V7" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="X7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9</v>
       </c>
       <c r="Z7" t="n">
         <v>17</v>
       </c>
       <c r="AA7" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="AH7" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
         <v>13</v>
@@ -1750,58 +1750,58 @@
         <v>41</v>
       </c>
       <c r="AL7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>34</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AR7" t="n">
         <v>41</v>
       </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY7" t="n">
         <v>23</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AZ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA7" t="n">
         <v>67</v>
       </c>
-      <c r="AS7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>101</v>
-      </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BC7" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD7" t="n">
         <v>81</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Y3gWdANp</t>
+          <t>txiN20fA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,175 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>Preussen Munster</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Enppi</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.77</v>
+        <v>4.33</v>
       </c>
       <c r="H8" t="n">
-        <v>2.55</v>
+        <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>3.05</v>
+        <v>1.73</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
-        <v>1.78</v>
+        <v>2.38</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.16</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>4.6</v>
+        <v>15</v>
       </c>
       <c r="O8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1.65</v>
       </c>
-      <c r="P8" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.85</v>
-      </c>
       <c r="R8" t="n">
-        <v>1.37</v>
+        <v>2.2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="T8" t="n">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="U8" t="n">
-        <v>2.15</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>2.2</v>
       </c>
       <c r="W8" t="n">
-        <v>5.9</v>
+        <v>15</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AA8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.6</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>5.2</v>
+        <v>7.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AH8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN8" t="n">
         <v>6.5</v>
       </c>
-      <c r="AI8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.45</v>
-      </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AP8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="AR8" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="AS8" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="AU8" t="n">
         <v>7.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="AX8" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AZ8" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="BB8" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>v3ybFIwC</t>
+          <t>O6ecm1eJ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1998,167 +2002,167 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>GREECE - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>National Bank Egypt</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
       <c r="J9" t="n">
-        <v>2.12</v>
+        <v>2.75</v>
       </c>
       <c r="K9" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>5.7</v>
+        <v>4.33</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="R9" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>2.77</v>
+        <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V9" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>7.1</v>
+        <v>9</v>
       </c>
       <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
         <v>8</v>
       </c>
-      <c r="Z9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AD9" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AH9" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AI9" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.7</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.77</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>7.2</v>
+        <v>5.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AY9" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AZ9" t="n">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="BA9" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="inlineStr"/>
@@ -2166,7 +2170,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pKpvC5be</t>
+          <t>Maxln0E6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2176,175 +2180,173 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Gagra</t>
+          <t>FAR Rabat</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Telavi</t>
+          <t>Union Touarga</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.35</v>
+        <v>1.67</v>
       </c>
       <c r="H10" t="n">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="J10" t="n">
-        <v>2.92</v>
+        <v>2.4</v>
       </c>
       <c r="K10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>3.65</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>8.77</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>2.81</v>
+        <v>2.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.07</v>
+        <v>2.35</v>
       </c>
       <c r="R10" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="T10" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="U10" t="n">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="V10" t="n">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="W10" t="n">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="X10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO10" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AP10" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AR10" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.4</v>
+        <v>10</v>
       </c>
       <c r="AV10" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.1</v>
+        <v>6.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="BA10" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>250</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="BB10" t="inlineStr"/>
       <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Maxln0E6</t>
+          <t>EZYulMqf</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2364,55 +2366,55 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FAR Rabat</t>
+          <t>Raja Casablanca</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Union Touarga</t>
+          <t>Wydad</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.67</v>
+        <v>2.35</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="J11" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.44</v>
       </c>
-      <c r="P11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.57</v>
-      </c>
       <c r="S11" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="T11" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="U11" t="n">
         <v>2.25</v>
@@ -2421,28 +2423,28 @@
         <v>1.57</v>
       </c>
       <c r="W11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AB11" t="n">
         <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
         <v>21</v>
@@ -2454,73 +2456,75 @@
         <v>101</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>51</v>
       </c>
-      <c r="AL11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU11" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>10</v>
       </c>
       <c r="AV11" t="n">
         <v>81</v>
       </c>
       <c r="AW11" t="n">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY11" t="n">
         <v>34</v>
       </c>
-      <c r="AY11" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ11" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA11" t="n">
         <v>126</v>
       </c>
-      <c r="BA11" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB11" t="inlineStr"/>
+      <c r="BB11" t="n">
+        <v>351</v>
+      </c>
       <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EZYulMqf</t>
+          <t>KK9PNiw3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2535,170 +2539,174 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Raja Casablanca</t>
+          <t>Zaglebie</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Wydad</t>
+          <t>Motor Lublin</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
+        <v>13</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T12" t="n">
         <v>3</v>
       </c>
-      <c r="I12" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.2</v>
-      </c>
       <c r="U12" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="V12" t="n">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="W12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB12" t="n">
         <v>23</v>
       </c>
-      <c r="AA12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
       <c r="AC12" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
         <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AH12" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AJ12" t="n">
         <v>12</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM12" t="n">
         <v>29</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
       </c>
       <c r="AN12" t="n">
         <v>4.33</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR12" t="n">
         <v>51</v>
       </c>
-      <c r="AR12" t="n">
-        <v>101</v>
-      </c>
       <c r="AS12" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX12" t="n">
         <v>19</v>
       </c>
       <c r="AY12" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA12" t="n">
         <v>67</v>
       </c>
-      <c r="BA12" t="n">
-        <v>126</v>
-      </c>
       <c r="BB12" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC12" t="inlineStr"/>
-      <c r="BD12" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>KK9PNiw3</t>
+          <t>xz9LzwPE</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2713,36 +2721,36 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Zaglebie</t>
+          <t>Kotwica Kolobrzeg</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Motor Lublin</t>
+          <t>Termalica B-B.</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>3.4</v>
+        <v>1.42</v>
       </c>
       <c r="J13" t="n">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="K13" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L13" t="n">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2751,16 +2759,16 @@
         <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -2769,109 +2777,109 @@
         <v>3</v>
       </c>
       <c r="U13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.67</v>
       </c>
-      <c r="V13" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W13" t="n">
+        <v>15</v>
+      </c>
+      <c r="X13" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>9</v>
       </c>
-      <c r="X13" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>12</v>
-      </c>
       <c r="AK13" t="n">
-        <v>41</v>
+        <v>9.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AM13" t="n">
         <v>29</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.33</v>
+        <v>8.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AP13" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AQ13" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="AR13" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AS13" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AT13" t="n">
         <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW13" t="n">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="AX13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY13" t="n">
         <v>19</v>
       </c>
-      <c r="AY13" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ13" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="BA13" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BB13" t="n">
         <v>151</v>
       </c>
       <c r="BC13" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -2880,7 +2888,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>xz9LzwPE</t>
+          <t>nkhrOTUG</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2890,65 +2898,65 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Sepsi Sf. Gheorghe</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Termalica B-B.</t>
+          <t>Gloria Buzau</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L14" t="n">
         <v>6</v>
       </c>
-      <c r="H14" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="J14" t="n">
-        <v>7</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.95</v>
-      </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="R14" t="n">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="S14" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T14" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U14" t="n">
         <v>2.1</v>
@@ -2957,112 +2965,112 @@
         <v>1.67</v>
       </c>
       <c r="W14" t="n">
+        <v>6</v>
+      </c>
+      <c r="X14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA14" t="n">
         <v>15</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AB14" t="n">
         <v>34</v>
       </c>
-      <c r="Y14" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>51</v>
-      </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="n">
         <v>67</v>
       </c>
       <c r="AG14" t="n">
-        <v>351</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="AI14" t="n">
-        <v>6.5</v>
+        <v>26</v>
       </c>
       <c r="AJ14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU14" t="n">
         <v>9</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>9.5</v>
       </c>
       <c r="AV14" t="n">
         <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="AX14" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="AY14" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AZ14" t="n">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="BA14" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BB14" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>nkhrOTUG</t>
+          <t>xYNxflsK</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3072,179 +3080,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sepsi Sf. Gheorghe</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>Al Qadisiya</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>5.25</v>
+        <v>4.1</v>
       </c>
       <c r="J15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K15" t="n">
         <v>2.3</v>
       </c>
-      <c r="K15" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
         <v>10</v>
       </c>
       <c r="O15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S15" t="n">
         <v>1.33</v>
       </c>
-      <c r="P15" t="n">
+      <c r="T15" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q15" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R15" t="n">
+      <c r="U15" t="n">
         <v>1.73</v>
       </c>
-      <c r="S15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V15" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="X15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y15" t="n">
         <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE15" t="n">
         <v>15</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AF15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL15" t="n">
         <v>34</v>
       </c>
-      <c r="AC15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>41</v>
-      </c>
       <c r="AM15" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AO15" t="n">
         <v>8.5</v>
       </c>
       <c r="AP15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX15" t="n">
         <v>23</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AY15" t="n">
         <v>29</v>
       </c>
-      <c r="AR15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV15" t="n">
+      <c r="AZ15" t="n">
         <v>67</v>
       </c>
-      <c r="AW15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>126</v>
-      </c>
       <c r="BA15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB15" t="n">
         <v>151</v>
       </c>
-      <c r="BB15" t="n">
-        <v>351</v>
-      </c>
       <c r="BC15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aa1J6RQP</t>
+          <t>dYbmKML6</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3254,179 +3262,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>3.85</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="R16" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="S16" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="T16" t="n">
-        <v>2.63</v>
+        <v>3.05</v>
       </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="V16" t="n">
-        <v>1.83</v>
+        <v>2.15</v>
       </c>
       <c r="W16" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="X16" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA16" t="n">
         <v>29</v>
       </c>
-      <c r="AA16" t="n">
-        <v>26</v>
-      </c>
       <c r="AB16" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AC16" t="n">
         <v>8.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AF16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>30</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC16" t="n">
         <v>51</v>
       </c>
-      <c r="AG16" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ16" t="n">
+      <c r="BD16" t="n">
         <v>51</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>xYNxflsK</t>
+          <t>QDELJxlI</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3441,174 +3449,174 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SLOVAKIA - NIKE LIGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Kosice</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.7</v>
+        <v>4.25</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>4.1</v>
+        <v>1.78</v>
       </c>
       <c r="J17" t="n">
-        <v>2.25</v>
+        <v>4.55</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="L17" t="n">
-        <v>4.5</v>
+        <v>2.32</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="P17" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="R17" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="S17" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T17" t="n">
-        <v>3.25</v>
+        <v>2.87</v>
       </c>
       <c r="U17" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W17" t="n">
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="X17" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Z17" t="n">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="AB17" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="AC17" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AG17" t="n">
-        <v>151</v>
+        <v>600</v>
       </c>
       <c r="AH17" t="n">
-        <v>15</v>
+        <v>7.2</v>
       </c>
       <c r="AI17" t="n">
-        <v>23</v>
+        <v>9.25</v>
       </c>
       <c r="AJ17" t="n">
-        <v>15</v>
+        <v>8.75</v>
       </c>
       <c r="AK17" t="n">
-        <v>41</v>
+        <v>15.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>14.5</v>
       </c>
       <c r="AM17" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AN17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO17" t="n">
-        <v>8.5</v>
+        <v>24</v>
       </c>
       <c r="AP17" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AQ17" t="n">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="AR17" t="n">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AS17" t="n">
-        <v>101</v>
+        <v>400</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AV17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>30</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC17" t="n">
         <v>51</v>
       </c>
-      <c r="AW17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>81</v>
-      </c>
       <c r="BD17" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dYbmKML6</t>
+          <t>j1izldfS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3618,167 +3626,167 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Radomlje</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.05</v>
+        <v>1.9</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K18" t="n">
         <v>2.07</v>
       </c>
-      <c r="J18" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.22</v>
-      </c>
       <c r="L18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T18" t="n">
         <v>2.62</v>
       </c>
-      <c r="M18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N18" t="n">
+      <c r="U18" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W18" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X18" t="n">
         <v>8.25</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="W18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="X18" t="n">
-        <v>17.5</v>
-      </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="AA18" t="n">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.25</v>
+        <v>6.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="AE18" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL18" t="n">
         <v>45</v>
       </c>
-      <c r="AG18" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>15</v>
-      </c>
       <c r="AM18" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
       <c r="AO18" t="n">
-        <v>16.5</v>
+        <v>9.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AR18" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AS18" t="n">
         <v>250</v>
       </c>
       <c r="AT18" t="n">
-        <v>3</v>
+        <v>2.62</v>
       </c>
       <c r="AU18" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="AV18" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AW18" t="n">
-        <v>4.15</v>
+        <v>5.8</v>
       </c>
       <c r="AX18" t="n">
-        <v>10.5</v>
+        <v>24</v>
       </c>
       <c r="AY18" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AZ18" t="n">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="BA18" t="n">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="BB18" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="BC18" t="n">
         <v>51</v>
@@ -3790,7 +3798,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>QDELJxlI</t>
+          <t>jPRoB7i2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3805,174 +3813,174 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Kosice</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.25</v>
+        <v>1.85</v>
       </c>
       <c r="H19" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>1.78</v>
+        <v>3.9</v>
       </c>
       <c r="J19" t="n">
-        <v>4.55</v>
+        <v>2.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>2.32</v>
+        <v>4.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U19" t="n">
         <v>1.83</v>
       </c>
-      <c r="R19" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.75</v>
-      </c>
       <c r="V19" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="W19" t="n">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
-        <v>26</v>
+        <v>8.5</v>
       </c>
       <c r="Y19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z19" t="n">
         <v>15</v>
       </c>
-      <c r="Z19" t="n">
-        <v>75</v>
-      </c>
       <c r="AA19" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AB19" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>600</v>
+        <v>301</v>
       </c>
       <c r="AH19" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>9.25</v>
+        <v>21</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8.75</v>
+        <v>13</v>
       </c>
       <c r="AK19" t="n">
-        <v>15.5</v>
+        <v>41</v>
       </c>
       <c r="AL19" t="n">
-        <v>14.5</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="AN19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
         <v>6</v>
       </c>
-      <c r="AO19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>3.65</v>
-      </c>
       <c r="AX19" t="n">
-        <v>8.75</v>
+        <v>23</v>
       </c>
       <c r="AY19" t="n">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="AZ19" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="BA19" t="n">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="BB19" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC19" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD19" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>j1izldfS</t>
+          <t>WEiW6Wxq</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3982,179 +3990,177 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Karpaty Lviv</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Radomlje</t>
+          <t>Kolos Kovalivka</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.9</v>
+        <v>2.42</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>2.57</v>
       </c>
       <c r="I20" t="n">
-        <v>4.05</v>
+        <v>3.45</v>
       </c>
       <c r="J20" t="n">
-        <v>2.47</v>
+        <v>3.15</v>
       </c>
       <c r="K20" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W20" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="X20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT20" t="n">
         <v>2.07</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="W20" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="X20" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>35</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.62</v>
       </c>
       <c r="AU20" t="n">
         <v>7.4</v>
       </c>
       <c r="AV20" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AW20" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="AX20" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AY20" t="n">
         <v>30</v>
       </c>
       <c r="AZ20" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BA20" t="n">
         <v>175</v>
       </c>
       <c r="BB20" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC20" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD20" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>jPRoB7i2</t>
+          <t>CzKe0my8</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4164,534 +4170,172 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Al Wahda</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Al Wasl</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.85</v>
+        <v>2.67</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I21" t="n">
-        <v>3.9</v>
+        <v>2.32</v>
       </c>
       <c r="J21" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="L21" t="n">
-        <v>4.75</v>
+        <v>2.82</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
+        <v>9</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y21" t="n">
         <v>10</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P21" t="n">
+      <c r="Z21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT21" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q21" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W21" t="n">
-        <v>7</v>
-      </c>
-      <c r="X21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.63</v>
-      </c>
       <c r="AU21" t="n">
-        <v>8.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV21" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AW21" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="AX21" t="n">
-        <v>23</v>
+        <v>11.75</v>
       </c>
       <c r="AY21" t="n">
-        <v>34</v>
+        <v>16.5</v>
       </c>
       <c r="AZ21" t="n">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="BA21" t="n">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="BB21" t="n">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="BC21" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>WEiW6Wxq</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>22/11/2024</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Karpaty Lviv</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Kolos Kovalivka</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L22" t="n">
-        <v>4</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N22" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W22" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="X22" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>37</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>27</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS22" t="n">
         <v>500</v>
       </c>
-      <c r="AT22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>20</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>110</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>CzKe0my8</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>22/11/2024</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Al Wahda</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Al Wasl</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N23" t="n">
-        <v>9</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="W23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="X23" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>37</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>45</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>60</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>150</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD23" t="inlineStr"/>
+      <c r="BD21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD21"/>
+  <dimension ref="A1:BD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GnDS6jq2</t>
+          <t>xdpX3Q36</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AUSTRIA - 2. LIGA</t>
+          <t>FRANCE - LIGUE 1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Amstetten</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>First Vienna</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.27</v>
+        <v>1.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.55</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>2.82</v>
+        <v>6.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
+        <v>13</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y2" t="n">
         <v>8.5</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="W2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC2" t="n">
         <v>13</v>
       </c>
-      <c r="Y2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB2" t="n">
+      <c r="AD2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>21</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AR2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU2" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD2" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>35</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AV2" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD2" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>xYZuGfMF</t>
+          <t>GnDS6jq2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -920,157 +920,157 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Amstetten</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ASK Voitsberg</t>
+          <t>First Vienna</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.25</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.05</v>
-      </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>2.85</v>
+        <v>3.95</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.07</v>
+        <v>1.65</v>
       </c>
       <c r="R3" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="S3" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="T3" t="n">
-        <v>2.67</v>
+        <v>3.1</v>
       </c>
       <c r="U3" t="n">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="V3" t="n">
-        <v>1.9</v>
+        <v>2.32</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="X3" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AB3" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>5.9</v>
+        <v>7.1</v>
       </c>
       <c r="AE3" t="n">
-        <v>14</v>
+        <v>11.75</v>
       </c>
       <c r="AF3" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AG3" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.75</v>
+        <v>11.25</v>
       </c>
       <c r="AI3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AP3" t="n">
         <v>16.5</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AK3" t="n">
+      <c r="AQ3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV3" t="n">
         <v>45</v>
       </c>
-      <c r="AL3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AP3" t="n">
+      <c r="AW3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY3" t="n">
         <v>19.5</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AZ3" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA3" t="n">
         <v>80</v>
       </c>
-      <c r="AS3" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>90</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>120</v>
-      </c>
       <c r="BB3" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>48gNSX5L</t>
+          <t>xYZuGfMF</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1102,160 +1102,160 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lafnitz</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>ASK Voitsberg</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="H4" t="n">
-        <v>3.95</v>
+        <v>3.05</v>
       </c>
       <c r="I4" t="n">
-        <v>2.12</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="K4" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>6.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.12</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>5.4</v>
+        <v>2.85</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.37</v>
+        <v>2.07</v>
       </c>
       <c r="R4" t="n">
-        <v>2.85</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="T4" t="n">
-        <v>3.8</v>
+        <v>2.67</v>
       </c>
       <c r="U4" t="n">
-        <v>1.36</v>
+        <v>1.82</v>
       </c>
       <c r="V4" t="n">
-        <v>2.87</v>
+        <v>1.9</v>
       </c>
       <c r="W4" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AP4" t="n">
         <v>19.5</v>
       </c>
-      <c r="AB4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG4" t="n">
+      <c r="AQ4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>90</v>
+      </c>
+      <c r="BA4" t="n">
         <v>120</v>
       </c>
-      <c r="AH4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>32</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>40</v>
-      </c>
       <c r="BB4" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="BC4" t="n">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="BD4" t="n">
         <v>81</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OhzfNBTr</t>
+          <t>48gNSX5L</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1284,160 +1284,160 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SK Rapid</t>
+          <t>Lafnitz</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>St. Polten</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H5" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="I5" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>2.27</v>
+        <v>2.5</v>
       </c>
       <c r="L5" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.22</v>
       </c>
-      <c r="P5" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.33</v>
-      </c>
       <c r="T5" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="U5" t="n">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="V5" t="n">
-        <v>2.22</v>
+        <v>2.87</v>
       </c>
       <c r="W5" t="n">
-        <v>11.25</v>
+        <v>17</v>
       </c>
       <c r="X5" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI5" t="n">
         <v>16</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AJ5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AX5" t="n">
         <v>10.25</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AY5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>32</v>
       </c>
-      <c r="AA5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AZ5" t="n">
+      <c r="BA5" t="n">
         <v>40</v>
       </c>
-      <c r="BA5" t="n">
-        <v>65</v>
-      </c>
       <c r="BB5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="BC5" t="n">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="BD5" t="n">
         <v>81</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>fw6RHKYO</t>
+          <t>OhzfNBTr</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1461,162 +1461,162 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CROATIA - HNL</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Istra 1961</t>
+          <t>SK Rapid</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Slaven Belupo</t>
+          <t>St. Polten</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>2.82</v>
       </c>
       <c r="H6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.3</v>
       </c>
-      <c r="I6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L6" t="n">
         <v>2.75</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.5</v>
-      </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>3.85</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>3.05</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="V6" t="n">
-        <v>1.73</v>
+        <v>2.22</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>11.25</v>
       </c>
       <c r="X6" t="n">
-        <v>8.5</v>
+        <v>16</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="Z6" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AA6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
         <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AG6" t="n">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="AH6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>9</v>
       </c>
-      <c r="AI6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>13</v>
-      </c>
       <c r="AK6" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>3.05</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="AX6" t="n">
-        <v>21</v>
+        <v>11.25</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="BC6" t="n">
         <v>81</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04Gll1uH</t>
+          <t>fw6RHKYO</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,170 +1638,170 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>CROATIA - HNL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Istra 1961</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Slaven Belupo</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K7" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
+        <v>9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6</v>
+      </c>
+      <c r="X7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
         <v>15</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y7" t="n">
+      <c r="AA7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>15</v>
-      </c>
       <c r="AD7" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
         <v>21</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK7" t="n">
         <v>41</v>
       </c>
       <c r="AL7" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO7" t="n">
         <v>10</v>
       </c>
       <c r="AP7" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
         <v>34</v>
       </c>
       <c r="AR7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
         <v>6</v>
       </c>
       <c r="AX7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BC7" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD7" t="n">
         <v>81</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>txiN20fA</t>
+          <t>67AJBzUa</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Preussen Munster</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Aarhus</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.33</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>1.73</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="R8" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="S8" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="W8" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
       </c>
       <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK8" t="n">
         <v>41</v>
       </c>
-      <c r="AG8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>15</v>
-      </c>
       <c r="AL8" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
         <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>O6ecm1eJ</t>
+          <t>QyiE2k1E</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,175 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>GREECE - SUPER LEAGUE</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>3.9</v>
+        <v>1.75</v>
       </c>
       <c r="J9" t="n">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="K9" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L9" t="n">
-        <v>4.33</v>
+        <v>2.3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.15</v>
+        <v>1.53</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>2.4</v>
       </c>
       <c r="S9" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="T9" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="W9" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AA9" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AB9" t="n">
         <v>29</v>
       </c>
       <c r="AC9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD9" t="n">
         <v>8</v>
       </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="AH9" t="n">
         <v>10</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AJ9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL9" t="n">
         <v>13</v>
       </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
       <c r="AM9" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AP9" t="n">
         <v>23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR9" t="n">
         <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AX9" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AY9" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AZ9" t="n">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="BA9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB9" t="n">
         <v>101</v>
       </c>
-      <c r="BB9" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr"/>
+      <c r="BC9" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Maxln0E6</t>
+          <t>lzdggoO0</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2180,173 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FAR Rabat</t>
+          <t>Hvidovre IF</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Union Touarga</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="J10" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.35</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>2.08</v>
       </c>
       <c r="S10" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="T10" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="U10" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="W10" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="X10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
         <v>7</v>
       </c>
-      <c r="Y10" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG10" t="n">
+      <c r="AX10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>101</v>
       </c>
-      <c r="AH10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ10" t="n">
+      <c r="BA10" t="n">
         <v>126</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BB10" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD10" t="n">
         <v>151</v>
       </c>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
-      <c r="BD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EZYulMqf</t>
+          <t>hnwjHv9a</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2356,175 +2366,173 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Raja Casablanca</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Wydad</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.35</v>
+        <v>1.42</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>2.8</v>
+        <v>8.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="K11" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>7.9</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="P11" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2.25</v>
       </c>
-      <c r="Q11" t="n">
-        <v>2.7</v>
-      </c>
       <c r="R11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S11" t="n">
         <v>1.44</v>
       </c>
-      <c r="S11" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T11" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="U11" t="n">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="V11" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="W11" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>5.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>9.25</v>
       </c>
       <c r="Z11" t="n">
-        <v>23</v>
+        <v>8.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>26</v>
+        <v>14.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE11" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AF11" t="n">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="AG11" t="n">
         <v>101</v>
       </c>
       <c r="AH11" t="n">
-        <v>6.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="AL11" t="n">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="n">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="AO11" t="n">
-        <v>15</v>
+        <v>6.3</v>
       </c>
       <c r="AP11" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AR11" t="n">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="AS11" t="n">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AU11" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AV11" t="n">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.75</v>
+        <v>9.25</v>
       </c>
       <c r="AX11" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="AY11" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AZ11" t="n">
-        <v>67</v>
+        <v>500</v>
       </c>
       <c r="BA11" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>351</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="BB11" t="inlineStr"/>
       <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KK9PNiw3</t>
+          <t>04Gll1uH</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2534,113 +2542,113 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Zaglebie</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Motor Lublin</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="H12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N12" t="n">
+        <v>15</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T12" t="n">
         <v>3.4</v>
       </c>
-      <c r="I12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="U12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V12" t="n">
         <v>2.25</v>
       </c>
-      <c r="L12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>13</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X12" t="n">
         <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
         <v>15</v>
       </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
         <v>41</v>
@@ -2655,31 +2663,31 @@
         <v>4.33</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR12" t="n">
         <v>41</v>
       </c>
-      <c r="AR12" t="n">
-        <v>51</v>
-      </c>
       <c r="AS12" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AU12" t="n">
         <v>7.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX12" t="n">
         <v>19</v>
@@ -2694,10 +2702,10 @@
         <v>67</v>
       </c>
       <c r="BB12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC12" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2706,7 +2714,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>xz9LzwPE</t>
+          <t>txiN20fA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2716,170 +2724,170 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Preussen Munster</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Termalica B-B.</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L13" t="n">
         <v>2.3</v>
       </c>
-      <c r="L13" t="n">
-        <v>1.95</v>
-      </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="R13" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="S13" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="W13" t="n">
         <v>15</v>
       </c>
       <c r="X13" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB13" t="n">
         <v>34</v>
       </c>
-      <c r="Y13" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>51</v>
-      </c>
       <c r="AC13" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>8.5</v>
       </c>
-      <c r="AE13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>9</v>
-      </c>
       <c r="AK13" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AL13" t="n">
         <v>13</v>
       </c>
       <c r="AM13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>29</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>21</v>
       </c>
       <c r="BA13" t="n">
         <v>41</v>
       </c>
       <c r="BB13" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BC13" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -2888,7 +2896,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>nkhrOTUG</t>
+          <t>zeQ8r4fo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2898,179 +2906,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sepsi Sf. Gheorghe</t>
+          <t>Viktoria Koln</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>Cottbus</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.62</v>
+        <v>2.45</v>
       </c>
       <c r="H14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>17</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T14" t="n">
         <v>3.5</v>
       </c>
-      <c r="I14" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>6</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="U14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W14" t="n">
+        <v>13</v>
+      </c>
+      <c r="X14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y14" t="n">
         <v>10</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W14" t="n">
-        <v>6</v>
-      </c>
-      <c r="X14" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z14" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AA14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF14" t="n">
         <v>34</v>
       </c>
-      <c r="AC14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE14" t="n">
+      <c r="AG14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL14" t="n">
         <v>19</v>
       </c>
-      <c r="AF14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL14" t="n">
+      <c r="AM14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>41</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>29</v>
       </c>
       <c r="AR14" t="n">
         <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="AU14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV14" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AY14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>41</v>
       </c>
-      <c r="AZ14" t="n">
-        <v>126</v>
-      </c>
       <c r="BA14" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BB14" t="n">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="BC14" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="BD14" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>xYNxflsK</t>
+          <t>O6ecm1eJ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3080,113 +3088,113 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>GREECE - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J15" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R15" t="n">
         <v>1.67</v>
       </c>
-      <c r="R15" t="n">
-        <v>2.15</v>
-      </c>
       <c r="S15" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T15" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U15" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W15" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="X15" t="n">
         <v>9</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z15" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA15" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK15" t="n">
         <v>41</v>
@@ -3195,64 +3203,60 @@
         <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN15" t="n">
         <v>4</v>
       </c>
       <c r="AO15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU15" t="n">
         <v>8.5</v>
       </c>
-      <c r="AP15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8</v>
-      </c>
       <c r="AV15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW15" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ15" t="n">
         <v>67</v>
       </c>
       <c r="BA15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>81</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dYbmKML6</t>
+          <t>Maxln0E6</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3262,179 +3266,173 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>FAR Rabat</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Union Touarga</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.55</v>
+        <v>1.67</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>1.83</v>
+        <v>4.75</v>
       </c>
       <c r="J16" t="n">
-        <v>3.95</v>
+        <v>2.4</v>
       </c>
       <c r="K16" t="n">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="P16" t="n">
-        <v>3.85</v>
+        <v>2.63</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.65</v>
+        <v>2.35</v>
       </c>
       <c r="R16" t="n">
-        <v>2.15</v>
+        <v>1.57</v>
       </c>
       <c r="S16" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="T16" t="n">
-        <v>3.05</v>
+        <v>2.38</v>
       </c>
       <c r="U16" t="n">
-        <v>1.62</v>
+        <v>2.25</v>
       </c>
       <c r="V16" t="n">
-        <v>2.15</v>
+        <v>1.57</v>
       </c>
       <c r="W16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z16" t="n">
         <v>13</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AA16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE16" t="n">
         <v>21</v>
       </c>
-      <c r="Y16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AF16" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="AG16" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="AH16" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
-        <v>9.75</v>
+        <v>23</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8.25</v>
+        <v>17</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="AL16" t="n">
-        <v>13.5</v>
+        <v>51</v>
       </c>
       <c r="AM16" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="AP16" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ16" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="AR16" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AS16" t="n">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.05</v>
+        <v>2.38</v>
       </c>
       <c r="AU16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV16" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="AW16" t="n">
-        <v>3.9</v>
+        <v>6.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="AY16" t="n">
-        <v>16.5</v>
+        <v>41</v>
       </c>
       <c r="AZ16" t="n">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="BA16" t="n">
-        <v>55</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>51</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="BB16" t="inlineStr"/>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>QDELJxlI</t>
+          <t>EZYulMqf</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3449,174 +3447,170 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Kosice</t>
+          <t>Raja Casablanca</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Wydad</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.25</v>
+        <v>2.35</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>1.78</v>
+        <v>2.8</v>
       </c>
       <c r="J17" t="n">
-        <v>4.55</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
-        <v>2.18</v>
+        <v>1.83</v>
       </c>
       <c r="L17" t="n">
-        <v>2.32</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="P17" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.83</v>
+        <v>2.7</v>
       </c>
       <c r="R17" t="n">
-        <v>1.95</v>
+        <v>1.44</v>
       </c>
       <c r="S17" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="T17" t="n">
-        <v>2.87</v>
+        <v>2.2</v>
       </c>
       <c r="U17" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="V17" t="n">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="W17" t="n">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="X17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA17" t="n">
         <v>26</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO17" t="n">
         <v>15</v>
       </c>
-      <c r="Z17" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>45</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>24</v>
-      </c>
       <c r="AP17" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AQ17" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AR17" t="n">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="AS17" t="n">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.82</v>
+        <v>2.2</v>
       </c>
       <c r="AU17" t="n">
-        <v>7.4</v>
+        <v>9.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="AW17" t="n">
-        <v>3.65</v>
+        <v>4.75</v>
       </c>
       <c r="AX17" t="n">
-        <v>8.75</v>
+        <v>19</v>
       </c>
       <c r="AY17" t="n">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="AZ17" t="n">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="BA17" t="n">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="BB17" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>51</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>j1izldfS</t>
+          <t>KK9PNiw3</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3626,179 +3620,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Zaglebie</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Radomlje</t>
+          <t>Motor Lublin</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="H18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I18" t="n">
         <v>3.25</v>
       </c>
-      <c r="I18" t="n">
-        <v>4.05</v>
-      </c>
       <c r="J18" t="n">
-        <v>2.47</v>
+        <v>2.75</v>
       </c>
       <c r="K18" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="L18" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>6.4</v>
+        <v>12</v>
       </c>
       <c r="O18" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>2.82</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="R18" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T18" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.93</v>
+        <v>1.62</v>
       </c>
       <c r="V18" t="n">
-        <v>1.78</v>
+        <v>2.2</v>
       </c>
       <c r="W18" t="n">
-        <v>6.2</v>
+        <v>9</v>
       </c>
       <c r="X18" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AB18" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AC18" t="n">
-        <v>6.4</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AF18" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AG18" t="n">
-        <v>800</v>
+        <v>151</v>
       </c>
       <c r="AH18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP18" t="n">
         <v>21</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ18" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AR18" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AS18" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AY18" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AZ18" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="BA18" t="n">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="BB18" t="n">
-        <v>450</v>
+        <v>151</v>
       </c>
       <c r="BC18" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>jPRoB7i2</t>
+          <t>xz9LzwPE</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3813,174 +3807,174 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Kotwica Kolobrzeg</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Termalica B-B.</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.85</v>
+        <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
-        <v>3.9</v>
+        <v>1.42</v>
       </c>
       <c r="J19" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="K19" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O19" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W19" t="n">
+        <v>15</v>
+      </c>
+      <c r="X19" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW19" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W19" t="n">
+      <c r="AX19" t="n">
         <v>7</v>
       </c>
-      <c r="X19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI19" t="n">
+      <c r="AY19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>21</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK19" t="n">
+      <c r="BA19" t="n">
         <v>41</v>
       </c>
-      <c r="AL19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS19" t="n">
+      <c r="BB19" t="n">
         <v>151</v>
       </c>
-      <c r="AT19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ19" t="n">
+      <c r="BC19" t="n">
         <v>81</v>
       </c>
-      <c r="BA19" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>126</v>
-      </c>
       <c r="BD19" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>WEiW6Wxq</t>
+          <t>xYNxflsK</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3990,165 +3984,167 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Karpaty Lviv</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Al Qadisiya</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.42</v>
+        <v>1.6</v>
       </c>
       <c r="H20" t="n">
-        <v>2.57</v>
+        <v>4.1</v>
       </c>
       <c r="I20" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.15</v>
+        <v>2.1</v>
       </c>
       <c r="K20" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="L20" t="n">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>4.35</v>
+        <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R20" t="n">
         <v>2.15</v>
       </c>
-      <c r="Q20" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.38</v>
-      </c>
       <c r="S20" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="T20" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="U20" t="n">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="V20" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>5.7</v>
+        <v>8.5</v>
       </c>
       <c r="X20" t="n">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AA20" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="AB20" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="AC20" t="n">
-        <v>4.6</v>
+        <v>15</v>
       </c>
       <c r="AD20" t="n">
-        <v>5.3</v>
+        <v>8.5</v>
       </c>
       <c r="AE20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP20" t="n">
         <v>17</v>
       </c>
-      <c r="AF20" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ20" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AR20" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AS20" t="n">
-        <v>450</v>
+        <v>101</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.07</v>
+        <v>3.25</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AV20" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ20" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="BA20" t="n">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="BB20" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="BC20" t="n">
         <v>81</v>
@@ -4160,7 +4156,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CzKe0my8</t>
+          <t>dYbmKML6</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4170,172 +4166,1082 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Al Wahda</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Al Wasl</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.67</v>
+        <v>3.3</v>
       </c>
       <c r="H21" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I21" t="n">
-        <v>2.32</v>
+        <v>1.95</v>
       </c>
       <c r="J21" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="K21" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="L21" t="n">
-        <v>2.82</v>
+        <v>2.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="R21" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="S21" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="T21" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U21" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="V21" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="W21" t="n">
+        <v>12</v>
+      </c>
+      <c r="X21" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE21" t="n">
         <v>12.5</v>
       </c>
-      <c r="X21" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AF21" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AG21" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AH21" t="n">
-        <v>11.25</v>
+        <v>9.25</v>
       </c>
       <c r="AI21" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL21" t="n">
         <v>14</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>16.5</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="AP21" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ21" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV21" t="n">
         <v>50</v>
       </c>
-      <c r="AR21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>40</v>
-      </c>
       <c r="AW21" t="n">
-        <v>4.6</v>
+        <v>4.05</v>
       </c>
       <c r="AX21" t="n">
-        <v>11.75</v>
+        <v>9.75</v>
       </c>
       <c r="AY21" t="n">
         <v>16.5</v>
       </c>
       <c r="AZ21" t="n">
+        <v>35</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>175</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>zJAvMrif</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Radnicki Nis</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Cukaricki</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W22" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>QDELJxlI</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SLOVAKIA - NIKE LIGA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Kosice</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N23" t="n">
+        <v>8</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA23" t="n">
         <v>45</v>
       </c>
-      <c r="BA21" t="n">
+      <c r="AB23" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>30</v>
+      </c>
+      <c r="BA23" t="n">
         <v>60</v>
       </c>
-      <c r="BB21" t="n">
+      <c r="BB23" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>j1izldfS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SLOVENIA - PRVA LIGA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Bravo</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Radomlje</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W24" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X24" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ24" t="n">
         <v>150</v>
       </c>
-      <c r="BC21" t="n">
+      <c r="BA24" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>jPRoB7i2</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Umraniyespor</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N25" t="n">
+        <v>10</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W25" t="n">
+        <v>7</v>
+      </c>
+      <c r="X25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>WEiW6Wxq</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Karpaty Lviv</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Kolos Kovalivka</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W26" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="X26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB26" t="n">
         <v>500</v>
       </c>
-      <c r="BD21" t="inlineStr"/>
+      <c r="BC26" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K7" t="n">
         <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1726,7 +1726,7 @@
         <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>19</v>
@@ -1747,7 +1747,7 @@
         <v>15</v>
       </c>
       <c r="AK7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL7" t="n">
         <v>41</v>
@@ -1786,13 +1786,13 @@
         <v>6</v>
       </c>
       <c r="AX7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY7" t="n">
         <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA7" t="n">
         <v>126</v>
@@ -2388,31 +2388,31 @@
         <v>1.42</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I11" t="n">
         <v>8.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="K11" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L11" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M11" t="n">
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="O11" t="n">
         <v>1.42</v>
       </c>
       <c r="P11" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="Q11" t="n">
         <v>2.25</v>
@@ -2427,16 +2427,16 @@
         <v>2.6</v>
       </c>
       <c r="U11" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="V11" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W11" t="n">
         <v>4.7</v>
       </c>
       <c r="X11" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y11" t="n">
         <v>9.25</v>
@@ -2448,16 +2448,16 @@
         <v>14.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF11" t="n">
         <v>200</v>
@@ -2466,7 +2466,7 @@
         <v>101</v>
       </c>
       <c r="AH11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>55</v>
@@ -2487,19 +2487,19 @@
         <v>3</v>
       </c>
       <c r="AO11" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AR11" t="n">
         <v>65</v>
       </c>
       <c r="AS11" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT11" t="n">
         <v>2.6</v>
@@ -2511,10 +2511,10 @@
         <v>120</v>
       </c>
       <c r="AW11" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AX11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AY11" t="n">
         <v>60</v>
@@ -2743,13 +2743,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H13" t="n">
         <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J13" t="n">
         <v>4.5</v>
@@ -2773,22 +2773,22 @@
         <v>4.33</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.67</v>
       </c>
-      <c r="R13" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W13" t="n">
         <v>15</v>
@@ -2803,7 +2803,7 @@
         <v>41</v>
       </c>
       <c r="AA13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB13" t="n">
         <v>34</v>
@@ -2815,7 +2815,7 @@
         <v>7.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
         <v>41</v>
@@ -2824,10 +2824,10 @@
         <v>151</v>
       </c>
       <c r="AH13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI13" t="n">
         <v>9</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>9.5</v>
       </c>
       <c r="AJ13" t="n">
         <v>8.5</v>
@@ -2842,10 +2842,10 @@
         <v>21</v>
       </c>
       <c r="AN13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP13" t="n">
         <v>26</v>
@@ -2860,13 +2860,13 @@
         <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU13" t="n">
         <v>7.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW13" t="n">
         <v>4</v>
@@ -2878,7 +2878,7 @@
         <v>17</v>
       </c>
       <c r="AZ13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA13" t="n">
         <v>41</v>
@@ -3285,28 +3285,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K16" t="n">
         <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.44</v>
@@ -3327,10 +3327,10 @@
         <v>2.38</v>
       </c>
       <c r="U16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W16" t="n">
         <v>5.5</v>
@@ -3351,7 +3351,7 @@
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD16" t="n">
         <v>7</v>
@@ -3378,7 +3378,7 @@
         <v>51</v>
       </c>
       <c r="AL16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM16" t="n">
         <v>51</v>
@@ -3405,7 +3405,7 @@
         <v>2.38</v>
       </c>
       <c r="AU16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV16" t="n">
         <v>81</v>
@@ -3414,7 +3414,7 @@
         <v>6.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY16" t="n">
         <v>41</v>
@@ -3639,28 +3639,28 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K18" t="n">
         <v>2.25</v>
       </c>
       <c r="L18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
         <v>1.22</v>
@@ -3669,10 +3669,10 @@
         <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S18" t="n">
         <v>1.36</v>
@@ -3687,10 +3687,10 @@
         <v>2.2</v>
       </c>
       <c r="W18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
         <v>9</v>
@@ -3726,7 +3726,7 @@
         <v>17</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK18" t="n">
         <v>34</v>
@@ -3765,7 +3765,7 @@
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX18" t="n">
         <v>17</v>
@@ -4003,22 +4003,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H20" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K20" t="n">
         <v>2.3</v>
       </c>
       <c r="L20" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -4054,13 +4054,13 @@
         <v>8.5</v>
       </c>
       <c r="X20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y20" t="n">
         <v>8.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA20" t="n">
         <v>13</v>
@@ -4072,7 +4072,7 @@
         <v>15</v>
       </c>
       <c r="AD20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         <v>15</v>
       </c>
       <c r="AI20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ20" t="n">
         <v>15</v>
@@ -4105,7 +4105,7 @@
         <v>3.75</v>
       </c>
       <c r="AO20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP20" t="n">
         <v>17</v>
@@ -4141,7 +4141,7 @@
         <v>81</v>
       </c>
       <c r="BA20" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB20" t="n">
         <v>151</v>
@@ -4549,16 +4549,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="H23" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="J23" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="K23" t="n">
         <v>2.18</v>
@@ -4576,13 +4576,13 @@
         <v>1.28</v>
       </c>
       <c r="P23" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R23" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S23" t="n">
         <v>1.4</v>
@@ -4591,22 +4591,22 @@
         <v>2.87</v>
       </c>
       <c r="U23" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V23" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W23" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="X23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y23" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="n">
         <v>45</v>
@@ -4618,37 +4618,37 @@
         <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG23" t="n">
         <v>600</v>
       </c>
       <c r="AH23" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AJ23" t="n">
         <v>8.75</v>
       </c>
       <c r="AK23" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL23" t="n">
         <v>14.5</v>
       </c>
       <c r="AM23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN23" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AO23" t="n">
         <v>24</v>
@@ -4666,25 +4666,25 @@
         <v>400</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="AU23" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AV23" t="n">
         <v>70</v>
       </c>
       <c r="AW23" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AX23" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AZ23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA23" t="n">
         <v>60</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD26"/>
+  <dimension ref="A1:BD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,10 +750,10 @@
         <v>1.5</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J2" t="n">
         <v>2.05</v>
@@ -768,7 +768,7 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
         <v>1.22</v>
@@ -789,10 +789,10 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W2" t="n">
         <v>7.5</v>
@@ -813,7 +813,7 @@
         <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
         <v>8</v>
@@ -882,7 +882,7 @@
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
         <v>126</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.27</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L3" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -953,52 +953,52 @@
         <v>8.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="T3" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="U3" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="V3" t="n">
         <v>2.32</v>
       </c>
       <c r="W3" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC3" t="n">
         <v>8.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AE3" t="n">
         <v>11.75</v>
@@ -1013,40 +1013,40 @@
         <v>11.25</v>
       </c>
       <c r="AI3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AK3" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AL3" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AM3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS3" t="n">
         <v>175</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU3" t="n">
         <v>6.5</v>
@@ -1055,22 +1055,22 @@
         <v>45</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AZ3" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="BA3" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB3" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="H4" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="J4" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.37</v>
@@ -1150,109 +1150,109 @@
         <v>1.42</v>
       </c>
       <c r="T4" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="U4" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="V4" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="X4" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB4" t="n">
         <v>30</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG4" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AK4" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM4" t="n">
         <v>40</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
         <v>45</v>
       </c>
       <c r="AR4" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS4" t="n">
         <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AV4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AX4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BA4" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB4" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="H5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="L5" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1323,10 +1323,10 @@
         <v>5.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R5" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="S5" t="n">
         <v>1.22</v>
@@ -1335,40 +1335,40 @@
         <v>3.8</v>
       </c>
       <c r="U5" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="V5" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="W5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Z5" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AA5" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AB5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
         <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AF5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
         <v>120</v>
@@ -1380,31 +1380,31 @@
         <v>16</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AM5" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS5" t="n">
         <v>120</v>
@@ -1413,28 +1413,28 @@
         <v>3.8</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AV5" t="n">
         <v>32</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="AX5" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AY5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AZ5" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BA5" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BB5" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BC5" t="n">
         <v>350</v>
@@ -1475,40 +1475,40 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="H6" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J6" t="n">
         <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="L6" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O6" t="n">
         <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R6" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>
@@ -1517,37 +1517,37 @@
         <v>3.05</v>
       </c>
       <c r="U6" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V6" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="W6" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="X6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
         <v>10.25</v>
       </c>
       <c r="Z6" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AE6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>45</v>
@@ -1556,7 +1556,7 @@
         <v>300</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AI6" t="n">
         <v>12</v>
@@ -1565,22 +1565,22 @@
         <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AM6" t="n">
         <v>23</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ6" t="n">
         <v>60</v>
@@ -1589,31 +1589,31 @@
         <v>80</v>
       </c>
       <c r="AS6" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT6" t="n">
         <v>3.05</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AV6" t="n">
         <v>50</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="AX6" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AY6" t="n">
         <v>17.5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BA6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BB6" t="n">
         <v>200</v>
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
@@ -1860,7 +1860,7 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.3</v>
@@ -1896,7 +1896,7 @@
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="n">
         <v>17</v>
@@ -1911,7 +1911,7 @@
         <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
@@ -1926,7 +1926,7 @@
         <v>17</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
         <v>41</v>
@@ -2203,19 +2203,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H10" t="n">
         <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="n">
         <v>2.1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L10" t="n">
         <v>5.5</v>
@@ -2233,10 +2233,10 @@
         <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R10" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
         <v>1.33</v>
@@ -2260,10 +2260,10 @@
         <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB10" t="n">
         <v>23</v>
@@ -2275,25 +2275,25 @@
         <v>7.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
         <v>29</v>
       </c>
       <c r="AJ10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL10" t="n">
         <v>41</v>
@@ -2305,7 +2305,7 @@
         <v>3.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP10" t="n">
         <v>19</v>
@@ -2561,13 +2561,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
         <v>3.75</v>
       </c>
       <c r="I12" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J12" t="n">
         <v>2.5</v>
@@ -2579,10 +2579,10 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
@@ -2591,10 +2591,10 @@
         <v>4.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S12" t="n">
         <v>1.3</v>
@@ -2612,7 +2612,7 @@
         <v>9.5</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
@@ -2621,7 +2621,7 @@
         <v>17</v>
       </c>
       <c r="AA12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
         <v>21</v>
@@ -2654,13 +2654,13 @@
         <v>41</v>
       </c>
       <c r="AL12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM12" t="n">
         <v>29</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO12" t="n">
         <v>10</v>
@@ -2669,7 +2669,7 @@
         <v>17</v>
       </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR12" t="n">
         <v>41</v>
@@ -2702,7 +2702,7 @@
         <v>67</v>
       </c>
       <c r="BB12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC12" t="n">
         <v>351</v>
@@ -2773,10 +2773,10 @@
         <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R13" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S13" t="n">
         <v>1.33</v>
@@ -3285,22 +3285,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J16" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
@@ -3321,10 +3321,10 @@
         <v>1.57</v>
       </c>
       <c r="S16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T16" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U16" t="n">
         <v>2.2</v>
@@ -3348,7 +3348,7 @@
         <v>17</v>
       </c>
       <c r="AB16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC16" t="n">
         <v>7.5</v>
@@ -3402,7 +3402,7 @@
         <v>251</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU16" t="n">
         <v>9.5</v>
@@ -3461,34 +3461,34 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
         <v>1.83</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P17" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q17" t="n">
         <v>2.7</v>
@@ -3509,19 +3509,19 @@
         <v>1.57</v>
       </c>
       <c r="W17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y17" t="n">
         <v>10</v>
       </c>
-      <c r="Y17" t="n">
-        <v>11</v>
-      </c>
       <c r="Z17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA17" t="n">
         <v>23</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>26</v>
       </c>
       <c r="AB17" t="n">
         <v>41</v>
@@ -3542,40 +3542,40 @@
         <v>101</v>
       </c>
       <c r="AH17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>12</v>
       </c>
       <c r="AK17" t="n">
         <v>34</v>
       </c>
       <c r="AL17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO17" t="n">
         <v>15</v>
       </c>
       <c r="AP17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ17" t="n">
         <v>51</v>
       </c>
       <c r="AR17" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS17" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT17" t="n">
         <v>2.2</v>
@@ -3587,16 +3587,16 @@
         <v>81</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA17" t="n">
         <v>126</v>
@@ -3639,13 +3639,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J18" t="n">
         <v>2.88</v>
@@ -3654,7 +3654,7 @@
         <v>2.25</v>
       </c>
       <c r="L18" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
@@ -3726,7 +3726,7 @@
         <v>17</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK18" t="n">
         <v>34</v>
@@ -3974,7 +3974,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>xYNxflsK</t>
+          <t>fyqcIbbe</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3984,179 +3984,179 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Otelul</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.65</v>
+        <v>2.35</v>
       </c>
       <c r="H20" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L20" t="n">
         <v>4</v>
       </c>
-      <c r="I20" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4.5</v>
-      </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
+        <v>7</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X20" t="n">
         <v>10</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P20" t="n">
+      <c r="Y20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="n">
         <v>4.33</v>
       </c>
-      <c r="Q20" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2</v>
-      </c>
-      <c r="W20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X20" t="n">
+      <c r="AO20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU20" t="n">
         <v>9</v>
       </c>
-      <c r="Y20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK20" t="n">
+      <c r="AV20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC20" t="n">
         <v>51</v>
       </c>
-      <c r="AL20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV20" t="n">
+      <c r="BD20" t="n">
         <v>51</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>dYbmKML6</t>
+          <t>xYNxflsK</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4166,173 +4166,173 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Al Qadisiya</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="H21" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="K21" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L21" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>3.85</v>
+        <v>4.33</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R21" t="n">
         <v>2.15</v>
       </c>
       <c r="S21" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T21" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U21" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="V21" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="W21" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="X21" t="n">
-        <v>19.5</v>
+        <v>9</v>
       </c>
       <c r="Y21" t="n">
-        <v>11.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="AA21" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="AB21" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AC21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO21" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD21" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>18</v>
-      </c>
       <c r="AP21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>23</v>
       </c>
-      <c r="AQ21" t="n">
-        <v>90</v>
-      </c>
       <c r="AR21" t="n">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="AS21" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AT21" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU21" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="AV21" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>4.05</v>
+        <v>6.5</v>
       </c>
       <c r="AX21" t="n">
-        <v>9.75</v>
+        <v>23</v>
       </c>
       <c r="AY21" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="AZ21" t="n">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="BA21" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="BB21" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="BC21" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD21" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
@@ -4549,22 +4549,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.4</v>
+        <v>4.15</v>
       </c>
       <c r="H23" t="n">
         <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="J23" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="K23" t="n">
         <v>2.18</v>
       </c>
       <c r="L23" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
@@ -4597,22 +4597,22 @@
         <v>1.93</v>
       </c>
       <c r="W23" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="X23" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y23" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AA23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB23" t="n">
         <v>45</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>50</v>
       </c>
       <c r="AC23" t="n">
         <v>8</v>
@@ -4630,34 +4630,34 @@
         <v>600</v>
       </c>
       <c r="AH23" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AI23" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AJ23" t="n">
         <v>8.75</v>
       </c>
       <c r="AK23" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AM23" t="n">
         <v>28</v>
       </c>
       <c r="AN23" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AO23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP23" t="n">
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AR23" t="n">
         <v>175</v>
@@ -4666,7 +4666,7 @@
         <v>400</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU23" t="n">
         <v>7.5</v>
@@ -4675,19 +4675,19 @@
         <v>70</v>
       </c>
       <c r="AW23" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AX23" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AY23" t="n">
         <v>18</v>
       </c>
       <c r="AZ23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA23" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB23" t="n">
         <v>250</v>
@@ -4884,7 +4884,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>jPRoB7i2</t>
+          <t>WWp90WXG</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4894,179 +4894,179 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Schaffhausen</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J25" t="n">
         <v>3.6</v>
       </c>
-      <c r="I25" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2.5</v>
-      </c>
       <c r="K25" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L25" t="n">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="P25" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="R25" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="S25" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T25" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="U25" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="V25" t="n">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="W25" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="X25" t="n">
-        <v>8.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AA25" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AB25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="AE25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO25" t="n">
         <v>17</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AP25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC25" t="n">
         <v>51</v>
       </c>
-      <c r="AG25" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="BD25" t="n">
         <v>51</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>WEiW6Wxq</t>
+          <t>4tmXLw0f</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5076,171 +5076,355 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Karpaty Lviv</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Vaduz</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.42</v>
+        <v>2.67</v>
       </c>
       <c r="H26" t="n">
-        <v>2.57</v>
+        <v>3.55</v>
       </c>
       <c r="I26" t="n">
-        <v>3.45</v>
+        <v>2.35</v>
       </c>
       <c r="J26" t="n">
         <v>3.15</v>
       </c>
       <c r="K26" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="L26" t="n">
-        <v>4.1</v>
+        <v>2.82</v>
       </c>
       <c r="M26" t="n">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>4.35</v>
+        <v>9.25</v>
       </c>
       <c r="O26" t="n">
-        <v>1.55</v>
+        <v>1.16</v>
       </c>
       <c r="P26" t="n">
-        <v>2.15</v>
+        <v>4.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.57</v>
+        <v>1.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.38</v>
+        <v>2.42</v>
       </c>
       <c r="S26" t="n">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="T26" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="U26" t="n">
-        <v>2.05</v>
+        <v>1.42</v>
       </c>
       <c r="V26" t="n">
-        <v>1.62</v>
+        <v>2.65</v>
       </c>
       <c r="W26" t="n">
-        <v>5.7</v>
+        <v>13</v>
       </c>
       <c r="X26" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y26" t="n">
         <v>10</v>
       </c>
       <c r="Z26" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AA26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK26" t="n">
         <v>27</v>
       </c>
-      <c r="AB26" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>55</v>
-      </c>
       <c r="AL26" t="n">
-        <v>40</v>
+        <v>16.5</v>
       </c>
       <c r="AM26" t="n">
-        <v>55</v>
+        <v>18.5</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="AO26" t="n">
         <v>14</v>
       </c>
       <c r="AP26" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AQ26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR26" t="n">
         <v>70</v>
       </c>
-      <c r="AR26" t="n">
-        <v>120</v>
-      </c>
       <c r="AS26" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.07</v>
+        <v>3.3</v>
       </c>
       <c r="AU26" t="n">
-        <v>7.4</v>
+        <v>6.1</v>
       </c>
       <c r="AV26" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="AW26" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX26" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>jPRoB7i2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Umraniyespor</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W27" t="n">
+        <v>7</v>
+      </c>
+      <c r="X27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI27" t="n">
         <v>21</v>
       </c>
-      <c r="AY26" t="n">
-        <v>30</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>120</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC26" t="n">
+      <c r="AJ27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ27" t="n">
         <v>81</v>
       </c>
-      <c r="BD26" t="n">
-        <v>81</v>
+      <c r="BA27" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD27"/>
+  <dimension ref="A1:BD43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,13 +768,13 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
         <v>1.73</v>
@@ -1111,97 +1111,97 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.12</v>
+        <v>2.27</v>
       </c>
       <c r="H4" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I4" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="K4" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="L4" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P4" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S4" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="U4" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="W4" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="X4" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
         <v>30</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF4" t="n">
         <v>75</v>
       </c>
       <c r="AG4" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AI4" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AK4" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AL4" t="n">
         <v>32</v>
@@ -1210,13 +1210,13 @@
         <v>40</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ4" t="n">
         <v>45</v>
@@ -1228,19 +1228,19 @@
         <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="AU4" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AY4" t="n">
         <v>26</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.65</v>
+        <v>2.95</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="L5" t="n">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1317,22 +1317,22 @@
         <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="R5" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="S5" t="n">
         <v>1.22</v>
       </c>
       <c r="T5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="U5" t="n">
         <v>1.38</v>
@@ -1341,31 +1341,31 @@
         <v>2.82</v>
       </c>
       <c r="W5" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="X5" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AA5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AE5" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AF5" t="n">
         <v>29</v>
@@ -1374,43 +1374,43 @@
         <v>120</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP5" t="n">
         <v>16</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>15</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AR5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS5" t="n">
         <v>120</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AU5" t="n">
         <v>6.2</v>
@@ -1419,22 +1419,22 @@
         <v>32</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.85</v>
+        <v>4.65</v>
       </c>
       <c r="AX5" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AY5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ5" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="BA5" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BB5" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BC5" t="n">
         <v>350</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H7" t="n">
         <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
         <v>2.5</v>
@@ -1678,7 +1678,7 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1708,13 +1708,13 @@
         <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
         <v>17</v>
@@ -1756,10 +1756,10 @@
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP7" t="n">
         <v>23</v>
@@ -1783,7 +1783,7 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX7" t="n">
         <v>26</v>
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
@@ -1857,22 +1857,22 @@
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R8" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -1896,7 +1896,7 @@
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
         <v>17</v>
@@ -1911,7 +1911,7 @@
         <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
@@ -1926,7 +1926,7 @@
         <v>17</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
         <v>41</v>
@@ -1986,7 +1986,7 @@
         <v>501</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -2206,13 +2206,13 @@
         <v>1.57</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
         <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K10" t="n">
         <v>2.3</v>
@@ -2227,31 +2227,31 @@
         <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T10" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X10" t="n">
         <v>7.5</v>
@@ -2266,10 +2266,10 @@
         <v>13</v>
       </c>
       <c r="AB10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
         <v>7.5</v>
@@ -2320,7 +2320,7 @@
         <v>126</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU10" t="n">
         <v>8.5</v>
@@ -2344,7 +2344,7 @@
         <v>126</v>
       </c>
       <c r="BB10" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2388,7 +2388,7 @@
         <v>1.42</v>
       </c>
       <c r="H11" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
         <v>8.5</v>
@@ -2400,19 +2400,19 @@
         <v>2.18</v>
       </c>
       <c r="L11" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M11" t="n">
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="O11" t="n">
         <v>1.42</v>
       </c>
       <c r="P11" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="Q11" t="n">
         <v>2.25</v>
@@ -2421,22 +2421,22 @@
         <v>1.6</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="T11" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="U11" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="V11" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="W11" t="n">
         <v>4.7</v>
       </c>
       <c r="X11" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y11" t="n">
         <v>9.25</v>
@@ -2448,25 +2448,25 @@
         <v>14.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AE11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF11" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AG11" t="n">
         <v>101</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI11" t="n">
         <v>55</v>
@@ -2484,13 +2484,13 @@
         <v>150</v>
       </c>
       <c r="AN11" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AO11" t="n">
         <v>6.4</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ11" t="n">
         <v>19.5</v>
@@ -2499,10 +2499,10 @@
         <v>65</v>
       </c>
       <c r="AS11" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="AU11" t="n">
         <v>9.75</v>
@@ -2514,10 +2514,10 @@
         <v>9</v>
       </c>
       <c r="AX11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AY11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AZ11" t="n">
         <v>500</v>
@@ -2532,7 +2532,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04Gll1uH</t>
+          <t>6ZSMMiNi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2542,41 +2542,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="H12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="K12" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
@@ -2591,16 +2591,16 @@
         <v>4.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R12" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U12" t="n">
         <v>1.57</v>
@@ -2609,31 +2609,31 @@
         <v>2.25</v>
       </c>
       <c r="W12" t="n">
+        <v>10</v>
+      </c>
+      <c r="X12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y12" t="n">
         <v>9.5</v>
       </c>
-      <c r="X12" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA12" t="n">
         <v>17</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AB12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC12" t="n">
         <v>13</v>
       </c>
-      <c r="AB12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>15</v>
-      </c>
       <c r="AD12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
         <v>41</v>
@@ -2642,43 +2642,43 @@
         <v>126</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
         <v>21</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK12" t="n">
+      <c r="AM12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>41</v>
       </c>
-      <c r="AL12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>29</v>
-      </c>
       <c r="AR12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU12" t="n">
         <v>7.5</v>
@@ -2687,13 +2687,13 @@
         <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
         <v>51</v>
@@ -2702,10 +2702,10 @@
         <v>67</v>
       </c>
       <c r="BB12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC12" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2714,7 +2714,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>txiN20fA</t>
+          <t>ERQyalVp</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2724,170 +2724,170 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Preussen Munster</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="L13" t="n">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.67</v>
       </c>
-      <c r="R13" t="n">
-        <v>2.15</v>
-      </c>
       <c r="S13" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="T13" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U13" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="V13" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="W13" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
         <v>41</v>
       </c>
       <c r="AA13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AH13" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AI13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AL13" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AN13" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AO13" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AP13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ13" t="n">
         <v>67</v>
       </c>
       <c r="AR13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS13" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW13" t="n">
         <v>4</v>
       </c>
       <c r="AX13" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AY13" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ13" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="BA13" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB13" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC13" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -2896,7 +2896,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>zeQ8r4fo</t>
+          <t>21MVKVi4</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2906,131 +2906,131 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Viktoria Koln</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Cottbus</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K14" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.5</v>
+        <v>1.98</v>
       </c>
       <c r="R14" t="n">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="S14" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="T14" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U14" t="n">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="V14" t="n">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="n">
         <v>17</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC14" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH14" t="n">
         <v>11</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>13</v>
       </c>
       <c r="AI14" t="n">
         <v>17</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK14" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP14" t="n">
         <v>21</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>19</v>
       </c>
       <c r="AQ14" t="n">
         <v>41</v>
@@ -3039,37 +3039,37 @@
         <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AY14" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ14" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA14" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB14" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC14" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="BD14" t="n">
         <v>81</v>
@@ -3078,7 +3078,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>O6ecm1eJ</t>
+          <t>ths5ZU6c</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3088,41 +3088,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>GREECE - SUPER LEAGUE</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="J15" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
@@ -3131,55 +3131,55 @@
         <v>8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="R15" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="S15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V15" t="n">
         <v>1.8</v>
       </c>
       <c r="W15" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="X15" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z15" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AB15" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD15" t="n">
         <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
         <v>51</v>
@@ -3188,43 +3188,43 @@
         <v>351</v>
       </c>
       <c r="AH15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI15" t="n">
         <v>10</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AJ15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO15" t="n">
         <v>19</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>12</v>
-      </c>
       <c r="AP15" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ15" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR15" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS15" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU15" t="n">
         <v>8.5</v>
@@ -3233,30 +3233,34 @@
         <v>67</v>
       </c>
       <c r="AW15" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX15" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ15" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA15" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB15" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC15" t="inlineStr"/>
-      <c r="BD15" t="inlineStr"/>
+        <v>201</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Maxln0E6</t>
+          <t>0d4IBREj</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3266,173 +3270,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FAR Rabat</t>
+          <t>Pau FC</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Union Touarga</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="H16" t="n">
         <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="J16" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K16" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W16" t="n">
         <v>7.5</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W16" t="n">
-        <v>5.5</v>
-      </c>
       <c r="X16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>13</v>
       </c>
-      <c r="AA16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB16" t="n">
+      <c r="AK16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL16" t="n">
         <v>34</v>
       </c>
-      <c r="AC16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE16" t="n">
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP16" t="n">
         <v>21</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>26</v>
       </c>
       <c r="AQ16" t="n">
         <v>34</v>
       </c>
       <c r="AR16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ16" t="n">
         <v>67</v>
       </c>
-      <c r="AS16" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV16" t="n">
+      <c r="BA16" t="n">
         <v>81</v>
       </c>
-      <c r="AW16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="inlineStr"/>
-      <c r="BD16" t="inlineStr"/>
+      <c r="BB16" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EZYulMqf</t>
+          <t>xCG1Debm</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3442,175 +3452,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Raja Casablanca</t>
+          <t>Troyes</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Wydad</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J17" t="n">
         <v>3</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P17" t="n">
         <v>3</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="Q17" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U17" t="n">
         <v>1.83</v>
       </c>
-      <c r="L17" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="V17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W17" t="n">
         <v>7</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W17" t="n">
-        <v>5.5</v>
-      </c>
       <c r="X17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y17" t="n">
         <v>9.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>10</v>
       </c>
       <c r="Z17" t="n">
         <v>21</v>
       </c>
       <c r="AA17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="AH17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI17" t="n">
         <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK17" t="n">
         <v>34</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV17" t="n">
         <v>51</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>81</v>
       </c>
       <c r="AW17" t="n">
         <v>5</v>
       </c>
       <c r="AX17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY17" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AZ17" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA17" t="n">
         <v>81</v>
       </c>
-      <c r="BA17" t="n">
-        <v>126</v>
-      </c>
       <c r="BB17" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC17" t="inlineStr"/>
-      <c r="BD17" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>KK9PNiw3</t>
+          <t>04Gll1uH</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3620,119 +3634,119 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Zaglebie</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Motor Lublin</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="J18" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L18" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="R18" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="S18" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="T18" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U18" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="V18" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="W18" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y18" t="n">
         <v>9</v>
       </c>
       <c r="Z18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB18" t="n">
         <v>21</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AC18" t="n">
         <v>17</v>
       </c>
-      <c r="AB18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>12</v>
-      </c>
       <c r="AD18" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE18" t="n">
         <v>12</v>
       </c>
       <c r="AF18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK18" t="n">
         <v>41</v>
       </c>
-      <c r="AG18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>34</v>
-      </c>
       <c r="AL18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM18" t="n">
         <v>29</v>
@@ -3741,37 +3755,37 @@
         <v>4.33</v>
       </c>
       <c r="AO18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY18" t="n">
         <v>21</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>23</v>
       </c>
       <c r="AZ18" t="n">
         <v>51</v>
@@ -3780,10 +3794,10 @@
         <v>67</v>
       </c>
       <c r="BB18" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC18" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BD18" t="n">
         <v>81</v>
@@ -3792,7 +3806,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>xz9LzwPE</t>
+          <t>txiN20fA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3802,170 +3816,170 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Preussen Munster</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Termalica B-B.</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I19" t="n">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="J19" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="K19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L19" t="n">
         <v>2.3</v>
       </c>
-      <c r="L19" t="n">
-        <v>1.95</v>
-      </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="R19" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="S19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T19" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V19" t="n">
         <v>2.1</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.67</v>
       </c>
       <c r="W19" t="n">
         <v>15</v>
       </c>
       <c r="X19" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA19" t="n">
         <v>34</v>
       </c>
-      <c r="Y19" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>51</v>
-      </c>
       <c r="AB19" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AC19" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AD19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH19" t="n">
         <v>8.5</v>
       </c>
-      <c r="AE19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AI19" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AL19" t="n">
         <v>13</v>
       </c>
       <c r="AM19" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AN19" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AP19" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AQ19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS19" t="n">
         <v>151</v>
       </c>
-      <c r="AR19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>351</v>
-      </c>
       <c r="AT19" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU19" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="AX19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ19" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="BA19" t="n">
         <v>41</v>
       </c>
       <c r="BB19" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BC19" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD19" t="n">
         <v>81</v>
@@ -3974,7 +3988,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>fyqcIbbe</t>
+          <t>zeQ8r4fo</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3984,179 +3998,179 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>Viktoria Koln</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Otelul</t>
+          <t>Cottbus</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H20" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J20" t="n">
         <v>3</v>
       </c>
-      <c r="J20" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K20" t="n">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M20" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="O20" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1.5</v>
       </c>
-      <c r="P20" t="n">
+      <c r="R20" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.5</v>
-      </c>
       <c r="S20" t="n">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="T20" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U20" t="n">
-        <v>2.1</v>
+        <v>1.44</v>
       </c>
       <c r="V20" t="n">
-        <v>1.67</v>
+        <v>2.63</v>
       </c>
       <c r="W20" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="X20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
       </c>
       <c r="Z20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA20" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AB20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>41</v>
       </c>
-      <c r="AC20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM20" t="n">
+      <c r="AR20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV20" t="n">
         <v>41</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>67</v>
       </c>
       <c r="AW20" t="n">
         <v>5</v>
       </c>
       <c r="AX20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY20" t="n">
         <v>19</v>
       </c>
-      <c r="AY20" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ20" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA20" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB20" t="n">
         <v>101</v>
       </c>
-      <c r="BB20" t="n">
+      <c r="BC20" t="n">
         <v>301</v>
       </c>
-      <c r="BC20" t="n">
-        <v>51</v>
-      </c>
       <c r="BD20" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>xYNxflsK</t>
+          <t>O6ecm1eJ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4166,179 +4180,175 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>GREECE - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="H21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L21" t="n">
         <v>4</v>
       </c>
-      <c r="I21" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4.5</v>
-      </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R21" t="n">
         <v>1.67</v>
       </c>
-      <c r="R21" t="n">
-        <v>2.15</v>
-      </c>
       <c r="S21" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T21" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U21" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W21" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="X21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y21" t="n">
         <v>9</v>
       </c>
-      <c r="Y21" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z21" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AA21" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>15</v>
       </c>
       <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK21" t="n">
         <v>41</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>51</v>
       </c>
       <c r="AL21" t="n">
         <v>34</v>
       </c>
       <c r="AM21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU21" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8</v>
       </c>
       <c r="AV21" t="n">
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY21" t="n">
         <v>29</v>
       </c>
       <c r="AZ21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB21" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>81</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="BC21" t="inlineStr"/>
+      <c r="BD21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>zJAvMrif</t>
+          <t>Maxln0E6</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4348,179 +4358,173 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>FAR Rabat</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Union Touarga</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.8</v>
+        <v>1.67</v>
       </c>
       <c r="H22" t="n">
-        <v>2.87</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="J22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN22" t="n">
         <v>3.5</v>
       </c>
-      <c r="K22" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="W22" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="X22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>37</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB22" t="n">
+      <c r="AO22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX22" t="n">
         <v>29</v>
       </c>
-      <c r="AC22" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>110</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AY22" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AZ22" t="n">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="BA22" t="n">
-        <v>90</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>51</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="BB22" t="inlineStr"/>
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>QDELJxlI</t>
+          <t>EZYulMqf</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4535,174 +4539,170 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Kosice</t>
+          <t>Raja Casablanca</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Wydad</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.15</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>1.78</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>4.45</v>
+        <v>3.25</v>
       </c>
       <c r="K23" t="n">
-        <v>2.18</v>
+        <v>1.83</v>
       </c>
       <c r="L23" t="n">
-        <v>2.35</v>
+        <v>4.33</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="P23" t="n">
-        <v>3.45</v>
+        <v>2.38</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="R23" t="n">
-        <v>1.93</v>
+        <v>1.44</v>
       </c>
       <c r="S23" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="T23" t="n">
-        <v>2.87</v>
+        <v>2.2</v>
       </c>
       <c r="U23" t="n">
-        <v>1.78</v>
+        <v>2.25</v>
       </c>
       <c r="V23" t="n">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="W23" t="n">
-        <v>11.5</v>
+        <v>5.5</v>
       </c>
       <c r="X23" t="n">
-        <v>25</v>
+        <v>9.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="Z23" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="AA23" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AB23" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG23" t="n">
-        <v>600</v>
+        <v>101</v>
       </c>
       <c r="AH23" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8.75</v>
+        <v>13</v>
       </c>
       <c r="AK23" t="n">
-        <v>15.5</v>
+        <v>34</v>
       </c>
       <c r="AL23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO23" t="n">
         <v>15</v>
       </c>
-      <c r="AM23" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>23</v>
-      </c>
       <c r="AP23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AR23" t="n">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="AS23" t="n">
-        <v>400</v>
+        <v>301</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.82</v>
+        <v>2.2</v>
       </c>
       <c r="AU23" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV23" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="AW23" t="n">
-        <v>3.65</v>
+        <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>8.75</v>
+        <v>21</v>
       </c>
       <c r="AY23" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="AZ23" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="BA23" t="n">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="BB23" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>51</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>j1izldfS</t>
+          <t>rFQdpvqJ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4712,104 +4712,104 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Radomlje</t>
+          <t>COD Meknes</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.47</v>
+        <v>2.63</v>
       </c>
       <c r="K24" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P24" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="R24" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S24" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T24" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="U24" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="V24" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="W24" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="X24" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AB24" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AC24" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="AG24" t="n">
-        <v>800</v>
+        <v>101</v>
       </c>
       <c r="AH24" t="n">
         <v>10</v>
@@ -4818,73 +4818,69 @@
         <v>21</v>
       </c>
       <c r="AJ24" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AK24" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AL24" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AM24" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AO24" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AP24" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AQ24" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AS24" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="AU24" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AV24" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AW24" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AX24" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AY24" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AZ24" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="BA24" t="n">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="BB24" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>51</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>WWp90WXG</t>
+          <t>dK16TRZa</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4894,179 +4890,179 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>1.33</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="I25" t="n">
-        <v>2.22</v>
+        <v>8</v>
       </c>
       <c r="J25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L25" t="n">
+        <v>7</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N25" t="n">
+        <v>21</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P25" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T25" t="n">
+        <v>4</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2</v>
+      </c>
+      <c r="W25" t="n">
+        <v>10</v>
+      </c>
+      <c r="X25" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="n">
         <v>3.6</v>
       </c>
-      <c r="K25" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="W25" t="n">
-        <v>11</v>
-      </c>
-      <c r="X25" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>5</v>
-      </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AP25" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AQ25" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="AR25" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AS25" t="n">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.65</v>
+        <v>4</v>
       </c>
       <c r="AU25" t="n">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AW25" t="n">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="AX25" t="n">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="AY25" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ25" t="n">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="BA25" t="n">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="BB25" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="BC25" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD25" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4tmXLw0f</t>
+          <t>IZkFR54C</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5076,179 +5072,179 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vaduz</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.67</v>
+        <v>3.7</v>
       </c>
       <c r="H26" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="J26" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="K26" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L26" t="n">
-        <v>2.82</v>
+        <v>2.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>9.25</v>
+        <v>15</v>
       </c>
       <c r="O26" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P26" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="R26" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="S26" t="n">
         <v>1.29</v>
       </c>
       <c r="T26" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="U26" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="V26" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="W26" t="n">
+        <v>15</v>
+      </c>
+      <c r="X26" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y26" t="n">
         <v>13</v>
       </c>
-      <c r="X26" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Y26" t="n">
+      <c r="Z26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX26" t="n">
         <v>10</v>
       </c>
-      <c r="Z26" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>150</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP26" t="n">
+      <c r="AY26" t="n">
         <v>17</v>
       </c>
-      <c r="AQ26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>37</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AZ26" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="BA26" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="BB26" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="BC26" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="BD26" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>jPRoB7i2</t>
+          <t>j13MPqZO</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5258,131 +5254,131 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Helmond</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Eindhoven FC</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="J27" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N27" t="n">
+        <v>15</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R27" t="n">
         <v>2.1</v>
       </c>
-      <c r="L27" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N27" t="n">
+      <c r="S27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W27" t="n">
+        <v>9</v>
+      </c>
+      <c r="X27" t="n">
         <v>10</v>
       </c>
-      <c r="O27" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W27" t="n">
-        <v>7</v>
-      </c>
-      <c r="X27" t="n">
+      <c r="Y27" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y27" t="n">
-        <v>9</v>
-      </c>
       <c r="Z27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA27" t="n">
         <v>15</v>
       </c>
       <c r="AB27" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG27" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AH27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
         <v>41</v>
       </c>
       <c r="AL27" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AM27" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO27" t="n">
         <v>10</v>
       </c>
       <c r="AP27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ27" t="n">
         <v>34</v>
@@ -5391,39 +5387,2951 @@
         <v>51</v>
       </c>
       <c r="AS27" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU27" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV27" t="n">
         <v>51</v>
       </c>
       <c r="AW27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY27" t="n">
         <v>23</v>
       </c>
-      <c r="AY27" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ27" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BA27" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB27" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC27" t="n">
         <v>126</v>
       </c>
       <c r="BD27" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>URYWqmKt</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Jong Ajax</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Telstar</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N28" t="n">
+        <v>17</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W28" t="n">
+        <v>15</v>
+      </c>
+      <c r="X28" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2uXvrRlg</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Jong AZ</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Den Haag</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N29" t="n">
+        <v>17</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W29" t="n">
+        <v>17</v>
+      </c>
+      <c r="X29" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>44TevqlI</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Jong PSV</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>FC Volendam</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
+        <v>29</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P30" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T30" t="n">
+        <v>5</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W30" t="n">
+        <v>26</v>
+      </c>
+      <c r="X30" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>b7Qmt5J5</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Jong Utrecht</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Roda</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N31" t="n">
+        <v>15</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W31" t="n">
+        <v>13</v>
+      </c>
+      <c r="X31" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>OhtULzYj</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Maastricht</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Dordrecht</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N32" t="n">
+        <v>19</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W32" t="n">
+        <v>17</v>
+      </c>
+      <c r="X32" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>nRROsIfA</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Venlo</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>FC Emmen</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N33" t="n">
+        <v>13</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W33" t="n">
+        <v>13</v>
+      </c>
+      <c r="X33" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>jaYFqvQc</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Cambuur</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N34" t="n">
+        <v>15</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W34" t="n">
+        <v>13</v>
+      </c>
+      <c r="X34" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>KK9PNiw3</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>POLAND - EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Zaglebie</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Motor Lublin</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N35" t="n">
+        <v>13</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T35" t="n">
+        <v>3</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X35" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>xz9LzwPE</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>POLAND - DIVISION 1</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Kotwica Kolobrzeg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Termalica B-B.</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="J36" t="n">
+        <v>7</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N36" t="n">
+        <v>13</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W36" t="n">
+        <v>15</v>
+      </c>
+      <c r="X36" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>fyqcIbbe</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Farul Constanta</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Otelul</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X37" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>xYNxflsK</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Al Qadisiya</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N38" t="n">
+        <v>10</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2</v>
+      </c>
+      <c r="W38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X38" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>zJAvMrif</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Radnicki Nis</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Cukaricki</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W39" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X39" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>75</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>QDELJxlI</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>SLOVAKIA - NIKE LIGA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Kosice</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N40" t="n">
+        <v>8</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W40" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="X40" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>32</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>65</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>WWp90WXG</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Schaffhausen</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Lausanne Ouchy</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W41" t="n">
+        <v>11</v>
+      </c>
+      <c r="X41" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4tmXLw0f</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Stade Nyonnais</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Vaduz</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N42" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T42" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W42" t="n">
+        <v>13</v>
+      </c>
+      <c r="X42" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>37</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>jPRoB7i2</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Umraniyespor</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N43" t="n">
+        <v>10</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W43" t="n">
+        <v>7</v>
+      </c>
+      <c r="X43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD43" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD43"/>
+  <dimension ref="A1:BD46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,7 +753,7 @@
         <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J2" t="n">
         <v>2.05</v>
@@ -789,10 +789,10 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
         <v>7.5</v>
@@ -810,7 +810,7 @@
         <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
         <v>12</v>
@@ -882,7 +882,7 @@
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
         <v>126</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="H4" t="n">
         <v>3.05</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="K4" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
@@ -1135,10 +1135,10 @@
         <v>6.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="Q4" t="n">
         <v>2.15</v>
@@ -1147,19 +1147,19 @@
         <v>1.65</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T4" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V4" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="W4" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X4" t="n">
         <v>10.75</v>
@@ -1168,13 +1168,13 @@
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="n">
         <v>6.3</v>
@@ -1189,67 +1189,67 @@
         <v>75</v>
       </c>
       <c r="AG4" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH4" t="n">
         <v>8.25</v>
       </c>
       <c r="AI4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AK4" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM4" t="n">
         <v>40</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="AO4" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ4" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR4" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS4" t="n">
         <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ4" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BA4" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB4" t="n">
         <v>350</v>
@@ -1478,19 +1478,19 @@
         <v>2.87</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K6" t="n">
         <v>2.25</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.22</v>
-      </c>
       <c r="L6" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1502,7 +1502,7 @@
         <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="Q6" t="n">
         <v>1.7</v>
@@ -1523,13 +1523,13 @@
         <v>2.25</v>
       </c>
       <c r="W6" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
         <v>35</v>
@@ -1538,16 +1538,16 @@
         <v>22</v>
       </c>
       <c r="AB6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
         <v>8.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF6" t="n">
         <v>45</v>
@@ -1565,10 +1565,10 @@
         <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AM6" t="n">
         <v>23</v>
@@ -1580,13 +1580,13 @@
         <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR6" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS6" t="n">
         <v>200</v>
@@ -1595,25 +1595,25 @@
         <v>3.05</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV6" t="n">
         <v>50</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="AX6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AY6" t="n">
         <v>17.5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BA6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BB6" t="n">
         <v>200</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>fw6RHKYO</t>
+          <t>jDB7XlJk</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,167 +1638,167 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CROATIA - HNL</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Istra 1961</t>
+          <t>Club Brugge KV U23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Slaven Belupo</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="J7" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="V7" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X7" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC7" t="n">
         <v>13</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
         <v>7</v>
       </c>
       <c r="AE7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL7" t="n">
         <v>19</v>
       </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI7" t="n">
+      <c r="AM7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP7" t="n">
         <v>21</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX7" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AZ7" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BA7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB7" t="n">
         <v>126</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>301</v>
       </c>
       <c r="BC7" t="n">
         <v>81</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>67AJBzUa</t>
+          <t>bTB1gWu9</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>K. Lierse S.K.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Aarhus</t>
+          <t>Genk U23</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="L8" t="n">
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
+        <v>15</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W8" t="n">
+        <v>10</v>
+      </c>
+      <c r="X8" t="n">
         <v>11</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD8" t="n">
         <v>7.5</v>
       </c>
-      <c r="X8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z8" t="n">
+      <c r="AE8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
         <v>21</v>
       </c>
-      <c r="AA8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AJ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM8" t="n">
         <v>29</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>34</v>
       </c>
       <c r="AN8" t="n">
         <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
         <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA8" t="n">
         <v>67</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BB8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD8" t="n">
         <v>81</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>QyiE2k1E</t>
+          <t>fw6RHKYO</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>CROATIA - HNL</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Istra 1961</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Slaven Belupo</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>4.33</v>
+        <v>2.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA9" t="n">
         <v>17</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W9" t="n">
-        <v>15</v>
-      </c>
-      <c r="X9" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>29</v>
-      </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AH9" t="n">
         <v>10</v>
       </c>
       <c r="AI9" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AL9" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>21</v>
+        <v>9.5</v>
       </c>
       <c r="AP9" t="n">
         <v>23</v>
       </c>
       <c r="AQ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="n">
         <v>67</v>
       </c>
-      <c r="AR9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS9" t="n">
+      <c r="AW9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA9" t="n">
         <v>126</v>
       </c>
-      <c r="AT9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>41</v>
-      </c>
       <c r="BB9" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="BC9" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>lzdggoO0</t>
+          <t>67AJBzUa</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2189,165 +2189,165 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hvidovre IF</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Aarhus</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="J10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K10" t="n">
         <v>2.2</v>
       </c>
-      <c r="K10" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L10" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="R10" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="S10" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="V10" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
         <v>26</v>
       </c>
       <c r="AC10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH10" t="n">
         <v>11</v>
       </c>
-      <c r="AD10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE10" t="n">
+      <c r="AI10" t="n">
         <v>17</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AJ10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
         <v>51</v>
       </c>
-      <c r="AG10" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO10" t="n">
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU10" t="n">
         <v>8</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA10" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>hnwjHv9a</t>
+          <t>QyiE2k1E</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2371,168 +2371,174 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.42</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
         <v>3.9</v>
       </c>
       <c r="I11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>17</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W11" t="n">
+        <v>15</v>
+      </c>
+      <c r="X11" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>8.5</v>
       </c>
-      <c r="J11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L11" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N11" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="W11" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="X11" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>250</v>
-      </c>
-      <c r="AG11" t="n">
+      <c r="AK11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB11" t="n">
         <v>101</v>
       </c>
-      <c r="AH11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>500</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>500</v>
-      </c>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="inlineStr"/>
+      <c r="BC11" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6ZSMMiNi</t>
+          <t>lzdggoO0</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2542,134 +2548,134 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Hvidovre IF</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="n">
         <v>2.25</v>
       </c>
-      <c r="H12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T12" t="n">
         <v>3</v>
       </c>
-      <c r="J12" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="U12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z12" t="n">
         <v>13</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W12" t="n">
-        <v>10</v>
-      </c>
-      <c r="X12" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>21</v>
-      </c>
       <c r="AA12" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
         <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>17</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>11</v>
-      </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL12" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AM12" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AP12" t="n">
         <v>19</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
@@ -2678,43 +2684,43 @@
         <v>126</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA12" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB12" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC12" t="n">
         <v>126</v>
       </c>
-      <c r="BC12" t="n">
-        <v>81</v>
-      </c>
       <c r="BD12" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ERQyalVp</t>
+          <t>hnwjHv9a</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2724,179 +2730,173 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>1.42</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>1.91</v>
       </c>
       <c r="K13" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="L13" t="n">
-        <v>2.88</v>
+        <v>7.9</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W13" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="X13" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>250</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW13" t="n">
         <v>9</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X13" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4</v>
-      </c>
       <c r="AX13" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="AY13" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="AZ13" t="n">
-        <v>41</v>
+        <v>500</v>
       </c>
       <c r="BA13" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>81</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="BB13" t="inlineStr"/>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>21MVKVi4</t>
+          <t>6ZSMMiNi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2916,121 +2916,121 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L14" t="n">
         <v>3.5</v>
       </c>
-      <c r="J14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4</v>
-      </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W14" t="n">
         <v>10</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2</v>
-      </c>
-      <c r="W14" t="n">
-        <v>8</v>
-      </c>
       <c r="X14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
         <v>17</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AH14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI14" t="n">
         <v>17</v>
       </c>
       <c r="AJ14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO14" t="n">
         <v>12</v>
       </c>
-      <c r="AK14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>11</v>
-      </c>
       <c r="AP14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ14" t="n">
         <v>41</v>
@@ -3039,34 +3039,34 @@
         <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>51</v>
       </c>
-      <c r="AW14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ14" t="n">
+      <c r="BA14" t="n">
         <v>67</v>
       </c>
-      <c r="BA14" t="n">
-        <v>81</v>
-      </c>
       <c r="BB14" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC14" t="n">
         <v>81</v>
@@ -3078,7 +3078,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ths5ZU6c</t>
+          <t>ERQyalVp</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3098,49 +3098,49 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="H15" t="n">
         <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J15" t="n">
         <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="R15" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="S15" t="n">
         <v>1.5</v>
@@ -3149,22 +3149,22 @@
         <v>2.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W15" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA15" t="n">
         <v>29</v>
@@ -3173,34 +3173,34 @@
         <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="n">
         <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI15" t="n">
         <v>10</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK15" t="n">
         <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM15" t="n">
         <v>34</v>
@@ -3233,19 +3233,19 @@
         <v>67</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ15" t="n">
         <v>41</v>
       </c>
       <c r="BA15" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB15" t="n">
         <v>201</v>
@@ -3260,7 +3260,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0d4IBREj</t>
+          <t>21MVKVi4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3280,31 +3280,31 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pau FC</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="H16" t="n">
         <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="n">
         <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -3319,10 +3319,10 @@
         <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R16" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S16" t="n">
         <v>1.4</v>
@@ -3331,25 +3331,25 @@
         <v>2.75</v>
       </c>
       <c r="U16" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V16" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y16" t="n">
         <v>9</v>
       </c>
-      <c r="Y16" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA16" t="n">
         <v>17</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>15</v>
       </c>
       <c r="AB16" t="n">
         <v>26</v>
@@ -3367,37 +3367,37 @@
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>12</v>
       </c>
-      <c r="AI16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>13</v>
-      </c>
       <c r="AK16" t="n">
         <v>41</v>
       </c>
       <c r="AL16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM16" t="n">
         <v>34</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>41</v>
       </c>
       <c r="AN16" t="n">
         <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP16" t="n">
         <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
         <v>51</v>
@@ -3418,10 +3418,10 @@
         <v>5.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ16" t="n">
         <v>67</v>
@@ -3442,7 +3442,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>xCG1Debm</t>
+          <t>ths5ZU6c</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3462,31 +3462,31 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Troyes</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="n">
         <v>3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
@@ -3501,10 +3501,10 @@
         <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S17" t="n">
         <v>1.5</v>
@@ -3513,79 +3513,79 @@
         <v>2.5</v>
       </c>
       <c r="U17" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W17" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="X17" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AA17" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AB17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD17" t="n">
         <v>6</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH17" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AJ17" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AK17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM17" t="n">
         <v>34</v>
       </c>
-      <c r="AL17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>41</v>
-      </c>
       <c r="AN17" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AP17" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ17" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR17" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT17" t="n">
         <v>2.5</v>
@@ -3594,25 +3594,25 @@
         <v>8.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW17" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AY17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA17" t="n">
         <v>67</v>
       </c>
-      <c r="BA17" t="n">
-        <v>81</v>
-      </c>
       <c r="BB17" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC17" t="n">
         <v>81</v>
@@ -3624,7 +3624,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04Gll1uH</t>
+          <t>0d4IBREj</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3634,107 +3634,107 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Pau FC</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>1.91</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J18" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K18" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="R18" t="n">
-        <v>2.35</v>
+        <v>1.9</v>
       </c>
       <c r="S18" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="T18" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U18" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="V18" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="W18" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z18" t="n">
         <v>17</v>
       </c>
       <c r="AA18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB18" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC18" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AD18" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH18" t="n">
         <v>12</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>15</v>
       </c>
       <c r="AI18" t="n">
         <v>21</v>
@@ -3746,58 +3746,58 @@
         <v>41</v>
       </c>
       <c r="AL18" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO18" t="n">
         <v>10</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY18" t="n">
         <v>29</v>
       </c>
-      <c r="AR18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB18" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BC18" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD18" t="n">
         <v>81</v>
@@ -3806,7 +3806,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>txiN20fA</t>
+          <t>xCG1Debm</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3816,170 +3816,170 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Preussen Munster</t>
+          <t>Troyes</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.33</v>
+        <v>2.25</v>
       </c>
       <c r="H19" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="J19" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="R19" t="n">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="S19" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="T19" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U19" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="V19" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="W19" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="Y19" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AB19" t="n">
         <v>34</v>
       </c>
       <c r="AC19" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AD19" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AH19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI19" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AK19" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO19" t="n">
         <v>13</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>23</v>
       </c>
       <c r="AP19" t="n">
         <v>26</v>
       </c>
       <c r="AQ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR19" t="n">
         <v>67</v>
       </c>
-      <c r="AR19" t="n">
-        <v>81</v>
-      </c>
       <c r="AS19" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU19" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV19" t="n">
         <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX19" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AY19" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AZ19" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="BA19" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB19" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BC19" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD19" t="n">
         <v>81</v>
@@ -3988,7 +3988,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>zeQ8r4fo</t>
+          <t>04Gll1uH</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3998,41 +3998,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Viktoria Koln</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Cottbus</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.45</v>
+        <v>1.91</v>
       </c>
       <c r="H20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I20" t="n">
         <v>3.6</v>
       </c>
-      <c r="I20" t="n">
-        <v>2.6</v>
-      </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K20" t="n">
         <v>2.4</v>
       </c>
       <c r="L20" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -4041,16 +4041,16 @@
         <v>17</v>
       </c>
       <c r="O20" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="R20" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="S20" t="n">
         <v>1.29</v>
@@ -4059,25 +4059,25 @@
         <v>3.5</v>
       </c>
       <c r="U20" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="V20" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W20" t="n">
+        <v>11</v>
+      </c>
+      <c r="X20" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA20" t="n">
         <v>13</v>
-      </c>
-      <c r="X20" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>17</v>
       </c>
       <c r="AB20" t="n">
         <v>21</v>
@@ -4089,7 +4089,7 @@
         <v>7.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF20" t="n">
         <v>34</v>
@@ -4098,37 +4098,37 @@
         <v>101</v>
       </c>
       <c r="AH20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>13</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AK20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP20" t="n">
         <v>17</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ20" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS20" t="n">
         <v>101</v>
@@ -4143,25 +4143,25 @@
         <v>41</v>
       </c>
       <c r="AW20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX20" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AY20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB20" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC20" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD20" t="n">
         <v>81</v>
@@ -4170,7 +4170,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>O6ecm1eJ</t>
+          <t>txiN20fA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4185,170 +4185,174 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>GREECE - SUPER LEAGUE</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Preussen Munster</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>15</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R21" t="n">
         <v>2.15</v>
       </c>
-      <c r="H21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N21" t="n">
+      <c r="S21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W21" t="n">
+        <v>15</v>
+      </c>
+      <c r="X21" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH21" t="n">
         <v>9</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W21" t="n">
-        <v>7</v>
-      </c>
-      <c r="X21" t="n">
+      <c r="AI21" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y21" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD21" t="n">
+      <c r="AJ21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN21" t="n">
         <v>6</v>
       </c>
-      <c r="AE21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4</v>
-      </c>
       <c r="AO21" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AP21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS21" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU21" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV21" t="n">
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AX21" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AY21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ21" t="n">
         <v>29</v>
       </c>
-      <c r="AZ21" t="n">
-        <v>67</v>
-      </c>
       <c r="BA21" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB21" t="n">
         <v>101</v>
       </c>
-      <c r="BB21" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC21" t="inlineStr"/>
-      <c r="BD21" t="inlineStr"/>
+      <c r="BC21" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Maxln0E6</t>
+          <t>zeQ8r4fo</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4358,173 +4362,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FAR Rabat</t>
+          <t>Viktoria Koln</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Union Touarga</t>
+          <t>Cottbus</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.67</v>
+        <v>2.45</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
         <v>2.4</v>
       </c>
-      <c r="K22" t="n">
-        <v>2.05</v>
-      </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="O22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U22" t="n">
         <v>1.44</v>
       </c>
-      <c r="P22" t="n">
+      <c r="V22" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q22" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W22" t="n">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="X22" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Y22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z22" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AA22" t="n">
         <v>17</v>
       </c>
       <c r="AB22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF22" t="n">
         <v>34</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>81</v>
       </c>
       <c r="AG22" t="n">
         <v>101</v>
       </c>
       <c r="AH22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>10</v>
       </c>
-      <c r="AI22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>17</v>
-      </c>
       <c r="AK22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR22" t="n">
         <v>51</v>
       </c>
-      <c r="AL22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM22" t="n">
+      <c r="AS22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA22" t="n">
         <v>51</v>
       </c>
-      <c r="AN22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV22" t="n">
+      <c r="BB22" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD22" t="n">
         <v>81</v>
       </c>
-      <c r="AW22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB22" t="inlineStr"/>
-      <c r="BC22" t="inlineStr"/>
-      <c r="BD22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>EZYulMqf</t>
+          <t>O6ecm1eJ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4534,167 +4544,167 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>GREECE - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Raja Casablanca</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Wydad</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="G23" t="n">
         <v>2.2</v>
       </c>
       <c r="H23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N23" t="n">
+        <v>9</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P23" t="n">
         <v>3</v>
       </c>
-      <c r="I23" t="n">
-        <v>3</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N23" t="n">
+      <c r="Q23" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W23" t="n">
         <v>7</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W23" t="n">
-        <v>5.5</v>
-      </c>
       <c r="X23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y23" t="n">
         <v>9.5</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>10</v>
       </c>
       <c r="Z23" t="n">
         <v>21</v>
       </c>
       <c r="AA23" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AB23" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC23" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF23" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="AH23" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
         <v>13</v>
       </c>
       <c r="AK23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="n">
         <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP23" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV23" t="n">
         <v>51</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>81</v>
       </c>
       <c r="AW23" t="n">
         <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY23" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AZ23" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA23" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB23" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC23" t="inlineStr"/>
       <c r="BD23" t="inlineStr"/>
@@ -4702,7 +4712,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>rFQdpvqJ</t>
+          <t>Maxln0E6</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4712,7 +4722,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4722,31 +4732,31 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>FAR Rabat</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>COD Meknes</t>
+          <t>Union Touarga</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="J24" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
         <v>1.08</v>
@@ -4755,10 +4765,10 @@
         <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P24" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q24" t="n">
         <v>2.35</v>
@@ -4773,25 +4783,25 @@
         <v>2.5</v>
       </c>
       <c r="U24" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y24" t="n">
         <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB24" t="n">
         <v>34</v>
@@ -4800,13 +4810,13 @@
         <v>7.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG24" t="n">
         <v>101</v>
@@ -4815,10 +4825,10 @@
         <v>10</v>
       </c>
       <c r="AI24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK24" t="n">
         <v>51</v>
@@ -4830,57 +4840,55 @@
         <v>51</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR24" t="n">
         <v>67</v>
       </c>
       <c r="AS24" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT24" t="n">
         <v>2.5</v>
       </c>
       <c r="AU24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY24" t="n">
         <v>41</v>
       </c>
       <c r="AZ24" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA24" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>351</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="BB24" t="inlineStr"/>
       <c r="BC24" t="inlineStr"/>
       <c r="BD24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>dK16TRZa</t>
+          <t>EZYulMqf</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4890,179 +4898,175 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Raja Casablanca</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Wydad</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.33</v>
+        <v>2.2</v>
       </c>
       <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W25" t="n">
         <v>5.5</v>
       </c>
-      <c r="I25" t="n">
-        <v>8</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L25" t="n">
+      <c r="X25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH25" t="n">
         <v>7</v>
       </c>
-      <c r="M25" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N25" t="n">
+      <c r="AI25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX25" t="n">
         <v>21</v>
       </c>
-      <c r="O25" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P25" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T25" t="n">
-        <v>4</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2</v>
-      </c>
-      <c r="W25" t="n">
-        <v>10</v>
-      </c>
-      <c r="X25" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK25" t="n">
+      <c r="AY25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ25" t="n">
         <v>81</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>126</v>
       </c>
       <c r="BA25" t="n">
         <v>126</v>
       </c>
       <c r="BB25" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>151</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IZkFR54C</t>
+          <t>rFQdpvqJ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5077,174 +5081,170 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>COD Meknes</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.7</v>
+        <v>1.85</v>
       </c>
       <c r="H26" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>1.95</v>
+        <v>4.1</v>
       </c>
       <c r="J26" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="K26" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
+        <v>5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N26" t="n">
+        <v>8</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T26" t="n">
         <v>2.5</v>
       </c>
-      <c r="M26" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="U26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W26" t="n">
+        <v>6</v>
+      </c>
+      <c r="X26" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z26" t="n">
         <v>15</v>
       </c>
-      <c r="O26" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W26" t="n">
-        <v>15</v>
-      </c>
-      <c r="X26" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>41</v>
-      </c>
       <c r="AA26" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AB26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC26" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AG26" t="n">
         <v>101</v>
       </c>
       <c r="AH26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO26" t="n">
         <v>11</v>
       </c>
-      <c r="AI26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>17</v>
-      </c>
       <c r="AP26" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR26" t="n">
         <v>67</v>
       </c>
       <c r="AS26" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA26" t="n">
         <v>126</v>
       </c>
-      <c r="AT26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>41</v>
-      </c>
       <c r="BB26" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC26" t="n">
         <v>351</v>
       </c>
-      <c r="BD26" t="n">
-        <v>151</v>
-      </c>
+      <c r="BC26" t="inlineStr"/>
+      <c r="BD26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>j13MPqZO</t>
+          <t>dK16TRZa</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5264,88 +5264,88 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Helmond</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Eindhoven FC</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.95</v>
+        <v>1.33</v>
       </c>
       <c r="H27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L27" t="n">
+        <v>7</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N27" t="n">
+        <v>21</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P27" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T27" t="n">
         <v>4</v>
       </c>
-      <c r="I27" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N27" t="n">
-        <v>15</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T27" t="n">
-        <v>3.25</v>
-      </c>
       <c r="U27" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W27" t="n">
+        <v>10</v>
+      </c>
+      <c r="X27" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y27" t="n">
         <v>9</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA27" t="n">
         <v>10</v>
       </c>
-      <c r="Y27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z27" t="n">
+      <c r="AB27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE27" t="n">
         <v>17</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>15</v>
       </c>
       <c r="AF27" t="n">
         <v>41</v>
@@ -5354,79 +5354,79 @@
         <v>151</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AK27" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AM27" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT27" t="n">
         <v>4</v>
       </c>
-      <c r="AO27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>3.25</v>
-      </c>
       <c r="AU27" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV27" t="n">
         <v>51</v>
       </c>
       <c r="AW27" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="AX27" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AY27" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ27" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BA27" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB27" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC27" t="n">
         <v>126</v>
       </c>
       <c r="BD27" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>URYWqmKt</t>
+          <t>IZkFR54C</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5446,37 +5446,37 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="H28" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J28" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K28" t="n">
         <v>2.38</v>
       </c>
       <c r="L28" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O28" t="n">
         <v>1.17</v>
@@ -5509,25 +5509,25 @@
         <v>21</v>
       </c>
       <c r="Y28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD28" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF28" t="n">
         <v>34</v>
@@ -5539,16 +5539,16 @@
         <v>11</v>
       </c>
       <c r="AI28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ28" t="n">
         <v>9</v>
       </c>
       <c r="AK28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM28" t="n">
         <v>21</v>
@@ -5566,7 +5566,7 @@
         <v>51</v>
       </c>
       <c r="AR28" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS28" t="n">
         <v>126</v>
@@ -5584,13 +5584,13 @@
         <v>4.33</v>
       </c>
       <c r="AX28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY28" t="n">
         <v>17</v>
       </c>
       <c r="AZ28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA28" t="n">
         <v>41</v>
@@ -5608,7 +5608,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2uXvrRlg</t>
+          <t>j13MPqZO</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5628,169 +5628,169 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Helmond</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Den Haag</t>
+          <t>Eindhoven FC</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.33</v>
+        <v>1.95</v>
       </c>
       <c r="H29" t="n">
         <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="J29" t="n">
-        <v>4.33</v>
+        <v>2.6</v>
       </c>
       <c r="K29" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L29" t="n">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
       </c>
       <c r="N29" t="n">
+        <v>15</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W29" t="n">
+        <v>9</v>
+      </c>
+      <c r="X29" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z29" t="n">
         <v>17</v>
       </c>
-      <c r="O29" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V29" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W29" t="n">
-        <v>17</v>
-      </c>
-      <c r="X29" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y29" t="n">
+      <c r="AA29" t="n">
         <v>15</v>
       </c>
-      <c r="Z29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>29</v>
-      </c>
       <c r="AB29" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD29" t="n">
         <v>8</v>
       </c>
       <c r="AE29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH29" t="n">
         <v>12</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="AI29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ29" t="n">
         <v>34</v>
       </c>
-      <c r="AG29" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>67</v>
-      </c>
       <c r="AR29" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS29" t="n">
         <v>126</v>
       </c>
       <c r="AT29" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU29" t="n">
         <v>7.5</v>
       </c>
       <c r="AV29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW29" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AX29" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="AY29" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AZ29" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="BA29" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB29" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BC29" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="BD29" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>44TevqlI</t>
+          <t>URYWqmKt</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5810,118 +5810,118 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="I30" t="n">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="J30" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="K30" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="O30" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="P30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W30" t="n">
+        <v>15</v>
+      </c>
+      <c r="X30" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>9</v>
       </c>
-      <c r="Q30" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="T30" t="n">
-        <v>5</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V30" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W30" t="n">
-        <v>26</v>
-      </c>
-      <c r="X30" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y30" t="n">
+      <c r="AK30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO30" t="n">
         <v>17</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>21</v>
       </c>
       <c r="AP30" t="n">
         <v>21</v>
@@ -5933,37 +5933,37 @@
         <v>51</v>
       </c>
       <c r="AS30" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT30" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="AU30" t="n">
         <v>7</v>
       </c>
       <c r="AV30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AW30" t="n">
         <v>4.5</v>
       </c>
       <c r="AX30" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AY30" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ30" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="BA30" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BB30" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BC30" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BD30" t="n">
         <v>151</v>
@@ -5972,7 +5972,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>b7Qmt5J5</t>
+          <t>2uXvrRlg</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -5992,70 +5992,70 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Roda</t>
+          <t>Den Haag</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="H31" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K31" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L31" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
+        <v>17</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W31" t="n">
+        <v>17</v>
+      </c>
+      <c r="X31" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y31" t="n">
         <v>15</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V31" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W31" t="n">
-        <v>13</v>
-      </c>
-      <c r="X31" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>13</v>
       </c>
       <c r="Z31" t="n">
         <v>41</v>
@@ -6064,25 +6064,25 @@
         <v>29</v>
       </c>
       <c r="AB31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF31" t="n">
         <v>34</v>
       </c>
-      <c r="AC31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>41</v>
-      </c>
       <c r="AG31" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AH31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI31" t="n">
         <v>10</v>
@@ -6091,61 +6091,61 @@
         <v>8.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL31" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AM31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO31" t="n">
         <v>21</v>
       </c>
-      <c r="AN31" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>19</v>
-      </c>
       <c r="AP31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ31" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR31" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS31" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU31" t="n">
         <v>7.5</v>
       </c>
       <c r="AV31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW31" t="n">
         <v>4</v>
       </c>
       <c r="AX31" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AY31" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ31" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="BA31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB31" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC31" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD31" t="n">
         <v>151</v>
@@ -6154,7 +6154,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>OhtULzYj</t>
+          <t>44TevqlI</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6174,118 +6174,118 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Maastricht</t>
+          <t>Jong PSV</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="H32" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="I32" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L32" t="n">
         <v>2</v>
       </c>
-      <c r="J32" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.5</v>
-      </c>
       <c r="M32" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="O32" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="P32" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R32" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="S32" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="T32" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="U32" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="V32" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="W32" t="n">
+        <v>26</v>
+      </c>
+      <c r="X32" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y32" t="n">
         <v>17</v>
       </c>
-      <c r="X32" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>12</v>
-      </c>
       <c r="Z32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA32" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AB32" t="n">
         <v>23</v>
       </c>
       <c r="AC32" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AD32" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE32" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG32" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AH32" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AI32" t="n">
         <v>13</v>
       </c>
       <c r="AJ32" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AL32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM32" t="n">
         <v>15</v>
       </c>
-      <c r="AM32" t="n">
-        <v>19</v>
-      </c>
       <c r="AN32" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AP32" t="n">
         <v>21</v>
@@ -6297,37 +6297,37 @@
         <v>51</v>
       </c>
       <c r="AS32" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT32" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AU32" t="n">
         <v>7</v>
       </c>
       <c r="AV32" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AW32" t="n">
         <v>4.5</v>
       </c>
       <c r="AX32" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AY32" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ32" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA32" t="n">
         <v>29</v>
       </c>
-      <c r="BA32" t="n">
-        <v>41</v>
-      </c>
       <c r="BB32" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BC32" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BD32" t="n">
         <v>151</v>
@@ -6336,7 +6336,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>nRROsIfA</t>
+          <t>b7Qmt5J5</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6356,22 +6356,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Venlo</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FC Emmen</t>
+          <t>Roda</t>
         </is>
       </c>
       <c r="G33" t="n">
         <v>3.8</v>
       </c>
       <c r="H33" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I33" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J33" t="n">
         <v>4</v>
@@ -6383,10 +6383,10 @@
         <v>2.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O33" t="n">
         <v>1.2</v>
@@ -6395,10 +6395,10 @@
         <v>4.33</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R33" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S33" t="n">
         <v>1.33</v>
@@ -6437,7 +6437,7 @@
         <v>7</v>
       </c>
       <c r="AE33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF33" t="n">
         <v>41</v>
@@ -6464,19 +6464,19 @@
         <v>21</v>
       </c>
       <c r="AN33" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO33" t="n">
         <v>19</v>
       </c>
       <c r="AP33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ33" t="n">
         <v>51</v>
       </c>
       <c r="AR33" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS33" t="n">
         <v>151</v>
@@ -6488,7 +6488,7 @@
         <v>7.5</v>
       </c>
       <c r="AV33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW33" t="n">
         <v>4</v>
@@ -6518,7 +6518,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>jaYFqvQc</t>
+          <t>OhtULzYj</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6538,67 +6538,67 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Maastricht</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H34" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I34" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N34" t="n">
+        <v>19</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T34" t="n">
         <v>3.75</v>
       </c>
-      <c r="K34" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N34" t="n">
-        <v>15</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P34" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T34" t="n">
-        <v>3.4</v>
-      </c>
       <c r="U34" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="V34" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="W34" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="X34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y34" t="n">
         <v>12</v>
@@ -6610,28 +6610,28 @@
         <v>23</v>
       </c>
       <c r="AB34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF34" t="n">
         <v>29</v>
       </c>
-      <c r="AC34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE34" t="n">
+      <c r="AG34" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI34" t="n">
         <v>13</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>11</v>
       </c>
       <c r="AJ34" t="n">
         <v>9</v>
@@ -6643,55 +6643,55 @@
         <v>15</v>
       </c>
       <c r="AM34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN34" t="n">
         <v>5.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ34" t="n">
         <v>51</v>
       </c>
       <c r="AR34" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS34" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT34" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AU34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV34" t="n">
         <v>41</v>
       </c>
       <c r="AW34" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX34" t="n">
         <v>10</v>
       </c>
       <c r="AY34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ34" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA34" t="n">
         <v>41</v>
       </c>
       <c r="BB34" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC34" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BD34" t="n">
         <v>151</v>
@@ -6700,7 +6700,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>KK9PNiw3</t>
+          <t>nRROsIfA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6710,41 +6710,41 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Zaglebie</t>
+          <t>Venlo</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Motor Lublin</t>
+          <t>FC Emmen</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="H35" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>3.2</v>
+        <v>1.91</v>
       </c>
       <c r="J35" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L35" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="M35" t="n">
         <v>1.04</v>
@@ -6753,22 +6753,22 @@
         <v>13</v>
       </c>
       <c r="O35" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="R35" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="S35" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T35" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U35" t="n">
         <v>1.62</v>
@@ -6777,28 +6777,28 @@
         <v>2.2</v>
       </c>
       <c r="W35" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="X35" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Y35" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z35" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AA35" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AB35" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AC35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD35" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE35" t="n">
         <v>12</v>
@@ -6810,79 +6810,79 @@
         <v>151</v>
       </c>
       <c r="AH35" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK35" t="n">
         <v>17</v>
       </c>
-      <c r="AJ35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>34</v>
-      </c>
       <c r="AL35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP35" t="n">
         <v>23</v>
       </c>
-      <c r="AM35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR35" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS35" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT35" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU35" t="n">
         <v>7.5</v>
       </c>
       <c r="AV35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA35" t="n">
         <v>51</v>
       </c>
-      <c r="AW35" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>67</v>
-      </c>
       <c r="BB35" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD35" t="n">
         <v>151</v>
-      </c>
-      <c r="BC35" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD35" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>xz9LzwPE</t>
+          <t>jaYFqvQc</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6892,179 +6892,179 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Termalica B-B.</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="H36" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I36" t="n">
-        <v>1.44</v>
+        <v>1.95</v>
       </c>
       <c r="J36" t="n">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="K36" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="M36" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N36" t="n">
+        <v>15</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W36" t="n">
         <v>13</v>
       </c>
-      <c r="O36" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T36" t="n">
-        <v>3</v>
-      </c>
-      <c r="U36" t="n">
-        <v>2</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W36" t="n">
+      <c r="X36" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC36" t="n">
         <v>15</v>
       </c>
-      <c r="X36" t="n">
+      <c r="AD36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ36" t="n">
         <v>34</v>
       </c>
-      <c r="Y36" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ36" t="n">
+      <c r="BA36" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD36" t="n">
         <v>151</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC36" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD36" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>fyqcIbbe</t>
+          <t>KK9PNiw3</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7074,110 +7074,110 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>Zaglebie</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Otelul</t>
+          <t>Motor Lublin</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J37" t="n">
         <v>2.88</v>
       </c>
-      <c r="I37" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K37" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="L37" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M37" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
+        <v>13</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T37" t="n">
+        <v>3</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X37" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD37" t="n">
         <v>6.5</v>
       </c>
-      <c r="O37" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U37" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W37" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X37" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>6</v>
-      </c>
       <c r="AE37" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AF37" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>1000</v>
+        <v>151</v>
       </c>
       <c r="AH37" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AI37" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ37" t="n">
         <v>12</v>
@@ -7186,67 +7186,67 @@
         <v>34</v>
       </c>
       <c r="AL37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM37" t="n">
         <v>29</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>41</v>
       </c>
       <c r="AN37" t="n">
         <v>4.33</v>
       </c>
       <c r="AO37" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AP37" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AQ37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR37" t="n">
         <v>51</v>
       </c>
-      <c r="AR37" t="n">
+      <c r="AS37" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD37" t="n">
         <v>81</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY37" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA37" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC37" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD37" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>xYNxflsK</t>
+          <t>hEHw0lod</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7256,59 +7256,59 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Jagiellonia</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Slask Wroclaw</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I38" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J38" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K38" t="n">
         <v>2.3</v>
       </c>
       <c r="L38" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M38" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O38" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P38" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="R38" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S38" t="n">
         <v>1.33</v>
@@ -7317,16 +7317,16 @@
         <v>3.25</v>
       </c>
       <c r="U38" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V38" t="n">
         <v>2</v>
       </c>
       <c r="W38" t="n">
+        <v>8</v>
+      </c>
+      <c r="X38" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X38" t="n">
-        <v>9</v>
       </c>
       <c r="Y38" t="n">
         <v>8.5</v>
@@ -7341,22 +7341,22 @@
         <v>23</v>
       </c>
       <c r="AC38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD38" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE38" t="n">
         <v>15</v>
       </c>
       <c r="AF38" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG38" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI38" t="n">
         <v>23</v>
@@ -7371,7 +7371,7 @@
         <v>34</v>
       </c>
       <c r="AM38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN38" t="n">
         <v>3.75</v>
@@ -7380,16 +7380,16 @@
         <v>8.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ38" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AR38" t="n">
         <v>41</v>
       </c>
       <c r="AS38" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT38" t="n">
         <v>3.25</v>
@@ -7413,10 +7413,10 @@
         <v>81</v>
       </c>
       <c r="BA38" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB38" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC38" t="n">
         <v>81</v>
@@ -7428,7 +7428,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>zJAvMrif</t>
+          <t>OWrnMwAL</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7438,179 +7438,179 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>S. Rzeszow</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.8</v>
+        <v>1.44</v>
       </c>
       <c r="H39" t="n">
-        <v>2.87</v>
+        <v>5</v>
       </c>
       <c r="I39" t="n">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="J39" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L39" t="n">
+        <v>6</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N39" t="n">
+        <v>19</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T39" t="n">
         <v>3.5</v>
       </c>
-      <c r="K39" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N39" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T39" t="n">
-        <v>2.57</v>
-      </c>
       <c r="U39" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="V39" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="W39" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="X39" t="n">
-        <v>15.5</v>
+        <v>8</v>
       </c>
       <c r="Y39" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="AA39" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AB39" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AC39" t="n">
-        <v>6.8</v>
+        <v>17</v>
       </c>
       <c r="AD39" t="n">
-        <v>5.7</v>
+        <v>10</v>
       </c>
       <c r="AE39" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="AF39" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG39" t="n">
-        <v>350</v>
+        <v>201</v>
       </c>
       <c r="AH39" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="AI39" t="n">
-        <v>13.5</v>
+        <v>34</v>
       </c>
       <c r="AJ39" t="n">
-        <v>9.25</v>
+        <v>17</v>
       </c>
       <c r="AK39" t="n">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="AL39" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AM39" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="AN39" t="n">
-        <v>4.85</v>
+        <v>3.6</v>
       </c>
       <c r="AO39" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AP39" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AQ39" t="n">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AR39" t="n">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="AS39" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AT39" t="n">
-        <v>2.57</v>
+        <v>3.5</v>
       </c>
       <c r="AU39" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AV39" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AW39" t="n">
-        <v>4.55</v>
+        <v>8</v>
       </c>
       <c r="AX39" t="n">
-        <v>14.5</v>
+        <v>34</v>
       </c>
       <c r="AY39" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ39" t="n">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="BA39" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="BB39" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="BC39" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD39" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>QDELJxlI</t>
+          <t>fyqcIbbe</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -7620,167 +7620,167 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Kosice</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Otelul</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.1</v>
+        <v>2.38</v>
       </c>
       <c r="H40" t="n">
-        <v>3.7</v>
+        <v>2.88</v>
       </c>
       <c r="I40" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="J40" t="n">
-        <v>4.45</v>
+        <v>3.4</v>
       </c>
       <c r="K40" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="L40" t="n">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="M40" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N40" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O40" t="n">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="P40" t="n">
-        <v>3.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="R40" t="n">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="S40" t="n">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="T40" t="n">
-        <v>2.82</v>
+        <v>2.25</v>
       </c>
       <c r="U40" t="n">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="V40" t="n">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="W40" t="n">
-        <v>11.25</v>
+        <v>6.5</v>
       </c>
       <c r="X40" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Y40" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="Z40" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AA40" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AB40" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC40" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="AE40" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AF40" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AG40" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AH40" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>9.25</v>
+        <v>13</v>
       </c>
       <c r="AJ40" t="n">
-        <v>8.75</v>
+        <v>12</v>
       </c>
       <c r="AK40" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AL40" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO40" t="n">
         <v>15</v>
       </c>
-      <c r="AM40" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>23</v>
-      </c>
       <c r="AP40" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ40" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AR40" t="n">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="AS40" t="n">
-        <v>400</v>
+        <v>301</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.77</v>
+        <v>2.25</v>
       </c>
       <c r="AU40" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AV40" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AW40" t="n">
-        <v>3.65</v>
+        <v>4.75</v>
       </c>
       <c r="AX40" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AY40" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="AZ40" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="BA40" t="n">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="BB40" t="n">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="BC40" t="n">
         <v>51</v>
@@ -7792,7 +7792,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>WWp90WXG</t>
+          <t>zJAvMrif</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -7802,65 +7802,65 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>2.72</v>
       </c>
       <c r="H41" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L41" t="n">
         <v>3.25</v>
       </c>
-      <c r="I41" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K41" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.9</v>
-      </c>
       <c r="M41" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="O41" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="P41" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="R41" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="S41" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="T41" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="U41" t="n">
         <v>1.65</v>
@@ -7869,31 +7869,31 @@
         <v>2.12</v>
       </c>
       <c r="W41" t="n">
-        <v>11</v>
+        <v>8.75</v>
       </c>
       <c r="X41" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z41" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AA41" t="n">
         <v>24</v>
       </c>
       <c r="AB41" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="AD41" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="AE41" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF41" t="n">
         <v>50</v>
@@ -7902,34 +7902,34 @@
         <v>350</v>
       </c>
       <c r="AH41" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AI41" t="n">
-        <v>11.25</v>
+        <v>14.5</v>
       </c>
       <c r="AJ41" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AK41" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP41" t="n">
         <v>22</v>
       </c>
-      <c r="AL41" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ41" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AR41" t="n">
         <v>110</v>
@@ -7938,25 +7938,25 @@
         <v>300</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="AU41" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AV41" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW41" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="AX41" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AY41" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ41" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="BA41" t="n">
         <v>90</v>
@@ -7974,7 +7974,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4tmXLw0f</t>
+          <t>C2Wb8aSO</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -7984,179 +7984,179 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Vaduz</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.67</v>
+        <v>3.2</v>
       </c>
       <c r="H42" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
         <v>2.35</v>
       </c>
       <c r="J42" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="K42" t="n">
+        <v>2</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N42" t="n">
+        <v>8</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q42" t="n">
         <v>2.3</v>
       </c>
-      <c r="L42" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N42" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.5</v>
-      </c>
       <c r="R42" t="n">
-        <v>2.42</v>
+        <v>1.6</v>
       </c>
       <c r="S42" t="n">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="T42" t="n">
-        <v>3.3</v>
+        <v>2.38</v>
       </c>
       <c r="U42" t="n">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="V42" t="n">
-        <v>2.65</v>
+        <v>1.73</v>
       </c>
       <c r="W42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X42" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX42" t="n">
         <v>13</v>
       </c>
-      <c r="X42" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>150</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>37</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>11.75</v>
-      </c>
       <c r="AY42" t="n">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="AZ42" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="BA42" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="BB42" t="n">
-        <v>150</v>
+        <v>251</v>
       </c>
       <c r="BC42" t="n">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="BD42" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>jPRoB7i2</t>
+          <t>WWp90WXG</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8166,173 +8166,719 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Schaffhausen</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.85</v>
+        <v>3.05</v>
       </c>
       <c r="H43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J43" t="n">
         <v>3.6</v>
       </c>
-      <c r="I43" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2.5</v>
-      </c>
       <c r="K43" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L43" t="n">
-        <v>4.75</v>
+        <v>2.87</v>
       </c>
       <c r="M43" t="n">
         <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="O43" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="P43" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="R43" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="S43" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T43" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="U43" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="V43" t="n">
-        <v>1.83</v>
+        <v>2.15</v>
       </c>
       <c r="W43" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="X43" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="Y43" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AA43" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AB43" t="n">
         <v>29</v>
       </c>
       <c r="AC43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4tmXLw0f</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Stade Nyonnais</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Vaduz</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N44" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T44" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W44" t="n">
+        <v>13</v>
+      </c>
+      <c r="X44" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>37</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>I9vg4EYi</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Etoile-Carouge</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Bellinzona</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N45" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W45" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="X45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO45" t="n">
         <v>9.5</v>
       </c>
-      <c r="AD43" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE43" t="n">
+      <c r="AP45" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>AHd02h34</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Xamax</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Thun</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N46" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W46" t="n">
+        <v>12</v>
+      </c>
+      <c r="X46" t="n">
         <v>17</v>
       </c>
-      <c r="AF43" t="n">
+      <c r="Y46" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>175</v>
+      </c>
+      <c r="BC46" t="n">
         <v>51</v>
       </c>
-      <c r="AG43" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR43" t="n">
+      <c r="BD46" t="n">
         <v>51</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY43" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA43" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB43" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC43" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD43" t="n">
-        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD44"/>
+  <dimension ref="A1:BD38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
         <v>2.1</v>
@@ -762,13 +762,13 @@
         <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -789,13 +789,13 @@
         <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
         <v>7.5</v>
@@ -804,13 +804,13 @@
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
         <v>12</v>
@@ -834,10 +834,10 @@
         <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
@@ -846,7 +846,7 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
         <v>8</v>
@@ -1126,7 +1126,7 @@
         <v>3.4</v>
       </c>
       <c r="L4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1135,10 +1135,10 @@
         <v>29</v>
       </c>
       <c r="O4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q4" t="n">
         <v>1.29</v>
@@ -1153,22 +1153,22 @@
         <v>5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V4" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
         <v>13</v>
       </c>
       <c r="X4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA4" t="n">
         <v>10</v>
@@ -1177,10 +1177,10 @@
         <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
         <v>29</v>
@@ -1207,16 +1207,16 @@
         <v>81</v>
       </c>
       <c r="AM4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO4" t="n">
         <v>4.75</v>
       </c>
       <c r="AP4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ4" t="n">
         <v>9.5</v>
@@ -1231,7 +1231,7 @@
         <v>5</v>
       </c>
       <c r="AU4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
@@ -1246,13 +1246,13 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BA4" t="n">
         <v>201</v>
       </c>
       <c r="BB4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC4" t="n">
         <v>501</v>
@@ -1438,7 +1438,7 @@
         <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
@@ -2172,7 +2172,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>67AJBzUa</t>
+          <t>2ZqDkyW1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2182,131 +2182,131 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Aarhus</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
+        <v>13</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W10" t="n">
+        <v>12</v>
+      </c>
+      <c r="X10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y10" t="n">
         <v>11</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>8</v>
-      </c>
-      <c r="X10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9</v>
-      </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AB10" t="n">
         <v>26</v>
       </c>
       <c r="AC10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH10" t="n">
         <v>10</v>
       </c>
-      <c r="AD10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>11</v>
-      </c>
       <c r="AI10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL10" t="n">
         <v>17</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>26</v>
-      </c>
       <c r="AM10" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
@@ -2315,37 +2315,37 @@
         <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AY10" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BB10" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BC10" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>
@@ -2354,7 +2354,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>QyiE2k1E</t>
+          <t>6ZSMMiNi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2364,179 +2364,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.1</v>
+        <v>2.35</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1.73</v>
+        <v>2.88</v>
       </c>
       <c r="J11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P11" t="n">
         <v>4.33</v>
       </c>
-      <c r="K11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="Q11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V11" t="n">
         <v>2.25</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="W11" t="n">
+        <v>10</v>
+      </c>
+      <c r="X11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP11" t="n">
         <v>19</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W11" t="n">
-        <v>17</v>
-      </c>
-      <c r="X11" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
         <v>126</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
         <v>41</v>
       </c>
       <c r="AW11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX11" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AY11" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ11" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC11" t="n">
         <v>81</v>
       </c>
-      <c r="BC11" t="n">
-        <v>351</v>
-      </c>
       <c r="BD11" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>lzdggoO0</t>
+          <t>ERQyalVp</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2546,95 +2546,95 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hvidovre IF</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.67</v>
+        <v>3.2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>2.35</v>
       </c>
       <c r="J12" t="n">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="K12" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="S12" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T12" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V12" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
         <v>8</v>
       </c>
-      <c r="Y12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>11</v>
-      </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
         <v>15</v>
@@ -2643,82 +2643,82 @@
         <v>51</v>
       </c>
       <c r="AG12" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS12" t="n">
         <v>201</v>
       </c>
-      <c r="AH12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO12" t="n">
+      <c r="AT12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU12" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY12" t="n">
         <v>26</v>
       </c>
-      <c r="AY12" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ12" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA12" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB12" t="n">
         <v>201</v>
       </c>
       <c r="BC12" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD12" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>hnwjHv9a</t>
+          <t>21MVKVi4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2728,173 +2728,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.35</v>
+        <v>1.95</v>
       </c>
       <c r="H13" t="n">
-        <v>4.15</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>10.25</v>
+        <v>3.7</v>
       </c>
       <c r="J13" t="n">
-        <v>1.78</v>
+        <v>2.63</v>
       </c>
       <c r="K13" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>2.85</v>
+        <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="R13" t="n">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="U13" t="n">
-        <v>2.55</v>
+        <v>1.73</v>
       </c>
       <c r="V13" t="n">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>4.9</v>
+        <v>7.5</v>
       </c>
       <c r="X13" t="n">
-        <v>5.2</v>
+        <v>9.5</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>7.7</v>
+        <v>17</v>
       </c>
       <c r="AA13" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AB13" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="AC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD13" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AE13" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AI13" t="n">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="AK13" t="n">
-        <v>400</v>
+        <v>41</v>
       </c>
       <c r="AL13" t="n">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="AM13" t="n">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="AN13" t="n">
-        <v>2.95</v>
+        <v>4</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.8</v>
+        <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AR13" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AS13" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV13" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>10.25</v>
+        <v>5.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="AY13" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="AZ13" t="n">
-        <v>500</v>
+        <v>67</v>
       </c>
       <c r="BA13" t="n">
-        <v>500</v>
-      </c>
-      <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr"/>
-      <c r="BD13" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2ZqDkyW1</t>
+          <t>ths5ZU6c</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2904,179 +2910,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="K14" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L14" t="n">
         <v>2.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
+        <v>8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y14" t="n">
         <v>13</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W14" t="n">
-        <v>12</v>
-      </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
         <v>17</v>
       </c>
-      <c r="Y14" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>12</v>
-      </c>
       <c r="AF14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AH14" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AJ14" t="n">
         <v>9</v>
       </c>
       <c r="AK14" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AL14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM14" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AN14" t="n">
         <v>5.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AP14" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AQ14" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR14" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS14" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="AU14" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AX14" t="n">
         <v>12</v>
       </c>
       <c r="AY14" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ14" t="n">
         <v>41</v>
       </c>
       <c r="BA14" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB14" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC14" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="BD14" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6ZSMMiNi</t>
+          <t>0d4IBREj</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3096,157 +3102,157 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Pau FC</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="H15" t="n">
         <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P15" t="n">
         <v>3.5</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N15" t="n">
-        <v>13</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4.33</v>
-      </c>
       <c r="Q15" t="n">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="R15" t="n">
-        <v>2.15</v>
+        <v>1.88</v>
       </c>
       <c r="S15" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T15" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U15" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="W15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC15" t="n">
         <v>10</v>
-      </c>
-      <c r="X15" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>13</v>
       </c>
       <c r="AD15" t="n">
         <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="AH15" t="n">
         <v>12</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL15" t="n">
         <v>34</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP15" t="n">
         <v>21</v>
       </c>
-      <c r="AM15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR15" t="n">
         <v>51</v>
       </c>
       <c r="AS15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB15" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -3258,7 +3264,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ERQyalVp</t>
+          <t>xCG1Debm</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3278,31 +3284,31 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Troyes</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="K16" t="n">
         <v>2.05</v>
       </c>
       <c r="L16" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
@@ -3329,28 +3335,28 @@
         <v>2.5</v>
       </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W16" t="n">
+        <v>7</v>
+      </c>
+      <c r="X16" t="n">
         <v>9.5</v>
       </c>
-      <c r="X16" t="n">
-        <v>17</v>
-      </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC16" t="n">
         <v>8</v>
@@ -3365,43 +3371,43 @@
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI16" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AL16" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AM16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AP16" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR16" t="n">
         <v>67</v>
       </c>
-      <c r="AR16" t="n">
-        <v>101</v>
-      </c>
       <c r="AS16" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT16" t="n">
         <v>2.5</v>
@@ -3413,22 +3419,22 @@
         <v>67</v>
       </c>
       <c r="AW16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ16" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB16" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC16" t="n">
         <v>81</v>
@@ -3440,7 +3446,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>21MVKVi4</t>
+          <t>trGTwN7k</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3450,167 +3456,167 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>ITALY - SERIE B</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="H17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J17" t="n">
         <v>3.5</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L17" t="n">
         <v>3.5</v>
       </c>
-      <c r="J17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4</v>
-      </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
+        <v>7</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y17" t="n">
         <v>11</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2</v>
-      </c>
-      <c r="W17" t="n">
-        <v>8</v>
-      </c>
-      <c r="X17" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>9</v>
-      </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AA17" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AB17" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="AH17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>11</v>
       </c>
-      <c r="AI17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>12</v>
-      </c>
       <c r="AK17" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AL17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP17" t="n">
         <v>29</v>
       </c>
-      <c r="AM17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ17" t="n">
         <v>51</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>67</v>
       </c>
       <c r="BA17" t="n">
         <v>81</v>
       </c>
       <c r="BB17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC17" t="n">
         <v>81</v>
@@ -3622,7 +3628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ths5ZU6c</t>
+          <t>rFQdpvqJ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3637,174 +3643,170 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>COD Meknes</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="K18" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="R18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.67</v>
       </c>
-      <c r="S18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W18" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="X18" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Z18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB18" t="n">
         <v>34</v>
       </c>
-      <c r="AA18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>41</v>
-      </c>
       <c r="AC18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD18" t="n">
         <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG18" t="n">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI18" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO18" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AP18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR18" t="n">
         <v>67</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>101</v>
       </c>
       <c r="AS18" t="n">
         <v>251</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
         <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AY18" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ18" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA18" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB18" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>81</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0d4IBREj</t>
+          <t>dK16TRZa</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3819,174 +3821,174 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pau FC</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N19" t="n">
+        <v>19</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P19" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U19" t="n">
         <v>1.8</v>
       </c>
-      <c r="H19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="V19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA19" t="n">
         <v>10</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W19" t="n">
-        <v>7</v>
-      </c>
-      <c r="X19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>15</v>
-      </c>
       <c r="AB19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AJ19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP19" t="n">
         <v>15</v>
       </c>
-      <c r="AK19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL19" t="n">
+      <c r="AQ19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR19" t="n">
         <v>34</v>
       </c>
-      <c r="AM19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN19" t="n">
+      <c r="AS19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT19" t="n">
         <v>3.75</v>
       </c>
-      <c r="AO19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.75</v>
-      </c>
       <c r="AU19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV19" t="n">
         <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AY19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ19" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BA19" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB19" t="n">
         <v>201</v>
       </c>
       <c r="BC19" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD19" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>xCG1Debm</t>
+          <t>IZkFR54C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4001,174 +4003,174 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Troyes</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="J20" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
+        <v>15</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W20" t="n">
+        <v>15</v>
+      </c>
+      <c r="X20" t="n">
+        <v>21</v>
+      </c